--- a/data/monitors.xlsx
+++ b/data/monitors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chandradeep/Desktop/MS/FrogAI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C313A71B-3D00-B748-96E6-9AFCCAAF735E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6338F400-6CAB-C44F-851D-D2FB9FB1A865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23040" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="207">
   <si>
     <t>name</t>
   </si>
@@ -97,9 +97,6 @@
     <t>VRR+HDR flickering and other firmware issues</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://tftcentral.co.uk/reviews/cooler-master-tempest-gp27q https://www.youtube.com/watch?v=G6MS45GqcJ4</t>
-  </si>
-  <si>
     <t>CoolerMaster GP27U</t>
   </si>
   <si>
@@ -115,18 +112,12 @@
     <t>VRR+HDR flickering</t>
   </si>
   <si>
-    <t>https://www.rtings.com/monitor/reviews/cooler-master/tempest-gp27u https://www.youtube.com/watch?v=z9tLaKdOdkQ</t>
-  </si>
-  <si>
     <t>KTC M27P20 Pro</t>
   </si>
   <si>
     <t>likely buggy firmware</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://www.youtube.com/watch?v=xINKVAGOiAs</t>
-  </si>
-  <si>
     <t>Innocn 27M2V</t>
   </si>
   <si>
@@ -136,9 +127,6 @@
     <t>somewhat buggy firmware and reports of coil whine</t>
   </si>
   <si>
-    <t>https://chimolog.co/bto-gaming-monitor-innocn-27m2v/</t>
-  </si>
-  <si>
     <t>Innocn 32M2V</t>
   </si>
   <si>
@@ -151,18 +139,12 @@
     <t>somewhat buggy firmware</t>
   </si>
   <si>
-    <t>https://chimolog.co/bto-gaming-monitor-innocn-32m2v/</t>
-  </si>
-  <si>
     <t>Nubia RedMagic 4K</t>
   </si>
   <si>
     <t>reports of coil whine</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=AHJ0yUUuPkE</t>
-  </si>
-  <si>
     <t>Dell S2522HG</t>
   </si>
   <si>
@@ -181,30 +163,18 @@
     <t>1060_6gb</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=PPN-6EJs3Q4</t>
-  </si>
-  <si>
     <t>KTC H27T22</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://www.youtube.com/watch?v=zXeOjYRPj08</t>
-  </si>
-  <si>
     <t>MSI G273Q(P)F</t>
   </si>
   <si>
     <t>P variant has adjustable stand</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://www.rtings.com/monitor/reviews/msi/optix-g273qf https://www.youtube.com/watch?v=nnsstM_3a00 </t>
-  </si>
-  <si>
     <t>Dell S2721DGF</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://www.rtings.com/monitor/reviews/dell/s2721dgf https://www.youtube.com/watch?v=D3vbqyjgPpY</t>
-  </si>
-  <si>
     <t>Gigabyte M34WQ</t>
   </si>
   <si>
@@ -217,18 +187,12 @@
     <t>ultrawide</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://www.rtings.com/monitor/reviews/gigabyte/m34wq https://www.youtube.com/watch?v=pxEHORnt-Pc</t>
-  </si>
-  <si>
     <t>Gigabyte M32Q</t>
   </si>
   <si>
     <t>170hz</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://www.rtings.com/monitor/reviews/gigabyte/m32q https://www.youtube.com/watch?v=tS7HYqepUZI </t>
-  </si>
-  <si>
     <t>MSI MAG274QRF(-QD)</t>
   </si>
   <si>
@@ -238,24 +202,15 @@
     <t>non QD version is similar except for Adobe RGB coverage</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://www.youtube.com/watch?v=i3X3yFh0-gE https://www.rtings.com/monitor/reviews/msi/optix-mag274qrf-qd</t>
-  </si>
-  <si>
     <t>LG 27GP850/27GP83B</t>
   </si>
   <si>
     <t>180hz</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://www.rtings.com/monitor/reviews/lg/27gp850-b-27gp83b-b </t>
-  </si>
-  <si>
     <t>LG 34GP83A/34GN850/34GP950G</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://www.rtings.com/monitor/reviews/lg/34gp83a-b </t>
-  </si>
-  <si>
     <t>Dell AW3821DW</t>
   </si>
   <si>
@@ -265,75 +220,48 @@
     <t>38"</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://www.rtings.com/monitor/reviews/dell/alienware-aw3821dw </t>
-  </si>
-  <si>
     <t>Gigabyte M27Q-X</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://www.rtings.com/monitor/reviews/gigabyte/m27q-x https://www.youtube.com/watch?v=dDPq0uHNTyo https://www.youtube.com/watch?v=x6dHt4nXZ-Q</t>
-  </si>
-  <si>
     <t>Dell AW2723DF</t>
   </si>
   <si>
     <t>280hz</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://www.rtings.com/monitor/reviews/dell/alienware-aw2723df https://www.youtube.com/watch?v=q-xF3uHQKm4</t>
-  </si>
-  <si>
     <t>Dell AW2721D</t>
   </si>
   <si>
     <t>brighter than 23DF and has Gsync module but more overshoot</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://www.rtings.com/monitor/tools/compare/dell-alienware-aw2721d-vs-dell-alienware-aw2723df/20236/34684?usage=3623&amp;threshold=0.10 </t>
-  </si>
-  <si>
     <t>Asus PG279QM</t>
   </si>
   <si>
     <t>GSync module; best in class</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://www.youtube.com/watch?v=Th3LLfm7nl0 https://www.rtings.com/monitor/reviews/asus/rog-swift-pg279qm</t>
-  </si>
-  <si>
     <t>Asus PG27AQN</t>
   </si>
   <si>
     <t>360hz</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://www.rtings.com/monitor/reviews/asus/rog-swift-360hz-pg27aqn https://www.youtube.com/watch?v=eYFtLBM3a78</t>
-  </si>
-  <si>
     <t>Dell S2722DGM</t>
   </si>
   <si>
     <t>VA</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://www.rtings.com/monitor/reviews/dell/s2722dgm</t>
-  </si>
-  <si>
     <t>Dell S3222DGM</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://www.rtings.com/monitor/reviews/dell/s3222dgm</t>
-  </si>
-  <si>
     <t>Dell S3221QS</t>
   </si>
   <si>
     <t>60hz</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://www.rtings.com/monitor/reviews/dell/s3221qs</t>
-  </si>
-  <si>
     <t>Dell S3422DWG</t>
   </si>
   <si>
@@ -343,9 +271,6 @@
     <t>surprisingly good uniformity for budget VA</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://www.rtings.com/monitor/reviews/dell/s3422dwg</t>
-  </si>
-  <si>
     <t>KTC M27T20</t>
   </si>
   <si>
@@ -361,36 +286,21 @@
     <t>bandwidth not enough for ps5</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://www.rtings.com/monitor/reviews/gigabyte/m28u https://www.youtube.com/watch?v=xnJjuQdQiyo </t>
-  </si>
-  <si>
     <t>Asus VG28UQL1A</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://www.youtube.com/watch?v=o-QABQ7c-Fk</t>
-  </si>
-  <si>
     <t>Gigabyte M32U</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://www.rtings.com/monitor/reviews/gigabyte/m32u </t>
-  </si>
-  <si>
     <t>Gigabyte M32UC</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://www.rtings.com/monitor/reviews/gigabyte/m32uc</t>
-  </si>
-  <si>
     <t>Innocn 27M2U</t>
   </si>
   <si>
     <t>IPS miniLED 384 zones</t>
   </si>
   <si>
-    <t>https://chimolog.co/bto-gaming-monitor-innocn-m2u/</t>
-  </si>
-  <si>
     <t>Asus PA32UCG-K</t>
   </si>
   <si>
@@ -406,9 +316,6 @@
     <t>IPS FALD 576 zones</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://www.youtube.com/watch?v=rtd7UzLJHrU</t>
-  </si>
-  <si>
     <t>LG 27GR95QE</t>
   </si>
   <si>
@@ -418,24 +325,15 @@
     <t>heavy matte coating</t>
   </si>
   <si>
-    <t>https://www.rtings.com/monitor/reviews/lg/27gr95qe-b https://www.youtube.com/watch?v=2YBJFYGtmQk</t>
-  </si>
-  <si>
     <t>Asus PG27AQDM</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://www.youtube.com/watch?v=R0AkfhZp70w</t>
-  </si>
-  <si>
     <t>LG 45GR95QE</t>
   </si>
   <si>
     <t>heavy matte coating + low ppi</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://www.rtings.com/monitor/reviews/lg/45gr95qe-b</t>
-  </si>
-  <si>
     <t>Alienware AW3423DWF</t>
   </si>
   <si>
@@ -448,24 +346,15 @@
     <t>Broken HDR(might be fixed by firmware)</t>
   </si>
   <si>
-    <t>https://www.rtings.com/monitor/reviews/dell/alienware-aw3423dwf https://www.youtube.com/watch?v=b0aLF3KVOTQ</t>
-  </si>
-  <si>
     <t>Alienware AW3423DW</t>
   </si>
   <si>
-    <t>https://www.rtings.com/monitor/reviews/dell/alienware-aw3423dw https://www.youtube.com/watch?v=YleSuwK8vR4</t>
-  </si>
-  <si>
     <t>LG 32ep950</t>
   </si>
   <si>
     <t>Inkjet OLED</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://www.youtube.com/watch?v=5A0S1wDwR3k</t>
-  </si>
-  <si>
     <t>Asus PA32DC</t>
   </si>
   <si>
@@ -493,9 +382,6 @@
     <t>great strobing</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://www.rtings.com/monitor/reviews/viewsonic/xg2431 https://www.youtube.com/watch?v=TdTwRDa9URo</t>
-  </si>
-  <si>
     <t>Acer AOPEN 25XV2Q</t>
   </si>
   <si>
@@ -505,9 +391,6 @@
     <t>decent with strobing only</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://www.youtube.com/watch?v=x7PDKjUhi_I</t>
-  </si>
-  <si>
     <t>BenQ XL2566K</t>
   </si>
   <si>
@@ -517,18 +400,12 @@
     <t>best-in-class strobing with few artifacts and cross talk; buy only if you can run at 360hz</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://www.youtube.com/watch?v=ts_O8pFgYQg https://www.rtings.com/monitor/reviews/benq/zowie-xl2566k</t>
-  </si>
-  <si>
     <t>Dell AW2524H</t>
   </si>
   <si>
     <t>500hz</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://www.youtube.com/watch?v=Ewo8tt6bgZU</t>
-  </si>
-  <si>
     <t>Dell S2721D(S)</t>
   </si>
   <si>
@@ -538,15 +415,9 @@
     <t>S variant has adjustable stand</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://www.rtings.com/monitor/reviews/dell/s2721d</t>
-  </si>
-  <si>
     <t>Dell S2721Q(S)</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://www.rtings.com/monitor/reviews/dell/s2721qs</t>
-  </si>
-  <si>
     <t>Dell S2722QC</t>
   </si>
   <si>
@@ -592,9 +463,6 @@
     <t>type-c and ethernet hub with 90W charging</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://www.rtings.com/monitor/reviews/dell/u2723qe</t>
-  </si>
-  <si>
     <t>Asus PA329CV</t>
   </si>
   <si>
@@ -604,12 +472,6 @@
     <t>type-c and ethernet hub with 90W charging; slightly higher contrast than regular IPS</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://www.rtings.com/monitor/reviews/dell/u3223qe</t>
-  </si>
-  <si>
-    <t>LG UlraFine 5K</t>
-  </si>
-  <si>
     <t>5120x2880p</t>
   </si>
   <si>
@@ -625,9 +487,6 @@
     <t xml:space="preserve"> type-c hub with 96W charging and factory calibrated and glossy</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://www.rtings.com/monitor/reviews/apple/studio-display</t>
-  </si>
-  <si>
     <t>hardware calibration + massive heatsink for sustained brightness + type-c hub</t>
   </si>
   <si>
@@ -635,6 +494,153 @@
   </si>
   <si>
     <t>hardware calibration + sdr only + massive heatsink for sustained brightness + type-c hub</t>
+  </si>
+  <si>
+    <t>TFTCentral,https://tftcentral.co.uk/reviews/cooler-master-tempest-gp27q;Hardware Unboxed,https://www.youtube.com/watch?v=G6MS45GqcJ4</t>
+  </si>
+  <si>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/cooler-master/tempest-gp27u;Hardware Unboxed,https://www.youtube.com/watch?v=z9tLaKdOdkQ</t>
+  </si>
+  <si>
+    <t>techless,https://www.youtube.com/watch?v=xINKVAGOiAs</t>
+  </si>
+  <si>
+    <t>Snowman,https://www.youtube.com/watch?v=AHJ0yUUuPkE</t>
+  </si>
+  <si>
+    <t>Chimolog,https://chimolog.co/bto-gaming-monitor-innocn-27m2v/</t>
+  </si>
+  <si>
+    <t>Chimolog,https://chimolog.co/bto-gaming-monitor-innocn-32m2v/</t>
+  </si>
+  <si>
+    <t>Bijan Jamshidi,https://www.youtube.com/watch?v=PPN-6EJs3Q4</t>
+  </si>
+  <si>
+    <t>techless,https://www.youtube.com/watch?v=zXeOjYRPj08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTINGS,https://www.rtings.com/monitor/reviews/msi/optix-g273qf;techless,https://www.youtube.com/watch?v=nnsstM_3a00 </t>
+  </si>
+  <si>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/s2721dgf;Hardware Unboxed,https://www.youtube.com/watch?v=D3vbqyjgPpY;techless,https://www.youtube.com/watch?v=RQ2b6nCPK_4</t>
+  </si>
+  <si>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/gigabyte/m34wq;Hardware Unboxed,https://www.youtube.com/watch?v=pxEHORnt-Pc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTINGS,https://www.rtings.com/monitor/reviews/gigabyte/m32q;Hardware Unboxed,https://www.youtube.com/watch?v=tS7HYqepUZI </t>
+  </si>
+  <si>
+    <t>Hardware Unboxed,https://www.youtube.com/watch?v=i3X3yFh0-gE;RTINGS,https://www.rtings.com/monitor/reviews/msi/optix-mag274qrf-qd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTINGS,https://www.rtings.com/monitor/reviews/lg/34gp83a-b </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTINGS,https://www.rtings.com/monitor/reviews/lg/27gp850-b-27gp83b-b;Hardware Unboxed,https://www.youtube.com/watch?v=ItPCOFR5xuU;Hardware unboxed,https://www.youtube.com/watch?v=aHh91RvpR3k </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTINGS,https://www.rtings.com/monitor/reviews/dell/alienware-aw3821dw </t>
+  </si>
+  <si>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/s2722dgm</t>
+  </si>
+  <si>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/s3222dgm</t>
+  </si>
+  <si>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/s3221qs</t>
+  </si>
+  <si>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/s3422dwg</t>
+  </si>
+  <si>
+    <t>RTINGS,https://www.youtube.com/watch?v=xINKVAGOiAs</t>
+  </si>
+  <si>
+    <t>RTINGS,https://www.youtube.com/watch?v=o-QABQ7c-Fk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTINGS,https://www.rtings.com/monitor/reviews/gigabyte/m32u </t>
+  </si>
+  <si>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/gigabyte/m32uc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTINGS,https://www.rtings.com/monitor/reviews/gigabyte/m28u;Hardware Unboxed,https://www.youtube.com/watch?v=xnJjuQdQiyo </t>
+  </si>
+  <si>
+    <t>Chimolog,https://chimolog.co/bto-gaming-monitor-innocn-m2u/</t>
+  </si>
+  <si>
+    <t>HDTVTest,https://www.youtube.com/watch?v=rtd7UzLJHrU</t>
+  </si>
+  <si>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/lg/27gr95qe-b;Hardware Unboxed,https://www.youtube.com/watch?v=2YBJFYGtmQk</t>
+  </si>
+  <si>
+    <t>Hardware Unboxed,https://www.youtube.com/watch?v=R0AkfhZp70w</t>
+  </si>
+  <si>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/lg/45gr95qe-b</t>
+  </si>
+  <si>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/alienware-aw3423dwf;Hardware Unboxed,https://www.youtube.com/watch?v=b0aLF3KVOTQ</t>
+  </si>
+  <si>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/alienware-aw3423dw;Hardware Unboxed,https://www.youtube.com/watch?v=YleSuwK8vR4</t>
+  </si>
+  <si>
+    <t>Techtesters,https://www.youtube.com/watch?v=5A0S1wDwR3k</t>
+  </si>
+  <si>
+    <t>Teoh on Tech,https://www.youtube.com/watch?v=kPBZPfEfA9Y</t>
+  </si>
+  <si>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/u2723qe</t>
+  </si>
+  <si>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/u3223qe</t>
+  </si>
+  <si>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/apple/studio-display</t>
+  </si>
+  <si>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/s2721qs</t>
+  </si>
+  <si>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/s2721d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTINGS,https://www.rtings.com/monitor/tools/compare/dell-alienware-aw2721d-vs-dell-alienware-aw2723df/20236/34684?usage=3623&amp;threshold=0.10 </t>
+  </si>
+  <si>
+    <t>LTT,https://www.youtube.com/watch?v=Ewo8tt6bgZU</t>
+  </si>
+  <si>
+    <t>Bijan Jamshidi,https://www.youtube.com/watch?v=ts_O8pFgYQg;RTINGS,https://www.rtings.com/monitor/reviews/benq/zowie-xl2566k</t>
+  </si>
+  <si>
+    <t>techless,https://www.youtube.com/watch?v=x7PDKjUhi_I</t>
+  </si>
+  <si>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/viewsonic/xg2431;Bijan Jamshidi,https://www.youtube.com/watch?v=TdTwRDa9URo</t>
+  </si>
+  <si>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/asus/rog-swift-360hz-pg27aqn;Hardware Unboxed,https://www.youtube.com/watch?v=eYFtLBM3a78</t>
+  </si>
+  <si>
+    <t>Hardware Unboxed,https://www.youtube.com/watch?v=Th3LLfm7nl0;RTINGS,https://www.rtings.com/monitor/reviews/asus/rog-swift-pg279qm</t>
+  </si>
+  <si>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/alienware-aw2723df;techless,https://www.youtube.com/watch?v=q-xF3uHQKm4</t>
+  </si>
+  <si>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/gigabyte/m27q-x;Hardware Unboxed,https://www.youtube.com/watch?v=dDPq0uHNTyo https://www.youtube.com/watch?v=x6dHt4nXZ-Q</t>
+  </si>
+  <si>
+    <t>LG UltraFine 5K</t>
   </si>
 </sst>
 </file>
@@ -1000,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="125" workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1107,12 +1113,12 @@
         <v>24</v>
       </c>
       <c r="P2" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -1124,10 +1130,10 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
         <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
@@ -1139,30 +1145,30 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" t="s">
         <v>29</v>
       </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" t="s">
-        <v>30</v>
-      </c>
       <c r="P3" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -1174,10 +1180,10 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
         <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -1189,7 +1195,7 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K4" t="s">
         <v>21</v>
@@ -1204,15 +1210,15 @@
         <v>23</v>
       </c>
       <c r="O4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P4" t="s">
-        <v>34</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -1224,13 +1230,13 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
         <v>20</v>
@@ -1239,7 +1245,7 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5" t="s">
         <v>21</v>
@@ -1254,15 +1260,15 @@
         <v>23</v>
       </c>
       <c r="O5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="P5" t="s">
-        <v>38</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -1274,22 +1280,22 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I6">
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" t="s">
         <v>21</v>
@@ -1304,15 +1310,15 @@
         <v>23</v>
       </c>
       <c r="O6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="P6" t="s">
-        <v>43</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -1324,13 +1330,13 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
         <v>20</v>
@@ -1339,7 +1345,7 @@
         <v>870</v>
       </c>
       <c r="J7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7" t="s">
         <v>21</v>
@@ -1354,15 +1360,15 @@
         <v>23</v>
       </c>
       <c r="O7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P7" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1374,22 +1380,22 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I8">
         <v>150</v>
       </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K8" t="s">
         <v>21</v>
@@ -1407,12 +1413,12 @@
         <v>21</v>
       </c>
       <c r="P8" t="s">
-        <v>53</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>4.5</v>
@@ -1430,7 +1436,7 @@
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
         <v>20</v>
@@ -1457,12 +1463,12 @@
         <v>21</v>
       </c>
       <c r="P9" t="s">
-        <v>55</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B10">
         <v>4.75</v>
@@ -1480,7 +1486,7 @@
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s">
         <v>20</v>
@@ -1504,15 +1510,15 @@
         <v>23</v>
       </c>
       <c r="O10" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="P10" t="s">
-        <v>58</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -1530,7 +1536,7 @@
         <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
         <v>20</v>
@@ -1557,12 +1563,12 @@
         <v>21</v>
       </c>
       <c r="P11" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -1574,16 +1580,16 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="I12">
         <v>380</v>
@@ -1601,18 +1607,18 @@
         <v>21</v>
       </c>
       <c r="N12" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="O12" t="s">
         <v>21</v>
       </c>
       <c r="P12" t="s">
-        <v>65</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -1627,13 +1633,13 @@
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I13">
         <v>400</v>
@@ -1657,12 +1663,12 @@
         <v>21</v>
       </c>
       <c r="P13" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -1680,7 +1686,7 @@
         <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s">
         <v>20</v>
@@ -1689,7 +1695,7 @@
         <v>420</v>
       </c>
       <c r="J14" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="K14" t="s">
         <v>21</v>
@@ -1704,15 +1710,15 @@
         <v>23</v>
       </c>
       <c r="O14" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="P14" t="s">
-        <v>72</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -1727,10 +1733,10 @@
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H15" t="s">
         <v>20</v>
@@ -1757,12 +1763,12 @@
         <v>21</v>
       </c>
       <c r="P15" t="s">
-        <v>75</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -1774,16 +1780,16 @@
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H16" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="I16">
         <v>750</v>
@@ -1801,18 +1807,18 @@
         <v>21</v>
       </c>
       <c r="N16" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="O16" t="s">
         <v>21</v>
       </c>
       <c r="P16" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B17">
         <v>3.5</v>
@@ -1824,16 +1830,16 @@
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="I17">
         <v>1000</v>
@@ -1851,18 +1857,18 @@
         <v>21</v>
       </c>
       <c r="N17" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="O17" t="s">
         <v>21</v>
       </c>
       <c r="P17" t="s">
-        <v>81</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -1877,10 +1883,10 @@
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s">
         <v>20</v>
@@ -1907,12 +1913,12 @@
         <v>21</v>
       </c>
       <c r="P18" t="s">
-        <v>83</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B19">
         <v>7</v>
@@ -1927,10 +1933,10 @@
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="G19" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H19" t="s">
         <v>20</v>
@@ -1957,12 +1963,12 @@
         <v>21</v>
       </c>
       <c r="P19" t="s">
-        <v>86</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B20">
         <v>7</v>
@@ -1977,10 +1983,10 @@
         <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G20" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H20" t="s">
         <v>20</v>
@@ -2004,15 +2010,15 @@
         <v>23</v>
       </c>
       <c r="O20" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="P20" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B21">
         <v>7.25</v>
@@ -2027,10 +2033,10 @@
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H21" t="s">
         <v>20</v>
@@ -2054,15 +2060,15 @@
         <v>23</v>
       </c>
       <c r="O21" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="P21" t="s">
-        <v>92</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B22">
         <v>9</v>
@@ -2077,10 +2083,10 @@
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H22" t="s">
         <v>20</v>
@@ -2104,15 +2110,15 @@
         <v>23</v>
       </c>
       <c r="O22" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="P22" t="s">
-        <v>95</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -2130,7 +2136,7 @@
         <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="H23" t="s">
         <v>20</v>
@@ -2157,12 +2163,12 @@
         <v>21</v>
       </c>
       <c r="P23" t="s">
-        <v>98</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="B24">
         <v>3.5</v>
@@ -2180,10 +2186,10 @@
         <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I24">
         <v>300</v>
@@ -2207,12 +2213,12 @@
         <v>21</v>
       </c>
       <c r="P24" t="s">
-        <v>100</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2224,16 +2230,16 @@
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F25" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I25">
         <v>350</v>
@@ -2257,12 +2263,12 @@
         <v>21</v>
       </c>
       <c r="P25" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B26">
         <v>3.5</v>
@@ -2274,22 +2280,22 @@
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="H26" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="I26">
         <v>450</v>
       </c>
       <c r="J26" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="K26" t="s">
         <v>22</v>
@@ -2301,18 +2307,18 @@
         <v>21</v>
       </c>
       <c r="N26" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="O26" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="P26" t="s">
-        <v>107</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="B27">
         <v>3.5</v>
@@ -2330,7 +2336,7 @@
         <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s">
         <v>20</v>
@@ -2357,12 +2363,12 @@
         <v>21</v>
       </c>
       <c r="P27" t="s">
-        <v>34</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="B28">
         <v>5</v>
@@ -2374,22 +2380,22 @@
         <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H28" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="I28">
         <v>600</v>
       </c>
       <c r="J28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K28" t="s">
         <v>21</v>
@@ -2404,15 +2410,15 @@
         <v>23</v>
       </c>
       <c r="O28" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>113</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="B29">
         <v>5</v>
@@ -2424,22 +2430,22 @@
         <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H29" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="I29">
         <v>600</v>
       </c>
       <c r="J29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K29" t="s">
         <v>21</v>
@@ -2457,12 +2463,12 @@
         <v>21</v>
       </c>
       <c r="P29" t="s">
-        <v>115</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -2474,22 +2480,22 @@
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H30" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I30">
         <v>650</v>
       </c>
       <c r="J30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K30" t="s">
         <v>21</v>
@@ -2504,15 +2510,15 @@
         <v>23</v>
       </c>
       <c r="O30" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>117</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -2524,22 +2530,22 @@
         <v>7</v>
       </c>
       <c r="E31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" t="s">
         <v>27</v>
       </c>
-      <c r="F31" t="s">
-        <v>28</v>
-      </c>
       <c r="G31" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="H31" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I31">
         <v>650</v>
       </c>
       <c r="J31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K31" t="s">
         <v>21</v>
@@ -2554,15 +2560,15 @@
         <v>23</v>
       </c>
       <c r="O31" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="P31" t="s">
-        <v>119</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2574,13 +2580,13 @@
         <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F32" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="H32" t="s">
         <v>20</v>
@@ -2589,7 +2595,7 @@
         <v>700</v>
       </c>
       <c r="J32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K32" t="s">
         <v>21</v>
@@ -2607,12 +2613,12 @@
         <v>21</v>
       </c>
       <c r="P32" t="s">
-        <v>122</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -2624,22 +2630,22 @@
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F33" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H33" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I33">
         <v>3000</v>
       </c>
       <c r="J33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K33" t="s">
         <v>21</v>
@@ -2654,7 +2660,7 @@
         <v>23</v>
       </c>
       <c r="O33" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="P33" t="s">
         <v>21</v>
@@ -2662,7 +2668,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2674,22 +2680,22 @@
         <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="F34" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="H34" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I34">
         <v>5000</v>
       </c>
       <c r="J34" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="K34" t="s">
         <v>21</v>
@@ -2704,15 +2710,15 @@
         <v>23</v>
       </c>
       <c r="O34" t="s">
-        <v>203</v>
+        <v>156</v>
       </c>
       <c r="P34" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="B35">
         <v>9</v>
@@ -2727,10 +2733,10 @@
         <v>17</v>
       </c>
       <c r="F35" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="H35" t="s">
         <v>20</v>
@@ -2739,7 +2745,7 @@
         <v>1000</v>
       </c>
       <c r="J35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K35" t="s">
         <v>21</v>
@@ -2754,15 +2760,15 @@
         <v>23</v>
       </c>
       <c r="O35" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="P35" t="s">
-        <v>132</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="B36">
         <v>9</v>
@@ -2777,10 +2783,10 @@
         <v>17</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G36" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="H36" t="s">
         <v>20</v>
@@ -2789,7 +2795,7 @@
         <v>1000</v>
       </c>
       <c r="J36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K36" t="s">
         <v>21</v>
@@ -2804,15 +2810,15 @@
         <v>23</v>
       </c>
       <c r="O36" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>134</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="B37">
         <v>9</v>
@@ -2824,13 +2830,13 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F37" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G37" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="H37" t="s">
         <v>20</v>
@@ -2839,7 +2845,7 @@
         <v>1700</v>
       </c>
       <c r="J37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K37" t="s">
         <v>22</v>
@@ -2851,18 +2857,18 @@
         <v>22</v>
       </c>
       <c r="N37" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="O37" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="P37" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="B38">
         <v>8</v>
@@ -2874,22 +2880,22 @@
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F38" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="G38" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="H38" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="I38">
         <v>1100</v>
       </c>
       <c r="J38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K38" t="s">
         <v>22</v>
@@ -2901,18 +2907,18 @@
         <v>21</v>
       </c>
       <c r="N38" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="O38" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B39">
         <v>8</v>
@@ -2924,22 +2930,22 @@
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F39" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="G39" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="H39" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="I39">
         <v>1140</v>
       </c>
       <c r="J39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K39" t="s">
         <v>22</v>
@@ -2951,21 +2957,21 @@
         <v>22</v>
       </c>
       <c r="N39" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="O39" t="s">
         <v>21</v>
       </c>
       <c r="P39" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C40">
         <v>7</v>
@@ -2974,22 +2980,22 @@
         <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F40" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="H40" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I40">
         <v>2800</v>
       </c>
       <c r="J40" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="K40" t="s">
         <v>21</v>
@@ -3004,18 +3010,18 @@
         <v>23</v>
       </c>
       <c r="O40" t="s">
-        <v>204</v>
+        <v>157</v>
       </c>
       <c r="P40" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C41">
         <v>7</v>
@@ -3024,22 +3030,22 @@
         <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F41" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="H41" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I41">
         <v>2800</v>
       </c>
       <c r="J41" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="K41" t="s">
         <v>21</v>
@@ -3054,7 +3060,7 @@
         <v>23</v>
       </c>
       <c r="O41" t="s">
-        <v>204</v>
+        <v>157</v>
       </c>
       <c r="P41" t="s">
         <v>21</v>
@@ -3062,7 +3068,7 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -3074,13 +3080,13 @@
         <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F42" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H42" t="s">
         <v>20</v>
@@ -3089,7 +3095,7 @@
         <v>500</v>
       </c>
       <c r="J42" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="K42" t="s">
         <v>21</v>
@@ -3104,15 +3110,15 @@
         <v>23</v>
       </c>
       <c r="O42" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -3124,22 +3130,22 @@
         <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F43" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H43" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I43">
         <v>1000</v>
       </c>
       <c r="J43" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="K43" t="s">
         <v>21</v>
@@ -3154,7 +3160,7 @@
         <v>23</v>
       </c>
       <c r="O43" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="P43" t="s">
         <v>21</v>
@@ -3162,7 +3168,7 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="B44">
         <v>8</v>
@@ -3174,22 +3180,22 @@
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F44" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H44" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="I44">
         <v>280</v>
       </c>
       <c r="J44" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K44" t="s">
         <v>21</v>
@@ -3204,15 +3210,15 @@
         <v>23</v>
       </c>
       <c r="O44" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="B45">
         <v>7</v>
@@ -3224,22 +3230,22 @@
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F45" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="G45" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H45" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I45">
         <v>300</v>
       </c>
       <c r="J45" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K45" t="s">
         <v>21</v>
@@ -3254,15 +3260,15 @@
         <v>23</v>
       </c>
       <c r="O45" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="B46">
         <v>9.5</v>
@@ -3274,22 +3280,22 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F46" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="G46" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="H46" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I46">
         <v>600</v>
       </c>
       <c r="J46" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K46" t="s">
         <v>21</v>
@@ -3304,15 +3310,15 @@
         <v>23</v>
       </c>
       <c r="O46" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="P46" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="B47">
         <v>9</v>
@@ -3324,22 +3330,22 @@
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F47" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="G47" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H47" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I47">
         <v>830</v>
       </c>
       <c r="J47" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K47" t="s">
         <v>21</v>
@@ -3357,12 +3363,12 @@
         <v>21</v>
       </c>
       <c r="P47" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -3377,10 +3383,10 @@
         <v>17</v>
       </c>
       <c r="F48" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="G48" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H48" t="s">
         <v>20</v>
@@ -3389,7 +3395,7 @@
         <v>250</v>
       </c>
       <c r="J48" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="K48" t="s">
         <v>21</v>
@@ -3404,15 +3410,15 @@
         <v>23</v>
       </c>
       <c r="O48" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="P48" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -3424,13 +3430,13 @@
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F49" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H49" t="s">
         <v>20</v>
@@ -3439,7 +3445,7 @@
         <v>300</v>
       </c>
       <c r="J49" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="K49" t="s">
         <v>21</v>
@@ -3454,15 +3460,15 @@
         <v>23</v>
       </c>
       <c r="O49" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="P49" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -3474,13 +3480,13 @@
         <v>8</v>
       </c>
       <c r="E50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F50" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H50" t="s">
         <v>20</v>
@@ -3489,7 +3495,7 @@
         <v>400</v>
       </c>
       <c r="J50" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="K50" t="s">
         <v>21</v>
@@ -3504,15 +3510,15 @@
         <v>23</v>
       </c>
       <c r="O50" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="P50" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3524,22 +3530,22 @@
         <v>5</v>
       </c>
       <c r="E51" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H51" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="I51">
         <v>450</v>
       </c>
       <c r="J51" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="K51" t="s">
         <v>22</v>
@@ -3551,10 +3557,10 @@
         <v>21</v>
       </c>
       <c r="N51" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="O51" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="P51" t="s">
         <v>21</v>
@@ -3562,7 +3568,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3574,13 +3580,13 @@
         <v>8</v>
       </c>
       <c r="E52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H52" t="s">
         <v>20</v>
@@ -3589,7 +3595,7 @@
         <v>450</v>
       </c>
       <c r="J52" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="K52" t="s">
         <v>21</v>
@@ -3604,15 +3610,15 @@
         <v>23</v>
       </c>
       <c r="O52" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
       <c r="P52" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -3624,22 +3630,22 @@
         <v>5</v>
       </c>
       <c r="E53" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="G53" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H53" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="I53">
         <v>480</v>
       </c>
       <c r="J53" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="K53" t="s">
         <v>22</v>
@@ -3651,10 +3657,10 @@
         <v>21</v>
       </c>
       <c r="N53" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="O53" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="P53" t="s">
         <v>21</v>
@@ -3662,7 +3668,7 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -3674,22 +3680,22 @@
         <v>7</v>
       </c>
       <c r="E54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F54" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H54" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I54">
         <v>450</v>
       </c>
       <c r="J54" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="K54" t="s">
         <v>21</v>
@@ -3712,7 +3718,7 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -3724,22 +3730,22 @@
         <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="F55" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H55" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="I55">
         <v>600</v>
       </c>
       <c r="J55" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="K55" t="s">
         <v>21</v>
@@ -3751,10 +3757,10 @@
         <v>21</v>
       </c>
       <c r="N55" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
       <c r="O55" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
       <c r="P55" t="s">
         <v>21</v>
@@ -3762,7 +3768,7 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -3774,13 +3780,13 @@
         <v>8</v>
       </c>
       <c r="E56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F56" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="H56" t="s">
         <v>20</v>
@@ -3789,7 +3795,7 @@
         <v>600</v>
       </c>
       <c r="J56" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="K56" t="s">
         <v>21</v>
@@ -3804,15 +3810,15 @@
         <v>23</v>
       </c>
       <c r="O56" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="P56" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -3824,22 +3830,22 @@
         <v>7</v>
       </c>
       <c r="E57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F57" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H57" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I57">
         <v>700</v>
       </c>
       <c r="J57" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="K57" t="s">
         <v>21</v>
@@ -3854,7 +3860,7 @@
         <v>23</v>
       </c>
       <c r="O57" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
       <c r="P57" t="s">
         <v>21</v>
@@ -3862,7 +3868,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -3874,22 +3880,22 @@
         <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F58" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="G58" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="H58" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I58">
         <v>850</v>
       </c>
       <c r="J58" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="K58" t="s">
         <v>21</v>
@@ -3904,15 +3910,15 @@
         <v>23</v>
       </c>
       <c r="O58" t="s">
+        <v>149</v>
+      </c>
+      <c r="P58" t="s">
         <v>193</v>
-      </c>
-      <c r="P58" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3924,13 +3930,13 @@
         <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>196</v>
+        <v>150</v>
       </c>
       <c r="F59" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="G59" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H59" t="s">
         <v>20</v>
@@ -3939,7 +3945,7 @@
         <v>1300</v>
       </c>
       <c r="J59" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="K59" t="s">
         <v>21</v>
@@ -3954,7 +3960,7 @@
         <v>23</v>
       </c>
       <c r="O59" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="P59" t="s">
         <v>21</v>
@@ -3962,7 +3968,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>198</v>
+        <v>152</v>
       </c>
       <c r="B60">
         <v>5</v>
@@ -3974,22 +3980,22 @@
         <v>5</v>
       </c>
       <c r="E60" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G60" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="I60">
         <v>1400</v>
       </c>
       <c r="J60" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="K60" t="s">
         <v>22</v>
@@ -4001,10 +4007,10 @@
         <v>21</v>
       </c>
       <c r="N60" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="O60" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="P60" t="s">
         <v>21</v>
@@ -4012,7 +4018,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -4024,13 +4030,13 @@
         <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>196</v>
+        <v>150</v>
       </c>
       <c r="F61" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="G61" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H61" t="s">
         <v>20</v>
@@ -4039,7 +4045,7 @@
         <v>1600</v>
       </c>
       <c r="J61" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="K61" t="s">
         <v>21</v>
@@ -4054,10 +4060,10 @@
         <v>23</v>
       </c>
       <c r="O61" t="s">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="P61" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/data/monitors.xlsx
+++ b/data/monitors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chandradeep/Desktop/MS/FrogAI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6338F400-6CAB-C44F-851D-D2FB9FB1A865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCD8E33-3396-1A4E-A928-A726FFCDB534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23040" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="211">
   <si>
     <t>name</t>
   </si>
@@ -73,118 +73,139 @@
     <t>CoolerMaster GP27Q</t>
   </si>
   <si>
-    <t>2560x1440p</t>
+    <t>2560x1440</t>
   </si>
   <si>
     <t>165hz</t>
   </si>
   <si>
-    <t>IPS miniLED 576 zones</t>
+    <t>IPS MiniLED 576 zones</t>
   </si>
   <si>
     <t>27"</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Wide</t>
+  </si>
+  <si>
+    <t>TFTCentral,https://tftcentral.co.uk/reviews/cooler-master-tempest-gp27q;Hardware Unboxed,https://www.youtube.com/watch?v=G6MS45GqcJ4</t>
+  </si>
+  <si>
+    <t>CoolerMaster GP27U</t>
+  </si>
+  <si>
+    <t>3840x2160</t>
+  </si>
+  <si>
+    <t>160hz</t>
+  </si>
+  <si>
+    <t>ps5</t>
+  </si>
+  <si>
+    <t>VRR+HDR flickering</t>
+  </si>
+  <si>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/cooler-master/tempest-gp27u;Hardware Unboxed,https://www.youtube.com/watch?v=z9tLaKdOdkQ</t>
+  </si>
+  <si>
+    <t>KTC M27P20 Pro</t>
+  </si>
+  <si>
+    <t>techless,https://www.youtube.com/watch?v=xINKVAGOiAs</t>
+  </si>
+  <si>
+    <t>Innocn 27M2V</t>
+  </si>
+  <si>
+    <t>IPS MiniLED 1152 zones</t>
+  </si>
+  <si>
+    <t>Chimolog,https://chimolog.co/bto-gaming-monitor-innocn-27m2v/</t>
+  </si>
+  <si>
+    <t>Innocn 32M2V</t>
+  </si>
+  <si>
+    <t>144hz</t>
+  </si>
+  <si>
+    <t>32"</t>
+  </si>
+  <si>
+    <t>Chimolog,https://chimolog.co/bto-gaming-monitor-innocn-32m2v/</t>
+  </si>
+  <si>
+    <t>Nubia RedMagic 4K</t>
+  </si>
+  <si>
+    <t>Snowman,https://www.youtube.com/watch?v=AHJ0yUUuPkE</t>
+  </si>
+  <si>
+    <t>Dell S2522HG</t>
+  </si>
+  <si>
+    <t>1920x1080</t>
+  </si>
+  <si>
+    <t>240hz</t>
+  </si>
+  <si>
+    <t>IPS</t>
+  </si>
+  <si>
+    <t>25"</t>
+  </si>
+  <si>
+    <t>1060_6gb</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>wide</t>
-  </si>
-  <si>
-    <t>VRR+HDR flickering and other firmware issues</t>
-  </si>
-  <si>
-    <t>CoolerMaster GP27U</t>
-  </si>
-  <si>
-    <t>3840x2160p</t>
-  </si>
-  <si>
-    <t>160hz</t>
-  </si>
-  <si>
-    <t>ps5</t>
-  </si>
-  <si>
-    <t>VRR+HDR flickering</t>
-  </si>
-  <si>
-    <t>KTC M27P20 Pro</t>
-  </si>
-  <si>
-    <t>likely buggy firmware</t>
-  </si>
-  <si>
-    <t>Innocn 27M2V</t>
-  </si>
-  <si>
-    <t>IPS miniLED 1152 zones</t>
-  </si>
-  <si>
-    <t>somewhat buggy firmware and reports of coil whine</t>
-  </si>
-  <si>
-    <t>Innocn 32M2V</t>
-  </si>
-  <si>
-    <t>144hz</t>
-  </si>
-  <si>
-    <t>32"</t>
-  </si>
-  <si>
-    <t>somewhat buggy firmware</t>
-  </si>
-  <si>
-    <t>Nubia RedMagic 4K</t>
-  </si>
-  <si>
-    <t>reports of coil whine</t>
-  </si>
-  <si>
-    <t>Dell S2522HG</t>
-  </si>
-  <si>
-    <t>1920x1080p</t>
-  </si>
-  <si>
-    <t>240hz</t>
-  </si>
-  <si>
-    <t>IPS</t>
-  </si>
-  <si>
-    <t>25"</t>
-  </si>
-  <si>
-    <t>1060_6gb</t>
+    <t>Bijan Jamshidi,https://www.youtube.com/watch?v=PPN-6EJs3Q4</t>
   </si>
   <si>
     <t>KTC H27T22</t>
   </si>
   <si>
+    <t>techless,https://www.youtube.com/watch?v=zXeOjYRPj08</t>
+  </si>
+  <si>
     <t>MSI G273Q(P)F</t>
   </si>
   <si>
     <t>P variant has adjustable stand</t>
   </si>
   <si>
+    <t xml:space="preserve">RTINGS,https://www.rtings.com/monitor/reviews/msi/optix-g273qf;techless,https://www.youtube.com/watch?v=nnsstM_3a00 </t>
+  </si>
+  <si>
     <t>Dell S2721DGF</t>
   </si>
   <si>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/s2721dgf;Hardware Unboxed,https://www.youtube.com/watch?v=D3vbqyjgPpY;techless,https://www.youtube.com/watch?v=RQ2b6nCPK_4</t>
+  </si>
+  <si>
     <t>Gigabyte M34WQ</t>
   </si>
   <si>
-    <t>3440x1440p</t>
+    <t>3440x1440</t>
   </si>
   <si>
     <t>34"</t>
   </si>
   <si>
-    <t>ultrawide</t>
+    <t>Ultrawide</t>
+  </si>
+  <si>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/gigabyte/m34wq;Hardware Unboxed,https://www.youtube.com/watch?v=pxEHORnt-Pc</t>
   </si>
   <si>
     <t>Gigabyte M32Q</t>
@@ -193,13 +214,16 @@
     <t>170hz</t>
   </si>
   <si>
+    <t xml:space="preserve">RTINGS,https://www.rtings.com/monitor/reviews/gigabyte/m32q;Hardware Unboxed,https://www.youtube.com/watch?v=tS7HYqepUZI </t>
+  </si>
+  <si>
     <t>MSI MAG274QRF(-QD)</t>
   </si>
   <si>
     <t>floor</t>
   </si>
   <si>
-    <t>non QD version is similar except for Adobe RGB coverage</t>
+    <t>Hardware Unboxed,https://www.youtube.com/watch?v=i3X3yFh0-gE;RTINGS,https://www.rtings.com/monitor/reviews/msi/optix-mag274qrf-qd</t>
   </si>
   <si>
     <t>LG 27GP850/27GP83B</t>
@@ -208,37 +232,52 @@
     <t>180hz</t>
   </si>
   <si>
+    <t xml:space="preserve">RTINGS,https://www.rtings.com/monitor/reviews/lg/27gp850-b-27gp83b-b;Hardware Unboxed,https://www.youtube.com/watch?v=ItPCOFR5xuU;Hardware unboxed,https://www.youtube.com/watch?v=aHh91RvpR3k </t>
+  </si>
+  <si>
     <t>LG 34GP83A/34GN850/34GP950G</t>
   </si>
   <si>
+    <t xml:space="preserve">RTINGS,https://www.rtings.com/monitor/reviews/lg/34gp83a-b </t>
+  </si>
+  <si>
     <t>Dell AW3821DW</t>
   </si>
   <si>
-    <t>3840x1600p</t>
+    <t>3840x1600</t>
   </si>
   <si>
     <t>38"</t>
   </si>
   <si>
+    <t xml:space="preserve">RTINGS,https://www.rtings.com/monitor/reviews/dell/alienware-aw3821dw </t>
+  </si>
+  <si>
     <t>Gigabyte M27Q-X</t>
   </si>
   <si>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/gigabyte/m27q-x;Hardware Unboxed,https://www.youtube.com/watch?v=dDPq0uHNTyo https://www.youtube.com/watch?v=x6dHt4nXZ-Q</t>
+  </si>
+  <si>
     <t>Dell AW2723DF</t>
   </si>
   <si>
     <t>280hz</t>
   </si>
   <si>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/alienware-aw2723df;techless,https://www.youtube.com/watch?v=q-xF3uHQKm4</t>
+  </si>
+  <si>
     <t>Dell AW2721D</t>
   </si>
   <si>
-    <t>brighter than 23DF and has Gsync module but more overshoot</t>
+    <t xml:space="preserve">RTINGS,https://www.rtings.com/monitor/tools/compare/dell-alienware-aw2721d-vs-dell-alienware-aw2723df/20236/34684?usage=3623&amp;threshold=0.10 </t>
   </si>
   <si>
     <t>Asus PG279QM</t>
   </si>
   <si>
-    <t>GSync module; best in class</t>
+    <t>Hardware Unboxed,https://www.youtube.com/watch?v=Th3LLfm7nl0;RTINGS,https://www.rtings.com/monitor/reviews/asus/rog-swift-pg279qm</t>
   </si>
   <si>
     <t>Asus PG27AQN</t>
@@ -247,28 +286,40 @@
     <t>360hz</t>
   </si>
   <si>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/asus/rog-swift-360hz-pg27aqn;Hardware Unboxed,https://www.youtube.com/watch?v=eYFtLBM3a78</t>
+  </si>
+  <si>
     <t>Dell S2722DGM</t>
   </si>
   <si>
     <t>VA</t>
   </si>
   <si>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/s2722dgm</t>
+  </si>
+  <si>
     <t>Dell S3222DGM</t>
   </si>
   <si>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/s3222dgm</t>
+  </si>
+  <si>
     <t>Dell S3221QS</t>
   </si>
   <si>
     <t>60hz</t>
   </si>
   <si>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/s3221qs</t>
+  </si>
+  <si>
     <t>Dell S3422DWG</t>
   </si>
   <si>
     <t>1080ti</t>
   </si>
   <si>
-    <t>surprisingly good uniformity for budget VA</t>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/s3422dwg</t>
   </si>
   <si>
     <t>KTC M27T20</t>
@@ -277,28 +328,43 @@
     <t>VA MiniLED 576 zones</t>
   </si>
   <si>
+    <t>RTINGS,https://www.youtube.com/watch?v=xINKVAGOiAs</t>
+  </si>
+  <si>
     <t>Gigabyte M28U</t>
   </si>
   <si>
     <t>28"</t>
   </si>
   <si>
-    <t>bandwidth not enough for ps5</t>
+    <t xml:space="preserve">RTINGS,https://www.rtings.com/monitor/reviews/gigabyte/m28u;Hardware Unboxed,https://www.youtube.com/watch?v=xnJjuQdQiyo </t>
   </si>
   <si>
     <t>Asus VG28UQL1A</t>
   </si>
   <si>
+    <t>RTINGS,https://www.youtube.com/watch?v=o-QABQ7c-Fk</t>
+  </si>
+  <si>
     <t>Gigabyte M32U</t>
   </si>
   <si>
+    <t xml:space="preserve">RTINGS,https://www.rtings.com/monitor/reviews/gigabyte/m32u </t>
+  </si>
+  <si>
     <t>Gigabyte M32UC</t>
   </si>
   <si>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/gigabyte/m32uc</t>
+  </si>
+  <si>
     <t>Innocn 27M2U</t>
   </si>
   <si>
-    <t>IPS miniLED 384 zones</t>
+    <t>IPS MiniLED 384 zones</t>
+  </si>
+  <si>
+    <t>Chimolog,https://chimolog.co/bto-gaming-monitor-innocn-m2u/</t>
   </si>
   <si>
     <t>Asus PA32UCG-K</t>
@@ -310,28 +376,34 @@
     <t>Apple Pro Display XDR</t>
   </si>
   <si>
-    <t>6016x3384p</t>
+    <t>6016x3384</t>
   </si>
   <si>
     <t>IPS FALD 576 zones</t>
   </si>
   <si>
+    <t>HDTVTest,https://www.youtube.com/watch?v=rtd7UzLJHrU</t>
+  </si>
+  <si>
     <t>LG 27GR95QE</t>
   </si>
   <si>
     <t>W-OLED</t>
   </si>
   <si>
-    <t>heavy matte coating</t>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/lg/27gr95qe-b;Hardware Unboxed,https://www.youtube.com/watch?v=2YBJFYGtmQk</t>
   </si>
   <si>
     <t>Asus PG27AQDM</t>
   </si>
   <si>
+    <t>Hardware Unboxed,https://www.youtube.com/watch?v=R0AkfhZp70w</t>
+  </si>
+  <si>
     <t>LG 45GR95QE</t>
   </si>
   <si>
-    <t>heavy matte coating + low ppi</t>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/lg/45gr95qe-b</t>
   </si>
   <si>
     <t>Alienware AW3423DWF</t>
@@ -343,115 +415,115 @@
     <t>QD-OLED</t>
   </si>
   <si>
-    <t>Broken HDR(might be fixed by firmware)</t>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/alienware-aw3423dwf;Hardware Unboxed,https://www.youtube.com/watch?v=b0aLF3KVOTQ</t>
   </si>
   <si>
     <t>Alienware AW3423DW</t>
   </si>
   <si>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/alienware-aw3423dw;Hardware Unboxed,https://www.youtube.com/watch?v=YleSuwK8vR4</t>
+  </si>
+  <si>
     <t>LG 32ep950</t>
   </si>
   <si>
     <t>Inkjet OLED</t>
   </si>
   <si>
+    <t>Techtesters,https://www.youtube.com/watch?v=5A0S1wDwR3k</t>
+  </si>
+  <si>
     <t>Asus PA32DC</t>
   </si>
   <si>
     <t>Asus PA279CRV</t>
   </si>
   <si>
-    <t xml:space="preserve"> type-c hub with 96W charging</t>
+    <t>Teoh on Tech,https://www.youtube.com/watch?v=kPBZPfEfA9Y</t>
+  </si>
+  <si>
+    <t>Asus PA329C</t>
+  </si>
+  <si>
+    <t>Viewsonic XG2431</t>
+  </si>
+  <si>
+    <t>24"</t>
+  </si>
+  <si>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/viewsonic/xg2431;Bijan Jamshidi,https://www.youtube.com/watch?v=TdTwRDa9URo</t>
+  </si>
+  <si>
+    <t>Acer AOPEN 25XV2Q</t>
+  </si>
+  <si>
+    <t>390hz</t>
+  </si>
+  <si>
+    <t>techless,https://www.youtube.com/watch?v=x7PDKjUhi_I</t>
+  </si>
+  <si>
+    <t>BenQ XL2566K</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>Bijan Jamshidi,https://www.youtube.com/watch?v=ts_O8pFgYQg;RTINGS,https://www.rtings.com/monitor/reviews/benq/zowie-xl2566k</t>
+  </si>
+  <si>
+    <t>Dell AW2524H</t>
+  </si>
+  <si>
+    <t>500hz</t>
+  </si>
+  <si>
+    <t>LTT,https://www.youtube.com/watch?v=Ewo8tt6bgZU</t>
+  </si>
+  <si>
+    <t>Dell S2721D(S)</t>
+  </si>
+  <si>
+    <t>75hz</t>
+  </si>
+  <si>
+    <t>S variant has adjustable stand</t>
+  </si>
+  <si>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/s2721d</t>
+  </si>
+  <si>
+    <t>Dell S2721Q(S)</t>
+  </si>
+  <si>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/s2721qs</t>
+  </si>
+  <si>
+    <t>Dell S2722QC</t>
+  </si>
+  <si>
+    <t>LG 34WQ75C</t>
+  </si>
+  <si>
+    <t>Asus PA279CV</t>
   </si>
   <si>
     <t xml:space="preserve"> https://www.youtube.com/watch?v=kPBZPfEfA9Y</t>
   </si>
   <si>
-    <t>Asus PA329C</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> type-c hub with 65W</t>
-  </si>
-  <si>
-    <t>Viewsonic XG2431</t>
-  </si>
-  <si>
-    <t>24"</t>
-  </si>
-  <si>
-    <t>great strobing</t>
-  </si>
-  <si>
-    <t>Acer AOPEN 25XV2Q</t>
-  </si>
-  <si>
-    <t>390hz</t>
-  </si>
-  <si>
-    <t>decent with strobing only</t>
-  </si>
-  <si>
-    <t>BenQ XL2566K</t>
-  </si>
-  <si>
-    <t>TN</t>
-  </si>
-  <si>
-    <t>best-in-class strobing with few artifacts and cross talk; buy only if you can run at 360hz</t>
-  </si>
-  <si>
-    <t>Dell AW2524H</t>
-  </si>
-  <si>
-    <t>500hz</t>
-  </si>
-  <si>
-    <t>Dell S2721D(S)</t>
-  </si>
-  <si>
-    <t>75hz</t>
-  </si>
-  <si>
-    <t>S variant has adjustable stand</t>
-  </si>
-  <si>
-    <t>Dell S2721Q(S)</t>
-  </si>
-  <si>
-    <t>Dell S2722QC</t>
-  </si>
-  <si>
-    <t>type-c hub with 65W charging</t>
-  </si>
-  <si>
-    <t>LG 34WQ75C</t>
-  </si>
-  <si>
-    <t>Asus PA279CV</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> type-c hub with 65W charging and factory calibrated</t>
-  </si>
-  <si>
     <t>LG 34WQ73A</t>
   </si>
   <si>
-    <t>type-c hub with 90W charging</t>
-  </si>
-  <si>
     <t>LG 32UN650</t>
   </si>
   <si>
     <t>LG DualUp 28MQ780</t>
   </si>
   <si>
-    <t>2560x2880p</t>
-  </si>
-  <si>
-    <t>tall</t>
-  </si>
-  <si>
-    <t>type-c hub with 90W usb-c charging</t>
+    <t>2560x2880</t>
+  </si>
+  <si>
+    <t>Tall</t>
   </si>
   <si>
     <t>Dell U2723QE</t>
@@ -460,7 +532,7 @@
     <t>IPS Black</t>
   </si>
   <si>
-    <t>type-c and ethernet hub with 90W charging</t>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/u2723qe</t>
   </si>
   <si>
     <t>Asus PA329CV</t>
@@ -469,13 +541,13 @@
     <t>Dell U3223QE</t>
   </si>
   <si>
-    <t>type-c and ethernet hub with 90W charging; slightly higher contrast than regular IPS</t>
-  </si>
-  <si>
-    <t>5120x2880p</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> type-c hub with 96W charging and factory calibrated and glossy; reports of motherboard failure</t>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/u3223qe</t>
+  </si>
+  <si>
+    <t>LG UltraFine 5K</t>
+  </si>
+  <si>
+    <t>5120x2880</t>
   </si>
   <si>
     <t>LG 38WN95C</t>
@@ -484,163 +556,103 @@
     <t>Apple Studio Display</t>
   </si>
   <si>
-    <t xml:space="preserve"> type-c hub with 96W charging and factory calibrated and glossy</t>
-  </si>
-  <si>
-    <t>hardware calibration + massive heatsink for sustained brightness + type-c hub</t>
-  </si>
-  <si>
-    <t>hardware calibration + massive heatsink for sustained brightness + type-c hub + glossy</t>
-  </si>
-  <si>
-    <t>hardware calibration + sdr only + massive heatsink for sustained brightness + type-c hub</t>
-  </si>
-  <si>
-    <t>TFTCentral,https://tftcentral.co.uk/reviews/cooler-master-tempest-gp27q;Hardware Unboxed,https://www.youtube.com/watch?v=G6MS45GqcJ4</t>
-  </si>
-  <si>
-    <t>RTINGS,https://www.rtings.com/monitor/reviews/cooler-master/tempest-gp27u;Hardware Unboxed,https://www.youtube.com/watch?v=z9tLaKdOdkQ</t>
-  </si>
-  <si>
-    <t>techless,https://www.youtube.com/watch?v=xINKVAGOiAs</t>
-  </si>
-  <si>
-    <t>Snowman,https://www.youtube.com/watch?v=AHJ0yUUuPkE</t>
-  </si>
-  <si>
-    <t>Chimolog,https://chimolog.co/bto-gaming-monitor-innocn-27m2v/</t>
-  </si>
-  <si>
-    <t>Chimolog,https://chimolog.co/bto-gaming-monitor-innocn-32m2v/</t>
-  </si>
-  <si>
-    <t>Bijan Jamshidi,https://www.youtube.com/watch?v=PPN-6EJs3Q4</t>
-  </si>
-  <si>
-    <t>techless,https://www.youtube.com/watch?v=zXeOjYRPj08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RTINGS,https://www.rtings.com/monitor/reviews/msi/optix-g273qf;techless,https://www.youtube.com/watch?v=nnsstM_3a00 </t>
-  </si>
-  <si>
-    <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/s2721dgf;Hardware Unboxed,https://www.youtube.com/watch?v=D3vbqyjgPpY;techless,https://www.youtube.com/watch?v=RQ2b6nCPK_4</t>
-  </si>
-  <si>
-    <t>RTINGS,https://www.rtings.com/monitor/reviews/gigabyte/m34wq;Hardware Unboxed,https://www.youtube.com/watch?v=pxEHORnt-Pc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RTINGS,https://www.rtings.com/monitor/reviews/gigabyte/m32q;Hardware Unboxed,https://www.youtube.com/watch?v=tS7HYqepUZI </t>
-  </si>
-  <si>
-    <t>Hardware Unboxed,https://www.youtube.com/watch?v=i3X3yFh0-gE;RTINGS,https://www.rtings.com/monitor/reviews/msi/optix-mag274qrf-qd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RTINGS,https://www.rtings.com/monitor/reviews/lg/34gp83a-b </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RTINGS,https://www.rtings.com/monitor/reviews/lg/27gp850-b-27gp83b-b;Hardware Unboxed,https://www.youtube.com/watch?v=ItPCOFR5xuU;Hardware unboxed,https://www.youtube.com/watch?v=aHh91RvpR3k </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RTINGS,https://www.rtings.com/monitor/reviews/dell/alienware-aw3821dw </t>
-  </si>
-  <si>
-    <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/s2722dgm</t>
-  </si>
-  <si>
-    <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/s3222dgm</t>
-  </si>
-  <si>
-    <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/s3221qs</t>
-  </si>
-  <si>
-    <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/s3422dwg</t>
-  </si>
-  <si>
-    <t>RTINGS,https://www.youtube.com/watch?v=xINKVAGOiAs</t>
-  </si>
-  <si>
-    <t>RTINGS,https://www.youtube.com/watch?v=o-QABQ7c-Fk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RTINGS,https://www.rtings.com/monitor/reviews/gigabyte/m32u </t>
-  </si>
-  <si>
-    <t>RTINGS,https://www.rtings.com/monitor/reviews/gigabyte/m32uc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RTINGS,https://www.rtings.com/monitor/reviews/gigabyte/m28u;Hardware Unboxed,https://www.youtube.com/watch?v=xnJjuQdQiyo </t>
-  </si>
-  <si>
-    <t>Chimolog,https://chimolog.co/bto-gaming-monitor-innocn-m2u/</t>
-  </si>
-  <si>
-    <t>HDTVTest,https://www.youtube.com/watch?v=rtd7UzLJHrU</t>
-  </si>
-  <si>
-    <t>RTINGS,https://www.rtings.com/monitor/reviews/lg/27gr95qe-b;Hardware Unboxed,https://www.youtube.com/watch?v=2YBJFYGtmQk</t>
-  </si>
-  <si>
-    <t>Hardware Unboxed,https://www.youtube.com/watch?v=R0AkfhZp70w</t>
-  </si>
-  <si>
-    <t>RTINGS,https://www.rtings.com/monitor/reviews/lg/45gr95qe-b</t>
-  </si>
-  <si>
-    <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/alienware-aw3423dwf;Hardware Unboxed,https://www.youtube.com/watch?v=b0aLF3KVOTQ</t>
-  </si>
-  <si>
-    <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/alienware-aw3423dw;Hardware Unboxed,https://www.youtube.com/watch?v=YleSuwK8vR4</t>
-  </si>
-  <si>
-    <t>Techtesters,https://www.youtube.com/watch?v=5A0S1wDwR3k</t>
-  </si>
-  <si>
-    <t>Teoh on Tech,https://www.youtube.com/watch?v=kPBZPfEfA9Y</t>
-  </si>
-  <si>
-    <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/u2723qe</t>
-  </si>
-  <si>
-    <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/u3223qe</t>
-  </si>
-  <si>
     <t>RTINGS,https://www.rtings.com/monitor/reviews/apple/studio-display</t>
   </si>
   <si>
-    <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/s2721qs</t>
-  </si>
-  <si>
-    <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/s2721d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RTINGS,https://www.rtings.com/monitor/tools/compare/dell-alienware-aw2721d-vs-dell-alienware-aw2723df/20236/34684?usage=3623&amp;threshold=0.10 </t>
-  </si>
-  <si>
-    <t>LTT,https://www.youtube.com/watch?v=Ewo8tt6bgZU</t>
-  </si>
-  <si>
-    <t>Bijan Jamshidi,https://www.youtube.com/watch?v=ts_O8pFgYQg;RTINGS,https://www.rtings.com/monitor/reviews/benq/zowie-xl2566k</t>
-  </si>
-  <si>
-    <t>techless,https://www.youtube.com/watch?v=x7PDKjUhi_I</t>
-  </si>
-  <si>
-    <t>RTINGS,https://www.rtings.com/monitor/reviews/viewsonic/xg2431;Bijan Jamshidi,https://www.youtube.com/watch?v=TdTwRDa9URo</t>
-  </si>
-  <si>
-    <t>RTINGS,https://www.rtings.com/monitor/reviews/asus/rog-swift-360hz-pg27aqn;Hardware Unboxed,https://www.youtube.com/watch?v=eYFtLBM3a78</t>
-  </si>
-  <si>
-    <t>Hardware Unboxed,https://www.youtube.com/watch?v=Th3LLfm7nl0;RTINGS,https://www.rtings.com/monitor/reviews/asus/rog-swift-pg279qm</t>
-  </si>
-  <si>
-    <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/alienware-aw2723df;techless,https://www.youtube.com/watch?v=q-xF3uHQKm4</t>
-  </si>
-  <si>
-    <t>RTINGS,https://www.rtings.com/monitor/reviews/gigabyte/m27q-x;Hardware Unboxed,https://www.youtube.com/watch?v=dDPq0uHNTyo https://www.youtube.com/watch?v=x6dHt4nXZ-Q</t>
-  </si>
-  <si>
-    <t>LG UltraFine 5K</t>
+    <t>Likely buggy firmware</t>
+  </si>
+  <si>
+    <t>Slightly buggy firmware + reports of coil whine</t>
+  </si>
+  <si>
+    <t>Slightly buggy firmware</t>
+  </si>
+  <si>
+    <t>Reports of coil whine</t>
+  </si>
+  <si>
+    <t>Non QD version is similar except for Adobe RGB coverage</t>
+  </si>
+  <si>
+    <t>VRR+HDR flickering + other firmware issues</t>
+  </si>
+  <si>
+    <t>GSync module</t>
+  </si>
+  <si>
+    <t>Brighter than 23DF + has Gsync module +  more overshoot</t>
+  </si>
+  <si>
+    <t>Surprisingly good uniformity for budget VA</t>
+  </si>
+  <si>
+    <t>Bandwidth not enough for ps5</t>
+  </si>
+  <si>
+    <t>Hardware calibration + massive heatsink for sustained brightness + type-c hub</t>
+  </si>
+  <si>
+    <t>Hardware calibration + massive heatsink for sustained brightness + type-c hub + glossy</t>
+  </si>
+  <si>
+    <t>Heavy matte coating + bad for text + burn in risk</t>
+  </si>
+  <si>
+    <t>Heavy matte coating + low ppi + bad for text + burn in risk</t>
+  </si>
+  <si>
+    <t>Type-c hub with 96W charging</t>
+  </si>
+  <si>
+    <t>Bad for text + 3 year burn in warranty + glossy</t>
+  </si>
+  <si>
+    <t>Hardware calibration + sdr only + massive heatsink for sustained brightness + type-c hub + burn-in risk</t>
+  </si>
+  <si>
+    <t>Type-c hub with 65W</t>
+  </si>
+  <si>
+    <t>Great strobing</t>
+  </si>
+  <si>
+    <t>Decent but with strobing only</t>
+  </si>
+  <si>
+    <t>Best-in-class strobing with few artifacts and cross talk + buy only if you can run at 360hz</t>
+  </si>
+  <si>
+    <t>Type-c hub with 65W charging</t>
+  </si>
+  <si>
+    <t>Type-c hub with 90W charging</t>
+  </si>
+  <si>
+    <t>Type-c hub with 90W usb-c charging</t>
+  </si>
+  <si>
+    <t>Type-c hub with 65W charging + factory calibrated</t>
+  </si>
+  <si>
+    <t>Type-c and ethernet hub with 90W charging + slightly higher contrast than regular IPS</t>
+  </si>
+  <si>
+    <t>Type-c and ethernet hub with 90W charging  + slightly higher contrast than standard IPS</t>
+  </si>
+  <si>
+    <t>Type-c hub with 96W charging + factory calibrated + glossy +  reports of motherboard failure</t>
+  </si>
+  <si>
+    <t>Type-c hub with 96W charging + factory calibrated + glossy</t>
+  </si>
+  <si>
+    <t>GSync module + factory calibrated</t>
+  </si>
+  <si>
+    <t>Type-c hub with 65W charging +  factory calibrated</t>
+  </si>
+  <si>
+    <t>Broken HDR + bad for text + 3 year burn in warranty + glossy</t>
   </si>
 </sst>
 </file>
@@ -1006,14 +1018,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" customWidth="1"/>
-    <col min="15" max="15" width="61.1640625" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="15" max="15" width="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -1110,10 +1123,10 @@
         <v>23</v>
       </c>
       <c r="O2" t="s">
+        <v>184</v>
+      </c>
+      <c r="P2" t="s">
         <v>24</v>
-      </c>
-      <c r="P2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -1163,12 +1176,12 @@
         <v>29</v>
       </c>
       <c r="P3" t="s">
-        <v>159</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -1210,15 +1223,15 @@
         <v>23</v>
       </c>
       <c r="O4" t="s">
-        <v>31</v>
+        <v>179</v>
       </c>
       <c r="P4" t="s">
-        <v>160</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -1236,7 +1249,7 @@
         <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
         <v>20</v>
@@ -1260,15 +1273,15 @@
         <v>23</v>
       </c>
       <c r="O5" t="s">
-        <v>34</v>
+        <v>180</v>
       </c>
       <c r="P5" t="s">
-        <v>162</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -1283,13 +1296,13 @@
         <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I6">
         <v>900</v>
@@ -1310,15 +1323,15 @@
         <v>23</v>
       </c>
       <c r="O6" t="s">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="P6" t="s">
-        <v>163</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -1336,7 +1349,7 @@
         <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
         <v>20</v>
@@ -1360,15 +1373,15 @@
         <v>23</v>
       </c>
       <c r="O7" t="s">
-        <v>40</v>
+        <v>182</v>
       </c>
       <c r="P7" t="s">
-        <v>161</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1380,22 +1393,22 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I8">
         <v>150</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K8" t="s">
         <v>21</v>
@@ -1410,15 +1423,15 @@
         <v>23</v>
       </c>
       <c r="O8" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="P8" t="s">
-        <v>164</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B9">
         <v>4.5</v>
@@ -1436,7 +1449,7 @@
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
         <v>20</v>
@@ -1460,15 +1473,15 @@
         <v>23</v>
       </c>
       <c r="O9" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="P9" t="s">
-        <v>165</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B10">
         <v>4.75</v>
@@ -1486,7 +1499,7 @@
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
         <v>20</v>
@@ -1510,15 +1523,15 @@
         <v>23</v>
       </c>
       <c r="O10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s">
-        <v>166</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -1536,7 +1549,7 @@
         <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
         <v>20</v>
@@ -1560,15 +1573,15 @@
         <v>23</v>
       </c>
       <c r="O11" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="P11" t="s">
-        <v>167</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -1580,16 +1593,16 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I12">
         <v>380</v>
@@ -1607,18 +1620,18 @@
         <v>21</v>
       </c>
       <c r="N12" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="O12" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="P12" t="s">
-        <v>168</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -1633,13 +1646,13 @@
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I13">
         <v>400</v>
@@ -1660,15 +1673,15 @@
         <v>23</v>
       </c>
       <c r="O13" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="P13" t="s">
-        <v>169</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -1686,7 +1699,7 @@
         <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
         <v>20</v>
@@ -1695,7 +1708,7 @@
         <v>420</v>
       </c>
       <c r="J14" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K14" t="s">
         <v>21</v>
@@ -1710,15 +1723,15 @@
         <v>23</v>
       </c>
       <c r="O14" t="s">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="P14" t="s">
-        <v>170</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -1733,10 +1746,10 @@
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
         <v>20</v>
@@ -1760,15 +1773,15 @@
         <v>23</v>
       </c>
       <c r="O15" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="P15" t="s">
-        <v>172</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -1780,16 +1793,16 @@
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I16">
         <v>750</v>
@@ -1807,18 +1820,18 @@
         <v>21</v>
       </c>
       <c r="N16" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="O16" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="P16" t="s">
-        <v>171</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B17">
         <v>3.5</v>
@@ -1830,16 +1843,16 @@
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="I17">
         <v>1000</v>
@@ -1857,18 +1870,18 @@
         <v>21</v>
       </c>
       <c r="N17" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="O17" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="P17" t="s">
-        <v>173</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -1883,10 +1896,10 @@
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
         <v>20</v>
@@ -1910,15 +1923,15 @@
         <v>23</v>
       </c>
       <c r="O18" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="P18" t="s">
-        <v>205</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B19">
         <v>7</v>
@@ -1933,10 +1946,10 @@
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
         <v>20</v>
@@ -1960,15 +1973,15 @@
         <v>23</v>
       </c>
       <c r="O19" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="P19" t="s">
-        <v>204</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B20">
         <v>7</v>
@@ -1983,10 +1996,10 @@
         <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
         <v>20</v>
@@ -2010,15 +2023,15 @@
         <v>23</v>
       </c>
       <c r="O20" t="s">
-        <v>70</v>
+        <v>186</v>
       </c>
       <c r="P20" t="s">
-        <v>197</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B21">
         <v>7.25</v>
@@ -2033,10 +2046,10 @@
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
         <v>20</v>
@@ -2060,18 +2073,18 @@
         <v>23</v>
       </c>
       <c r="O21" t="s">
-        <v>72</v>
+        <v>208</v>
       </c>
       <c r="P21" t="s">
-        <v>203</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -2083,10 +2096,10 @@
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
         <v>20</v>
@@ -2110,15 +2123,15 @@
         <v>23</v>
       </c>
       <c r="O22" t="s">
-        <v>72</v>
+        <v>185</v>
       </c>
       <c r="P22" t="s">
-        <v>202</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -2136,7 +2149,7 @@
         <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="H23" t="s">
         <v>20</v>
@@ -2160,15 +2173,15 @@
         <v>23</v>
       </c>
       <c r="O23" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="P23" t="s">
-        <v>174</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="B24">
         <v>3.5</v>
@@ -2186,10 +2199,10 @@
         <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I24">
         <v>300</v>
@@ -2210,15 +2223,15 @@
         <v>23</v>
       </c>
       <c r="O24" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="P24" t="s">
-        <v>175</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2233,13 +2246,13 @@
         <v>26</v>
       </c>
       <c r="F25" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="G25" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="H25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I25">
         <v>350</v>
@@ -2260,15 +2273,15 @@
         <v>23</v>
       </c>
       <c r="O25" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="P25" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="B26">
         <v>3.5</v>
@@ -2280,22 +2293,22 @@
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="H26" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I26">
         <v>450</v>
       </c>
       <c r="J26" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="K26" t="s">
         <v>22</v>
@@ -2307,18 +2320,18 @@
         <v>21</v>
       </c>
       <c r="N26" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="O26" t="s">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="P26" t="s">
-        <v>177</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B27">
         <v>3.5</v>
@@ -2336,7 +2349,7 @@
         <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="H27" t="s">
         <v>20</v>
@@ -2360,15 +2373,15 @@
         <v>23</v>
       </c>
       <c r="O27" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="P27" t="s">
-        <v>178</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="B28">
         <v>5</v>
@@ -2383,13 +2396,13 @@
         <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="I28">
         <v>600</v>
@@ -2410,15 +2423,15 @@
         <v>23</v>
       </c>
       <c r="O28" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="P28" t="s">
-        <v>182</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="B29">
         <v>5</v>
@@ -2433,13 +2446,13 @@
         <v>26</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="I29">
         <v>600</v>
@@ -2460,15 +2473,15 @@
         <v>23</v>
       </c>
       <c r="O29" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="P29" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -2483,13 +2496,13 @@
         <v>26</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I30">
         <v>650</v>
@@ -2510,15 +2523,15 @@
         <v>23</v>
       </c>
       <c r="O30" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="P30" t="s">
-        <v>180</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -2536,10 +2549,10 @@
         <v>27</v>
       </c>
       <c r="G31" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="H31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I31">
         <v>650</v>
@@ -2560,15 +2573,15 @@
         <v>23</v>
       </c>
       <c r="O31" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="P31" t="s">
-        <v>181</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2583,10 +2596,10 @@
         <v>26</v>
       </c>
       <c r="F32" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="G32" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="H32" t="s">
         <v>20</v>
@@ -2610,15 +2623,15 @@
         <v>23</v>
       </c>
       <c r="O32" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="P32" t="s">
-        <v>183</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -2633,13 +2646,13 @@
         <v>26</v>
       </c>
       <c r="F33" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I33">
         <v>3000</v>
@@ -2660,15 +2673,15 @@
         <v>23</v>
       </c>
       <c r="O33" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="P33" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2680,22 +2693,22 @@
         <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="F34" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="G34" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="H34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I34">
         <v>5000</v>
       </c>
       <c r="J34" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K34" t="s">
         <v>21</v>
@@ -2710,33 +2723,33 @@
         <v>23</v>
       </c>
       <c r="O34" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="P34" t="s">
-        <v>184</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="B35">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="C35">
         <v>7</v>
       </c>
       <c r="D35">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="E35" t="s">
         <v>17</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="H35" t="s">
         <v>20</v>
@@ -2760,33 +2773,33 @@
         <v>23</v>
       </c>
       <c r="O35" t="s">
-        <v>100</v>
+        <v>191</v>
       </c>
       <c r="P35" t="s">
-        <v>185</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="B36">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="C36">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D36">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="E36" t="s">
         <v>17</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G36" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="H36" t="s">
         <v>20</v>
@@ -2810,33 +2823,33 @@
         <v>23</v>
       </c>
       <c r="O36" t="s">
-        <v>100</v>
+        <v>191</v>
       </c>
       <c r="P36" t="s">
-        <v>186</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="B37">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="C37">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G37" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="H37" t="s">
         <v>20</v>
@@ -2857,18 +2870,18 @@
         <v>22</v>
       </c>
       <c r="N37" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="O37" t="s">
-        <v>103</v>
+        <v>192</v>
       </c>
       <c r="P37" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="B38">
         <v>8</v>
@@ -2877,19 +2890,19 @@
         <v>9</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E38" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F38" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="G38" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="H38" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I38">
         <v>1100</v>
@@ -2907,18 +2920,18 @@
         <v>21</v>
       </c>
       <c r="N38" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="O38" t="s">
-        <v>107</v>
+        <v>210</v>
       </c>
       <c r="P38" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="B39">
         <v>8</v>
@@ -2927,19 +2940,19 @@
         <v>10</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F39" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="G39" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="H39" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I39">
         <v>1140</v>
@@ -2957,18 +2970,18 @@
         <v>22</v>
       </c>
       <c r="N39" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="O39" t="s">
-        <v>21</v>
+        <v>194</v>
       </c>
       <c r="P39" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -2983,19 +2996,19 @@
         <v>26</v>
       </c>
       <c r="F40" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="G40" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="H40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I40">
         <v>2800</v>
       </c>
       <c r="J40" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K40" t="s">
         <v>21</v>
@@ -3010,15 +3023,15 @@
         <v>23</v>
       </c>
       <c r="O40" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="P40" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -3033,19 +3046,19 @@
         <v>26</v>
       </c>
       <c r="F41" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="G41" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="H41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I41">
         <v>2800</v>
       </c>
       <c r="J41" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K41" t="s">
         <v>21</v>
@@ -3060,15 +3073,15 @@
         <v>23</v>
       </c>
       <c r="O41" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="P41" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -3083,10 +3096,10 @@
         <v>26</v>
       </c>
       <c r="F42" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="G42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s">
         <v>20</v>
@@ -3095,7 +3108,7 @@
         <v>500</v>
       </c>
       <c r="J42" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K42" t="s">
         <v>21</v>
@@ -3110,15 +3123,15 @@
         <v>23</v>
       </c>
       <c r="O42" t="s">
-        <v>113</v>
+        <v>193</v>
       </c>
       <c r="P42" t="s">
-        <v>191</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -3133,19 +3146,19 @@
         <v>26</v>
       </c>
       <c r="F43" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="G43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I43">
         <v>1000</v>
       </c>
       <c r="J43" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K43" t="s">
         <v>21</v>
@@ -3160,15 +3173,15 @@
         <v>23</v>
       </c>
       <c r="O43" t="s">
-        <v>116</v>
+        <v>196</v>
       </c>
       <c r="P43" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="B44">
         <v>8</v>
@@ -3180,22 +3193,22 @@
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="I44">
         <v>280</v>
       </c>
       <c r="J44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K44" t="s">
         <v>21</v>
@@ -3210,15 +3223,15 @@
         <v>23</v>
       </c>
       <c r="O44" t="s">
-        <v>119</v>
+        <v>197</v>
       </c>
       <c r="P44" t="s">
-        <v>201</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="B45">
         <v>7</v>
@@ -3230,22 +3243,22 @@
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="G45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I45">
         <v>300</v>
       </c>
       <c r="J45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K45" t="s">
         <v>21</v>
@@ -3260,15 +3273,15 @@
         <v>23</v>
       </c>
       <c r="O45" t="s">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c r="P45" t="s">
-        <v>200</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="B46">
         <v>9.5</v>
@@ -3280,22 +3293,22 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="H46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I46">
         <v>600</v>
       </c>
       <c r="J46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K46" t="s">
         <v>21</v>
@@ -3310,15 +3323,15 @@
         <v>23</v>
       </c>
       <c r="O46" t="s">
-        <v>125</v>
+        <v>199</v>
       </c>
       <c r="P46" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="B47">
         <v>9</v>
@@ -3330,22 +3343,22 @@
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="G47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I47">
         <v>830</v>
       </c>
       <c r="J47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K47" t="s">
         <v>21</v>
@@ -3360,15 +3373,15 @@
         <v>23</v>
       </c>
       <c r="O47" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="P47" t="s">
-        <v>198</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -3383,10 +3396,10 @@
         <v>17</v>
       </c>
       <c r="F48" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="G48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s">
         <v>20</v>
@@ -3395,7 +3408,7 @@
         <v>250</v>
       </c>
       <c r="J48" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K48" t="s">
         <v>21</v>
@@ -3410,15 +3423,15 @@
         <v>23</v>
       </c>
       <c r="O48" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="P48" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -3433,10 +3446,10 @@
         <v>26</v>
       </c>
       <c r="F49" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="G49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s">
         <v>20</v>
@@ -3445,7 +3458,7 @@
         <v>300</v>
       </c>
       <c r="J49" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K49" t="s">
         <v>21</v>
@@ -3460,15 +3473,15 @@
         <v>23</v>
       </c>
       <c r="O49" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="P49" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -3483,10 +3496,10 @@
         <v>26</v>
       </c>
       <c r="F50" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="G50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H50" t="s">
         <v>20</v>
@@ -3495,7 +3508,7 @@
         <v>400</v>
       </c>
       <c r="J50" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K50" t="s">
         <v>21</v>
@@ -3510,15 +3523,15 @@
         <v>23</v>
       </c>
       <c r="O50" t="s">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="P50" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3530,22 +3543,22 @@
         <v>5</v>
       </c>
       <c r="E51" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F51" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="G51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I51">
         <v>450</v>
       </c>
       <c r="J51" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K51" t="s">
         <v>22</v>
@@ -3557,18 +3570,18 @@
         <v>21</v>
       </c>
       <c r="N51" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="O51" t="s">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="P51" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3583,10 +3596,10 @@
         <v>26</v>
       </c>
       <c r="F52" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="G52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H52" t="s">
         <v>20</v>
@@ -3595,7 +3608,7 @@
         <v>450</v>
       </c>
       <c r="J52" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K52" t="s">
         <v>21</v>
@@ -3610,15 +3623,15 @@
         <v>23</v>
       </c>
       <c r="O52" t="s">
-        <v>136</v>
+        <v>209</v>
       </c>
       <c r="P52" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -3630,22 +3643,22 @@
         <v>5</v>
       </c>
       <c r="E53" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F53" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="G53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H53" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I53">
         <v>480</v>
       </c>
       <c r="J53" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K53" t="s">
         <v>22</v>
@@ -3657,18 +3670,18 @@
         <v>21</v>
       </c>
       <c r="N53" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="O53" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="P53" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -3683,19 +3696,19 @@
         <v>26</v>
       </c>
       <c r="F54" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="G54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I54">
         <v>450</v>
       </c>
       <c r="J54" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K54" t="s">
         <v>21</v>
@@ -3710,15 +3723,15 @@
         <v>23</v>
       </c>
       <c r="O54" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="P54" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -3730,22 +3743,22 @@
         <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="F55" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="G55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H55" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="I55">
         <v>600</v>
       </c>
       <c r="J55" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K55" t="s">
         <v>21</v>
@@ -3757,18 +3770,18 @@
         <v>21</v>
       </c>
       <c r="N55" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="O55" t="s">
-        <v>143</v>
+        <v>202</v>
       </c>
       <c r="P55" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -3783,10 +3796,10 @@
         <v>26</v>
       </c>
       <c r="F56" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="G56" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="H56" t="s">
         <v>20</v>
@@ -3795,7 +3808,7 @@
         <v>600</v>
       </c>
       <c r="J56" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K56" t="s">
         <v>21</v>
@@ -3810,15 +3823,15 @@
         <v>23</v>
       </c>
       <c r="O56" t="s">
-        <v>146</v>
+        <v>205</v>
       </c>
       <c r="P56" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -3833,19 +3846,19 @@
         <v>26</v>
       </c>
       <c r="F57" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="G57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I57">
         <v>700</v>
       </c>
       <c r="J57" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K57" t="s">
         <v>21</v>
@@ -3860,15 +3873,15 @@
         <v>23</v>
       </c>
       <c r="O57" t="s">
-        <v>136</v>
+        <v>203</v>
       </c>
       <c r="P57" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -3883,19 +3896,19 @@
         <v>26</v>
       </c>
       <c r="F58" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="G58" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="H58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I58">
         <v>850</v>
       </c>
       <c r="J58" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K58" t="s">
         <v>21</v>
@@ -3910,15 +3923,15 @@
         <v>23</v>
       </c>
       <c r="O58" t="s">
-        <v>149</v>
+        <v>204</v>
       </c>
       <c r="P58" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3930,13 +3943,13 @@
         <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="F59" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="G59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H59" t="s">
         <v>20</v>
@@ -3945,7 +3958,7 @@
         <v>1300</v>
       </c>
       <c r="J59" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K59" t="s">
         <v>21</v>
@@ -3960,15 +3973,15 @@
         <v>23</v>
       </c>
       <c r="O59" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="P59" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B60">
         <v>5</v>
@@ -3980,22 +3993,22 @@
         <v>5</v>
       </c>
       <c r="E60" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H60" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="I60">
         <v>1400</v>
       </c>
       <c r="J60" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K60" t="s">
         <v>22</v>
@@ -4007,18 +4020,18 @@
         <v>21</v>
       </c>
       <c r="N60" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="O60" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="P60" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -4030,13 +4043,13 @@
         <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="F61" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="G61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H61" t="s">
         <v>20</v>
@@ -4045,7 +4058,7 @@
         <v>1600</v>
       </c>
       <c r="J61" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K61" t="s">
         <v>21</v>
@@ -4060,10 +4073,10 @@
         <v>23</v>
       </c>
       <c r="O61" t="s">
-        <v>154</v>
+        <v>207</v>
       </c>
       <c r="P61" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/monitors.xlsx
+++ b/data/monitors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chandradeep/Desktop/MS/FrogAI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCD8E33-3396-1A4E-A928-A726FFCDB534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0743D032-31DE-C849-BAAF-EF1C00FDCEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1018,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="O41" sqref="O41"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2737,10 +2737,10 @@
         <v>8.5</v>
       </c>
       <c r="C35">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="D35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E35" t="s">
         <v>17</v>
@@ -2790,7 +2790,7 @@
         <v>7</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E36" t="s">
         <v>17</v>
@@ -2840,7 +2840,7 @@
         <v>7</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E37" t="s">
         <v>58</v>
@@ -2890,7 +2890,7 @@
         <v>9</v>
       </c>
       <c r="D38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E38" t="s">
         <v>58</v>
@@ -2940,7 +2940,7 @@
         <v>10</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E39" t="s">
         <v>58</v>

--- a/data/monitors.xlsx
+++ b/data/monitors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chandradeep/Desktop/MS/FrogAI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0743D032-31DE-C849-BAAF-EF1C00FDCEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E834976C-DCBB-484F-9E69-394E19B1B049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="20560" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1019,7 +1019,7 @@
   <dimension ref="A1:P61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/monitors.xlsx
+++ b/data/monitors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chandradeep/Desktop/MS/FrogAI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E834976C-DCBB-484F-9E69-394E19B1B049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EB27AE-ADED-384B-9D3C-6507A563B3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="20560" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="212">
   <si>
     <t>name</t>
   </si>
@@ -653,6 +653,9 @@
   </si>
   <si>
     <t>Broken HDR + bad for text + 3 year burn in warranty + glossy</t>
+  </si>
+  <si>
+    <t>text</t>
   </si>
 </sst>
 </file>
@@ -1016,20 +1019,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P61"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" customWidth="1"/>
-    <col min="15" max="15" width="41" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+    <col min="16" max="16" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1043,43 +1046,46 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1092,44 +1098,47 @@
       <c r="D2">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>500</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>5700</v>
       </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s">
         <v>22</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" t="s">
         <v>184</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1142,44 +1151,47 @@
       <c r="D3">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>20</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>800</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>28</v>
       </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M3" t="s">
         <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" t="s">
         <v>29</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1192,44 +1204,47 @@
       <c r="D4">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>27</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>20</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>800</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>28</v>
       </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M4" t="s">
         <v>22</v>
       </c>
       <c r="N4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" t="s">
         <v>179</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1242,44 +1257,47 @@
       <c r="D5">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>34</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>20</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>800</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>28</v>
       </c>
-      <c r="K5" t="s">
-        <v>21</v>
-      </c>
       <c r="L5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M5" t="s">
         <v>22</v>
       </c>
       <c r="N5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" t="s">
         <v>180</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -1292,44 +1310,47 @@
       <c r="D6">
         <v>7</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>37</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>34</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>38</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>900</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>28</v>
       </c>
-      <c r="K6" t="s">
-        <v>21</v>
-      </c>
       <c r="L6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M6" t="s">
         <v>22</v>
       </c>
       <c r="N6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" t="s">
         <v>181</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -1342,44 +1363,47 @@
       <c r="D7">
         <v>8</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>27</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>34</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>20</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>870</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>28</v>
       </c>
-      <c r="K7" t="s">
-        <v>21</v>
-      </c>
       <c r="L7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M7" t="s">
         <v>22</v>
       </c>
       <c r="N7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" t="s">
         <v>182</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -1392,27 +1416,27 @@
       <c r="D8">
         <v>3</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
         <v>43</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>44</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>45</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>46</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>150</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>47</v>
       </c>
-      <c r="K8" t="s">
-        <v>21</v>
-      </c>
       <c r="L8" t="s">
         <v>21</v>
       </c>
@@ -1420,16 +1444,19 @@
         <v>21</v>
       </c>
       <c r="N8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" t="s">
         <v>48</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -1442,27 +1469,27 @@
       <c r="D9">
         <v>5</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>18</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>45</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>20</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>260</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>5700</v>
       </c>
-      <c r="K9" t="s">
-        <v>21</v>
-      </c>
       <c r="L9" t="s">
         <v>21</v>
       </c>
@@ -1470,16 +1497,19 @@
         <v>21</v>
       </c>
       <c r="N9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" t="s">
         <v>48</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -1492,27 +1522,27 @@
       <c r="D10">
         <v>5</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
         <v>17</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>18</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>45</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>20</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>350</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>5700</v>
       </c>
-      <c r="K10" t="s">
-        <v>21</v>
-      </c>
       <c r="L10" t="s">
         <v>21</v>
       </c>
@@ -1520,16 +1550,19 @@
         <v>21</v>
       </c>
       <c r="N10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O10" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" t="s">
         <v>53</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -1542,27 +1575,27 @@
       <c r="D11">
         <v>5</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
         <v>17</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>18</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>45</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>20</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>380</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>5700</v>
       </c>
-      <c r="K11" t="s">
-        <v>21</v>
-      </c>
       <c r="L11" t="s">
         <v>21</v>
       </c>
@@ -1570,16 +1603,19 @@
         <v>21</v>
       </c>
       <c r="N11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O11" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" t="s">
         <v>48</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -1592,44 +1628,47 @@
       <c r="D12">
         <v>5</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
         <v>58</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>37</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>45</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>59</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>380</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>5700</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>22</v>
       </c>
-      <c r="L12" t="s">
-        <v>21</v>
-      </c>
       <c r="M12" t="s">
         <v>21</v>
       </c>
       <c r="N12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" t="s">
         <v>60</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>48</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -1642,27 +1681,27 @@
       <c r="D13">
         <v>3</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
         <v>17</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>63</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>45</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>38</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>400</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>5700</v>
       </c>
-      <c r="K13" t="s">
-        <v>21</v>
-      </c>
       <c r="L13" t="s">
         <v>21</v>
       </c>
@@ -1670,16 +1709,19 @@
         <v>21</v>
       </c>
       <c r="N13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13" t="s">
         <v>48</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -1692,44 +1734,47 @@
       <c r="D14">
         <v>5</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
         <v>17</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>18</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>45</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>20</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>420</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>66</v>
       </c>
-      <c r="K14" t="s">
-        <v>21</v>
-      </c>
       <c r="L14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" t="s">
         <v>22</v>
       </c>
-      <c r="M14" t="s">
-        <v>21</v>
-      </c>
       <c r="N14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P14" t="s">
         <v>183</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -1742,27 +1787,27 @@
       <c r="D15">
         <v>5</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
         <v>17</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>69</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>45</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>20</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>430</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>5700</v>
       </c>
-      <c r="K15" t="s">
-        <v>21</v>
-      </c>
       <c r="L15" t="s">
         <v>21</v>
       </c>
@@ -1770,16 +1815,19 @@
         <v>21</v>
       </c>
       <c r="N15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" t="s">
         <v>48</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -1792,44 +1840,47 @@
       <c r="D16">
         <v>5</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
         <v>58</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>37</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>45</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>59</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>750</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>5700</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>22</v>
       </c>
-      <c r="L16" t="s">
-        <v>21</v>
-      </c>
       <c r="M16" t="s">
         <v>21</v>
       </c>
       <c r="N16" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" t="s">
         <v>60</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>48</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -1842,44 +1893,47 @@
       <c r="D17">
         <v>5</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
         <v>74</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>37</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>45</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>75</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>1000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>5700</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>22</v>
       </c>
-      <c r="L17" t="s">
-        <v>21</v>
-      </c>
       <c r="M17" t="s">
         <v>21</v>
       </c>
       <c r="N17" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" t="s">
         <v>60</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>48</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -1892,27 +1946,27 @@
       <c r="D18">
         <v>5</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
         <v>17</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>44</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>45</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>20</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>450</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>5700</v>
       </c>
-      <c r="K18" t="s">
-        <v>21</v>
-      </c>
       <c r="L18" t="s">
         <v>21</v>
       </c>
@@ -1920,16 +1974,19 @@
         <v>21</v>
       </c>
       <c r="N18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O18" t="s">
+        <v>23</v>
+      </c>
+      <c r="P18" t="s">
         <v>48</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>79</v>
       </c>
@@ -1942,27 +1999,27 @@
       <c r="D19">
         <v>5</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
         <v>17</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>80</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>45</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>20</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>600</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>5700</v>
       </c>
-      <c r="K19" t="s">
-        <v>21</v>
-      </c>
       <c r="L19" t="s">
         <v>21</v>
       </c>
@@ -1970,16 +2027,19 @@
         <v>21</v>
       </c>
       <c r="N19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O19" t="s">
+        <v>23</v>
+      </c>
+      <c r="P19" t="s">
         <v>48</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>82</v>
       </c>
@@ -1992,27 +2052,27 @@
       <c r="D20">
         <v>5</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
         <v>17</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>44</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>45</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>20</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>600</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>5700</v>
       </c>
-      <c r="K20" t="s">
-        <v>21</v>
-      </c>
       <c r="L20" t="s">
         <v>21</v>
       </c>
@@ -2020,16 +2080,19 @@
         <v>21</v>
       </c>
       <c r="N20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O20" t="s">
+        <v>23</v>
+      </c>
+      <c r="P20" t="s">
         <v>186</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -2042,44 +2105,47 @@
       <c r="D21">
         <v>5</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21" t="s">
         <v>17</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>44</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>45</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>20</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>750</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>5700</v>
       </c>
-      <c r="K21" t="s">
-        <v>21</v>
-      </c>
       <c r="L21" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" t="s">
         <v>22</v>
       </c>
-      <c r="M21" t="s">
-        <v>21</v>
-      </c>
       <c r="N21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O21" t="s">
+        <v>23</v>
+      </c>
+      <c r="P21" t="s">
         <v>208</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -2092,27 +2158,27 @@
       <c r="D22">
         <v>5</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22" t="s">
         <v>17</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>87</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>45</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>20</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>1050</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>5700</v>
       </c>
-      <c r="K22" t="s">
-        <v>21</v>
-      </c>
       <c r="L22" t="s">
         <v>21</v>
       </c>
@@ -2120,16 +2186,19 @@
         <v>21</v>
       </c>
       <c r="N22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O22" t="s">
+        <v>23</v>
+      </c>
+      <c r="P22" t="s">
         <v>185</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -2142,44 +2211,47 @@
       <c r="D23">
         <v>5</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23" t="s">
         <v>17</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>18</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>90</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>20</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>250</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>5700</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>22</v>
       </c>
-      <c r="L23" t="s">
-        <v>21</v>
-      </c>
       <c r="M23" t="s">
         <v>21</v>
       </c>
       <c r="N23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O23" t="s">
+        <v>23</v>
+      </c>
+      <c r="P23" t="s">
         <v>48</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>92</v>
       </c>
@@ -2192,44 +2264,47 @@
       <c r="D24">
         <v>3</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
         <v>17</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>18</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>90</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>38</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>300</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>5700</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>22</v>
       </c>
-      <c r="L24" t="s">
-        <v>21</v>
-      </c>
       <c r="M24" t="s">
         <v>21</v>
       </c>
       <c r="N24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O24" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" t="s">
         <v>48</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -2242,44 +2317,47 @@
       <c r="D25">
         <v>7</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
         <v>26</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>95</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>90</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>38</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>350</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>5700</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>22</v>
       </c>
-      <c r="L25" t="s">
-        <v>21</v>
-      </c>
       <c r="M25" t="s">
         <v>21</v>
       </c>
       <c r="N25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O25" t="s">
+        <v>23</v>
+      </c>
+      <c r="P25" t="s">
         <v>48</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -2292,44 +2370,47 @@
       <c r="D26">
         <v>5</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26" t="s">
         <v>58</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>37</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>90</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>59</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>450</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>98</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>22</v>
       </c>
-      <c r="L26" t="s">
-        <v>21</v>
-      </c>
       <c r="M26" t="s">
         <v>21</v>
       </c>
       <c r="N26" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" t="s">
         <v>60</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>187</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -2342,44 +2423,47 @@
       <c r="D27">
         <v>5</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27" t="s">
         <v>17</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>18</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>101</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>20</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>500</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>5700</v>
       </c>
-      <c r="K27" t="s">
-        <v>21</v>
-      </c>
       <c r="L27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M27" t="s">
         <v>22</v>
       </c>
       <c r="N27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O27" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" t="s">
         <v>48</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>103</v>
       </c>
@@ -2392,27 +2476,27 @@
       <c r="D28">
         <v>8</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
         <v>26</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>37</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>45</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>104</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>600</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>28</v>
       </c>
-      <c r="K28" t="s">
-        <v>21</v>
-      </c>
       <c r="L28" t="s">
         <v>21</v>
       </c>
@@ -2420,16 +2504,19 @@
         <v>21</v>
       </c>
       <c r="N28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O28" t="s">
+        <v>23</v>
+      </c>
+      <c r="P28" t="s">
         <v>188</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -2442,27 +2529,27 @@
       <c r="D29">
         <v>8</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
         <v>26</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>37</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>45</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>104</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>600</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>28</v>
       </c>
-      <c r="K29" t="s">
-        <v>21</v>
-      </c>
       <c r="L29" t="s">
         <v>21</v>
       </c>
@@ -2470,16 +2557,19 @@
         <v>21</v>
       </c>
       <c r="N29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P29" t="s">
         <v>48</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>108</v>
       </c>
@@ -2492,27 +2582,27 @@
       <c r="D30">
         <v>7</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
         <v>26</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>37</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>45</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>38</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>650</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>28</v>
       </c>
-      <c r="K30" t="s">
-        <v>21</v>
-      </c>
       <c r="L30" t="s">
         <v>21</v>
       </c>
@@ -2520,16 +2610,19 @@
         <v>21</v>
       </c>
       <c r="N30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O30" t="s">
+        <v>23</v>
+      </c>
+      <c r="P30" t="s">
         <v>188</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>110</v>
       </c>
@@ -2542,27 +2635,27 @@
       <c r="D31">
         <v>7</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
         <v>26</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>27</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>90</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>38</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>650</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>28</v>
       </c>
-      <c r="K31" t="s">
-        <v>21</v>
-      </c>
       <c r="L31" t="s">
         <v>21</v>
       </c>
@@ -2570,16 +2663,19 @@
         <v>21</v>
       </c>
       <c r="N31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O31" t="s">
+        <v>23</v>
+      </c>
+      <c r="P31" t="s">
         <v>188</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>112</v>
       </c>
@@ -2592,44 +2688,47 @@
       <c r="D32">
         <v>8</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
         <v>26</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>95</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>113</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>20</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>700</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>28</v>
       </c>
-      <c r="K32" t="s">
-        <v>21</v>
-      </c>
       <c r="L32" t="s">
         <v>21</v>
       </c>
       <c r="M32" t="s">
+        <v>21</v>
+      </c>
+      <c r="N32" t="s">
         <v>22</v>
       </c>
-      <c r="N32" t="s">
-        <v>23</v>
-      </c>
       <c r="O32" t="s">
+        <v>23</v>
+      </c>
+      <c r="P32" t="s">
         <v>48</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>115</v>
       </c>
@@ -2642,44 +2741,47 @@
       <c r="D33">
         <v>7</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
         <v>26</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>116</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>34</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>38</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>3000</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>28</v>
       </c>
-      <c r="K33" t="s">
-        <v>21</v>
-      </c>
       <c r="L33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M33" t="s">
         <v>22</v>
       </c>
       <c r="N33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O33" t="s">
+        <v>23</v>
+      </c>
+      <c r="P33" t="s">
         <v>189</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>117</v>
       </c>
@@ -2692,44 +2794,47 @@
       <c r="D34">
         <v>10</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
         <v>118</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>95</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>119</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>38</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>5000</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>66</v>
       </c>
-      <c r="K34" t="s">
-        <v>21</v>
-      </c>
       <c r="L34" t="s">
         <v>21</v>
       </c>
       <c r="M34" t="s">
+        <v>21</v>
+      </c>
+      <c r="N34" t="s">
         <v>22</v>
       </c>
-      <c r="N34" t="s">
-        <v>23</v>
-      </c>
       <c r="O34" t="s">
+        <v>23</v>
+      </c>
+      <c r="P34" t="s">
         <v>190</v>
       </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>121</v>
       </c>
@@ -2742,44 +2847,47 @@
       <c r="D35">
         <v>4</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35" t="s">
         <v>17</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>44</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>122</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>20</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>1000</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>28</v>
       </c>
-      <c r="K35" t="s">
-        <v>21</v>
-      </c>
       <c r="L35" t="s">
         <v>21</v>
       </c>
       <c r="M35" t="s">
+        <v>21</v>
+      </c>
+      <c r="N35" t="s">
         <v>22</v>
       </c>
-      <c r="N35" t="s">
-        <v>23</v>
-      </c>
       <c r="O35" t="s">
+        <v>23</v>
+      </c>
+      <c r="P35" t="s">
         <v>191</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>124</v>
       </c>
@@ -2792,44 +2900,47 @@
       <c r="D36">
         <v>4</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36" t="s">
         <v>17</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>44</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>122</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>20</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>1000</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>28</v>
       </c>
-      <c r="K36" t="s">
-        <v>21</v>
-      </c>
       <c r="L36" t="s">
         <v>21</v>
       </c>
       <c r="M36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N36" t="s">
         <v>22</v>
       </c>
-      <c r="N36" t="s">
-        <v>23</v>
-      </c>
       <c r="O36" t="s">
+        <v>23</v>
+      </c>
+      <c r="P36" t="s">
         <v>191</v>
       </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>126</v>
       </c>
@@ -2842,44 +2953,47 @@
       <c r="D37">
         <v>1.5</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37">
+        <v>1.5</v>
+      </c>
+      <c r="F37" t="s">
         <v>58</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>44</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>122</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>20</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>1700</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>28</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>22</v>
       </c>
-      <c r="L37" t="s">
-        <v>21</v>
-      </c>
       <c r="M37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N37" t="s">
         <v>22</v>
       </c>
-      <c r="N37" t="s">
+      <c r="O37" t="s">
         <v>60</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>192</v>
       </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>128</v>
       </c>
@@ -2892,44 +3006,47 @@
       <c r="D38">
         <v>4</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38" t="s">
         <v>58</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>129</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>130</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>59</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>1100</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>28</v>
-      </c>
-      <c r="K38" t="s">
-        <v>22</v>
       </c>
       <c r="L38" t="s">
         <v>22</v>
       </c>
       <c r="M38" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N38" t="s">
+        <v>21</v>
+      </c>
+      <c r="O38" t="s">
         <v>60</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>210</v>
       </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>132</v>
       </c>
@@ -2942,26 +3059,26 @@
       <c r="D39">
         <v>4</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39" t="s">
         <v>58</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>129</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>130</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>59</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>1140</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>28</v>
-      </c>
-      <c r="K39" t="s">
-        <v>22</v>
       </c>
       <c r="L39" t="s">
         <v>22</v>
@@ -2970,16 +3087,19 @@
         <v>22</v>
       </c>
       <c r="N39" t="s">
+        <v>22</v>
+      </c>
+      <c r="O39" t="s">
         <v>60</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>194</v>
       </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>134</v>
       </c>
@@ -2992,44 +3112,47 @@
       <c r="D40">
         <v>7</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
         <v>26</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>95</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>135</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>38</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>2800</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>66</v>
       </c>
-      <c r="K40" t="s">
-        <v>21</v>
-      </c>
       <c r="L40" t="s">
+        <v>21</v>
+      </c>
+      <c r="M40" t="s">
         <v>22</v>
       </c>
-      <c r="M40" t="s">
-        <v>21</v>
-      </c>
       <c r="N40" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O40" t="s">
+        <v>23</v>
+      </c>
+      <c r="P40" t="s">
         <v>195</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>137</v>
       </c>
@@ -3042,44 +3165,47 @@
       <c r="D41">
         <v>7</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
         <v>26</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>95</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>135</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>38</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>2800</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>66</v>
       </c>
-      <c r="K41" t="s">
-        <v>21</v>
-      </c>
       <c r="L41" t="s">
+        <v>21</v>
+      </c>
+      <c r="M41" t="s">
         <v>22</v>
       </c>
-      <c r="M41" t="s">
-        <v>21</v>
-      </c>
       <c r="N41" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O41" t="s">
+        <v>23</v>
+      </c>
+      <c r="P41" t="s">
         <v>195</v>
       </c>
-      <c r="P41" t="s">
+      <c r="Q41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>138</v>
       </c>
@@ -3092,44 +3218,47 @@
       <c r="D42">
         <v>8</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42">
+        <v>8</v>
+      </c>
+      <c r="F42" t="s">
         <v>26</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>95</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>45</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>20</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>500</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>66</v>
       </c>
-      <c r="K42" t="s">
-        <v>21</v>
-      </c>
       <c r="L42" t="s">
+        <v>21</v>
+      </c>
+      <c r="M42" t="s">
         <v>22</v>
       </c>
-      <c r="M42" t="s">
-        <v>21</v>
-      </c>
       <c r="N42" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O42" t="s">
+        <v>23</v>
+      </c>
+      <c r="P42" t="s">
         <v>193</v>
       </c>
-      <c r="P42" t="s">
+      <c r="Q42" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>140</v>
       </c>
@@ -3142,44 +3271,47 @@
       <c r="D43">
         <v>7</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43">
+        <v>7</v>
+      </c>
+      <c r="F43" t="s">
         <v>26</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>95</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>45</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>38</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>1000</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>66</v>
       </c>
-      <c r="K43" t="s">
-        <v>21</v>
-      </c>
       <c r="L43" t="s">
+        <v>21</v>
+      </c>
+      <c r="M43" t="s">
         <v>22</v>
       </c>
-      <c r="M43" t="s">
-        <v>21</v>
-      </c>
       <c r="N43" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O43" t="s">
+        <v>23</v>
+      </c>
+      <c r="P43" t="s">
         <v>196</v>
       </c>
-      <c r="P43" t="s">
+      <c r="Q43" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>141</v>
       </c>
@@ -3192,27 +3324,27 @@
       <c r="D44">
         <v>3</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44" t="s">
         <v>43</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>44</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>45</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>142</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>280</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>47</v>
       </c>
-      <c r="K44" t="s">
-        <v>21</v>
-      </c>
       <c r="L44" t="s">
         <v>21</v>
       </c>
@@ -3220,16 +3352,19 @@
         <v>21</v>
       </c>
       <c r="N44" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O44" t="s">
+        <v>23</v>
+      </c>
+      <c r="P44" t="s">
         <v>197</v>
       </c>
-      <c r="P44" t="s">
+      <c r="Q44" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>144</v>
       </c>
@@ -3242,27 +3377,27 @@
       <c r="D45">
         <v>3</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45" t="s">
         <v>43</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>145</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>45</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>46</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>300</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>47</v>
       </c>
-      <c r="K45" t="s">
-        <v>21</v>
-      </c>
       <c r="L45" t="s">
         <v>21</v>
       </c>
@@ -3270,16 +3405,19 @@
         <v>21</v>
       </c>
       <c r="N45" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O45" t="s">
+        <v>23</v>
+      </c>
+      <c r="P45" t="s">
         <v>198</v>
       </c>
-      <c r="P45" t="s">
+      <c r="Q45" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>147</v>
       </c>
@@ -3292,27 +3430,27 @@
       <c r="D46">
         <v>3</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46" t="s">
         <v>43</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>87</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>148</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>46</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>600</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>47</v>
       </c>
-      <c r="K46" t="s">
-        <v>21</v>
-      </c>
       <c r="L46" t="s">
         <v>21</v>
       </c>
@@ -3320,16 +3458,19 @@
         <v>21</v>
       </c>
       <c r="N46" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O46" t="s">
+        <v>23</v>
+      </c>
+      <c r="P46" t="s">
         <v>199</v>
       </c>
-      <c r="P46" t="s">
+      <c r="Q46" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>150</v>
       </c>
@@ -3342,27 +3483,27 @@
       <c r="D47">
         <v>3</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47" t="s">
         <v>43</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>151</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>45</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>46</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>830</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>47</v>
       </c>
-      <c r="K47" t="s">
-        <v>21</v>
-      </c>
       <c r="L47" t="s">
         <v>21</v>
       </c>
@@ -3370,16 +3511,19 @@
         <v>21</v>
       </c>
       <c r="N47" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O47" t="s">
+        <v>23</v>
+      </c>
+      <c r="P47" t="s">
         <v>48</v>
       </c>
-      <c r="P47" t="s">
+      <c r="Q47" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>153</v>
       </c>
@@ -3392,27 +3536,27 @@
       <c r="D48">
         <v>5</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48">
+        <v>5</v>
+      </c>
+      <c r="F48" t="s">
         <v>17</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>154</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>45</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>20</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>250</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>66</v>
       </c>
-      <c r="K48" t="s">
-        <v>21</v>
-      </c>
       <c r="L48" t="s">
         <v>21</v>
       </c>
@@ -3420,16 +3564,19 @@
         <v>21</v>
       </c>
       <c r="N48" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O48" t="s">
+        <v>23</v>
+      </c>
+      <c r="P48" t="s">
         <v>155</v>
       </c>
-      <c r="P48" t="s">
+      <c r="Q48" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>157</v>
       </c>
@@ -3442,27 +3589,27 @@
       <c r="D49">
         <v>8</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49">
+        <v>8</v>
+      </c>
+      <c r="F49" t="s">
         <v>26</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>95</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>45</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>20</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>300</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>66</v>
       </c>
-      <c r="K49" t="s">
-        <v>21</v>
-      </c>
       <c r="L49" t="s">
         <v>21</v>
       </c>
@@ -3470,16 +3617,19 @@
         <v>21</v>
       </c>
       <c r="N49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O49" t="s">
+        <v>23</v>
+      </c>
+      <c r="P49" t="s">
         <v>155</v>
       </c>
-      <c r="P49" t="s">
+      <c r="Q49" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>159</v>
       </c>
@@ -3492,27 +3642,27 @@
       <c r="D50">
         <v>8</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50">
+        <v>8</v>
+      </c>
+      <c r="F50" t="s">
         <v>26</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>95</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>45</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>20</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>400</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>66</v>
       </c>
-      <c r="K50" t="s">
-        <v>21</v>
-      </c>
       <c r="L50" t="s">
         <v>21</v>
       </c>
@@ -3520,16 +3670,19 @@
         <v>21</v>
       </c>
       <c r="N50" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O50" t="s">
+        <v>23</v>
+      </c>
+      <c r="P50" t="s">
         <v>200</v>
       </c>
-      <c r="P50" t="s">
+      <c r="Q50" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>160</v>
       </c>
@@ -3542,44 +3695,47 @@
       <c r="D51">
         <v>5</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51">
+        <v>5</v>
+      </c>
+      <c r="F51" t="s">
         <v>58</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>95</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>45</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>59</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>450</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>66</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>22</v>
       </c>
-      <c r="L51" t="s">
-        <v>21</v>
-      </c>
       <c r="M51" t="s">
         <v>21</v>
       </c>
       <c r="N51" t="s">
+        <v>21</v>
+      </c>
+      <c r="O51" t="s">
         <v>60</v>
       </c>
-      <c r="O51" t="s">
+      <c r="P51" t="s">
         <v>200</v>
       </c>
-      <c r="P51" t="s">
+      <c r="Q51" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>161</v>
       </c>
@@ -3592,27 +3748,27 @@
       <c r="D52">
         <v>8</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52">
+        <v>8</v>
+      </c>
+      <c r="F52" t="s">
         <v>26</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>95</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>45</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>20</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>450</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>66</v>
       </c>
-      <c r="K52" t="s">
-        <v>21</v>
-      </c>
       <c r="L52" t="s">
         <v>21</v>
       </c>
@@ -3620,16 +3776,19 @@
         <v>21</v>
       </c>
       <c r="N52" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O52" t="s">
+        <v>23</v>
+      </c>
+      <c r="P52" t="s">
         <v>209</v>
       </c>
-      <c r="P52" t="s">
+      <c r="Q52" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>163</v>
       </c>
@@ -3642,44 +3801,47 @@
       <c r="D53">
         <v>5</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53" t="s">
         <v>58</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>95</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>45</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>59</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>480</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>66</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>22</v>
       </c>
-      <c r="L53" t="s">
-        <v>21</v>
-      </c>
       <c r="M53" t="s">
         <v>21</v>
       </c>
       <c r="N53" t="s">
+        <v>21</v>
+      </c>
+      <c r="O53" t="s">
         <v>60</v>
       </c>
-      <c r="O53" t="s">
+      <c r="P53" t="s">
         <v>201</v>
       </c>
-      <c r="P53" t="s">
+      <c r="Q53" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>164</v>
       </c>
@@ -3692,27 +3854,27 @@
       <c r="D54">
         <v>7</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54">
+        <v>7</v>
+      </c>
+      <c r="F54" t="s">
         <v>26</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>95</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>45</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>38</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>450</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>66</v>
       </c>
-      <c r="K54" t="s">
-        <v>21</v>
-      </c>
       <c r="L54" t="s">
         <v>21</v>
       </c>
@@ -3720,16 +3882,19 @@
         <v>21</v>
       </c>
       <c r="N54" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O54" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="P54" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>165</v>
       </c>
@@ -3742,27 +3907,27 @@
       <c r="D55">
         <v>7</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55">
+        <v>7</v>
+      </c>
+      <c r="F55" t="s">
         <v>166</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>95</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>45</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>104</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>600</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>66</v>
       </c>
-      <c r="K55" t="s">
-        <v>21</v>
-      </c>
       <c r="L55" t="s">
         <v>21</v>
       </c>
@@ -3770,16 +3935,19 @@
         <v>21</v>
       </c>
       <c r="N55" t="s">
+        <v>21</v>
+      </c>
+      <c r="O55" t="s">
         <v>167</v>
       </c>
-      <c r="O55" t="s">
+      <c r="P55" t="s">
         <v>202</v>
       </c>
-      <c r="P55" t="s">
+      <c r="Q55" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>168</v>
       </c>
@@ -3792,27 +3960,27 @@
       <c r="D56">
         <v>8</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56">
+        <v>8</v>
+      </c>
+      <c r="F56" t="s">
         <v>26</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>95</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>169</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>20</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>600</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>66</v>
       </c>
-      <c r="K56" t="s">
-        <v>21</v>
-      </c>
       <c r="L56" t="s">
         <v>21</v>
       </c>
@@ -3820,16 +3988,19 @@
         <v>21</v>
       </c>
       <c r="N56" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O56" t="s">
+        <v>23</v>
+      </c>
+      <c r="P56" t="s">
         <v>205</v>
       </c>
-      <c r="P56" t="s">
+      <c r="Q56" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>171</v>
       </c>
@@ -3842,27 +4013,27 @@
       <c r="D57">
         <v>7</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57">
+        <v>7</v>
+      </c>
+      <c r="F57" t="s">
         <v>26</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>95</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>45</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>38</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>700</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>66</v>
       </c>
-      <c r="K57" t="s">
-        <v>21</v>
-      </c>
       <c r="L57" t="s">
         <v>21</v>
       </c>
@@ -3870,16 +4041,19 @@
         <v>21</v>
       </c>
       <c r="N57" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O57" t="s">
+        <v>23</v>
+      </c>
+      <c r="P57" t="s">
         <v>203</v>
       </c>
-      <c r="P57" t="s">
+      <c r="Q57" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>172</v>
       </c>
@@ -3892,27 +4066,27 @@
       <c r="D58">
         <v>7</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58">
+        <v>7</v>
+      </c>
+      <c r="F58" t="s">
         <v>26</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>95</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>169</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>38</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>850</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>66</v>
       </c>
-      <c r="K58" t="s">
-        <v>21</v>
-      </c>
       <c r="L58" t="s">
         <v>21</v>
       </c>
@@ -3920,16 +4094,19 @@
         <v>21</v>
       </c>
       <c r="N58" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O58" t="s">
+        <v>23</v>
+      </c>
+      <c r="P58" t="s">
         <v>204</v>
       </c>
-      <c r="P58" t="s">
+      <c r="Q58" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>174</v>
       </c>
@@ -3942,27 +4119,27 @@
       <c r="D59">
         <v>10</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59">
+        <v>10</v>
+      </c>
+      <c r="F59" t="s">
         <v>175</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>95</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>45</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>20</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>1300</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>66</v>
       </c>
-      <c r="K59" t="s">
-        <v>21</v>
-      </c>
       <c r="L59" t="s">
         <v>21</v>
       </c>
@@ -3970,16 +4147,19 @@
         <v>21</v>
       </c>
       <c r="N59" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O59" t="s">
+        <v>23</v>
+      </c>
+      <c r="P59" t="s">
         <v>206</v>
       </c>
-      <c r="P59" t="s">
+      <c r="Q59" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>176</v>
       </c>
@@ -3992,44 +4172,47 @@
       <c r="D60">
         <v>5</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="F60" t="s">
         <v>74</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>37</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>45</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>75</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>1400</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>66</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
         <v>22</v>
       </c>
-      <c r="L60" t="s">
-        <v>21</v>
-      </c>
       <c r="M60" t="s">
         <v>21</v>
       </c>
       <c r="N60" t="s">
+        <v>21</v>
+      </c>
+      <c r="O60" t="s">
         <v>60</v>
       </c>
-      <c r="O60" t="s">
+      <c r="P60" t="s">
         <v>201</v>
       </c>
-      <c r="P60" t="s">
+      <c r="Q60" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>177</v>
       </c>
@@ -4042,27 +4225,27 @@
       <c r="D61">
         <v>10</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61">
+        <v>10</v>
+      </c>
+      <c r="F61" t="s">
         <v>175</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>95</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>45</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>20</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>1600</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>66</v>
       </c>
-      <c r="K61" t="s">
-        <v>21</v>
-      </c>
       <c r="L61" t="s">
         <v>21</v>
       </c>
@@ -4070,12 +4253,15 @@
         <v>21</v>
       </c>
       <c r="N61" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O61" t="s">
+        <v>23</v>
+      </c>
+      <c r="P61" t="s">
         <v>207</v>
       </c>
-      <c r="P61" t="s">
+      <c r="Q61" t="s">
         <v>178</v>
       </c>
     </row>

--- a/data/monitors.xlsx
+++ b/data/monitors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chandradeep/Desktop/MS/FrogAI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E0F0C3-2715-554F-8BEF-6A1C3237220B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE4AF68-7428-2A4F-9131-D6E2CDFE3D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="20560" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,27 @@
     <t>name</t>
   </si>
   <si>
+    <t>persistence</t>
+  </si>
+  <si>
+    <t>response</t>
+  </si>
+  <si>
+    <t>contrast</t>
+  </si>
+  <si>
+    <t>brightness</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
     <t>sharp</t>
   </si>
   <si>
+    <t>subpixel</t>
+  </si>
+  <si>
     <t>res</t>
   </si>
   <si>
@@ -88,6 +106,9 @@
     <t>Wide</t>
   </si>
   <si>
+    <t>VRR+HDR flickering + other firmware issues</t>
+  </si>
+  <si>
     <t>TFTCentral,https://tftcentral.co.uk/reviews/cooler-master-tempest-gp27q;Hardware Unboxed,https://www.youtube.com/watch?v=G6MS45GqcJ4</t>
   </si>
   <si>
@@ -112,6 +133,9 @@
     <t>KTC M27P20 Pro</t>
   </si>
   <si>
+    <t>Likely buggy firmware</t>
+  </si>
+  <si>
     <t>techless,https://www.youtube.com/watch?v=xINKVAGOiAs</t>
   </si>
   <si>
@@ -121,6 +145,9 @@
     <t>IPS MiniLED 1152 zones</t>
   </si>
   <si>
+    <t>Slightly buggy firmware + reports of coil whine</t>
+  </si>
+  <si>
     <t>Chimolog,https://chimolog.co/bto-gaming-monitor-innocn-27m2v/</t>
   </si>
   <si>
@@ -133,12 +160,18 @@
     <t>32"</t>
   </si>
   <si>
+    <t>Slightly buggy firmware</t>
+  </si>
+  <si>
     <t>Chimolog,https://chimolog.co/bto-gaming-monitor-innocn-32m2v/</t>
   </si>
   <si>
     <t>Nubia RedMagic 4K</t>
   </si>
   <si>
+    <t>Reports of coil whine</t>
+  </si>
+  <si>
     <t>Snowman,https://www.youtube.com/watch?v=AHJ0yUUuPkE</t>
   </si>
   <si>
@@ -217,6 +250,9 @@
     <t>floor</t>
   </si>
   <si>
+    <t>Non QD version is similar except for Adobe RGB coverage</t>
+  </si>
+  <si>
     <t>Hardware Unboxed,https://www.youtube.com/watch?v=i3X3yFh0-gE;RTINGS,https://www.rtings.com/monitor/reviews/msi/optix-mag274qrf-qd</t>
   </si>
   <si>
@@ -265,12 +301,18 @@
     <t>Dell AW2721D</t>
   </si>
   <si>
+    <t>Brighter than 23DF + has Gsync module +  more overshoot</t>
+  </si>
+  <si>
     <t xml:space="preserve">RTINGS,https://www.rtings.com/monitor/tools/compare/dell-alienware-aw2721d-vs-dell-alienware-aw2723df/20236/34684?usage=3623&amp;threshold=0.10 </t>
   </si>
   <si>
     <t>Asus PG279QM</t>
   </si>
   <si>
+    <t>GSync module + factory calibrated</t>
+  </si>
+  <si>
     <t>Hardware Unboxed,https://www.youtube.com/watch?v=Th3LLfm7nl0;RTINGS,https://www.rtings.com/monitor/reviews/asus/rog-swift-pg279qm</t>
   </si>
   <si>
@@ -280,6 +322,9 @@
     <t>360hz</t>
   </si>
   <si>
+    <t>GSync module</t>
+  </si>
+  <si>
     <t>RTINGS,https://www.rtings.com/monitor/reviews/asus/rog-swift-360hz-pg27aqn;Hardware Unboxed,https://www.youtube.com/watch?v=eYFtLBM3a78</t>
   </si>
   <si>
@@ -313,6 +358,9 @@
     <t>1080ti</t>
   </si>
   <si>
+    <t>Surprisingly good uniformity for budget VA</t>
+  </si>
+  <si>
     <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/s3422dwg</t>
   </si>
   <si>
@@ -331,6 +379,9 @@
     <t>28"</t>
   </si>
   <si>
+    <t>Bandwidth not enough for ps5</t>
+  </si>
+  <si>
     <t xml:space="preserve">RTINGS,https://www.rtings.com/monitor/reviews/gigabyte/m28u;Hardware Unboxed,https://www.youtube.com/watch?v=xnJjuQdQiyo </t>
   </si>
   <si>
@@ -367,6 +418,9 @@
     <t>120hz</t>
   </si>
   <si>
+    <t>Hardware calibration + massive heatsink for sustained brightness + type-c hub</t>
+  </si>
+  <si>
     <t>Apple Pro Display XDR</t>
   </si>
   <si>
@@ -376,6 +430,9 @@
     <t>IPS FALD 576 zones</t>
   </si>
   <si>
+    <t>Hardware calibration + massive heatsink for sustained brightness + type-c hub + glossy</t>
+  </si>
+  <si>
     <t>HDTVTest,https://www.youtube.com/watch?v=rtd7UzLJHrU</t>
   </si>
   <si>
@@ -385,6 +442,9 @@
     <t>W-OLED</t>
   </si>
   <si>
+    <t>Heavy matte coating + bad for text + burn in risk</t>
+  </si>
+  <si>
     <t>RTINGS,https://www.rtings.com/monitor/reviews/lg/27gr95qe-b;Hardware Unboxed,https://www.youtube.com/watch?v=2YBJFYGtmQk</t>
   </si>
   <si>
@@ -397,6 +457,9 @@
     <t>LG 45GR95QE</t>
   </si>
   <si>
+    <t>Heavy matte coating + low ppi + bad for text + burn in risk</t>
+  </si>
+  <si>
     <t>RTINGS,https://www.rtings.com/monitor/reviews/lg/45gr95qe-b</t>
   </si>
   <si>
@@ -409,12 +472,18 @@
     <t>QD-OLED</t>
   </si>
   <si>
+    <t>Broken HDR + bad for text + 3 year burn in warranty + glossy</t>
+  </si>
+  <si>
     <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/alienware-aw3423dwf;Hardware Unboxed,https://www.youtube.com/watch?v=b0aLF3KVOTQ</t>
   </si>
   <si>
     <t>Alienware AW3423DW</t>
   </si>
   <si>
+    <t>Bad for text + 3 year burn in warranty + glossy</t>
+  </si>
+  <si>
     <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/alienware-aw3423dw;Hardware Unboxed,https://www.youtube.com/watch?v=YleSuwK8vR4</t>
   </si>
   <si>
@@ -424,6 +493,9 @@
     <t>Inkjet OLED</t>
   </si>
   <si>
+    <t>Hardware calibration + sdr only + massive heatsink for sustained brightness + type-c hub + burn-in risk</t>
+  </si>
+  <si>
     <t>Techtesters,https://www.youtube.com/watch?v=5A0S1wDwR3k</t>
   </si>
   <si>
@@ -433,18 +505,27 @@
     <t>Asus PA279CRV</t>
   </si>
   <si>
+    <t>Type-c hub with 96W charging</t>
+  </si>
+  <si>
     <t>Teoh on Tech,https://www.youtube.com/watch?v=kPBZPfEfA9Y</t>
   </si>
   <si>
     <t>Asus PA329C</t>
   </si>
   <si>
+    <t>Type-c hub with 65W</t>
+  </si>
+  <si>
     <t>Viewsonic XG2431</t>
   </si>
   <si>
     <t>24"</t>
   </si>
   <si>
+    <t>Great strobing</t>
+  </si>
+  <si>
     <t>RTINGS,https://www.rtings.com/monitor/reviews/viewsonic/xg2431;Bijan Jamshidi,https://www.youtube.com/watch?v=TdTwRDa9URo</t>
   </si>
   <si>
@@ -454,6 +535,9 @@
     <t>390hz</t>
   </si>
   <si>
+    <t>Decent but with strobing only</t>
+  </si>
+  <si>
     <t>techless,https://www.youtube.com/watch?v=x7PDKjUhi_I</t>
   </si>
   <si>
@@ -463,6 +547,9 @@
     <t>TN</t>
   </si>
   <si>
+    <t>Best-in-class strobing with few artifacts and cross talk + buy only if you can run at 360hz</t>
+  </si>
+  <si>
     <t>Bijan Jamshidi,https://www.youtube.com/watch?v=ts_O8pFgYQg;RTINGS,https://www.rtings.com/monitor/reviews/benq/zowie-xl2566k</t>
   </si>
   <si>
@@ -496,18 +583,27 @@
     <t>Dell S2722QC</t>
   </si>
   <si>
+    <t>Type-c hub with 65W charging</t>
+  </si>
+  <si>
     <t>LG 34WQ75C</t>
   </si>
   <si>
     <t>Asus PA279CV</t>
   </si>
   <si>
+    <t>Type-c hub with 65W charging +  factory calibrated</t>
+  </si>
+  <si>
     <t xml:space="preserve"> https://www.youtube.com/watch?v=kPBZPfEfA9Y</t>
   </si>
   <si>
     <t>LG 34WQ73A</t>
   </si>
   <si>
+    <t>Type-c hub with 90W charging</t>
+  </si>
+  <si>
     <t>LG 32UN650</t>
   </si>
   <si>
@@ -520,21 +616,33 @@
     <t>Tall</t>
   </si>
   <si>
+    <t>Type-c hub with 90W usb-c charging</t>
+  </si>
+  <si>
     <t>Dell U2723QE</t>
   </si>
   <si>
     <t>IPS Black</t>
   </si>
   <si>
+    <t>Type-c and ethernet hub with 90W charging  + slightly higher contrast than standard IPS</t>
+  </si>
+  <si>
     <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/u2723qe</t>
   </si>
   <si>
     <t>Asus PA329CV</t>
   </si>
   <si>
+    <t>Type-c hub with 65W charging + factory calibrated</t>
+  </si>
+  <si>
     <t>Dell U3223QE</t>
   </si>
   <si>
+    <t>Type-c and ethernet hub with 90W charging + slightly higher contrast than regular IPS</t>
+  </si>
+  <si>
     <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/u3223qe</t>
   </si>
   <si>
@@ -544,127 +652,19 @@
     <t>5120x2880</t>
   </si>
   <si>
+    <t>Type-c hub with 96W charging + factory calibrated + glossy +  reports of motherboard failure</t>
+  </si>
+  <si>
     <t>LG 38WN95C</t>
   </si>
   <si>
     <t>Apple Studio Display</t>
   </si>
   <si>
+    <t>Type-c hub with 96W charging + factory calibrated + glossy</t>
+  </si>
+  <si>
     <t>RTINGS,https://www.rtings.com/monitor/reviews/apple/studio-display</t>
-  </si>
-  <si>
-    <t>Likely buggy firmware</t>
-  </si>
-  <si>
-    <t>Slightly buggy firmware + reports of coil whine</t>
-  </si>
-  <si>
-    <t>Slightly buggy firmware</t>
-  </si>
-  <si>
-    <t>Reports of coil whine</t>
-  </si>
-  <si>
-    <t>Non QD version is similar except for Adobe RGB coverage</t>
-  </si>
-  <si>
-    <t>VRR+HDR flickering + other firmware issues</t>
-  </si>
-  <si>
-    <t>GSync module</t>
-  </si>
-  <si>
-    <t>Brighter than 23DF + has Gsync module +  more overshoot</t>
-  </si>
-  <si>
-    <t>Surprisingly good uniformity for budget VA</t>
-  </si>
-  <si>
-    <t>Bandwidth not enough for ps5</t>
-  </si>
-  <si>
-    <t>Hardware calibration + massive heatsink for sustained brightness + type-c hub</t>
-  </si>
-  <si>
-    <t>Hardware calibration + massive heatsink for sustained brightness + type-c hub + glossy</t>
-  </si>
-  <si>
-    <t>Heavy matte coating + bad for text + burn in risk</t>
-  </si>
-  <si>
-    <t>Heavy matte coating + low ppi + bad for text + burn in risk</t>
-  </si>
-  <si>
-    <t>Type-c hub with 96W charging</t>
-  </si>
-  <si>
-    <t>Bad for text + 3 year burn in warranty + glossy</t>
-  </si>
-  <si>
-    <t>Hardware calibration + sdr only + massive heatsink for sustained brightness + type-c hub + burn-in risk</t>
-  </si>
-  <si>
-    <t>Type-c hub with 65W</t>
-  </si>
-  <si>
-    <t>Great strobing</t>
-  </si>
-  <si>
-    <t>Decent but with strobing only</t>
-  </si>
-  <si>
-    <t>Best-in-class strobing with few artifacts and cross talk + buy only if you can run at 360hz</t>
-  </si>
-  <si>
-    <t>Type-c hub with 65W charging</t>
-  </si>
-  <si>
-    <t>Type-c hub with 90W charging</t>
-  </si>
-  <si>
-    <t>Type-c hub with 90W usb-c charging</t>
-  </si>
-  <si>
-    <t>Type-c hub with 65W charging + factory calibrated</t>
-  </si>
-  <si>
-    <t>Type-c and ethernet hub with 90W charging + slightly higher contrast than regular IPS</t>
-  </si>
-  <si>
-    <t>Type-c and ethernet hub with 90W charging  + slightly higher contrast than standard IPS</t>
-  </si>
-  <si>
-    <t>Type-c hub with 96W charging + factory calibrated + glossy +  reports of motherboard failure</t>
-  </si>
-  <si>
-    <t>Type-c hub with 96W charging + factory calibrated + glossy</t>
-  </si>
-  <si>
-    <t>GSync module + factory calibrated</t>
-  </si>
-  <si>
-    <t>Type-c hub with 65W charging +  factory calibrated</t>
-  </si>
-  <si>
-    <t>Broken HDR + bad for text + 3 year burn in warranty + glossy</t>
-  </si>
-  <si>
-    <t>persistence</t>
-  </si>
-  <si>
-    <t>response</t>
-  </si>
-  <si>
-    <t>contrast</t>
-  </si>
-  <si>
-    <t>brightness</t>
-  </si>
-  <si>
-    <t>volume</t>
-  </si>
-  <si>
-    <t>subpixel</t>
   </si>
 </sst>
 </file>
@@ -1030,16 +1030,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" customWidth="1"/>
-    <col min="19" max="19" width="41" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
@@ -1047,81 +1044,81 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>209</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>210</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>211</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>212</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>213</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>214</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>6.3</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="D2">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -1130,16 +1127,16 @@
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M2">
         <v>500</v>
@@ -1148,42 +1145,42 @@
         <v>5700</v>
       </c>
       <c r="O2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="R2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S2" t="s">
-        <v>182</v>
+        <v>28</v>
       </c>
       <c r="T2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="D3">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -1192,60 +1189,60 @@
         <v>8</v>
       </c>
       <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
         <v>24</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
       </c>
       <c r="M3">
         <v>800</v>
       </c>
       <c r="N3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" t="s">
         <v>26</v>
       </c>
-      <c r="O3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" t="s">
-        <v>20</v>
-      </c>
       <c r="Q3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="R3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="T3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="D4">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="F4">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="G4">
         <v>8</v>
@@ -1254,51 +1251,51 @@
         <v>8</v>
       </c>
       <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
         <v>24</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" t="s">
-        <v>18</v>
       </c>
       <c r="M4">
         <v>800</v>
       </c>
       <c r="N4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" t="s">
         <v>26</v>
       </c>
-      <c r="O4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" t="s">
-        <v>20</v>
-      </c>
       <c r="Q4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="R4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S4" t="s">
-        <v>177</v>
+        <v>37</v>
       </c>
       <c r="T4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -1316,60 +1313,60 @@
         <v>8</v>
       </c>
       <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" t="s">
         <v>24</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" t="s">
-        <v>18</v>
       </c>
       <c r="M5">
         <v>800</v>
       </c>
       <c r="N5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" t="s">
         <v>26</v>
       </c>
-      <c r="O5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" t="s">
-        <v>20</v>
-      </c>
       <c r="Q5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="R5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S5" t="s">
-        <v>178</v>
+        <v>41</v>
       </c>
       <c r="T5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>5.8</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D6">
         <v>7.5</v>
       </c>
       <c r="E6">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="G6">
         <v>7</v>
@@ -1378,51 +1375,51 @@
         <v>7</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K6" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="L6" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M6">
         <v>900</v>
       </c>
       <c r="N6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" t="s">
         <v>26</v>
       </c>
-      <c r="O6" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" t="s">
-        <v>20</v>
-      </c>
       <c r="Q6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="R6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S6" t="s">
-        <v>179</v>
+        <v>46</v>
       </c>
       <c r="T6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -1440,60 +1437,60 @@
         <v>8</v>
       </c>
       <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" t="s">
         <v>24</v>
-      </c>
-      <c r="J7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" t="s">
-        <v>18</v>
       </c>
       <c r="M7">
         <v>870</v>
       </c>
       <c r="N7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" t="s">
         <v>26</v>
       </c>
-      <c r="O7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P7" t="s">
-        <v>20</v>
-      </c>
       <c r="Q7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="R7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S7" t="s">
-        <v>180</v>
+        <v>49</v>
       </c>
       <c r="T7" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="D8">
         <v>1.75</v>
       </c>
       <c r="E8">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1502,51 +1499,51 @@
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="K8" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="L8" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="M8">
         <v>150</v>
       </c>
       <c r="N8" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="O8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S8" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="T8" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B9">
-        <v>4.5</v>
+        <v>6.3</v>
       </c>
       <c r="C9">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1564,16 +1561,16 @@
         <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K9" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M9">
         <v>260</v>
@@ -1582,33 +1579,33 @@
         <v>5700</v>
       </c>
       <c r="O9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S9" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="T9" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B10">
-        <v>4.75</v>
+        <v>6.3</v>
       </c>
       <c r="C10">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1626,16 +1623,16 @@
         <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K10" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="L10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M10">
         <v>350</v>
@@ -1644,42 +1641,42 @@
         <v>5700</v>
       </c>
       <c r="O10" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P10" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q10" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R10" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S10" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="T10" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>6.3</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="D11">
         <v>1.75</v>
       </c>
       <c r="E11">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -1688,16 +1685,16 @@
         <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K11" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="L11" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M11">
         <v>380</v>
@@ -1706,33 +1703,33 @@
         <v>5700</v>
       </c>
       <c r="O11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S11" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="T11" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>5.8</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1750,16 +1747,16 @@
         <v>5</v>
       </c>
       <c r="I12" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K12" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="L12" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="M12">
         <v>380</v>
@@ -1768,33 +1765,33 @@
         <v>5700</v>
       </c>
       <c r="O12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="P12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R12" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="S12" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="T12" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>6.4</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1812,16 +1809,16 @@
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J13" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K13" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="L13" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M13">
         <v>400</v>
@@ -1830,33 +1827,33 @@
         <v>5700</v>
       </c>
       <c r="O13" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P13" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q13" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R13" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S13" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="T13" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>6.3</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1874,60 +1871,60 @@
         <v>5</v>
       </c>
       <c r="I14" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J14" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K14" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="L14" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M14">
         <v>420</v>
       </c>
       <c r="N14" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="O14" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P14" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="Q14" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R14" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S14" t="s">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="T14" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>6.6</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15">
         <v>1.75</v>
       </c>
       <c r="E15">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="G15">
         <v>5</v>
@@ -1936,16 +1933,16 @@
         <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J15" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="K15" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="L15" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M15">
         <v>430</v>
@@ -1954,42 +1951,42 @@
         <v>5700</v>
       </c>
       <c r="O15" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P15" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q15" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R15" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S15" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="T15" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="D16">
         <v>1.75</v>
       </c>
       <c r="E16">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -1998,16 +1995,16 @@
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J16" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K16" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="L16" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="M16">
         <v>750</v>
@@ -2016,33 +2013,33 @@
         <v>5700</v>
       </c>
       <c r="O16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="P16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R16" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="S16" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="T16" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B17">
-        <v>3.5</v>
+        <v>5.8</v>
       </c>
       <c r="C17">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -2060,16 +2057,16 @@
         <v>5</v>
       </c>
       <c r="I17" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="J17" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K17" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="L17" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="M17">
         <v>1000</v>
@@ -2078,33 +2075,33 @@
         <v>5700</v>
       </c>
       <c r="O17" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="P17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R17" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="S17" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="T17" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>6.75</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -2122,16 +2119,16 @@
         <v>5</v>
       </c>
       <c r="I18" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="K18" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="L18" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M18">
         <v>450</v>
@@ -2140,30 +2137,30 @@
         <v>5700</v>
       </c>
       <c r="O18" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P18" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q18" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R18" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S18" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="T18" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>7.9</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -2172,10 +2169,10 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G19">
         <v>5</v>
@@ -2184,16 +2181,16 @@
         <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J19" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="L19" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M19">
         <v>600</v>
@@ -2202,30 +2199,30 @@
         <v>5700</v>
       </c>
       <c r="O19" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P19" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q19" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R19" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S19" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="T19" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -2234,10 +2231,10 @@
         <v>2</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G20">
         <v>5</v>
@@ -2246,16 +2243,16 @@
         <v>5</v>
       </c>
       <c r="I20" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J20" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="K20" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="L20" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M20">
         <v>600</v>
@@ -2264,42 +2261,42 @@
         <v>5700</v>
       </c>
       <c r="O20" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P20" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q20" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R20" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S20" t="s">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c r="T20" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B21">
-        <v>7.25</v>
+        <v>7.5</v>
       </c>
       <c r="C21">
-        <v>7.25</v>
+        <v>7.1</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21">
         <v>5</v>
@@ -2308,16 +2305,16 @@
         <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J21" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="K21" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="L21" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M21">
         <v>750</v>
@@ -2326,42 +2323,42 @@
         <v>5700</v>
       </c>
       <c r="O21" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P21" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="Q21" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R21" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S21" t="s">
-        <v>206</v>
+        <v>96</v>
       </c>
       <c r="T21" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B22">
-        <v>8.75</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C22">
-        <v>8.75</v>
+        <v>7.5</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G22">
         <v>5</v>
@@ -2370,16 +2367,16 @@
         <v>5</v>
       </c>
       <c r="I22" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J22" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="K22" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="L22" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M22">
         <v>1050</v>
@@ -2388,42 +2385,42 @@
         <v>5700</v>
       </c>
       <c r="O22" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P22" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q22" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R22" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S22" t="s">
-        <v>183</v>
+        <v>100</v>
       </c>
       <c r="T22" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>6.3</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23">
         <v>5</v>
@@ -2432,16 +2429,16 @@
         <v>5</v>
       </c>
       <c r="I23" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J23" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K23" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="L23" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M23">
         <v>250</v>
@@ -2450,42 +2447,42 @@
         <v>5700</v>
       </c>
       <c r="O23" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="P23" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q23" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R23" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S23" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="T23" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="B24">
-        <v>3.5</v>
+        <v>6.3</v>
       </c>
       <c r="C24">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -2494,16 +2491,16 @@
         <v>3</v>
       </c>
       <c r="I24" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J24" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K24" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="L24" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M24">
         <v>300</v>
@@ -2512,27 +2509,27 @@
         <v>5700</v>
       </c>
       <c r="O24" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="P24" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q24" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R24" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S24" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="T24" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2544,10 +2541,10 @@
         <v>3</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G25">
         <v>7</v>
@@ -2556,16 +2553,16 @@
         <v>7</v>
       </c>
       <c r="I25" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J25" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="K25" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="L25" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M25">
         <v>350</v>
@@ -2574,30 +2571,30 @@
         <v>5700</v>
       </c>
       <c r="O25" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="P25" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q25" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R25" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S25" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="T25" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="B26">
-        <v>3.5</v>
+        <v>5.8</v>
       </c>
       <c r="C26">
         <v>3.5</v>
@@ -2606,10 +2603,10 @@
         <v>3.5</v>
       </c>
       <c r="E26">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="G26">
         <v>5</v>
@@ -2618,57 +2615,57 @@
         <v>5</v>
       </c>
       <c r="I26" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J26" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K26" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="L26" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="M26">
         <v>450</v>
       </c>
       <c r="N26" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="O26" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="P26" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q26" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R26" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="S26" t="s">
-        <v>185</v>
+        <v>112</v>
       </c>
       <c r="T26" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="B27">
-        <v>3.5</v>
+        <v>6.3</v>
       </c>
       <c r="C27">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F27">
         <v>6</v>
@@ -2680,16 +2677,16 @@
         <v>5</v>
       </c>
       <c r="I27" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J27" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K27" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="L27" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M27">
         <v>500</v>
@@ -2698,33 +2695,33 @@
         <v>5700</v>
       </c>
       <c r="O27" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P27" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="Q27" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="R27" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S27" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="T27" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -2742,51 +2739,51 @@
         <v>8</v>
       </c>
       <c r="I28" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J28" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K28" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="L28" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="M28">
         <v>600</v>
       </c>
       <c r="N28" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="O28" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P28" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q28" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R28" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S28" t="s">
-        <v>186</v>
+        <v>119</v>
       </c>
       <c r="T28" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -2804,51 +2801,51 @@
         <v>8</v>
       </c>
       <c r="I29" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J29" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K29" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="L29" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="M29">
         <v>600</v>
       </c>
       <c r="N29" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="O29" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P29" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q29" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R29" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S29" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="T29" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -2866,48 +2863,48 @@
         <v>7</v>
       </c>
       <c r="I30" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J30" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K30" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="L30" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M30">
         <v>650</v>
       </c>
       <c r="N30" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="O30" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P30" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q30" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R30" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S30" t="s">
-        <v>186</v>
+        <v>119</v>
       </c>
       <c r="T30" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>6.3</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -2916,10 +2913,10 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G31">
         <v>7</v>
@@ -2928,45 +2925,45 @@
         <v>7</v>
       </c>
       <c r="I31" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J31" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="K31" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="L31" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M31">
         <v>650</v>
       </c>
       <c r="N31" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="O31" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P31" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q31" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R31" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S31" t="s">
-        <v>186</v>
+        <v>119</v>
       </c>
       <c r="T31" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2975,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E32">
         <v>4</v>
@@ -2990,60 +2987,60 @@
         <v>8</v>
       </c>
       <c r="I32" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" t="s">
+        <v>108</v>
+      </c>
+      <c r="K32" t="s">
+        <v>128</v>
+      </c>
+      <c r="L32" t="s">
         <v>24</v>
-      </c>
-      <c r="J32" t="s">
-        <v>93</v>
-      </c>
-      <c r="K32" t="s">
-        <v>111</v>
-      </c>
-      <c r="L32" t="s">
-        <v>18</v>
       </c>
       <c r="M32">
         <v>700</v>
       </c>
       <c r="N32" t="s">
+        <v>33</v>
+      </c>
+      <c r="O32" t="s">
+        <v>25</v>
+      </c>
+      <c r="P32" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q32" t="s">
         <v>26</v>
       </c>
-      <c r="O32" t="s">
-        <v>19</v>
-      </c>
-      <c r="P32" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>20</v>
-      </c>
       <c r="R32" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S32" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="T32" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>7</v>
       </c>
       <c r="E33">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G33">
         <v>7</v>
@@ -3052,45 +3049,45 @@
         <v>7</v>
       </c>
       <c r="I33" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J33" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="K33" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="L33" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M33">
         <v>3000</v>
       </c>
       <c r="N33" t="s">
+        <v>33</v>
+      </c>
+      <c r="O33" t="s">
+        <v>25</v>
+      </c>
+      <c r="P33" t="s">
         <v>26</v>
       </c>
-      <c r="O33" t="s">
-        <v>19</v>
-      </c>
-      <c r="P33" t="s">
-        <v>20</v>
-      </c>
       <c r="Q33" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="R33" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S33" t="s">
-        <v>187</v>
+        <v>132</v>
       </c>
       <c r="T33" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -3099,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E34">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F34">
         <v>7</v>
@@ -3114,370 +3111,370 @@
         <v>10</v>
       </c>
       <c r="I34" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="J34" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="K34" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="L34" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M34">
         <v>5000</v>
       </c>
       <c r="N34" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="O34" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P34" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q34" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="R34" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S34" t="s">
-        <v>188</v>
+        <v>136</v>
       </c>
       <c r="T34" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="B35">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="C35">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="D35">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="E35">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="F35">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H35">
         <v>4</v>
       </c>
       <c r="I35" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J35" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="K35" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="L35" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M35">
         <v>1000</v>
       </c>
       <c r="N35" t="s">
+        <v>33</v>
+      </c>
+      <c r="O35" t="s">
+        <v>25</v>
+      </c>
+      <c r="P35" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q35" t="s">
         <v>26</v>
       </c>
-      <c r="O35" t="s">
-        <v>19</v>
-      </c>
-      <c r="P35" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>20</v>
-      </c>
       <c r="R35" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S35" t="s">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="T35" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="B36">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="C36">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="D36">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E36">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="F36">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H36">
         <v>4</v>
       </c>
       <c r="I36" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J36" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="K36" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="L36" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M36">
         <v>1000</v>
       </c>
       <c r="N36" t="s">
+        <v>33</v>
+      </c>
+      <c r="O36" t="s">
+        <v>25</v>
+      </c>
+      <c r="P36" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q36" t="s">
         <v>26</v>
       </c>
-      <c r="O36" t="s">
-        <v>19</v>
-      </c>
-      <c r="P36" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>20</v>
-      </c>
       <c r="R36" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S36" t="s">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="T36" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="B37">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="C37">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="D37">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E37">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F37">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G37">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H37">
         <v>1.5</v>
       </c>
       <c r="I37" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J37" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="K37" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="L37" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M37">
         <v>1700</v>
       </c>
       <c r="N37" t="s">
+        <v>33</v>
+      </c>
+      <c r="O37" t="s">
         <v>26</v>
       </c>
-      <c r="O37" t="s">
-        <v>20</v>
-      </c>
       <c r="P37" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q37" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="R37" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="S37" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="T37" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="B38">
+        <v>6.6</v>
+      </c>
+      <c r="C38">
+        <v>9.5</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38">
         <v>8</v>
-      </c>
-      <c r="C38">
-        <v>8</v>
-      </c>
-      <c r="D38">
-        <v>9</v>
-      </c>
-      <c r="E38">
-        <v>9</v>
       </c>
       <c r="F38">
         <v>9</v>
       </c>
       <c r="G38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H38">
         <v>4</v>
       </c>
       <c r="I38" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J38" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="K38" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="L38" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="M38">
         <v>1100</v>
       </c>
       <c r="N38" t="s">
+        <v>33</v>
+      </c>
+      <c r="O38" t="s">
         <v>26</v>
       </c>
-      <c r="O38" t="s">
-        <v>20</v>
-      </c>
       <c r="P38" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="Q38" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R38" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="S38" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="T38" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="B39">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="C39">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="D39">
         <v>10</v>
       </c>
       <c r="E39">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="F39">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H39">
         <v>4</v>
       </c>
       <c r="I39" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J39" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="K39" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="L39" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="M39">
         <v>1140</v>
       </c>
       <c r="N39" t="s">
+        <v>33</v>
+      </c>
+      <c r="O39" t="s">
         <v>26</v>
       </c>
-      <c r="O39" t="s">
-        <v>20</v>
-      </c>
       <c r="P39" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="Q39" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="R39" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="S39" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="T39" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="D40">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E40">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="F40">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -3486,60 +3483,60 @@
         <v>7</v>
       </c>
       <c r="I40" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J40" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="K40" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="L40" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M40">
         <v>2800</v>
       </c>
       <c r="N40" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="O40" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P40" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="Q40" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R40" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S40" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="T40" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="D41">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E41">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="F41">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -3548,48 +3545,48 @@
         <v>7</v>
       </c>
       <c r="I41" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J41" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="K41" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="L41" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M41">
         <v>2800</v>
       </c>
       <c r="N41" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="O41" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P41" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="Q41" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R41" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S41" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="T41" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -3610,45 +3607,45 @@
         <v>8</v>
       </c>
       <c r="I42" t="s">
+        <v>31</v>
+      </c>
+      <c r="J42" t="s">
+        <v>108</v>
+      </c>
+      <c r="K42" t="s">
+        <v>54</v>
+      </c>
+      <c r="L42" t="s">
         <v>24</v>
-      </c>
-      <c r="J42" t="s">
-        <v>93</v>
-      </c>
-      <c r="K42" t="s">
-        <v>43</v>
-      </c>
-      <c r="L42" t="s">
-        <v>18</v>
       </c>
       <c r="M42">
         <v>500</v>
       </c>
       <c r="N42" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="O42" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P42" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="Q42" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R42" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S42" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="T42" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -3672,60 +3669,60 @@
         <v>7</v>
       </c>
       <c r="I43" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J43" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="K43" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="L43" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M43">
         <v>1000</v>
       </c>
       <c r="N43" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="O43" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P43" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="Q43" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R43" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S43" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="T43" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="B44">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="C44">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="D44">
         <v>1.75</v>
       </c>
       <c r="E44">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="F44">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -3734,51 +3731,51 @@
         <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J44" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="K44" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="L44" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="M44">
         <v>280</v>
       </c>
       <c r="N44" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="O44" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P44" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q44" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R44" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S44" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="T44" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B45">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="C45">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -3796,60 +3793,60 @@
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J45" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="K45" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="L45" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="M45">
         <v>300</v>
       </c>
       <c r="N45" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="O45" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P45" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q45" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R45" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S45" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="T45" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="B46">
         <v>9.5</v>
       </c>
       <c r="C46">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -3858,51 +3855,51 @@
         <v>3</v>
       </c>
       <c r="I46" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J46" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="K46" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="L46" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="M46">
         <v>600</v>
       </c>
       <c r="N46" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="O46" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P46" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q46" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R46" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S46" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="T46" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="B47">
-        <v>9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C47">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -3920,48 +3917,48 @@
         <v>3</v>
       </c>
       <c r="I47" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J47" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="K47" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="L47" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="M47">
         <v>830</v>
       </c>
       <c r="N47" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="O47" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P47" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q47" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R47" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S47" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="T47" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -3982,48 +3979,48 @@
         <v>5</v>
       </c>
       <c r="I48" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J48" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="K48" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="L48" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M48">
         <v>250</v>
       </c>
       <c r="N48" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="O48" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P48" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q48" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R48" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S48" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="T48" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -4044,48 +4041,48 @@
         <v>8</v>
       </c>
       <c r="I49" t="s">
+        <v>31</v>
+      </c>
+      <c r="J49" t="s">
+        <v>108</v>
+      </c>
+      <c r="K49" t="s">
+        <v>54</v>
+      </c>
+      <c r="L49" t="s">
         <v>24</v>
-      </c>
-      <c r="J49" t="s">
-        <v>93</v>
-      </c>
-      <c r="K49" t="s">
-        <v>43</v>
-      </c>
-      <c r="L49" t="s">
-        <v>18</v>
       </c>
       <c r="M49">
         <v>300</v>
       </c>
       <c r="N49" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="O49" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P49" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q49" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R49" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S49" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="T49" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -4106,45 +4103,45 @@
         <v>8</v>
       </c>
       <c r="I50" t="s">
+        <v>31</v>
+      </c>
+      <c r="J50" t="s">
+        <v>108</v>
+      </c>
+      <c r="K50" t="s">
+        <v>54</v>
+      </c>
+      <c r="L50" t="s">
         <v>24</v>
-      </c>
-      <c r="J50" t="s">
-        <v>93</v>
-      </c>
-      <c r="K50" t="s">
-        <v>43</v>
-      </c>
-      <c r="L50" t="s">
-        <v>18</v>
       </c>
       <c r="M50">
         <v>400</v>
       </c>
       <c r="N50" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="O50" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P50" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q50" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R50" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S50" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="T50" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -4168,45 +4165,45 @@
         <v>5</v>
       </c>
       <c r="I51" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J51" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="K51" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="L51" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="M51">
         <v>450</v>
       </c>
       <c r="N51" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="O51" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="P51" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q51" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R51" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="S51" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="T51" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -4230,45 +4227,45 @@
         <v>8</v>
       </c>
       <c r="I52" t="s">
+        <v>31</v>
+      </c>
+      <c r="J52" t="s">
+        <v>108</v>
+      </c>
+      <c r="K52" t="s">
+        <v>54</v>
+      </c>
+      <c r="L52" t="s">
         <v>24</v>
-      </c>
-      <c r="J52" t="s">
-        <v>93</v>
-      </c>
-      <c r="K52" t="s">
-        <v>43</v>
-      </c>
-      <c r="L52" t="s">
-        <v>18</v>
       </c>
       <c r="M52">
         <v>450</v>
       </c>
       <c r="N52" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="O52" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P52" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q52" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R52" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S52" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="T52" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -4292,45 +4289,45 @@
         <v>5</v>
       </c>
       <c r="I53" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J53" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="K53" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="L53" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="M53">
         <v>480</v>
       </c>
       <c r="N53" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="O53" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="P53" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q53" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R53" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="S53" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="T53" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4354,45 +4351,45 @@
         <v>7</v>
       </c>
       <c r="I54" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J54" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="K54" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="L54" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M54">
         <v>450</v>
       </c>
       <c r="N54" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="O54" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P54" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q54" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R54" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S54" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="T54" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -4416,45 +4413,45 @@
         <v>7</v>
       </c>
       <c r="I55" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="J55" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="K55" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="L55" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="M55">
         <v>600</v>
       </c>
       <c r="N55" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="O55" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P55" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q55" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R55" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="S55" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="T55" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4466,10 +4463,10 @@
         <v>2.5</v>
       </c>
       <c r="E56">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="F56">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G56">
         <v>8</v>
@@ -4478,45 +4475,45 @@
         <v>8</v>
       </c>
       <c r="I56" t="s">
+        <v>31</v>
+      </c>
+      <c r="J56" t="s">
+        <v>108</v>
+      </c>
+      <c r="K56" t="s">
+        <v>200</v>
+      </c>
+      <c r="L56" t="s">
         <v>24</v>
-      </c>
-      <c r="J56" t="s">
-        <v>93</v>
-      </c>
-      <c r="K56" t="s">
-        <v>167</v>
-      </c>
-      <c r="L56" t="s">
-        <v>18</v>
       </c>
       <c r="M56">
         <v>600</v>
       </c>
       <c r="N56" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="O56" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P56" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q56" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R56" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S56" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="T56" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -4540,45 +4537,45 @@
         <v>7</v>
       </c>
       <c r="I57" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J57" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="K57" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="L57" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M57">
         <v>700</v>
       </c>
       <c r="N57" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="O57" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P57" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q57" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R57" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S57" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="T57" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4590,10 +4587,10 @@
         <v>2.5</v>
       </c>
       <c r="E58">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="F58">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G58">
         <v>7</v>
@@ -4602,45 +4599,45 @@
         <v>7</v>
       </c>
       <c r="I58" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J58" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="K58" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="L58" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M58">
         <v>850</v>
       </c>
       <c r="N58" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="O58" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P58" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q58" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R58" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S58" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="T58" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -4652,63 +4649,63 @@
         <v>2.5</v>
       </c>
       <c r="E59">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F59">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="G59">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H59">
         <v>10</v>
       </c>
       <c r="I59" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="J59" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="K59" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="L59" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M59">
         <v>1300</v>
       </c>
       <c r="N59" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="O59" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P59" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q59" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R59" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S59" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="T59" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="B60">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="C60">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -4726,45 +4723,45 @@
         <v>5</v>
       </c>
       <c r="I60" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="J60" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K60" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="L60" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="M60">
         <v>1400</v>
       </c>
       <c r="N60" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="O60" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="P60" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q60" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R60" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="S60" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="T60" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -4776,52 +4773,52 @@
         <v>3</v>
       </c>
       <c r="E61">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F61">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G61">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H61">
         <v>10</v>
       </c>
       <c r="I61" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="J61" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="K61" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="L61" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M61">
         <v>1600</v>
       </c>
       <c r="N61" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="O61" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P61" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q61" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R61" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S61" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="T61" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/data/monitors.xlsx
+++ b/data/monitors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chandradeep/Desktop/MS/FrogAI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE4AF68-7428-2A4F-9131-D6E2CDFE3D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D3A552-8184-024C-A050-D8F30E76278C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="20560" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1030,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1369,10 +1369,10 @@
         <v>7</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I6" t="s">
         <v>31</v>
@@ -1803,7 +1803,7 @@
         <v>2</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -2485,7 +2485,7 @@
         <v>2</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -2547,10 +2547,10 @@
         <v>2</v>
       </c>
       <c r="G25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I25" t="s">
         <v>31</v>
@@ -2857,10 +2857,10 @@
         <v>2</v>
       </c>
       <c r="G30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I30" t="s">
         <v>31</v>
@@ -2919,10 +2919,10 @@
         <v>2</v>
       </c>
       <c r="G31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I31" t="s">
         <v>31</v>
@@ -3043,10 +3043,10 @@
         <v>8</v>
       </c>
       <c r="G33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I33" t="s">
         <v>31</v>
@@ -3291,7 +3291,7 @@
         <v>3</v>
       </c>
       <c r="G37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H37">
         <v>1.5</v>
@@ -3477,10 +3477,10 @@
         <v>3.5</v>
       </c>
       <c r="G40">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H40">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I40" t="s">
         <v>31</v>
@@ -3539,10 +3539,10 @@
         <v>3.5</v>
       </c>
       <c r="G41">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H41">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I41" t="s">
         <v>31</v>
@@ -3663,10 +3663,10 @@
         <v>2</v>
       </c>
       <c r="G43">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H43">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I43" t="s">
         <v>31</v>
@@ -4345,10 +4345,10 @@
         <v>2</v>
       </c>
       <c r="G54">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H54">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I54" t="s">
         <v>31</v>
@@ -4407,10 +4407,10 @@
         <v>2</v>
       </c>
       <c r="G55">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H55">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I55" t="s">
         <v>196</v>
@@ -4531,10 +4531,10 @@
         <v>2</v>
       </c>
       <c r="G57">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H57">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I57" t="s">
         <v>31</v>
@@ -4593,10 +4593,10 @@
         <v>2</v>
       </c>
       <c r="G58">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H58">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I58" t="s">
         <v>31</v>

--- a/data/monitors.xlsx
+++ b/data/monitors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chandradeep/Desktop/MS/FrogAI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D3A552-8184-024C-A050-D8F30E76278C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A826DC7-DB9E-174B-9D5B-9A40F3A71A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="20560" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="212">
   <si>
     <t>name</t>
   </si>
@@ -82,9 +82,6 @@
     <t>reviews</t>
   </si>
   <si>
-    <t>CoolerMaster GP27Q</t>
-  </si>
-  <si>
     <t>2560x1440</t>
   </si>
   <si>
@@ -106,12 +103,6 @@
     <t>Wide</t>
   </si>
   <si>
-    <t>VRR+HDR flickering + other firmware issues</t>
-  </si>
-  <si>
-    <t>TFTCentral,https://tftcentral.co.uk/reviews/cooler-master-tempest-gp27q;Hardware Unboxed,https://www.youtube.com/watch?v=G6MS45GqcJ4</t>
-  </si>
-  <si>
     <t>CoolerMaster GP27U</t>
   </si>
   <si>
@@ -487,9 +478,6 @@
     <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/alienware-aw3423dw;Hardware Unboxed,https://www.youtube.com/watch?v=YleSuwK8vR4</t>
   </si>
   <si>
-    <t>LG 32ep950</t>
-  </si>
-  <si>
     <t>Inkjet OLED</t>
   </si>
   <si>
@@ -665,6 +653,9 @@
   </si>
   <si>
     <t>RTINGS,https://www.rtings.com/monitor/reviews/apple/studio-display</t>
+  </si>
+  <si>
+    <t>LG 32EP950</t>
   </si>
 </sst>
 </file>
@@ -1028,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T61"/>
+  <dimension ref="A1:T60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1103,10 +1094,10 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B2">
-        <v>6.3</v>
+        <v>6.25</v>
       </c>
       <c r="C2">
         <v>6.5</v>
@@ -1121,51 +1112,51 @@
         <v>7</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
       <c r="M2">
-        <v>500</v>
-      </c>
-      <c r="N2">
-        <v>5700</v>
+        <v>800</v>
+      </c>
+      <c r="N2" t="s">
+        <v>30</v>
       </c>
       <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" t="s">
         <v>25</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" t="s">
-        <v>27</v>
-      </c>
       <c r="S2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="T2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>6.25</v>
@@ -1189,34 +1180,34 @@
         <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
         <v>23</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
       </c>
       <c r="M3">
         <v>800</v>
       </c>
       <c r="N3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" t="s">
         <v>25</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" t="s">
         <v>26</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" t="s">
-        <v>27</v>
       </c>
       <c r="S3" t="s">
         <v>34</v>
@@ -1251,54 +1242,54 @@
         <v>8</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" t="s">
         <v>23</v>
-      </c>
-      <c r="L4" t="s">
-        <v>24</v>
       </c>
       <c r="M4">
         <v>800</v>
       </c>
       <c r="N4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" t="s">
         <v>25</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R4" t="s">
-        <v>27</v>
-      </c>
       <c r="S4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5">
-        <v>6.25</v>
+        <v>5.8</v>
       </c>
       <c r="C5">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="E5">
         <v>7</v>
@@ -1313,54 +1304,54 @@
         <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L5" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="N5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" t="s">
         <v>25</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R5" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" t="s">
-        <v>27</v>
-      </c>
       <c r="S5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6">
-        <v>5.8</v>
+        <v>6.25</v>
       </c>
       <c r="C6">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="D6">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>7</v>
@@ -1375,34 +1366,34 @@
         <v>8</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="K6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>900</v>
+        <v>870</v>
       </c>
       <c r="N6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" t="s">
         <v>25</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R6" t="s">
         <v>26</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>26</v>
-      </c>
-      <c r="R6" t="s">
-        <v>27</v>
       </c>
       <c r="S6" t="s">
         <v>46</v>
@@ -1416,134 +1407,134 @@
         <v>48</v>
       </c>
       <c r="B7">
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="C7">
         <v>6.5</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="K7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="L7" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="M7">
-        <v>870</v>
+        <v>150</v>
       </c>
       <c r="N7" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="O7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" t="s">
-        <v>26</v>
-      </c>
-      <c r="R7" t="s">
-        <v>27</v>
-      </c>
       <c r="S7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="T7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8">
+        <v>6.3</v>
+      </c>
+      <c r="C8">
+        <v>5.5</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
         <v>51</v>
       </c>
-      <c r="B8">
-        <v>7.5</v>
-      </c>
-      <c r="C8">
-        <v>6.5</v>
-      </c>
-      <c r="D8">
-        <v>1.75</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8">
+        <v>260</v>
+      </c>
+      <c r="N8">
+        <v>5700</v>
+      </c>
+      <c r="O8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" t="s">
         <v>54</v>
       </c>
-      <c r="L8" t="s">
-        <v>55</v>
-      </c>
-      <c r="M8">
-        <v>150</v>
-      </c>
-      <c r="N8" t="s">
-        <v>56</v>
-      </c>
-      <c r="O8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R8" t="s">
-        <v>27</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>57</v>
-      </c>
-      <c r="T8" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9">
         <v>6.3</v>
       </c>
       <c r="C9">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1561,37 +1552,37 @@
         <v>5</v>
       </c>
       <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
         <v>21</v>
       </c>
-      <c r="J9" t="s">
-        <v>22</v>
-      </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M9">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="N9">
         <v>5700</v>
       </c>
       <c r="O9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="T9" t="s">
         <v>60</v>
@@ -1605,16 +1596,16 @@
         <v>6.3</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -1623,78 +1614,78 @@
         <v>5</v>
       </c>
       <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
         <v>21</v>
       </c>
-      <c r="J10" t="s">
-        <v>22</v>
-      </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M10">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="N10">
         <v>5700</v>
       </c>
       <c r="O10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S10" t="s">
+        <v>54</v>
+      </c>
+      <c r="T10" t="s">
         <v>62</v>
-      </c>
-      <c r="T10" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11">
+        <v>5.8</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11" t="s">
         <v>64</v>
       </c>
-      <c r="B11">
-        <v>6.3</v>
-      </c>
-      <c r="C11">
-        <v>6.5</v>
-      </c>
-      <c r="D11">
-        <v>1.75</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-      <c r="H11">
-        <v>5</v>
-      </c>
-      <c r="I11" t="s">
-        <v>21</v>
-      </c>
       <c r="J11" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="K11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L11" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="M11">
         <v>380</v>
@@ -1706,30 +1697,30 @@
         <v>25</v>
       </c>
       <c r="P11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R11" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="S11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="T11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B12">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1744,40 +1735,40 @@
         <v>5</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="K12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L12" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="M12">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="N12">
         <v>5700</v>
       </c>
       <c r="O12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R12" t="s">
         <v>26</v>
       </c>
-      <c r="P12" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>25</v>
-      </c>
-      <c r="R12" t="s">
-        <v>69</v>
-      </c>
       <c r="S12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="T12" t="s">
         <v>70</v>
@@ -1788,10 +1779,10 @@
         <v>71</v>
       </c>
       <c r="B13">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="C13">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1806,57 +1797,57 @@
         <v>5</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s">
         <v>21</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13">
+        <v>420</v>
+      </c>
+      <c r="N13" t="s">
         <v>72</v>
       </c>
-      <c r="K13" t="s">
-        <v>54</v>
-      </c>
-      <c r="L13" t="s">
-        <v>45</v>
-      </c>
-      <c r="M13">
-        <v>400</v>
-      </c>
-      <c r="N13">
-        <v>5700</v>
-      </c>
       <c r="O13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P13" t="s">
         <v>25</v>
       </c>
       <c r="Q13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S13" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="T13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B14">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="C14">
         <v>6</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1871,37 +1862,37 @@
         <v>5</v>
       </c>
       <c r="I14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J14" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14">
+        <v>430</v>
+      </c>
+      <c r="N14">
+        <v>5700</v>
+      </c>
+      <c r="O14" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>24</v>
+      </c>
+      <c r="R14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S14" t="s">
         <v>54</v>
-      </c>
-      <c r="L14" t="s">
-        <v>24</v>
-      </c>
-      <c r="M14">
-        <v>420</v>
-      </c>
-      <c r="N14" t="s">
-        <v>75</v>
-      </c>
-      <c r="O14" t="s">
-        <v>25</v>
-      </c>
-      <c r="P14" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>25</v>
-      </c>
-      <c r="R14" t="s">
-        <v>27</v>
-      </c>
-      <c r="S14" t="s">
-        <v>76</v>
       </c>
       <c r="T14" t="s">
         <v>77</v>
@@ -1912,10 +1903,10 @@
         <v>78</v>
       </c>
       <c r="B15">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="D15">
         <v>1.75</v>
@@ -1933,19 +1924,19 @@
         <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="J15" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="K15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L15" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="M15">
-        <v>430</v>
+        <v>750</v>
       </c>
       <c r="N15">
         <v>5700</v>
@@ -1954,33 +1945,33 @@
         <v>25</v>
       </c>
       <c r="P15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R15" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="S15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="T15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16">
         <v>5.8</v>
       </c>
       <c r="C16">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1995,51 +1986,51 @@
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L16" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="M16">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="N16">
         <v>5700</v>
       </c>
       <c r="O16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="S16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="T16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B17">
-        <v>5.8</v>
+        <v>7.5</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>6.75</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -2057,99 +2048,99 @@
         <v>5</v>
       </c>
       <c r="I17" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="J17" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L17" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="M17">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="N17">
         <v>5700</v>
       </c>
       <c r="O17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>24</v>
+      </c>
+      <c r="R17" t="s">
         <v>26</v>
       </c>
-      <c r="P17" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>25</v>
-      </c>
-      <c r="R17" t="s">
-        <v>69</v>
-      </c>
       <c r="S17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="T17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18">
+        <v>7.9</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" t="s">
         <v>87</v>
       </c>
-      <c r="B18">
-        <v>7.5</v>
-      </c>
-      <c r="C18">
-        <v>6.75</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>5</v>
-      </c>
-      <c r="H18">
-        <v>5</v>
-      </c>
-      <c r="I18" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" t="s">
-        <v>53</v>
-      </c>
       <c r="K18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M18">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="N18">
         <v>5700</v>
       </c>
       <c r="O18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="T18" t="s">
         <v>88</v>
@@ -2160,7 +2151,7 @@
         <v>89</v>
       </c>
       <c r="B19">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -2181,16 +2172,16 @@
         <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J19" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M19">
         <v>600</v>
@@ -2199,19 +2190,19 @@
         <v>5700</v>
       </c>
       <c r="O19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S19" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="T19" t="s">
         <v>91</v>
@@ -2225,16 +2216,16 @@
         <v>7.5</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G20">
         <v>5</v>
@@ -2243,34 +2234,34 @@
         <v>5</v>
       </c>
       <c r="I20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M20">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="N20">
         <v>5700</v>
       </c>
       <c r="O20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P20" t="s">
         <v>25</v>
       </c>
       <c r="Q20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S20" t="s">
         <v>93</v>
@@ -2284,19 +2275,19 @@
         <v>95</v>
       </c>
       <c r="B21">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C21">
         <v>7.5</v>
       </c>
-      <c r="C21">
-        <v>7.1</v>
-      </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G21">
         <v>5</v>
@@ -2305,60 +2296,60 @@
         <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J21" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="K21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M21">
-        <v>750</v>
+        <v>1050</v>
       </c>
       <c r="N21">
         <v>5700</v>
       </c>
       <c r="O21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P21" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>24</v>
+      </c>
+      <c r="R21" t="s">
         <v>26</v>
       </c>
-      <c r="Q21" t="s">
-        <v>25</v>
-      </c>
-      <c r="R21" t="s">
-        <v>27</v>
-      </c>
       <c r="S21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="T21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B22">
-        <v>8.3000000000000007</v>
+        <v>6.3</v>
       </c>
       <c r="C22">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G22">
         <v>5</v>
@@ -2367,19 +2358,19 @@
         <v>5</v>
       </c>
       <c r="I22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s">
         <v>21</v>
       </c>
-      <c r="J22" t="s">
-        <v>99</v>
-      </c>
       <c r="K22" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="L22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M22">
-        <v>1050</v>
+        <v>250</v>
       </c>
       <c r="N22">
         <v>5700</v>
@@ -2388,16 +2379,16 @@
         <v>25</v>
       </c>
       <c r="P22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S22" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="T22" t="s">
         <v>101</v>
@@ -2411,7 +2402,7 @@
         <v>6.3</v>
       </c>
       <c r="C23">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -2426,54 +2417,54 @@
         <v>5</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" t="s">
         <v>21</v>
       </c>
-      <c r="J23" t="s">
-        <v>22</v>
-      </c>
       <c r="K23" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L23" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="M23">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N23">
         <v>5700</v>
       </c>
       <c r="O23" t="s">
+        <v>25</v>
+      </c>
+      <c r="P23" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>24</v>
+      </c>
+      <c r="R23" t="s">
         <v>26</v>
       </c>
-      <c r="P23" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>25</v>
-      </c>
-      <c r="R23" t="s">
-        <v>27</v>
-      </c>
       <c r="S23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="T23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B24">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -2485,43 +2476,43 @@
         <v>2</v>
       </c>
       <c r="G24">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I24" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J24" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="K24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M24">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N24">
         <v>5700</v>
       </c>
       <c r="O24" t="s">
+        <v>25</v>
+      </c>
+      <c r="P24" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>24</v>
+      </c>
+      <c r="R24" t="s">
         <v>26</v>
       </c>
-      <c r="P24" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>25</v>
-      </c>
-      <c r="R24" t="s">
-        <v>27</v>
-      </c>
       <c r="S24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="T24" t="s">
         <v>106</v>
@@ -2532,81 +2523,81 @@
         <v>107</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="D25">
+        <v>3.5</v>
+      </c>
+      <c r="E25">
         <v>3</v>
       </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
       <c r="F25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G25">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H25">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I25" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="J25" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" t="s">
+        <v>100</v>
+      </c>
+      <c r="L25" t="s">
+        <v>65</v>
+      </c>
+      <c r="M25">
+        <v>450</v>
+      </c>
+      <c r="N25" t="s">
         <v>108</v>
       </c>
-      <c r="K25" t="s">
-        <v>103</v>
-      </c>
-      <c r="L25" t="s">
-        <v>45</v>
-      </c>
-      <c r="M25">
-        <v>350</v>
-      </c>
-      <c r="N25">
-        <v>5700</v>
-      </c>
       <c r="O25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R25" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="S25" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="T25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B26">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="C26">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D26">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G26">
         <v>5</v>
@@ -2615,25 +2606,25 @@
         <v>5</v>
       </c>
       <c r="I26" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="K26" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="L26" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>450</v>
-      </c>
-      <c r="N26" t="s">
-        <v>111</v>
+        <v>500</v>
+      </c>
+      <c r="N26">
+        <v>5700</v>
       </c>
       <c r="O26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P26" t="s">
         <v>25</v>
@@ -2642,10 +2633,10 @@
         <v>25</v>
       </c>
       <c r="R26" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="S26" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="T26" t="s">
         <v>113</v>
@@ -2656,66 +2647,66 @@
         <v>114</v>
       </c>
       <c r="B27">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H27">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I27" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J27" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="K27" t="s">
+        <v>51</v>
+      </c>
+      <c r="L27" t="s">
         <v>115</v>
       </c>
-      <c r="L27" t="s">
-        <v>24</v>
-      </c>
       <c r="M27">
-        <v>500</v>
-      </c>
-      <c r="N27">
-        <v>5700</v>
+        <v>600</v>
+      </c>
+      <c r="N27" t="s">
+        <v>30</v>
       </c>
       <c r="O27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P27" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>24</v>
+      </c>
+      <c r="R27" t="s">
         <v>26</v>
       </c>
-      <c r="Q27" t="s">
-        <v>26</v>
-      </c>
-      <c r="R27" t="s">
-        <v>27</v>
-      </c>
       <c r="S27" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="T27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B28">
         <v>5.8</v>
@@ -2739,45 +2730,45 @@
         <v>8</v>
       </c>
       <c r="I28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L28" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M28">
         <v>600</v>
       </c>
       <c r="N28" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S28" t="s">
+        <v>54</v>
+      </c>
+      <c r="T28" t="s">
         <v>119</v>
-      </c>
-      <c r="T28" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B29">
         <v>5.8</v>
@@ -2801,54 +2792,54 @@
         <v>8</v>
       </c>
       <c r="I29" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J29" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L29" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="M29">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="N29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S29" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="T29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B30">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -2863,99 +2854,99 @@
         <v>8</v>
       </c>
       <c r="I30" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J30" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="K30" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="L30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M30">
         <v>650</v>
       </c>
       <c r="N30" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S30" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="T30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>8</v>
+      </c>
+      <c r="H31">
+        <v>8</v>
+      </c>
+      <c r="I31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J31" t="s">
+        <v>105</v>
+      </c>
+      <c r="K31" t="s">
         <v>125</v>
       </c>
-      <c r="B31">
-        <v>6.3</v>
-      </c>
-      <c r="C31">
-        <v>4</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
-      <c r="G31">
-        <v>8</v>
-      </c>
-      <c r="H31">
-        <v>8</v>
-      </c>
-      <c r="I31" t="s">
-        <v>31</v>
-      </c>
-      <c r="J31" t="s">
-        <v>32</v>
-      </c>
-      <c r="K31" t="s">
-        <v>103</v>
-      </c>
       <c r="L31" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M31">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="N31" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q31" t="s">
         <v>25</v>
       </c>
       <c r="R31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S31" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="T31" t="s">
         <v>126</v>
@@ -2966,19 +2957,19 @@
         <v>127</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F32">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G32">
         <v>8</v>
@@ -2987,40 +2978,40 @@
         <v>8</v>
       </c>
       <c r="I32" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J32" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="K32" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="L32" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="M32">
-        <v>700</v>
+        <v>3000</v>
       </c>
       <c r="N32" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P32" t="s">
         <v>25</v>
       </c>
       <c r="Q32" t="s">
+        <v>25</v>
+      </c>
+      <c r="R32" t="s">
         <v>26</v>
       </c>
-      <c r="R32" t="s">
-        <v>27</v>
-      </c>
       <c r="S32" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="T32" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
@@ -3028,128 +3019,128 @@
         <v>130</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E33">
         <v>10</v>
       </c>
       <c r="F33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G33">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H33">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I33" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="J33" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="K33" t="s">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="L33" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M33">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="N33" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="O33" t="s">
+        <v>24</v>
+      </c>
+      <c r="P33" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q33" t="s">
         <v>25</v>
       </c>
-      <c r="P33" t="s">
+      <c r="R33" t="s">
         <v>26</v>
       </c>
-      <c r="Q33" t="s">
-        <v>26</v>
-      </c>
-      <c r="R33" t="s">
-        <v>27</v>
-      </c>
       <c r="S33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="T33" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E34">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="F34">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G34">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H34">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I34" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="J34" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="K34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L34" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M34">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="N34" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="O34" t="s">
+        <v>24</v>
+      </c>
+      <c r="P34" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q34" t="s">
         <v>25</v>
       </c>
-      <c r="P34" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q34" t="s">
+      <c r="R34" t="s">
         <v>26</v>
       </c>
-      <c r="R34" t="s">
-        <v>27</v>
-      </c>
       <c r="S34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="T34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B35">
         <v>7.5</v>
@@ -3161,7 +3152,7 @@
         <v>10</v>
       </c>
       <c r="E35">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="F35">
         <v>3</v>
@@ -3173,45 +3164,45 @@
         <v>4</v>
       </c>
       <c r="I35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J35" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K35" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M35">
         <v>1000</v>
       </c>
       <c r="N35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O35" t="s">
+        <v>24</v>
+      </c>
+      <c r="P35" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q35" t="s">
         <v>25</v>
       </c>
-      <c r="P35" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q35" t="s">
+      <c r="R35" t="s">
         <v>26</v>
       </c>
-      <c r="R35" t="s">
-        <v>27</v>
-      </c>
       <c r="S35" t="s">
+        <v>137</v>
+      </c>
+      <c r="T35" t="s">
         <v>140</v>
-      </c>
-      <c r="T35" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B36">
         <v>7.5</v>
@@ -3223,7 +3214,7 @@
         <v>10</v>
       </c>
       <c r="E36">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="F36">
         <v>3</v>
@@ -3232,40 +3223,40 @@
         <v>5</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="I36" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="J36" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K36" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M36">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="N36" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O36" t="s">
         <v>25</v>
       </c>
       <c r="P36" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q36" t="s">
         <v>25</v>
       </c>
-      <c r="Q36" t="s">
-        <v>26</v>
-      </c>
       <c r="R36" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="S36" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="T36" t="s">
         <v>143</v>
@@ -3276,66 +3267,66 @@
         <v>144</v>
       </c>
       <c r="B37">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="C37">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="D37">
         <v>10</v>
       </c>
       <c r="E37">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F37">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G37">
         <v>5</v>
       </c>
       <c r="H37">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="I37" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J37" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="K37" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="L37" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="M37">
-        <v>1700</v>
+        <v>1100</v>
       </c>
       <c r="N37" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P37" t="s">
         <v>25</v>
       </c>
       <c r="Q37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R37" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="S37" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="T37" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B38">
         <v>6.6</v>
@@ -3347,7 +3338,7 @@
         <v>10</v>
       </c>
       <c r="E38">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="F38">
         <v>9</v>
@@ -3359,34 +3350,34 @@
         <v>4</v>
       </c>
       <c r="I38" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J38" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K38" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L38" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M38">
-        <v>1100</v>
+        <v>1140</v>
       </c>
       <c r="N38" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q38" t="s">
         <v>25</v>
       </c>
       <c r="R38" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="S38" t="s">
         <v>150</v>
@@ -3397,58 +3388,58 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>152</v>
+        <v>211</v>
       </c>
       <c r="B39">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="D39">
         <v>10</v>
       </c>
       <c r="E39">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="F39">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="G39">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H39">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I39" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="J39" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="K39" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L39" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="M39">
-        <v>1140</v>
+        <v>2800</v>
       </c>
       <c r="N39" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="O39" t="s">
+        <v>24</v>
+      </c>
+      <c r="P39" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>24</v>
+      </c>
+      <c r="R39" t="s">
         <v>26</v>
-      </c>
-      <c r="P39" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>26</v>
-      </c>
-      <c r="R39" t="s">
-        <v>69</v>
       </c>
       <c r="S39" t="s">
         <v>153</v>
@@ -3483,60 +3474,60 @@
         <v>8</v>
       </c>
       <c r="I40" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J40" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M40">
         <v>2800</v>
       </c>
       <c r="N40" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O40" t="s">
+        <v>24</v>
+      </c>
+      <c r="P40" t="s">
         <v>25</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
+        <v>24</v>
+      </c>
+      <c r="R40" t="s">
         <v>26</v>
       </c>
-      <c r="Q40" t="s">
-        <v>25</v>
-      </c>
-      <c r="R40" t="s">
-        <v>27</v>
-      </c>
       <c r="S40" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="T40" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>8.5</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E41">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="F41">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="G41">
         <v>8</v>
@@ -3545,51 +3536,51 @@
         <v>8</v>
       </c>
       <c r="I41" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J41" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K41" t="s">
-        <v>156</v>
+        <v>51</v>
       </c>
       <c r="L41" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M41">
-        <v>2800</v>
+        <v>500</v>
       </c>
       <c r="N41" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O41" t="s">
+        <v>24</v>
+      </c>
+      <c r="P41" t="s">
         <v>25</v>
       </c>
-      <c r="P41" t="s">
+      <c r="Q41" t="s">
+        <v>24</v>
+      </c>
+      <c r="R41" t="s">
         <v>26</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>25</v>
-      </c>
-      <c r="R41" t="s">
-        <v>27</v>
       </c>
       <c r="S41" t="s">
         <v>157</v>
       </c>
       <c r="T41" t="s">
-        <v>57</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -3607,102 +3598,102 @@
         <v>8</v>
       </c>
       <c r="I42" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K42" t="s">
+        <v>51</v>
+      </c>
+      <c r="L42" t="s">
+        <v>42</v>
+      </c>
+      <c r="M42">
+        <v>1000</v>
+      </c>
+      <c r="N42" t="s">
+        <v>72</v>
+      </c>
+      <c r="O42" t="s">
+        <v>24</v>
+      </c>
+      <c r="P42" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>24</v>
+      </c>
+      <c r="R42" t="s">
+        <v>26</v>
+      </c>
+      <c r="S42" t="s">
+        <v>160</v>
+      </c>
+      <c r="T42" t="s">
         <v>54</v>
-      </c>
-      <c r="L42" t="s">
-        <v>24</v>
-      </c>
-      <c r="M42">
-        <v>500</v>
-      </c>
-      <c r="N42" t="s">
-        <v>75</v>
-      </c>
-      <c r="O42" t="s">
-        <v>25</v>
-      </c>
-      <c r="P42" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>25</v>
-      </c>
-      <c r="R42" t="s">
-        <v>27</v>
-      </c>
-      <c r="S42" t="s">
-        <v>161</v>
-      </c>
-      <c r="T42" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>161</v>
+      </c>
+      <c r="B43">
+        <v>8.5</v>
+      </c>
+      <c r="C43">
+        <v>6.5</v>
+      </c>
+      <c r="D43">
+        <v>1.75</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43" t="s">
+        <v>49</v>
+      </c>
+      <c r="J43" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" t="s">
+        <v>51</v>
+      </c>
+      <c r="L43" t="s">
+        <v>162</v>
+      </c>
+      <c r="M43">
+        <v>280</v>
+      </c>
+      <c r="N43" t="s">
+        <v>53</v>
+      </c>
+      <c r="O43" t="s">
+        <v>24</v>
+      </c>
+      <c r="P43" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>24</v>
+      </c>
+      <c r="R43" t="s">
+        <v>26</v>
+      </c>
+      <c r="S43" t="s">
         <v>163</v>
       </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43">
-        <v>2</v>
-      </c>
-      <c r="F43">
-        <v>2</v>
-      </c>
-      <c r="G43">
-        <v>8</v>
-      </c>
-      <c r="H43">
-        <v>8</v>
-      </c>
-      <c r="I43" t="s">
-        <v>31</v>
-      </c>
-      <c r="J43" t="s">
-        <v>108</v>
-      </c>
-      <c r="K43" t="s">
-        <v>54</v>
-      </c>
-      <c r="L43" t="s">
-        <v>45</v>
-      </c>
-      <c r="M43">
-        <v>1000</v>
-      </c>
-      <c r="N43" t="s">
-        <v>75</v>
-      </c>
-      <c r="O43" t="s">
-        <v>25</v>
-      </c>
-      <c r="P43" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>25</v>
-      </c>
-      <c r="R43" t="s">
-        <v>27</v>
-      </c>
-      <c r="S43" t="s">
+      <c r="T43" t="s">
         <v>164</v>
-      </c>
-      <c r="T43" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
@@ -3713,10 +3704,10 @@
         <v>8.5</v>
       </c>
       <c r="C44">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="D44">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -3731,34 +3722,34 @@
         <v>3</v>
       </c>
       <c r="I44" t="s">
+        <v>49</v>
+      </c>
+      <c r="J44" t="s">
+        <v>166</v>
+      </c>
+      <c r="K44" t="s">
+        <v>51</v>
+      </c>
+      <c r="L44" t="s">
         <v>52</v>
       </c>
-      <c r="J44" t="s">
+      <c r="M44">
+        <v>300</v>
+      </c>
+      <c r="N44" t="s">
         <v>53</v>
       </c>
-      <c r="K44" t="s">
-        <v>54</v>
-      </c>
-      <c r="L44" t="s">
-        <v>166</v>
-      </c>
-      <c r="M44">
-        <v>280</v>
-      </c>
-      <c r="N44" t="s">
-        <v>56</v>
-      </c>
       <c r="O44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S44" t="s">
         <v>167</v>
@@ -3772,13 +3763,13 @@
         <v>169</v>
       </c>
       <c r="B45">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="C45">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -3793,34 +3784,34 @@
         <v>3</v>
       </c>
       <c r="I45" t="s">
+        <v>49</v>
+      </c>
+      <c r="J45" t="s">
+        <v>96</v>
+      </c>
+      <c r="K45" t="s">
+        <v>170</v>
+      </c>
+      <c r="L45" t="s">
         <v>52</v>
       </c>
-      <c r="J45" t="s">
-        <v>170</v>
-      </c>
-      <c r="K45" t="s">
-        <v>54</v>
-      </c>
-      <c r="L45" t="s">
-        <v>55</v>
-      </c>
       <c r="M45">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N45" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S45" t="s">
         <v>171</v>
@@ -3834,13 +3825,13 @@
         <v>173</v>
       </c>
       <c r="B46">
-        <v>9.5</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C46">
         <v>7.5</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -3855,99 +3846,99 @@
         <v>3</v>
       </c>
       <c r="I46" t="s">
+        <v>49</v>
+      </c>
+      <c r="J46" t="s">
+        <v>174</v>
+      </c>
+      <c r="K46" t="s">
+        <v>51</v>
+      </c>
+      <c r="L46" t="s">
         <v>52</v>
       </c>
-      <c r="J46" t="s">
-        <v>99</v>
-      </c>
-      <c r="K46" t="s">
-        <v>174</v>
-      </c>
-      <c r="L46" t="s">
-        <v>55</v>
-      </c>
       <c r="M46">
-        <v>600</v>
+        <v>830</v>
       </c>
       <c r="N46" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S46" t="s">
+        <v>54</v>
+      </c>
+      <c r="T46" t="s">
         <v>175</v>
-      </c>
-      <c r="T46" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>176</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>5</v>
+      </c>
+      <c r="H47">
+        <v>5</v>
+      </c>
+      <c r="I47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" t="s">
         <v>177</v>
       </c>
-      <c r="B47">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="C47">
-        <v>7.5</v>
-      </c>
-      <c r="D47">
-        <v>2</v>
-      </c>
-      <c r="E47">
-        <v>2</v>
-      </c>
-      <c r="F47">
-        <v>2</v>
-      </c>
-      <c r="G47">
-        <v>3</v>
-      </c>
-      <c r="H47">
-        <v>3</v>
-      </c>
-      <c r="I47" t="s">
-        <v>52</v>
-      </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
+        <v>51</v>
+      </c>
+      <c r="L47" t="s">
+        <v>23</v>
+      </c>
+      <c r="M47">
+        <v>250</v>
+      </c>
+      <c r="N47" t="s">
+        <v>72</v>
+      </c>
+      <c r="O47" t="s">
+        <v>24</v>
+      </c>
+      <c r="P47" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>24</v>
+      </c>
+      <c r="R47" t="s">
+        <v>26</v>
+      </c>
+      <c r="S47" t="s">
         <v>178</v>
-      </c>
-      <c r="K47" t="s">
-        <v>54</v>
-      </c>
-      <c r="L47" t="s">
-        <v>55</v>
-      </c>
-      <c r="M47">
-        <v>830</v>
-      </c>
-      <c r="N47" t="s">
-        <v>56</v>
-      </c>
-      <c r="O47" t="s">
-        <v>25</v>
-      </c>
-      <c r="P47" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>25</v>
-      </c>
-      <c r="R47" t="s">
-        <v>27</v>
-      </c>
-      <c r="S47" t="s">
-        <v>57</v>
       </c>
       <c r="T47" t="s">
         <v>179</v>
@@ -3958,7 +3949,7 @@
         <v>180</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -3973,51 +3964,51 @@
         <v>2</v>
       </c>
       <c r="G48">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H48">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I48" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J48" t="s">
+        <v>105</v>
+      </c>
+      <c r="K48" t="s">
+        <v>51</v>
+      </c>
+      <c r="L48" t="s">
+        <v>23</v>
+      </c>
+      <c r="M48">
+        <v>300</v>
+      </c>
+      <c r="N48" t="s">
+        <v>72</v>
+      </c>
+      <c r="O48" t="s">
+        <v>24</v>
+      </c>
+      <c r="P48" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>24</v>
+      </c>
+      <c r="R48" t="s">
+        <v>26</v>
+      </c>
+      <c r="S48" t="s">
+        <v>178</v>
+      </c>
+      <c r="T48" t="s">
         <v>181</v>
-      </c>
-      <c r="K48" t="s">
-        <v>54</v>
-      </c>
-      <c r="L48" t="s">
-        <v>24</v>
-      </c>
-      <c r="M48">
-        <v>250</v>
-      </c>
-      <c r="N48" t="s">
-        <v>75</v>
-      </c>
-      <c r="O48" t="s">
-        <v>25</v>
-      </c>
-      <c r="P48" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>25</v>
-      </c>
-      <c r="R48" t="s">
-        <v>27</v>
-      </c>
-      <c r="S48" t="s">
-        <v>182</v>
-      </c>
-      <c r="T48" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -4041,51 +4032,51 @@
         <v>8</v>
       </c>
       <c r="I49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J49" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K49" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M49">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N49" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S49" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="T49" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -4097,51 +4088,51 @@
         <v>2</v>
       </c>
       <c r="G50">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H50">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I50" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="J50" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K50" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L50" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="M50">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="N50" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O50" t="s">
         <v>25</v>
       </c>
       <c r="P50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R50" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="S50" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="T50" t="s">
-        <v>185</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -4159,51 +4150,51 @@
         <v>2</v>
       </c>
       <c r="G51">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H51">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I51" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="J51" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K51" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L51" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="M51">
         <v>450</v>
       </c>
       <c r="N51" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O51" t="s">
+        <v>24</v>
+      </c>
+      <c r="P51" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>24</v>
+      </c>
+      <c r="R51" t="s">
         <v>26</v>
       </c>
-      <c r="P51" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>25</v>
-      </c>
-      <c r="R51" t="s">
-        <v>69</v>
-      </c>
       <c r="S51" t="s">
+        <v>186</v>
+      </c>
+      <c r="T51" t="s">
         <v>187</v>
-      </c>
-      <c r="T51" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -4221,51 +4212,51 @@
         <v>2</v>
       </c>
       <c r="G52">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H52">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I52" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="J52" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K52" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L52" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="M52">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="N52" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O52" t="s">
         <v>25</v>
       </c>
       <c r="P52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R52" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="S52" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="T52" t="s">
-        <v>191</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -4283,51 +4274,51 @@
         <v>2</v>
       </c>
       <c r="G53">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H53">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I53" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="J53" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K53" t="s">
+        <v>51</v>
+      </c>
+      <c r="L53" t="s">
+        <v>42</v>
+      </c>
+      <c r="M53">
+        <v>450</v>
+      </c>
+      <c r="N53" t="s">
+        <v>72</v>
+      </c>
+      <c r="O53" t="s">
+        <v>24</v>
+      </c>
+      <c r="P53" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>24</v>
+      </c>
+      <c r="R53" t="s">
+        <v>26</v>
+      </c>
+      <c r="S53" t="s">
         <v>54</v>
       </c>
-      <c r="L53" t="s">
-        <v>68</v>
-      </c>
-      <c r="M53">
-        <v>480</v>
-      </c>
-      <c r="N53" t="s">
-        <v>75</v>
-      </c>
-      <c r="O53" t="s">
-        <v>26</v>
-      </c>
-      <c r="P53" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>25</v>
-      </c>
-      <c r="R53" t="s">
-        <v>69</v>
-      </c>
-      <c r="S53" t="s">
-        <v>193</v>
-      </c>
       <c r="T53" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4351,40 +4342,40 @@
         <v>8</v>
       </c>
       <c r="I54" t="s">
-        <v>31</v>
+        <v>192</v>
       </c>
       <c r="J54" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K54" t="s">
+        <v>51</v>
+      </c>
+      <c r="L54" t="s">
+        <v>115</v>
+      </c>
+      <c r="M54">
+        <v>600</v>
+      </c>
+      <c r="N54" t="s">
+        <v>72</v>
+      </c>
+      <c r="O54" t="s">
+        <v>24</v>
+      </c>
+      <c r="P54" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>24</v>
+      </c>
+      <c r="R54" t="s">
+        <v>193</v>
+      </c>
+      <c r="S54" t="s">
+        <v>194</v>
+      </c>
+      <c r="T54" t="s">
         <v>54</v>
-      </c>
-      <c r="L54" t="s">
-        <v>45</v>
-      </c>
-      <c r="M54">
-        <v>450</v>
-      </c>
-      <c r="N54" t="s">
-        <v>75</v>
-      </c>
-      <c r="O54" t="s">
-        <v>25</v>
-      </c>
-      <c r="P54" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>25</v>
-      </c>
-      <c r="R54" t="s">
-        <v>27</v>
-      </c>
-      <c r="S54" t="s">
-        <v>57</v>
-      </c>
-      <c r="T54" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
@@ -4398,7 +4389,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -4413,40 +4404,40 @@
         <v>8</v>
       </c>
       <c r="I55" t="s">
+        <v>28</v>
+      </c>
+      <c r="J55" t="s">
+        <v>105</v>
+      </c>
+      <c r="K55" t="s">
         <v>196</v>
       </c>
-      <c r="J55" t="s">
-        <v>108</v>
-      </c>
-      <c r="K55" t="s">
-        <v>54</v>
-      </c>
       <c r="L55" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="M55">
         <v>600</v>
       </c>
       <c r="N55" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R55" t="s">
+        <v>26</v>
+      </c>
+      <c r="S55" t="s">
         <v>197</v>
       </c>
-      <c r="S55" t="s">
+      <c r="T55" t="s">
         <v>198</v>
-      </c>
-      <c r="T55" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
@@ -4460,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E56">
         <v>2</v>
@@ -4475,45 +4466,45 @@
         <v>8</v>
       </c>
       <c r="I56" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J56" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K56" t="s">
+        <v>51</v>
+      </c>
+      <c r="L56" t="s">
+        <v>42</v>
+      </c>
+      <c r="M56">
+        <v>700</v>
+      </c>
+      <c r="N56" t="s">
+        <v>72</v>
+      </c>
+      <c r="O56" t="s">
+        <v>24</v>
+      </c>
+      <c r="P56" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>24</v>
+      </c>
+      <c r="R56" t="s">
+        <v>26</v>
+      </c>
+      <c r="S56" t="s">
         <v>200</v>
       </c>
-      <c r="L56" t="s">
-        <v>24</v>
-      </c>
-      <c r="M56">
-        <v>600</v>
-      </c>
-      <c r="N56" t="s">
-        <v>75</v>
-      </c>
-      <c r="O56" t="s">
-        <v>25</v>
-      </c>
-      <c r="P56" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>25</v>
-      </c>
-      <c r="R56" t="s">
-        <v>27</v>
-      </c>
-      <c r="S56" t="s">
-        <v>201</v>
-      </c>
       <c r="T56" t="s">
-        <v>202</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -4522,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E57">
         <v>2</v>
@@ -4537,45 +4528,45 @@
         <v>8</v>
       </c>
       <c r="I57" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J57" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K57" t="s">
-        <v>54</v>
+        <v>196</v>
       </c>
       <c r="L57" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M57">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="N57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S57" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="T57" t="s">
-        <v>57</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4587,238 +4578,176 @@
         <v>2.5</v>
       </c>
       <c r="E58">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="F58">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="G58">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H58">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I58" t="s">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="J58" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K58" t="s">
-        <v>200</v>
+        <v>51</v>
       </c>
       <c r="L58" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M58">
-        <v>850</v>
+        <v>1300</v>
       </c>
       <c r="N58" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S58" t="s">
         <v>206</v>
       </c>
       <c r="T58" t="s">
-        <v>207</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D59">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E59">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="F59">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="G59">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H59">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I59" t="s">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c r="J59" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="K59" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L59" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="M59">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="N59" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O59" t="s">
         <v>25</v>
       </c>
       <c r="P59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R59" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="S59" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="T59" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B60">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G60">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H60">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I60" t="s">
-        <v>84</v>
+        <v>205</v>
       </c>
       <c r="J60" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="K60" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L60" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="M60">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="N60" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O60" t="s">
+        <v>24</v>
+      </c>
+      <c r="P60" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>24</v>
+      </c>
+      <c r="R60" t="s">
         <v>26</v>
       </c>
-      <c r="P60" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>25</v>
-      </c>
-      <c r="R60" t="s">
-        <v>69</v>
-      </c>
       <c r="S60" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="T60" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>212</v>
-      </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <v>3</v>
-      </c>
-      <c r="E61">
-        <v>5</v>
-      </c>
-      <c r="F61">
-        <v>5</v>
-      </c>
-      <c r="G61">
-        <v>9</v>
-      </c>
-      <c r="H61">
-        <v>10</v>
-      </c>
-      <c r="I61" t="s">
-        <v>209</v>
-      </c>
-      <c r="J61" t="s">
-        <v>108</v>
-      </c>
-      <c r="K61" t="s">
-        <v>54</v>
-      </c>
-      <c r="L61" t="s">
-        <v>24</v>
-      </c>
-      <c r="M61">
-        <v>1600</v>
-      </c>
-      <c r="N61" t="s">
-        <v>75</v>
-      </c>
-      <c r="O61" t="s">
-        <v>25</v>
-      </c>
-      <c r="P61" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>25</v>
-      </c>
-      <c r="R61" t="s">
-        <v>27</v>
-      </c>
-      <c r="S61" t="s">
-        <v>213</v>
-      </c>
-      <c r="T61" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/data/monitors.xlsx
+++ b/data/monitors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chandradeep/Desktop/MS/FrogAI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A826DC7-DB9E-174B-9D5B-9A40F3A71A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AE2238-78E8-2C46-A37E-6B32CF2516BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="20560" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,9 +136,6 @@
     <t>IPS MiniLED 1152 zones</t>
   </si>
   <si>
-    <t>Slightly buggy firmware + reports of coil whine</t>
-  </si>
-  <si>
     <t>Chimolog,https://chimolog.co/bto-gaming-monitor-innocn-27m2v/</t>
   </si>
   <si>
@@ -656,6 +653,9 @@
   </si>
   <si>
     <t>LG 32EP950</t>
+  </si>
+  <si>
+    <t>Slightly buggy firmware + reports of coil whine + VRR only works upto 144hz</t>
   </si>
 </sst>
 </file>
@@ -1021,13 +1021,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="19" max="19" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
@@ -1272,15 +1273,15 @@
         <v>26</v>
       </c>
       <c r="S4" t="s">
+        <v>211</v>
+      </c>
+      <c r="T4" t="s">
         <v>38</v>
-      </c>
-      <c r="T4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>5.8</v>
@@ -1307,13 +1308,13 @@
         <v>28</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K5" t="s">
         <v>37</v>
       </c>
       <c r="L5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M5">
         <v>900</v>
@@ -1334,15 +1335,15 @@
         <v>26</v>
       </c>
       <c r="S5" t="s">
+        <v>42</v>
+      </c>
+      <c r="T5" t="s">
         <v>43</v>
-      </c>
-      <c r="T5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>6.25</v>
@@ -1396,15 +1397,15 @@
         <v>26</v>
       </c>
       <c r="S6" t="s">
+        <v>45</v>
+      </c>
+      <c r="T6" t="s">
         <v>46</v>
-      </c>
-      <c r="T6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7">
         <v>7.5</v>
@@ -1428,22 +1429,22 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" t="s">
         <v>49</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>50</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>51</v>
-      </c>
-      <c r="L7" t="s">
-        <v>52</v>
       </c>
       <c r="M7">
         <v>150</v>
       </c>
       <c r="N7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O7" t="s">
         <v>24</v>
@@ -1458,15 +1459,15 @@
         <v>26</v>
       </c>
       <c r="S7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T7" t="s">
         <v>54</v>
-      </c>
-      <c r="T7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8">
         <v>6.3</v>
@@ -1496,7 +1497,7 @@
         <v>21</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L8" t="s">
         <v>23</v>
@@ -1520,15 +1521,15 @@
         <v>26</v>
       </c>
       <c r="S8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9">
         <v>6.3</v>
@@ -1558,7 +1559,7 @@
         <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L9" t="s">
         <v>23</v>
@@ -1582,15 +1583,15 @@
         <v>26</v>
       </c>
       <c r="S9" t="s">
+        <v>58</v>
+      </c>
+      <c r="T9" t="s">
         <v>59</v>
-      </c>
-      <c r="T9" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10">
         <v>6.3</v>
@@ -1620,7 +1621,7 @@
         <v>21</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L10" t="s">
         <v>23</v>
@@ -1644,15 +1645,15 @@
         <v>26</v>
       </c>
       <c r="S10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11">
         <v>5.8</v>
@@ -1676,16 +1677,16 @@
         <v>5</v>
       </c>
       <c r="I11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" t="s">
         <v>64</v>
-      </c>
-      <c r="J11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K11" t="s">
-        <v>51</v>
-      </c>
-      <c r="L11" t="s">
-        <v>65</v>
       </c>
       <c r="M11">
         <v>380</v>
@@ -1703,18 +1704,18 @@
         <v>24</v>
       </c>
       <c r="R11" t="s">
+        <v>65</v>
+      </c>
+      <c r="S11" t="s">
+        <v>53</v>
+      </c>
+      <c r="T11" t="s">
         <v>66</v>
-      </c>
-      <c r="S11" t="s">
-        <v>54</v>
-      </c>
-      <c r="T11" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12">
         <v>6.4</v>
@@ -1741,13 +1742,13 @@
         <v>20</v>
       </c>
       <c r="J12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M12">
         <v>400</v>
@@ -1768,15 +1769,15 @@
         <v>26</v>
       </c>
       <c r="S12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13">
         <v>6.3</v>
@@ -1806,7 +1807,7 @@
         <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L13" t="s">
         <v>23</v>
@@ -1815,7 +1816,7 @@
         <v>420</v>
       </c>
       <c r="N13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O13" t="s">
         <v>24</v>
@@ -1830,15 +1831,15 @@
         <v>26</v>
       </c>
       <c r="S13" t="s">
+        <v>72</v>
+      </c>
+      <c r="T13" t="s">
         <v>73</v>
-      </c>
-      <c r="T13" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14">
         <v>6.6</v>
@@ -1865,10 +1866,10 @@
         <v>20</v>
       </c>
       <c r="J14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L14" t="s">
         <v>23</v>
@@ -1892,15 +1893,15 @@
         <v>26</v>
       </c>
       <c r="S14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B15">
         <v>5.8</v>
@@ -1924,16 +1925,16 @@
         <v>5</v>
       </c>
       <c r="I15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" t="s">
+        <v>50</v>
+      </c>
+      <c r="L15" t="s">
         <v>64</v>
-      </c>
-      <c r="J15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15" t="s">
-        <v>51</v>
-      </c>
-      <c r="L15" t="s">
-        <v>65</v>
       </c>
       <c r="M15">
         <v>750</v>
@@ -1951,18 +1952,18 @@
         <v>24</v>
       </c>
       <c r="R15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16">
         <v>5.8</v>
@@ -1986,16 +1987,16 @@
         <v>5</v>
       </c>
       <c r="I16" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" t="s">
         <v>81</v>
-      </c>
-      <c r="J16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16" t="s">
-        <v>51</v>
-      </c>
-      <c r="L16" t="s">
-        <v>82</v>
       </c>
       <c r="M16">
         <v>1000</v>
@@ -2013,18 +2014,18 @@
         <v>24</v>
       </c>
       <c r="R16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17">
         <v>7.5</v>
@@ -2051,10 +2052,10 @@
         <v>20</v>
       </c>
       <c r="J17" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" t="s">
         <v>50</v>
-      </c>
-      <c r="K17" t="s">
-        <v>51</v>
       </c>
       <c r="L17" t="s">
         <v>23</v>
@@ -2078,15 +2079,15 @@
         <v>26</v>
       </c>
       <c r="S17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B18">
         <v>7.9</v>
@@ -2113,10 +2114,10 @@
         <v>20</v>
       </c>
       <c r="J18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L18" t="s">
         <v>23</v>
@@ -2140,15 +2141,15 @@
         <v>26</v>
       </c>
       <c r="S18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B19">
         <v>7.5</v>
@@ -2175,10 +2176,10 @@
         <v>20</v>
       </c>
       <c r="J19" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" t="s">
         <v>50</v>
-      </c>
-      <c r="K19" t="s">
-        <v>51</v>
       </c>
       <c r="L19" t="s">
         <v>23</v>
@@ -2202,15 +2203,15 @@
         <v>26</v>
       </c>
       <c r="S19" t="s">
+        <v>89</v>
+      </c>
+      <c r="T19" t="s">
         <v>90</v>
-      </c>
-      <c r="T19" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20">
         <v>7.5</v>
@@ -2237,10 +2238,10 @@
         <v>20</v>
       </c>
       <c r="J20" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" t="s">
         <v>50</v>
-      </c>
-      <c r="K20" t="s">
-        <v>51</v>
       </c>
       <c r="L20" t="s">
         <v>23</v>
@@ -2264,15 +2265,15 @@
         <v>26</v>
       </c>
       <c r="S20" t="s">
+        <v>92</v>
+      </c>
+      <c r="T20" t="s">
         <v>93</v>
-      </c>
-      <c r="T20" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21">
         <v>8.3000000000000007</v>
@@ -2299,10 +2300,10 @@
         <v>20</v>
       </c>
       <c r="J21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L21" t="s">
         <v>23</v>
@@ -2326,15 +2327,15 @@
         <v>26</v>
       </c>
       <c r="S21" t="s">
+        <v>96</v>
+      </c>
+      <c r="T21" t="s">
         <v>97</v>
-      </c>
-      <c r="T21" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B22">
         <v>6.3</v>
@@ -2364,7 +2365,7 @@
         <v>21</v>
       </c>
       <c r="K22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L22" t="s">
         <v>23</v>
@@ -2388,15 +2389,15 @@
         <v>26</v>
       </c>
       <c r="S22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B23">
         <v>6.3</v>
@@ -2426,10 +2427,10 @@
         <v>21</v>
       </c>
       <c r="K23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M23">
         <v>300</v>
@@ -2450,15 +2451,15 @@
         <v>26</v>
       </c>
       <c r="S23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2485,13 +2486,13 @@
         <v>28</v>
       </c>
       <c r="J24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M24">
         <v>350</v>
@@ -2512,15 +2513,15 @@
         <v>26</v>
       </c>
       <c r="S24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B25">
         <v>5.8</v>
@@ -2544,22 +2545,22 @@
         <v>5</v>
       </c>
       <c r="I25" t="s">
+        <v>63</v>
+      </c>
+      <c r="J25" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" t="s">
+        <v>99</v>
+      </c>
+      <c r="L25" t="s">
         <v>64</v>
-      </c>
-      <c r="J25" t="s">
-        <v>41</v>
-      </c>
-      <c r="K25" t="s">
-        <v>100</v>
-      </c>
-      <c r="L25" t="s">
-        <v>65</v>
       </c>
       <c r="M25">
         <v>450</v>
       </c>
       <c r="N25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O25" t="s">
         <v>25</v>
@@ -2571,18 +2572,18 @@
         <v>24</v>
       </c>
       <c r="R25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S25" t="s">
+        <v>108</v>
+      </c>
+      <c r="T25" t="s">
         <v>109</v>
-      </c>
-      <c r="T25" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B26">
         <v>6.3</v>
@@ -2612,7 +2613,7 @@
         <v>21</v>
       </c>
       <c r="K26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L26" t="s">
         <v>23</v>
@@ -2636,15 +2637,15 @@
         <v>26</v>
       </c>
       <c r="S26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B27">
         <v>5.8</v>
@@ -2671,13 +2672,13 @@
         <v>28</v>
       </c>
       <c r="J27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M27">
         <v>600</v>
@@ -2698,15 +2699,15 @@
         <v>26</v>
       </c>
       <c r="S27" t="s">
+        <v>115</v>
+      </c>
+      <c r="T27" t="s">
         <v>116</v>
-      </c>
-      <c r="T27" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B28">
         <v>5.8</v>
@@ -2733,13 +2734,13 @@
         <v>28</v>
       </c>
       <c r="J28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M28">
         <v>600</v>
@@ -2760,15 +2761,15 @@
         <v>26</v>
       </c>
       <c r="S28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B29">
         <v>5.8</v>
@@ -2795,13 +2796,13 @@
         <v>28</v>
       </c>
       <c r="J29" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29" t="s">
+        <v>50</v>
+      </c>
+      <c r="L29" t="s">
         <v>41</v>
-      </c>
-      <c r="K29" t="s">
-        <v>51</v>
-      </c>
-      <c r="L29" t="s">
-        <v>42</v>
       </c>
       <c r="M29">
         <v>650</v>
@@ -2822,15 +2823,15 @@
         <v>26</v>
       </c>
       <c r="S29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B30">
         <v>6.3</v>
@@ -2860,10 +2861,10 @@
         <v>29</v>
       </c>
       <c r="K30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M30">
         <v>650</v>
@@ -2884,15 +2885,15 @@
         <v>26</v>
       </c>
       <c r="S30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2919,10 +2920,10 @@
         <v>28</v>
       </c>
       <c r="J31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L31" t="s">
         <v>23</v>
@@ -2946,15 +2947,15 @@
         <v>26</v>
       </c>
       <c r="S31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B32">
         <v>5</v>
@@ -2981,13 +2982,13 @@
         <v>28</v>
       </c>
       <c r="J32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K32" t="s">
         <v>37</v>
       </c>
       <c r="L32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M32">
         <v>3000</v>
@@ -3008,15 +3009,15 @@
         <v>26</v>
       </c>
       <c r="S32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -3040,22 +3041,22 @@
         <v>10</v>
       </c>
       <c r="I33" t="s">
+        <v>130</v>
+      </c>
+      <c r="J33" t="s">
+        <v>104</v>
+      </c>
+      <c r="K33" t="s">
         <v>131</v>
       </c>
-      <c r="J33" t="s">
-        <v>105</v>
-      </c>
-      <c r="K33" t="s">
-        <v>132</v>
-      </c>
       <c r="L33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M33">
         <v>5000</v>
       </c>
       <c r="N33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O33" t="s">
         <v>24</v>
@@ -3070,15 +3071,15 @@
         <v>26</v>
       </c>
       <c r="S33" t="s">
+        <v>132</v>
+      </c>
+      <c r="T33" t="s">
         <v>133</v>
-      </c>
-      <c r="T33" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B34">
         <v>7.5</v>
@@ -3105,10 +3106,10 @@
         <v>20</v>
       </c>
       <c r="J34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L34" t="s">
         <v>23</v>
@@ -3132,15 +3133,15 @@
         <v>26</v>
       </c>
       <c r="S34" t="s">
+        <v>136</v>
+      </c>
+      <c r="T34" t="s">
         <v>137</v>
-      </c>
-      <c r="T34" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B35">
         <v>7.5</v>
@@ -3167,10 +3168,10 @@
         <v>20</v>
       </c>
       <c r="J35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L35" t="s">
         <v>23</v>
@@ -3194,15 +3195,15 @@
         <v>26</v>
       </c>
       <c r="S35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B36">
         <v>7.5</v>
@@ -3226,13 +3227,13 @@
         <v>1.5</v>
       </c>
       <c r="I36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L36" t="s">
         <v>23</v>
@@ -3253,18 +3254,18 @@
         <v>25</v>
       </c>
       <c r="R36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S36" t="s">
+        <v>141</v>
+      </c>
+      <c r="T36" t="s">
         <v>142</v>
-      </c>
-      <c r="T36" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B37">
         <v>6.6</v>
@@ -3288,16 +3289,16 @@
         <v>4</v>
       </c>
       <c r="I37" t="s">
+        <v>63</v>
+      </c>
+      <c r="J37" t="s">
+        <v>144</v>
+      </c>
+      <c r="K37" t="s">
+        <v>145</v>
+      </c>
+      <c r="L37" t="s">
         <v>64</v>
-      </c>
-      <c r="J37" t="s">
-        <v>145</v>
-      </c>
-      <c r="K37" t="s">
-        <v>146</v>
-      </c>
-      <c r="L37" t="s">
-        <v>65</v>
       </c>
       <c r="M37">
         <v>1100</v>
@@ -3315,18 +3316,18 @@
         <v>24</v>
       </c>
       <c r="R37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S37" t="s">
+        <v>146</v>
+      </c>
+      <c r="T37" t="s">
         <v>147</v>
-      </c>
-      <c r="T37" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B38">
         <v>6.6</v>
@@ -3350,16 +3351,16 @@
         <v>4</v>
       </c>
       <c r="I38" t="s">
+        <v>63</v>
+      </c>
+      <c r="J38" t="s">
+        <v>144</v>
+      </c>
+      <c r="K38" t="s">
+        <v>145</v>
+      </c>
+      <c r="L38" t="s">
         <v>64</v>
-      </c>
-      <c r="J38" t="s">
-        <v>145</v>
-      </c>
-      <c r="K38" t="s">
-        <v>146</v>
-      </c>
-      <c r="L38" t="s">
-        <v>65</v>
       </c>
       <c r="M38">
         <v>1140</v>
@@ -3377,18 +3378,18 @@
         <v>25</v>
       </c>
       <c r="R38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S38" t="s">
+        <v>149</v>
+      </c>
+      <c r="T38" t="s">
         <v>150</v>
-      </c>
-      <c r="T38" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3415,19 +3416,19 @@
         <v>28</v>
       </c>
       <c r="J39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M39">
         <v>2800</v>
       </c>
       <c r="N39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O39" t="s">
         <v>24</v>
@@ -3442,15 +3443,15 @@
         <v>26</v>
       </c>
       <c r="S39" t="s">
+        <v>152</v>
+      </c>
+      <c r="T39" t="s">
         <v>153</v>
-      </c>
-      <c r="T39" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3477,19 +3478,19 @@
         <v>28</v>
       </c>
       <c r="J40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M40">
         <v>2800</v>
       </c>
       <c r="N40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O40" t="s">
         <v>24</v>
@@ -3504,15 +3505,15 @@
         <v>26</v>
       </c>
       <c r="S40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -3539,10 +3540,10 @@
         <v>28</v>
       </c>
       <c r="J41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L41" t="s">
         <v>23</v>
@@ -3551,7 +3552,7 @@
         <v>500</v>
       </c>
       <c r="N41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O41" t="s">
         <v>24</v>
@@ -3566,15 +3567,15 @@
         <v>26</v>
       </c>
       <c r="S41" t="s">
+        <v>156</v>
+      </c>
+      <c r="T41" t="s">
         <v>157</v>
-      </c>
-      <c r="T41" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -3601,19 +3602,19 @@
         <v>28</v>
       </c>
       <c r="J42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M42">
         <v>1000</v>
       </c>
       <c r="N42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O42" t="s">
         <v>24</v>
@@ -3628,15 +3629,15 @@
         <v>26</v>
       </c>
       <c r="S42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="T42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B43">
         <v>8.5</v>
@@ -3660,22 +3661,22 @@
         <v>3</v>
       </c>
       <c r="I43" t="s">
+        <v>48</v>
+      </c>
+      <c r="J43" t="s">
         <v>49</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>50</v>
       </c>
-      <c r="K43" t="s">
-        <v>51</v>
-      </c>
       <c r="L43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M43">
         <v>280</v>
       </c>
       <c r="N43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O43" t="s">
         <v>24</v>
@@ -3690,15 +3691,15 @@
         <v>26</v>
       </c>
       <c r="S43" t="s">
+        <v>162</v>
+      </c>
+      <c r="T43" t="s">
         <v>163</v>
-      </c>
-      <c r="T43" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B44">
         <v>8.5</v>
@@ -3722,22 +3723,22 @@
         <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J44" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K44" t="s">
+        <v>50</v>
+      </c>
+      <c r="L44" t="s">
         <v>51</v>
-      </c>
-      <c r="L44" t="s">
-        <v>52</v>
       </c>
       <c r="M44">
         <v>300</v>
       </c>
       <c r="N44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O44" t="s">
         <v>24</v>
@@ -3752,15 +3753,15 @@
         <v>26</v>
       </c>
       <c r="S44" t="s">
+        <v>166</v>
+      </c>
+      <c r="T44" t="s">
         <v>167</v>
-      </c>
-      <c r="T44" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B45">
         <v>9.5</v>
@@ -3784,22 +3785,22 @@
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M45">
         <v>600</v>
       </c>
       <c r="N45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O45" t="s">
         <v>24</v>
@@ -3814,15 +3815,15 @@
         <v>26</v>
       </c>
       <c r="S45" t="s">
+        <v>170</v>
+      </c>
+      <c r="T45" t="s">
         <v>171</v>
-      </c>
-      <c r="T45" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B46">
         <v>8.8000000000000007</v>
@@ -3846,22 +3847,22 @@
         <v>3</v>
       </c>
       <c r="I46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K46" t="s">
+        <v>50</v>
+      </c>
+      <c r="L46" t="s">
         <v>51</v>
-      </c>
-      <c r="L46" t="s">
-        <v>52</v>
       </c>
       <c r="M46">
         <v>830</v>
       </c>
       <c r="N46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O46" t="s">
         <v>24</v>
@@ -3876,15 +3877,15 @@
         <v>26</v>
       </c>
       <c r="S46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -3911,10 +3912,10 @@
         <v>20</v>
       </c>
       <c r="J47" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L47" t="s">
         <v>23</v>
@@ -3923,7 +3924,7 @@
         <v>250</v>
       </c>
       <c r="N47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O47" t="s">
         <v>24</v>
@@ -3938,15 +3939,15 @@
         <v>26</v>
       </c>
       <c r="S47" t="s">
+        <v>177</v>
+      </c>
+      <c r="T47" t="s">
         <v>178</v>
-      </c>
-      <c r="T47" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3973,10 +3974,10 @@
         <v>28</v>
       </c>
       <c r="J48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L48" t="s">
         <v>23</v>
@@ -3985,7 +3986,7 @@
         <v>300</v>
       </c>
       <c r="N48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O48" t="s">
         <v>24</v>
@@ -4000,15 +4001,15 @@
         <v>26</v>
       </c>
       <c r="S48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="T48" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -4035,10 +4036,10 @@
         <v>28</v>
       </c>
       <c r="J49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L49" t="s">
         <v>23</v>
@@ -4047,7 +4048,7 @@
         <v>400</v>
       </c>
       <c r="N49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O49" t="s">
         <v>24</v>
@@ -4062,15 +4063,15 @@
         <v>26</v>
       </c>
       <c r="S49" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -4094,22 +4095,22 @@
         <v>5</v>
       </c>
       <c r="I50" t="s">
+        <v>63</v>
+      </c>
+      <c r="J50" t="s">
+        <v>104</v>
+      </c>
+      <c r="K50" t="s">
+        <v>50</v>
+      </c>
+      <c r="L50" t="s">
         <v>64</v>
-      </c>
-      <c r="J50" t="s">
-        <v>105</v>
-      </c>
-      <c r="K50" t="s">
-        <v>51</v>
-      </c>
-      <c r="L50" t="s">
-        <v>65</v>
       </c>
       <c r="M50">
         <v>450</v>
       </c>
       <c r="N50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O50" t="s">
         <v>25</v>
@@ -4121,18 +4122,18 @@
         <v>24</v>
       </c>
       <c r="R50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -4159,10 +4160,10 @@
         <v>28</v>
       </c>
       <c r="J51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L51" t="s">
         <v>23</v>
@@ -4171,7 +4172,7 @@
         <v>450</v>
       </c>
       <c r="N51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O51" t="s">
         <v>24</v>
@@ -4186,15 +4187,15 @@
         <v>26</v>
       </c>
       <c r="S51" t="s">
+        <v>185</v>
+      </c>
+      <c r="T51" t="s">
         <v>186</v>
-      </c>
-      <c r="T51" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -4218,22 +4219,22 @@
         <v>5</v>
       </c>
       <c r="I52" t="s">
+        <v>63</v>
+      </c>
+      <c r="J52" t="s">
+        <v>104</v>
+      </c>
+      <c r="K52" t="s">
+        <v>50</v>
+      </c>
+      <c r="L52" t="s">
         <v>64</v>
-      </c>
-      <c r="J52" t="s">
-        <v>105</v>
-      </c>
-      <c r="K52" t="s">
-        <v>51</v>
-      </c>
-      <c r="L52" t="s">
-        <v>65</v>
       </c>
       <c r="M52">
         <v>480</v>
       </c>
       <c r="N52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O52" t="s">
         <v>25</v>
@@ -4245,18 +4246,18 @@
         <v>24</v>
       </c>
       <c r="R52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S52" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="T52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -4283,19 +4284,19 @@
         <v>28</v>
       </c>
       <c r="J53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M53">
         <v>450</v>
       </c>
       <c r="N53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O53" t="s">
         <v>24</v>
@@ -4310,15 +4311,15 @@
         <v>26</v>
       </c>
       <c r="S53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4342,22 +4343,22 @@
         <v>8</v>
       </c>
       <c r="I54" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M54">
         <v>600</v>
       </c>
       <c r="N54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O54" t="s">
         <v>24</v>
@@ -4369,18 +4370,18 @@
         <v>24</v>
       </c>
       <c r="R54" t="s">
+        <v>192</v>
+      </c>
+      <c r="S54" t="s">
         <v>193</v>
       </c>
-      <c r="S54" t="s">
-        <v>194</v>
-      </c>
       <c r="T54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -4407,10 +4408,10 @@
         <v>28</v>
       </c>
       <c r="J55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K55" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L55" t="s">
         <v>23</v>
@@ -4419,7 +4420,7 @@
         <v>600</v>
       </c>
       <c r="N55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O55" t="s">
         <v>24</v>
@@ -4434,15 +4435,15 @@
         <v>26</v>
       </c>
       <c r="S55" t="s">
+        <v>196</v>
+      </c>
+      <c r="T55" t="s">
         <v>197</v>
-      </c>
-      <c r="T55" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4469,19 +4470,19 @@
         <v>28</v>
       </c>
       <c r="J56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M56">
         <v>700</v>
       </c>
       <c r="N56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O56" t="s">
         <v>24</v>
@@ -4496,15 +4497,15 @@
         <v>26</v>
       </c>
       <c r="S56" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -4531,19 +4532,19 @@
         <v>28</v>
       </c>
       <c r="J57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K57" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M57">
         <v>850</v>
       </c>
       <c r="N57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O57" t="s">
         <v>24</v>
@@ -4558,15 +4559,15 @@
         <v>26</v>
       </c>
       <c r="S57" t="s">
+        <v>201</v>
+      </c>
+      <c r="T57" t="s">
         <v>202</v>
-      </c>
-      <c r="T57" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4590,13 +4591,13 @@
         <v>10</v>
       </c>
       <c r="I58" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L58" t="s">
         <v>23</v>
@@ -4605,7 +4606,7 @@
         <v>1300</v>
       </c>
       <c r="N58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O58" t="s">
         <v>24</v>
@@ -4620,15 +4621,15 @@
         <v>26</v>
       </c>
       <c r="S58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B59">
         <v>5.8</v>
@@ -4652,22 +4653,22 @@
         <v>5</v>
       </c>
       <c r="I59" t="s">
+        <v>80</v>
+      </c>
+      <c r="J59" t="s">
+        <v>40</v>
+      </c>
+      <c r="K59" t="s">
+        <v>50</v>
+      </c>
+      <c r="L59" t="s">
         <v>81</v>
-      </c>
-      <c r="J59" t="s">
-        <v>41</v>
-      </c>
-      <c r="K59" t="s">
-        <v>51</v>
-      </c>
-      <c r="L59" t="s">
-        <v>82</v>
       </c>
       <c r="M59">
         <v>1400</v>
       </c>
       <c r="N59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O59" t="s">
         <v>25</v>
@@ -4679,18 +4680,18 @@
         <v>24</v>
       </c>
       <c r="R59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S59" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="T59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -4714,13 +4715,13 @@
         <v>10</v>
       </c>
       <c r="I60" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J60" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L60" t="s">
         <v>23</v>
@@ -4729,7 +4730,7 @@
         <v>1600</v>
       </c>
       <c r="N60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O60" t="s">
         <v>24</v>
@@ -4744,10 +4745,10 @@
         <v>26</v>
       </c>
       <c r="S60" t="s">
+        <v>208</v>
+      </c>
+      <c r="T60" t="s">
         <v>209</v>
-      </c>
-      <c r="T60" t="s">
-        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/data/monitors.xlsx
+++ b/data/monitors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chandradeep/Desktop/MS/FrogAI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AE2238-78E8-2C46-A37E-6B32CF2516BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6ABB64-BEB2-E34F-B6C1-3499429273A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="20560" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,9 +124,6 @@
     <t>KTC M27P20 Pro</t>
   </si>
   <si>
-    <t>Likely buggy firmware</t>
-  </si>
-  <si>
     <t>techless,https://www.youtube.com/watch?v=xINKVAGOiAs</t>
   </si>
   <si>
@@ -656,6 +653,9 @@
   </si>
   <si>
     <t>Slightly buggy firmware + reports of coil whine + VRR only works upto 144hz</t>
+  </si>
+  <si>
+    <t>OSD lock ups sometimes + minor VRR+HDR flickering</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:T60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1211,15 +1211,15 @@
         <v>26</v>
       </c>
       <c r="S3" t="s">
+        <v>211</v>
+      </c>
+      <c r="T3" t="s">
         <v>34</v>
-      </c>
-      <c r="T3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>6.25</v>
@@ -1249,7 +1249,7 @@
         <v>29</v>
       </c>
       <c r="K4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L4" t="s">
         <v>23</v>
@@ -1273,15 +1273,15 @@
         <v>26</v>
       </c>
       <c r="S4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>5.8</v>
@@ -1308,13 +1308,13 @@
         <v>28</v>
       </c>
       <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" t="s">
         <v>40</v>
-      </c>
-      <c r="K5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" t="s">
-        <v>41</v>
       </c>
       <c r="M5">
         <v>900</v>
@@ -1335,15 +1335,15 @@
         <v>26</v>
       </c>
       <c r="S5" t="s">
+        <v>41</v>
+      </c>
+      <c r="T5" t="s">
         <v>42</v>
-      </c>
-      <c r="T5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>6.25</v>
@@ -1373,7 +1373,7 @@
         <v>29</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L6" t="s">
         <v>23</v>
@@ -1397,15 +1397,15 @@
         <v>26</v>
       </c>
       <c r="S6" t="s">
+        <v>44</v>
+      </c>
+      <c r="T6" t="s">
         <v>45</v>
-      </c>
-      <c r="T6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>7.5</v>
@@ -1429,22 +1429,22 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" t="s">
         <v>48</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>49</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>50</v>
-      </c>
-      <c r="L7" t="s">
-        <v>51</v>
       </c>
       <c r="M7">
         <v>150</v>
       </c>
       <c r="N7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O7" t="s">
         <v>24</v>
@@ -1459,15 +1459,15 @@
         <v>26</v>
       </c>
       <c r="S7" t="s">
+        <v>52</v>
+      </c>
+      <c r="T7" t="s">
         <v>53</v>
-      </c>
-      <c r="T7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8">
         <v>6.3</v>
@@ -1497,7 +1497,7 @@
         <v>21</v>
       </c>
       <c r="K8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" t="s">
         <v>23</v>
@@ -1521,15 +1521,15 @@
         <v>26</v>
       </c>
       <c r="S8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9">
         <v>6.3</v>
@@ -1559,7 +1559,7 @@
         <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L9" t="s">
         <v>23</v>
@@ -1583,15 +1583,15 @@
         <v>26</v>
       </c>
       <c r="S9" t="s">
+        <v>57</v>
+      </c>
+      <c r="T9" t="s">
         <v>58</v>
-      </c>
-      <c r="T9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10">
         <v>6.3</v>
@@ -1621,7 +1621,7 @@
         <v>21</v>
       </c>
       <c r="K10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L10" t="s">
         <v>23</v>
@@ -1645,15 +1645,15 @@
         <v>26</v>
       </c>
       <c r="S10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11">
         <v>5.8</v>
@@ -1677,16 +1677,16 @@
         <v>5</v>
       </c>
       <c r="I11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" t="s">
         <v>63</v>
-      </c>
-      <c r="J11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" t="s">
-        <v>64</v>
       </c>
       <c r="M11">
         <v>380</v>
@@ -1704,18 +1704,18 @@
         <v>24</v>
       </c>
       <c r="R11" t="s">
+        <v>64</v>
+      </c>
+      <c r="S11" t="s">
+        <v>52</v>
+      </c>
+      <c r="T11" t="s">
         <v>65</v>
-      </c>
-      <c r="S11" t="s">
-        <v>53</v>
-      </c>
-      <c r="T11" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12">
         <v>6.4</v>
@@ -1742,13 +1742,13 @@
         <v>20</v>
       </c>
       <c r="J12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M12">
         <v>400</v>
@@ -1769,15 +1769,15 @@
         <v>26</v>
       </c>
       <c r="S12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13">
         <v>6.3</v>
@@ -1807,7 +1807,7 @@
         <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" t="s">
         <v>23</v>
@@ -1816,7 +1816,7 @@
         <v>420</v>
       </c>
       <c r="N13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O13" t="s">
         <v>24</v>
@@ -1831,15 +1831,15 @@
         <v>26</v>
       </c>
       <c r="S13" t="s">
+        <v>71</v>
+      </c>
+      <c r="T13" t="s">
         <v>72</v>
-      </c>
-      <c r="T13" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14">
         <v>6.6</v>
@@ -1866,10 +1866,10 @@
         <v>20</v>
       </c>
       <c r="J14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L14" t="s">
         <v>23</v>
@@ -1893,15 +1893,15 @@
         <v>26</v>
       </c>
       <c r="S14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15">
         <v>5.8</v>
@@ -1925,16 +1925,16 @@
         <v>5</v>
       </c>
       <c r="I15" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" t="s">
         <v>63</v>
-      </c>
-      <c r="J15" t="s">
-        <v>40</v>
-      </c>
-      <c r="K15" t="s">
-        <v>50</v>
-      </c>
-      <c r="L15" t="s">
-        <v>64</v>
       </c>
       <c r="M15">
         <v>750</v>
@@ -1952,18 +1952,18 @@
         <v>24</v>
       </c>
       <c r="R15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16">
         <v>5.8</v>
@@ -1987,16 +1987,16 @@
         <v>5</v>
       </c>
       <c r="I16" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" t="s">
         <v>80</v>
-      </c>
-      <c r="J16" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16" t="s">
-        <v>50</v>
-      </c>
-      <c r="L16" t="s">
-        <v>81</v>
       </c>
       <c r="M16">
         <v>1000</v>
@@ -2014,18 +2014,18 @@
         <v>24</v>
       </c>
       <c r="R16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17">
         <v>7.5</v>
@@ -2052,10 +2052,10 @@
         <v>20</v>
       </c>
       <c r="J17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" t="s">
         <v>49</v>
-      </c>
-      <c r="K17" t="s">
-        <v>50</v>
       </c>
       <c r="L17" t="s">
         <v>23</v>
@@ -2079,15 +2079,15 @@
         <v>26</v>
       </c>
       <c r="S17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18">
         <v>7.9</v>
@@ -2114,10 +2114,10 @@
         <v>20</v>
       </c>
       <c r="J18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" t="s">
         <v>23</v>
@@ -2141,15 +2141,15 @@
         <v>26</v>
       </c>
       <c r="S18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B19">
         <v>7.5</v>
@@ -2176,10 +2176,10 @@
         <v>20</v>
       </c>
       <c r="J19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K19" t="s">
         <v>49</v>
-      </c>
-      <c r="K19" t="s">
-        <v>50</v>
       </c>
       <c r="L19" t="s">
         <v>23</v>
@@ -2203,15 +2203,15 @@
         <v>26</v>
       </c>
       <c r="S19" t="s">
+        <v>88</v>
+      </c>
+      <c r="T19" t="s">
         <v>89</v>
-      </c>
-      <c r="T19" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B20">
         <v>7.5</v>
@@ -2238,10 +2238,10 @@
         <v>20</v>
       </c>
       <c r="J20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20" t="s">
         <v>49</v>
-      </c>
-      <c r="K20" t="s">
-        <v>50</v>
       </c>
       <c r="L20" t="s">
         <v>23</v>
@@ -2265,15 +2265,15 @@
         <v>26</v>
       </c>
       <c r="S20" t="s">
+        <v>91</v>
+      </c>
+      <c r="T20" t="s">
         <v>92</v>
-      </c>
-      <c r="T20" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B21">
         <v>8.3000000000000007</v>
@@ -2300,10 +2300,10 @@
         <v>20</v>
       </c>
       <c r="J21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L21" t="s">
         <v>23</v>
@@ -2327,15 +2327,15 @@
         <v>26</v>
       </c>
       <c r="S21" t="s">
+        <v>95</v>
+      </c>
+      <c r="T21" t="s">
         <v>96</v>
-      </c>
-      <c r="T21" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B22">
         <v>6.3</v>
@@ -2365,7 +2365,7 @@
         <v>21</v>
       </c>
       <c r="K22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L22" t="s">
         <v>23</v>
@@ -2389,15 +2389,15 @@
         <v>26</v>
       </c>
       <c r="S22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B23">
         <v>6.3</v>
@@ -2427,10 +2427,10 @@
         <v>21</v>
       </c>
       <c r="K23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M23">
         <v>300</v>
@@ -2451,15 +2451,15 @@
         <v>26</v>
       </c>
       <c r="S23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2486,13 +2486,13 @@
         <v>28</v>
       </c>
       <c r="J24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M24">
         <v>350</v>
@@ -2513,15 +2513,15 @@
         <v>26</v>
       </c>
       <c r="S24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B25">
         <v>5.8</v>
@@ -2545,22 +2545,22 @@
         <v>5</v>
       </c>
       <c r="I25" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25" t="s">
+        <v>98</v>
+      </c>
+      <c r="L25" t="s">
         <v>63</v>
-      </c>
-      <c r="J25" t="s">
-        <v>40</v>
-      </c>
-      <c r="K25" t="s">
-        <v>99</v>
-      </c>
-      <c r="L25" t="s">
-        <v>64</v>
       </c>
       <c r="M25">
         <v>450</v>
       </c>
       <c r="N25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O25" t="s">
         <v>25</v>
@@ -2572,18 +2572,18 @@
         <v>24</v>
       </c>
       <c r="R25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S25" t="s">
+        <v>107</v>
+      </c>
+      <c r="T25" t="s">
         <v>108</v>
-      </c>
-      <c r="T25" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B26">
         <v>6.3</v>
@@ -2613,7 +2613,7 @@
         <v>21</v>
       </c>
       <c r="K26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L26" t="s">
         <v>23</v>
@@ -2637,15 +2637,15 @@
         <v>26</v>
       </c>
       <c r="S26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B27">
         <v>5.8</v>
@@ -2672,13 +2672,13 @@
         <v>28</v>
       </c>
       <c r="J27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M27">
         <v>600</v>
@@ -2699,15 +2699,15 @@
         <v>26</v>
       </c>
       <c r="S27" t="s">
+        <v>114</v>
+      </c>
+      <c r="T27" t="s">
         <v>115</v>
-      </c>
-      <c r="T27" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B28">
         <v>5.8</v>
@@ -2734,13 +2734,13 @@
         <v>28</v>
       </c>
       <c r="J28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M28">
         <v>600</v>
@@ -2761,15 +2761,15 @@
         <v>26</v>
       </c>
       <c r="S28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B29">
         <v>5.8</v>
@@ -2796,13 +2796,13 @@
         <v>28</v>
       </c>
       <c r="J29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29" t="s">
+        <v>49</v>
+      </c>
+      <c r="L29" t="s">
         <v>40</v>
-      </c>
-      <c r="K29" t="s">
-        <v>50</v>
-      </c>
-      <c r="L29" t="s">
-        <v>41</v>
       </c>
       <c r="M29">
         <v>650</v>
@@ -2823,15 +2823,15 @@
         <v>26</v>
       </c>
       <c r="S29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B30">
         <v>6.3</v>
@@ -2861,10 +2861,10 @@
         <v>29</v>
       </c>
       <c r="K30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M30">
         <v>650</v>
@@ -2885,15 +2885,15 @@
         <v>26</v>
       </c>
       <c r="S30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2920,10 +2920,10 @@
         <v>28</v>
       </c>
       <c r="J31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L31" t="s">
         <v>23</v>
@@ -2947,15 +2947,15 @@
         <v>26</v>
       </c>
       <c r="S31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B32">
         <v>5</v>
@@ -2982,13 +2982,13 @@
         <v>28</v>
       </c>
       <c r="J32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M32">
         <v>3000</v>
@@ -3009,15 +3009,15 @@
         <v>26</v>
       </c>
       <c r="S32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -3041,22 +3041,22 @@
         <v>10</v>
       </c>
       <c r="I33" t="s">
+        <v>129</v>
+      </c>
+      <c r="J33" t="s">
+        <v>103</v>
+      </c>
+      <c r="K33" t="s">
         <v>130</v>
       </c>
-      <c r="J33" t="s">
-        <v>104</v>
-      </c>
-      <c r="K33" t="s">
-        <v>131</v>
-      </c>
       <c r="L33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M33">
         <v>5000</v>
       </c>
       <c r="N33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O33" t="s">
         <v>24</v>
@@ -3071,15 +3071,15 @@
         <v>26</v>
       </c>
       <c r="S33" t="s">
+        <v>131</v>
+      </c>
+      <c r="T33" t="s">
         <v>132</v>
-      </c>
-      <c r="T33" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B34">
         <v>7.5</v>
@@ -3106,10 +3106,10 @@
         <v>20</v>
       </c>
       <c r="J34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L34" t="s">
         <v>23</v>
@@ -3133,15 +3133,15 @@
         <v>26</v>
       </c>
       <c r="S34" t="s">
+        <v>135</v>
+      </c>
+      <c r="T34" t="s">
         <v>136</v>
-      </c>
-      <c r="T34" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B35">
         <v>7.5</v>
@@ -3168,10 +3168,10 @@
         <v>20</v>
       </c>
       <c r="J35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L35" t="s">
         <v>23</v>
@@ -3195,15 +3195,15 @@
         <v>26</v>
       </c>
       <c r="S35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B36">
         <v>7.5</v>
@@ -3227,13 +3227,13 @@
         <v>1.5</v>
       </c>
       <c r="I36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L36" t="s">
         <v>23</v>
@@ -3254,18 +3254,18 @@
         <v>25</v>
       </c>
       <c r="R36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S36" t="s">
+        <v>140</v>
+      </c>
+      <c r="T36" t="s">
         <v>141</v>
-      </c>
-      <c r="T36" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B37">
         <v>6.6</v>
@@ -3289,16 +3289,16 @@
         <v>4</v>
       </c>
       <c r="I37" t="s">
+        <v>62</v>
+      </c>
+      <c r="J37" t="s">
+        <v>143</v>
+      </c>
+      <c r="K37" t="s">
+        <v>144</v>
+      </c>
+      <c r="L37" t="s">
         <v>63</v>
-      </c>
-      <c r="J37" t="s">
-        <v>144</v>
-      </c>
-      <c r="K37" t="s">
-        <v>145</v>
-      </c>
-      <c r="L37" t="s">
-        <v>64</v>
       </c>
       <c r="M37">
         <v>1100</v>
@@ -3316,18 +3316,18 @@
         <v>24</v>
       </c>
       <c r="R37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S37" t="s">
+        <v>145</v>
+      </c>
+      <c r="T37" t="s">
         <v>146</v>
-      </c>
-      <c r="T37" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B38">
         <v>6.6</v>
@@ -3351,16 +3351,16 @@
         <v>4</v>
       </c>
       <c r="I38" t="s">
+        <v>62</v>
+      </c>
+      <c r="J38" t="s">
+        <v>143</v>
+      </c>
+      <c r="K38" t="s">
+        <v>144</v>
+      </c>
+      <c r="L38" t="s">
         <v>63</v>
-      </c>
-      <c r="J38" t="s">
-        <v>144</v>
-      </c>
-      <c r="K38" t="s">
-        <v>145</v>
-      </c>
-      <c r="L38" t="s">
-        <v>64</v>
       </c>
       <c r="M38">
         <v>1140</v>
@@ -3378,18 +3378,18 @@
         <v>25</v>
       </c>
       <c r="R38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S38" t="s">
+        <v>148</v>
+      </c>
+      <c r="T38" t="s">
         <v>149</v>
-      </c>
-      <c r="T38" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3416,19 +3416,19 @@
         <v>28</v>
       </c>
       <c r="J39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M39">
         <v>2800</v>
       </c>
       <c r="N39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O39" t="s">
         <v>24</v>
@@ -3443,15 +3443,15 @@
         <v>26</v>
       </c>
       <c r="S39" t="s">
+        <v>151</v>
+      </c>
+      <c r="T39" t="s">
         <v>152</v>
-      </c>
-      <c r="T39" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3478,19 +3478,19 @@
         <v>28</v>
       </c>
       <c r="J40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M40">
         <v>2800</v>
       </c>
       <c r="N40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O40" t="s">
         <v>24</v>
@@ -3505,15 +3505,15 @@
         <v>26</v>
       </c>
       <c r="S40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -3540,10 +3540,10 @@
         <v>28</v>
       </c>
       <c r="J41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L41" t="s">
         <v>23</v>
@@ -3552,7 +3552,7 @@
         <v>500</v>
       </c>
       <c r="N41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O41" t="s">
         <v>24</v>
@@ -3567,15 +3567,15 @@
         <v>26</v>
       </c>
       <c r="S41" t="s">
+        <v>155</v>
+      </c>
+      <c r="T41" t="s">
         <v>156</v>
-      </c>
-      <c r="T41" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -3602,19 +3602,19 @@
         <v>28</v>
       </c>
       <c r="J42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M42">
         <v>1000</v>
       </c>
       <c r="N42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O42" t="s">
         <v>24</v>
@@ -3629,15 +3629,15 @@
         <v>26</v>
       </c>
       <c r="S42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="T42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B43">
         <v>8.5</v>
@@ -3661,22 +3661,22 @@
         <v>3</v>
       </c>
       <c r="I43" t="s">
+        <v>47</v>
+      </c>
+      <c r="J43" t="s">
         <v>48</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>49</v>
       </c>
-      <c r="K43" t="s">
-        <v>50</v>
-      </c>
       <c r="L43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M43">
         <v>280</v>
       </c>
       <c r="N43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O43" t="s">
         <v>24</v>
@@ -3691,15 +3691,15 @@
         <v>26</v>
       </c>
       <c r="S43" t="s">
+        <v>161</v>
+      </c>
+      <c r="T43" t="s">
         <v>162</v>
-      </c>
-      <c r="T43" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B44">
         <v>8.5</v>
@@ -3723,22 +3723,22 @@
         <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K44" t="s">
+        <v>49</v>
+      </c>
+      <c r="L44" t="s">
         <v>50</v>
-      </c>
-      <c r="L44" t="s">
-        <v>51</v>
       </c>
       <c r="M44">
         <v>300</v>
       </c>
       <c r="N44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O44" t="s">
         <v>24</v>
@@ -3753,15 +3753,15 @@
         <v>26</v>
       </c>
       <c r="S44" t="s">
+        <v>165</v>
+      </c>
+      <c r="T44" t="s">
         <v>166</v>
-      </c>
-      <c r="T44" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B45">
         <v>9.5</v>
@@ -3785,22 +3785,22 @@
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M45">
         <v>600</v>
       </c>
       <c r="N45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O45" t="s">
         <v>24</v>
@@ -3815,15 +3815,15 @@
         <v>26</v>
       </c>
       <c r="S45" t="s">
+        <v>169</v>
+      </c>
+      <c r="T45" t="s">
         <v>170</v>
-      </c>
-      <c r="T45" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B46">
         <v>8.8000000000000007</v>
@@ -3847,22 +3847,22 @@
         <v>3</v>
       </c>
       <c r="I46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K46" t="s">
+        <v>49</v>
+      </c>
+      <c r="L46" t="s">
         <v>50</v>
-      </c>
-      <c r="L46" t="s">
-        <v>51</v>
       </c>
       <c r="M46">
         <v>830</v>
       </c>
       <c r="N46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O46" t="s">
         <v>24</v>
@@ -3877,15 +3877,15 @@
         <v>26</v>
       </c>
       <c r="S46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -3912,10 +3912,10 @@
         <v>20</v>
       </c>
       <c r="J47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L47" t="s">
         <v>23</v>
@@ -3924,7 +3924,7 @@
         <v>250</v>
       </c>
       <c r="N47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O47" t="s">
         <v>24</v>
@@ -3939,15 +3939,15 @@
         <v>26</v>
       </c>
       <c r="S47" t="s">
+        <v>176</v>
+      </c>
+      <c r="T47" t="s">
         <v>177</v>
-      </c>
-      <c r="T47" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3974,10 +3974,10 @@
         <v>28</v>
       </c>
       <c r="J48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L48" t="s">
         <v>23</v>
@@ -3986,7 +3986,7 @@
         <v>300</v>
       </c>
       <c r="N48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O48" t="s">
         <v>24</v>
@@ -4001,15 +4001,15 @@
         <v>26</v>
       </c>
       <c r="S48" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="T48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -4036,10 +4036,10 @@
         <v>28</v>
       </c>
       <c r="J49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L49" t="s">
         <v>23</v>
@@ -4048,7 +4048,7 @@
         <v>400</v>
       </c>
       <c r="N49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O49" t="s">
         <v>24</v>
@@ -4063,15 +4063,15 @@
         <v>26</v>
       </c>
       <c r="S49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T49" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -4095,22 +4095,22 @@
         <v>5</v>
       </c>
       <c r="I50" t="s">
+        <v>62</v>
+      </c>
+      <c r="J50" t="s">
+        <v>103</v>
+      </c>
+      <c r="K50" t="s">
+        <v>49</v>
+      </c>
+      <c r="L50" t="s">
         <v>63</v>
-      </c>
-      <c r="J50" t="s">
-        <v>104</v>
-      </c>
-      <c r="K50" t="s">
-        <v>50</v>
-      </c>
-      <c r="L50" t="s">
-        <v>64</v>
       </c>
       <c r="M50">
         <v>450</v>
       </c>
       <c r="N50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O50" t="s">
         <v>25</v>
@@ -4122,18 +4122,18 @@
         <v>24</v>
       </c>
       <c r="R50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S50" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -4160,10 +4160,10 @@
         <v>28</v>
       </c>
       <c r="J51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L51" t="s">
         <v>23</v>
@@ -4172,7 +4172,7 @@
         <v>450</v>
       </c>
       <c r="N51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O51" t="s">
         <v>24</v>
@@ -4187,15 +4187,15 @@
         <v>26</v>
       </c>
       <c r="S51" t="s">
+        <v>184</v>
+      </c>
+      <c r="T51" t="s">
         <v>185</v>
-      </c>
-      <c r="T51" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -4219,22 +4219,22 @@
         <v>5</v>
       </c>
       <c r="I52" t="s">
+        <v>62</v>
+      </c>
+      <c r="J52" t="s">
+        <v>103</v>
+      </c>
+      <c r="K52" t="s">
+        <v>49</v>
+      </c>
+      <c r="L52" t="s">
         <v>63</v>
-      </c>
-      <c r="J52" t="s">
-        <v>104</v>
-      </c>
-      <c r="K52" t="s">
-        <v>50</v>
-      </c>
-      <c r="L52" t="s">
-        <v>64</v>
       </c>
       <c r="M52">
         <v>480</v>
       </c>
       <c r="N52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O52" t="s">
         <v>25</v>
@@ -4246,18 +4246,18 @@
         <v>24</v>
       </c>
       <c r="R52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -4284,19 +4284,19 @@
         <v>28</v>
       </c>
       <c r="J53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M53">
         <v>450</v>
       </c>
       <c r="N53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O53" t="s">
         <v>24</v>
@@ -4311,15 +4311,15 @@
         <v>26</v>
       </c>
       <c r="S53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4343,22 +4343,22 @@
         <v>8</v>
       </c>
       <c r="I54" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M54">
         <v>600</v>
       </c>
       <c r="N54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O54" t="s">
         <v>24</v>
@@ -4370,18 +4370,18 @@
         <v>24</v>
       </c>
       <c r="R54" t="s">
+        <v>191</v>
+      </c>
+      <c r="S54" t="s">
         <v>192</v>
       </c>
-      <c r="S54" t="s">
-        <v>193</v>
-      </c>
       <c r="T54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -4408,10 +4408,10 @@
         <v>28</v>
       </c>
       <c r="J55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K55" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L55" t="s">
         <v>23</v>
@@ -4420,7 +4420,7 @@
         <v>600</v>
       </c>
       <c r="N55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O55" t="s">
         <v>24</v>
@@ -4435,15 +4435,15 @@
         <v>26</v>
       </c>
       <c r="S55" t="s">
+        <v>195</v>
+      </c>
+      <c r="T55" t="s">
         <v>196</v>
-      </c>
-      <c r="T55" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4470,19 +4470,19 @@
         <v>28</v>
       </c>
       <c r="J56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M56">
         <v>700</v>
       </c>
       <c r="N56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O56" t="s">
         <v>24</v>
@@ -4497,15 +4497,15 @@
         <v>26</v>
       </c>
       <c r="S56" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="T56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -4532,19 +4532,19 @@
         <v>28</v>
       </c>
       <c r="J57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K57" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M57">
         <v>850</v>
       </c>
       <c r="N57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O57" t="s">
         <v>24</v>
@@ -4559,15 +4559,15 @@
         <v>26</v>
       </c>
       <c r="S57" t="s">
+        <v>200</v>
+      </c>
+      <c r="T57" t="s">
         <v>201</v>
-      </c>
-      <c r="T57" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4591,13 +4591,13 @@
         <v>10</v>
       </c>
       <c r="I58" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L58" t="s">
         <v>23</v>
@@ -4606,7 +4606,7 @@
         <v>1300</v>
       </c>
       <c r="N58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O58" t="s">
         <v>24</v>
@@ -4621,15 +4621,15 @@
         <v>26</v>
       </c>
       <c r="S58" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B59">
         <v>5.8</v>
@@ -4653,22 +4653,22 @@
         <v>5</v>
       </c>
       <c r="I59" t="s">
+        <v>79</v>
+      </c>
+      <c r="J59" t="s">
+        <v>39</v>
+      </c>
+      <c r="K59" t="s">
+        <v>49</v>
+      </c>
+      <c r="L59" t="s">
         <v>80</v>
-      </c>
-      <c r="J59" t="s">
-        <v>40</v>
-      </c>
-      <c r="K59" t="s">
-        <v>50</v>
-      </c>
-      <c r="L59" t="s">
-        <v>81</v>
       </c>
       <c r="M59">
         <v>1400</v>
       </c>
       <c r="N59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O59" t="s">
         <v>25</v>
@@ -4680,18 +4680,18 @@
         <v>24</v>
       </c>
       <c r="R59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -4715,13 +4715,13 @@
         <v>10</v>
       </c>
       <c r="I60" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J60" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L60" t="s">
         <v>23</v>
@@ -4730,7 +4730,7 @@
         <v>1600</v>
       </c>
       <c r="N60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O60" t="s">
         <v>24</v>
@@ -4745,10 +4745,10 @@
         <v>26</v>
       </c>
       <c r="S60" t="s">
+        <v>207</v>
+      </c>
+      <c r="T60" t="s">
         <v>208</v>
-      </c>
-      <c r="T60" t="s">
-        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/data/monitors.xlsx
+++ b/data/monitors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chandradeep/Desktop/MS/FrogAI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6ABB64-BEB2-E34F-B6C1-3499429273A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236E3473-B8DA-5647-9610-3526C7E3F66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="20560" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,9 +427,6 @@
     <t>W-OLED</t>
   </si>
   <si>
-    <t>Heavy matte coating + bad for text + burn in risk</t>
-  </si>
-  <si>
     <t>RTINGS,https://www.rtings.com/monitor/reviews/lg/27gr95qe-b;Hardware Unboxed,https://www.youtube.com/watch?v=2YBJFYGtmQk</t>
   </si>
   <si>
@@ -442,9 +439,6 @@
     <t>LG 45GR95QE</t>
   </si>
   <si>
-    <t>Heavy matte coating + low ppi + bad for text + burn in risk</t>
-  </si>
-  <si>
     <t>RTINGS,https://www.rtings.com/monitor/reviews/lg/45gr95qe-b</t>
   </si>
   <si>
@@ -457,18 +451,12 @@
     <t>QD-OLED</t>
   </si>
   <si>
-    <t>Broken HDR + bad for text + 3 year burn in warranty + glossy</t>
-  </si>
-  <si>
     <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/alienware-aw3423dwf;Hardware Unboxed,https://www.youtube.com/watch?v=b0aLF3KVOTQ</t>
   </si>
   <si>
     <t>Alienware AW3423DW</t>
   </si>
   <si>
-    <t>Bad for text + 3 year burn in warranty + glossy</t>
-  </si>
-  <si>
     <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/alienware-aw3423dw;Hardware Unboxed,https://www.youtube.com/watch?v=YleSuwK8vR4</t>
   </si>
   <si>
@@ -541,9 +529,6 @@
     <t>500hz</t>
   </si>
   <si>
-    <t>LTT,https://www.youtube.com/watch?v=Ewo8tt6bgZU</t>
-  </si>
-  <si>
     <t>Dell S2721D(S)</t>
   </si>
   <si>
@@ -656,6 +641,21 @@
   </si>
   <si>
     <t>OSD lock ups sometimes + minor VRR+HDR flickering</t>
+  </si>
+  <si>
+    <t>Heavy matte coating + burn in risk</t>
+  </si>
+  <si>
+    <t>Heavy matte coating + low ppi + burn in risk</t>
+  </si>
+  <si>
+    <t>Broken HDR+ 3 year burn in warranty + glossy</t>
+  </si>
+  <si>
+    <t>3 year burn in warranty + glossy</t>
+  </si>
+  <si>
+    <t>Linus Tech Tips,https://www.youtube.com/watch?v=Ewo8tt6bgZU;RTINGS,https://www.rtings.com/monitor/reviews/dell/alienware-aw2524h</t>
   </si>
 </sst>
 </file>
@@ -1021,14 +1021,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" topLeftCell="S16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T46" sqref="T46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="19" max="19" width="30.6640625" customWidth="1"/>
+    <col min="19" max="19" width="61.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
@@ -1211,7 +1211,7 @@
         <v>26</v>
       </c>
       <c r="S3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="T3" t="s">
         <v>34</v>
@@ -1273,7 +1273,7 @@
         <v>26</v>
       </c>
       <c r="S4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="T4" t="s">
         <v>37</v>
@@ -1414,7 +1414,7 @@
         <v>6.5</v>
       </c>
       <c r="D7">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -1600,7 +1600,7 @@
         <v>6.5</v>
       </c>
       <c r="D10">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1848,7 +1848,7 @@
         <v>6</v>
       </c>
       <c r="D14">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1910,7 +1910,7 @@
         <v>6.5</v>
       </c>
       <c r="D15">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -3100,7 +3100,7 @@
         <v>5</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="I34" t="s">
         <v>20</v>
@@ -3133,15 +3133,15 @@
         <v>26</v>
       </c>
       <c r="S34" t="s">
+        <v>207</v>
+      </c>
+      <c r="T34" t="s">
         <v>135</v>
-      </c>
-      <c r="T34" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B35">
         <v>7.5</v>
@@ -3162,7 +3162,7 @@
         <v>5</v>
       </c>
       <c r="H35">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="I35" t="s">
         <v>20</v>
@@ -3195,15 +3195,15 @@
         <v>26</v>
       </c>
       <c r="S35" t="s">
-        <v>135</v>
+        <v>207</v>
       </c>
       <c r="T35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B36">
         <v>7.5</v>
@@ -3257,15 +3257,15 @@
         <v>64</v>
       </c>
       <c r="S36" t="s">
-        <v>140</v>
+        <v>208</v>
       </c>
       <c r="T36" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B37">
         <v>6.6</v>
@@ -3286,16 +3286,16 @@
         <v>5</v>
       </c>
       <c r="H37">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="I37" t="s">
         <v>62</v>
       </c>
       <c r="J37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K37" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L37" t="s">
         <v>63</v>
@@ -3319,15 +3319,15 @@
         <v>64</v>
       </c>
       <c r="S37" t="s">
-        <v>145</v>
+        <v>209</v>
       </c>
       <c r="T37" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B38">
         <v>6.6</v>
@@ -3348,16 +3348,16 @@
         <v>5</v>
       </c>
       <c r="H38">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="I38" t="s">
         <v>62</v>
       </c>
       <c r="J38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K38" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L38" t="s">
         <v>63</v>
@@ -3381,15 +3381,15 @@
         <v>64</v>
       </c>
       <c r="S38" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
       <c r="T38" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3419,7 +3419,7 @@
         <v>103</v>
       </c>
       <c r="K39" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L39" t="s">
         <v>40</v>
@@ -3443,15 +3443,15 @@
         <v>26</v>
       </c>
       <c r="S39" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="T39" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>103</v>
       </c>
       <c r="K40" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L40" t="s">
         <v>40</v>
@@ -3505,7 +3505,7 @@
         <v>26</v>
       </c>
       <c r="S40" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="T40" t="s">
         <v>52</v>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -3567,15 +3567,15 @@
         <v>26</v>
       </c>
       <c r="S41" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="T41" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>26</v>
       </c>
       <c r="S42" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="T42" t="s">
         <v>52</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B43">
         <v>8.5</v>
@@ -3646,7 +3646,7 @@
         <v>6.5</v>
       </c>
       <c r="D43">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -3670,7 +3670,7 @@
         <v>49</v>
       </c>
       <c r="L43" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M43">
         <v>280</v>
@@ -3691,15 +3691,15 @@
         <v>26</v>
       </c>
       <c r="S43" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="T43" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B44">
         <v>8.5</v>
@@ -3726,7 +3726,7 @@
         <v>47</v>
       </c>
       <c r="J44" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K44" t="s">
         <v>49</v>
@@ -3753,15 +3753,15 @@
         <v>26</v>
       </c>
       <c r="S44" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="T44" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B45">
         <v>9.5</v>
@@ -3791,7 +3791,7 @@
         <v>94</v>
       </c>
       <c r="K45" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L45" t="s">
         <v>50</v>
@@ -3815,15 +3815,15 @@
         <v>26</v>
       </c>
       <c r="S45" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="T45" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B46">
         <v>8.8000000000000007</v>
@@ -3850,7 +3850,7 @@
         <v>47</v>
       </c>
       <c r="J46" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K46" t="s">
         <v>49</v>
@@ -3880,12 +3880,12 @@
         <v>52</v>
       </c>
       <c r="T46" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -3912,7 +3912,7 @@
         <v>20</v>
       </c>
       <c r="J47" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="K47" t="s">
         <v>49</v>
@@ -3939,15 +3939,15 @@
         <v>26</v>
       </c>
       <c r="S47" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="T47" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -4001,15 +4001,15 @@
         <v>26</v>
       </c>
       <c r="S48" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="T48" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -4063,15 +4063,15 @@
         <v>26</v>
       </c>
       <c r="S49" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="T49" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -4125,7 +4125,7 @@
         <v>64</v>
       </c>
       <c r="S50" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="T50" t="s">
         <v>52</v>
@@ -4133,7 +4133,7 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -4187,15 +4187,15 @@
         <v>26</v>
       </c>
       <c r="S51" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="T51" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -4249,7 +4249,7 @@
         <v>64</v>
       </c>
       <c r="S52" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="T52" t="s">
         <v>52</v>
@@ -4257,7 +4257,7 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -4319,7 +4319,7 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4343,7 +4343,7 @@
         <v>8</v>
       </c>
       <c r="I54" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="J54" t="s">
         <v>103</v>
@@ -4370,10 +4370,10 @@
         <v>24</v>
       </c>
       <c r="R54" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="S54" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="T54" t="s">
         <v>52</v>
@@ -4381,7 +4381,7 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -4411,7 +4411,7 @@
         <v>103</v>
       </c>
       <c r="K55" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="L55" t="s">
         <v>23</v>
@@ -4435,15 +4435,15 @@
         <v>26</v>
       </c>
       <c r="S55" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="T55" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4497,7 +4497,7 @@
         <v>26</v>
       </c>
       <c r="S56" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="T56" t="s">
         <v>52</v>
@@ -4505,7 +4505,7 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -4535,7 +4535,7 @@
         <v>103</v>
       </c>
       <c r="K57" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="L57" t="s">
         <v>40</v>
@@ -4559,15 +4559,15 @@
         <v>26</v>
       </c>
       <c r="S57" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="T57" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4591,7 +4591,7 @@
         <v>10</v>
       </c>
       <c r="I58" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="J58" t="s">
         <v>103</v>
@@ -4621,7 +4621,7 @@
         <v>26</v>
       </c>
       <c r="S58" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="T58" t="s">
         <v>52</v>
@@ -4629,7 +4629,7 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B59">
         <v>5.8</v>
@@ -4683,7 +4683,7 @@
         <v>64</v>
       </c>
       <c r="S59" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="T59" t="s">
         <v>52</v>
@@ -4691,7 +4691,7 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -4715,7 +4715,7 @@
         <v>10</v>
       </c>
       <c r="I60" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="J60" t="s">
         <v>103</v>
@@ -4745,10 +4745,10 @@
         <v>26</v>
       </c>
       <c r="S60" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="T60" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/data/monitors.xlsx
+++ b/data/monitors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chandradeep/Desktop/MS/FrogAI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236E3473-B8DA-5647-9610-3526C7E3F66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8907F4D2-275E-B34D-9031-ADE3B25A40A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="20560" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="29120" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="209">
   <si>
     <t>name</t>
   </si>
@@ -493,33 +493,15 @@
     <t>24"</t>
   </si>
   <si>
-    <t>Great strobing</t>
-  </si>
-  <si>
     <t>RTINGS,https://www.rtings.com/monitor/reviews/viewsonic/xg2431;Bijan Jamshidi,https://www.youtube.com/watch?v=TdTwRDa9URo</t>
   </si>
   <si>
-    <t>Acer AOPEN 25XV2Q</t>
-  </si>
-  <si>
-    <t>390hz</t>
-  </si>
-  <si>
-    <t>Decent but with strobing only</t>
-  </si>
-  <si>
-    <t>techless,https://www.youtube.com/watch?v=x7PDKjUhi_I</t>
-  </si>
-  <si>
     <t>BenQ XL2566K</t>
   </si>
   <si>
     <t>TN</t>
   </si>
   <si>
-    <t>Best-in-class strobing with few artifacts and cross talk + buy only if you can run at 360hz</t>
-  </si>
-  <si>
     <t>Bijan Jamshidi,https://www.youtube.com/watch?v=ts_O8pFgYQg;RTINGS,https://www.rtings.com/monitor/reviews/benq/zowie-xl2566k</t>
   </si>
   <si>
@@ -656,6 +638,15 @@
   </si>
   <si>
     <t>Linus Tech Tips,https://www.youtube.com/watch?v=Ewo8tt6bgZU;RTINGS,https://www.rtings.com/monitor/reviews/dell/alienware-aw2524h</t>
+  </si>
+  <si>
+    <t>Great strobing (strobing might cause eye fatigue)</t>
+  </si>
+  <si>
+    <t>Use at 500hz without VRR even if FPS is low for optimal performance</t>
+  </si>
+  <si>
+    <t>Best-in-class strobing with few artifacts and cross talk + buy only if you can strobe at 360hz (strobing might cause eye fatigue)</t>
   </si>
 </sst>
 </file>
@@ -1019,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T60"/>
+  <dimension ref="A1:T59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T46" sqref="T46"/>
+    <sheetView tabSelected="1" topLeftCell="G16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S47" sqref="S47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1211,7 +1202,7 @@
         <v>26</v>
       </c>
       <c r="S3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="T3" t="s">
         <v>34</v>
@@ -1273,7 +1264,7 @@
         <v>26</v>
       </c>
       <c r="S4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="T4" t="s">
         <v>37</v>
@@ -1411,7 +1402,7 @@
         <v>7.5</v>
       </c>
       <c r="C7">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -3133,7 +3124,7 @@
         <v>26</v>
       </c>
       <c r="S34" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="T34" t="s">
         <v>135</v>
@@ -3195,7 +3186,7 @@
         <v>26</v>
       </c>
       <c r="S35" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="T35" t="s">
         <v>137</v>
@@ -3257,7 +3248,7 @@
         <v>64</v>
       </c>
       <c r="S36" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="T36" t="s">
         <v>139</v>
@@ -3319,7 +3310,7 @@
         <v>64</v>
       </c>
       <c r="S37" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="T37" t="s">
         <v>143</v>
@@ -3381,7 +3372,7 @@
         <v>64</v>
       </c>
       <c r="S38" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="T38" t="s">
         <v>145</v>
@@ -3389,7 +3380,7 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3643,7 +3634,7 @@
         <v>8.5</v>
       </c>
       <c r="C43">
-        <v>6.5</v>
+        <v>7.6</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -3691,24 +3682,24 @@
         <v>26</v>
       </c>
       <c r="S43" t="s">
+        <v>206</v>
+      </c>
+      <c r="T43" t="s">
         <v>157</v>
-      </c>
-      <c r="T43" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B44">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="C44">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -3726,16 +3717,16 @@
         <v>47</v>
       </c>
       <c r="J44" t="s">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="K44" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="L44" t="s">
         <v>50</v>
       </c>
       <c r="M44">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N44" t="s">
         <v>51</v>
@@ -3753,24 +3744,24 @@
         <v>26</v>
       </c>
       <c r="S44" t="s">
-        <v>161</v>
+        <v>208</v>
       </c>
       <c r="T44" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B45">
-        <v>9.5</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C45">
         <v>7.5</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -3788,16 +3779,16 @@
         <v>47</v>
       </c>
       <c r="J45" t="s">
-        <v>94</v>
+        <v>162</v>
       </c>
       <c r="K45" t="s">
-        <v>164</v>
+        <v>49</v>
       </c>
       <c r="L45" t="s">
         <v>50</v>
       </c>
       <c r="M45">
-        <v>600</v>
+        <v>830</v>
       </c>
       <c r="N45" t="s">
         <v>51</v>
@@ -3815,21 +3806,21 @@
         <v>26</v>
       </c>
       <c r="S45" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="T45" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B46">
-        <v>8.8000000000000007</v>
+        <v>2</v>
       </c>
       <c r="C46">
-        <v>7.5</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -3841,28 +3832,28 @@
         <v>2</v>
       </c>
       <c r="G46">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I46" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="J46" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K46" t="s">
         <v>49</v>
       </c>
       <c r="L46" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="M46">
-        <v>830</v>
+        <v>250</v>
       </c>
       <c r="N46" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="O46" t="s">
         <v>24</v>
@@ -3877,18 +3868,18 @@
         <v>26</v>
       </c>
       <c r="S46" t="s">
-        <v>52</v>
+        <v>165</v>
       </c>
       <c r="T46" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -3903,16 +3894,16 @@
         <v>2</v>
       </c>
       <c r="G47">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H47">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I47" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J47" t="s">
-        <v>170</v>
+        <v>103</v>
       </c>
       <c r="K47" t="s">
         <v>49</v>
@@ -3921,7 +3912,7 @@
         <v>23</v>
       </c>
       <c r="M47">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N47" t="s">
         <v>70</v>
@@ -3939,15 +3930,15 @@
         <v>26</v>
       </c>
       <c r="S47" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="T47" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3983,7 +3974,7 @@
         <v>23</v>
       </c>
       <c r="M48">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N48" t="s">
         <v>70</v>
@@ -4001,21 +3992,21 @@
         <v>26</v>
       </c>
       <c r="S48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T48" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -4027,13 +4018,13 @@
         <v>2</v>
       </c>
       <c r="G49">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H49">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I49" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="J49" t="s">
         <v>103</v>
@@ -4042,16 +4033,16 @@
         <v>49</v>
       </c>
       <c r="L49" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="M49">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="N49" t="s">
         <v>70</v>
       </c>
       <c r="O49" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P49" t="s">
         <v>24</v>
@@ -4060,18 +4051,18 @@
         <v>24</v>
       </c>
       <c r="R49" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="S49" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="T49" t="s">
-        <v>174</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -4089,13 +4080,13 @@
         <v>2</v>
       </c>
       <c r="G50">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H50">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I50" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="J50" t="s">
         <v>103</v>
@@ -4104,7 +4095,7 @@
         <v>49</v>
       </c>
       <c r="L50" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="M50">
         <v>450</v>
@@ -4113,7 +4104,7 @@
         <v>70</v>
       </c>
       <c r="O50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P50" t="s">
         <v>24</v>
@@ -4122,18 +4113,18 @@
         <v>24</v>
       </c>
       <c r="R50" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="S50" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="T50" t="s">
-        <v>52</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -4151,13 +4142,13 @@
         <v>2</v>
       </c>
       <c r="G51">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H51">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I51" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="J51" t="s">
         <v>103</v>
@@ -4166,16 +4157,16 @@
         <v>49</v>
       </c>
       <c r="L51" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="M51">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="N51" t="s">
         <v>70</v>
       </c>
       <c r="O51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P51" t="s">
         <v>24</v>
@@ -4184,18 +4175,18 @@
         <v>24</v>
       </c>
       <c r="R51" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="S51" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T51" t="s">
-        <v>180</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -4213,13 +4204,13 @@
         <v>2</v>
       </c>
       <c r="G52">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H52">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I52" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="J52" t="s">
         <v>103</v>
@@ -4228,16 +4219,16 @@
         <v>49</v>
       </c>
       <c r="L52" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="M52">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="N52" t="s">
         <v>70</v>
       </c>
       <c r="O52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P52" t="s">
         <v>24</v>
@@ -4246,10 +4237,10 @@
         <v>24</v>
       </c>
       <c r="R52" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="S52" t="s">
-        <v>182</v>
+        <v>52</v>
       </c>
       <c r="T52" t="s">
         <v>52</v>
@@ -4257,7 +4248,7 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -4281,7 +4272,7 @@
         <v>8</v>
       </c>
       <c r="I53" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="J53" t="s">
         <v>103</v>
@@ -4290,10 +4281,10 @@
         <v>49</v>
       </c>
       <c r="L53" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="M53">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="N53" t="s">
         <v>70</v>
@@ -4308,10 +4299,10 @@
         <v>24</v>
       </c>
       <c r="R53" t="s">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="S53" t="s">
-        <v>52</v>
+        <v>181</v>
       </c>
       <c r="T53" t="s">
         <v>52</v>
@@ -4319,7 +4310,7 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4328,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -4343,16 +4334,16 @@
         <v>8</v>
       </c>
       <c r="I54" t="s">
-        <v>185</v>
+        <v>28</v>
       </c>
       <c r="J54" t="s">
         <v>103</v>
       </c>
       <c r="K54" t="s">
-        <v>49</v>
+        <v>183</v>
       </c>
       <c r="L54" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="M54">
         <v>600</v>
@@ -4370,18 +4361,18 @@
         <v>24</v>
       </c>
       <c r="R54" t="s">
-        <v>186</v>
+        <v>26</v>
       </c>
       <c r="S54" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="T54" t="s">
-        <v>52</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -4390,7 +4381,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -4411,13 +4402,13 @@
         <v>103</v>
       </c>
       <c r="K55" t="s">
-        <v>189</v>
+        <v>49</v>
       </c>
       <c r="L55" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="M55">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N55" t="s">
         <v>70</v>
@@ -4435,15 +4426,15 @@
         <v>26</v>
       </c>
       <c r="S55" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="T55" t="s">
-        <v>191</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4452,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E56">
         <v>2</v>
@@ -4473,13 +4464,13 @@
         <v>103</v>
       </c>
       <c r="K56" t="s">
-        <v>49</v>
+        <v>183</v>
       </c>
       <c r="L56" t="s">
         <v>40</v>
       </c>
       <c r="M56">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="N56" t="s">
         <v>70</v>
@@ -4497,15 +4488,15 @@
         <v>26</v>
       </c>
       <c r="S56" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="T56" t="s">
-        <v>52</v>
+        <v>190</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -4517,31 +4508,31 @@
         <v>2.5</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="F57">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="G57">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H57">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I57" t="s">
-        <v>28</v>
+        <v>192</v>
       </c>
       <c r="J57" t="s">
         <v>103</v>
       </c>
       <c r="K57" t="s">
-        <v>189</v>
+        <v>49</v>
       </c>
       <c r="L57" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="M57">
-        <v>850</v>
+        <v>1300</v>
       </c>
       <c r="N57" t="s">
         <v>70</v>
@@ -4559,57 +4550,57 @@
         <v>26</v>
       </c>
       <c r="S57" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="T57" t="s">
-        <v>196</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D58">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E58">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="F58">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="G58">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H58">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I58" t="s">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="J58" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="K58" t="s">
         <v>49</v>
       </c>
       <c r="L58" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="M58">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="N58" t="s">
         <v>70</v>
       </c>
       <c r="O58" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P58" t="s">
         <v>24</v>
@@ -4618,10 +4609,10 @@
         <v>24</v>
       </c>
       <c r="R58" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="S58" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="T58" t="s">
         <v>52</v>
@@ -4629,49 +4620,49 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B59">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G59">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H59">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I59" t="s">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="J59" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="K59" t="s">
         <v>49</v>
       </c>
       <c r="L59" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="M59">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="N59" t="s">
         <v>70</v>
       </c>
       <c r="O59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P59" t="s">
         <v>24</v>
@@ -4680,75 +4671,13 @@
         <v>24</v>
       </c>
       <c r="R59" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="S59" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="T59" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>201</v>
-      </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <v>3</v>
-      </c>
-      <c r="E60">
-        <v>5</v>
-      </c>
-      <c r="F60">
-        <v>5</v>
-      </c>
-      <c r="G60">
-        <v>9</v>
-      </c>
-      <c r="H60">
-        <v>10</v>
-      </c>
-      <c r="I60" t="s">
-        <v>198</v>
-      </c>
-      <c r="J60" t="s">
-        <v>103</v>
-      </c>
-      <c r="K60" t="s">
-        <v>49</v>
-      </c>
-      <c r="L60" t="s">
-        <v>23</v>
-      </c>
-      <c r="M60">
-        <v>1600</v>
-      </c>
-      <c r="N60" t="s">
-        <v>70</v>
-      </c>
-      <c r="O60" t="s">
-        <v>24</v>
-      </c>
-      <c r="P60" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>24</v>
-      </c>
-      <c r="R60" t="s">
-        <v>26</v>
-      </c>
-      <c r="S60" t="s">
-        <v>202</v>
-      </c>
-      <c r="T60" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/data/monitors.xlsx
+++ b/data/monitors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chandradeep/Desktop/MS/FrogAI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8907F4D2-275E-B34D-9031-ADE3B25A40A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470E7D31-D562-E445-B5BC-9FBDB209F0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="29120" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="211">
   <si>
     <t>name</t>
   </si>
@@ -115,9 +115,6 @@
     <t>ps5</t>
   </si>
   <si>
-    <t>VRR+HDR flickering</t>
-  </si>
-  <si>
     <t>RTINGS,https://www.rtings.com/monitor/reviews/cooler-master/tempest-gp27u;Hardware Unboxed,https://www.youtube.com/watch?v=z9tLaKdOdkQ</t>
   </si>
   <si>
@@ -145,18 +142,12 @@
     <t>32"</t>
   </si>
   <si>
-    <t>Slightly buggy firmware</t>
-  </si>
-  <si>
     <t>Chimolog,https://chimolog.co/bto-gaming-monitor-innocn-32m2v/</t>
   </si>
   <si>
     <t>Nubia RedMagic 4K</t>
   </si>
   <si>
-    <t>Reports of coil whine</t>
-  </si>
-  <si>
     <t>Snowman,https://www.youtube.com/watch?v=AHJ0yUUuPkE</t>
   </si>
   <si>
@@ -442,9 +433,6 @@
     <t>RTINGS,https://www.rtings.com/monitor/reviews/lg/45gr95qe-b</t>
   </si>
   <si>
-    <t>Alienware AW3423DWF</t>
-  </si>
-  <si>
     <t>175hz</t>
   </si>
   <si>
@@ -454,9 +442,6 @@
     <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/alienware-aw3423dwf;Hardware Unboxed,https://www.youtube.com/watch?v=b0aLF3KVOTQ</t>
   </si>
   <si>
-    <t>Alienware AW3423DW</t>
-  </si>
-  <si>
     <t>RTINGS,https://www.rtings.com/monitor/reviews/dell/alienware-aw3423dw;Hardware Unboxed,https://www.youtube.com/watch?v=YleSuwK8vR4</t>
   </si>
   <si>
@@ -619,12 +604,6 @@
     <t>LG 32EP950</t>
   </si>
   <si>
-    <t>Slightly buggy firmware + reports of coil whine + VRR only works upto 144hz</t>
-  </si>
-  <si>
-    <t>OSD lock ups sometimes + minor VRR+HDR flickering</t>
-  </si>
-  <si>
     <t>Heavy matte coating + burn in risk</t>
   </si>
   <si>
@@ -647,6 +626,33 @@
   </si>
   <si>
     <t>Best-in-class strobing with few artifacts and cross talk + buy only if you can strobe at 360hz (strobing might cause eye fatigue)</t>
+  </si>
+  <si>
+    <t>Dell AW3423DWF</t>
+  </si>
+  <si>
+    <t>Dell AW3423DW</t>
+  </si>
+  <si>
+    <t>Slightly buggy firmware + reports of coil whine + VRR only works upto 144hz + might have to wait for restock</t>
+  </si>
+  <si>
+    <t>OSD lock ups sometimes + minor VRR+HDR flickering + might have to wait for restock</t>
+  </si>
+  <si>
+    <t>VRR+HDR flickering + might have to wait for restock</t>
+  </si>
+  <si>
+    <t>Slightly buggy firmware + slightly higher contrast than regular IPS + might have to wait for restock</t>
+  </si>
+  <si>
+    <t>Reports of coil whine + might have to wait for restock</t>
+  </si>
+  <si>
+    <t>Innocn 27G1S</t>
+  </si>
+  <si>
+    <t>Needs to be warmed up for best motion performance</t>
   </si>
 </sst>
 </file>
@@ -1010,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T59"/>
+  <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S47" sqref="S47"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1140,77 +1146,77 @@
         <v>26</v>
       </c>
       <c r="S2" t="s">
+        <v>206</v>
+      </c>
+      <c r="T2" t="s">
         <v>31</v>
-      </c>
-      <c r="T2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>209</v>
       </c>
       <c r="B3">
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="C3">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="L3" t="s">
         <v>23</v>
       </c>
       <c r="M3">
-        <v>800</v>
-      </c>
-      <c r="N3" t="s">
-        <v>30</v>
+        <v>390</v>
+      </c>
+      <c r="N3">
+        <v>5700</v>
       </c>
       <c r="O3" t="s">
         <v>24</v>
       </c>
       <c r="P3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R3" t="s">
         <v>26</v>
       </c>
       <c r="S3" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="T3" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>6.25</v>
@@ -1240,7 +1246,7 @@
         <v>29</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="L4" t="s">
         <v>23</v>
@@ -1264,24 +1270,24 @@
         <v>26</v>
       </c>
       <c r="S4" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="T4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B5">
-        <v>5.8</v>
+        <v>6.25</v>
       </c>
       <c r="C5">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="D5">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>7</v>
@@ -1299,16 +1305,16 @@
         <v>28</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L5" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="M5">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="N5" t="s">
         <v>30</v>
@@ -1326,24 +1332,24 @@
         <v>26</v>
       </c>
       <c r="S5" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="T5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B6">
-        <v>6.25</v>
+        <v>5.8</v>
       </c>
       <c r="C6">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="E6">
         <v>7</v>
@@ -1361,16 +1367,16 @@
         <v>28</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="K6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M6">
-        <v>870</v>
+        <v>900</v>
       </c>
       <c r="N6" t="s">
         <v>30</v>
@@ -1388,83 +1394,83 @@
         <v>26</v>
       </c>
       <c r="S6" t="s">
-        <v>44</v>
+        <v>207</v>
       </c>
       <c r="T6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B7">
-        <v>7.5</v>
+        <v>6.25</v>
       </c>
       <c r="C7">
+        <v>6.5</v>
+      </c>
+      <c r="D7">
         <v>7</v>
       </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="K7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="L7" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>150</v>
+        <v>870</v>
       </c>
       <c r="N7" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="O7" t="s">
         <v>24</v>
       </c>
       <c r="P7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R7" t="s">
         <v>26</v>
       </c>
       <c r="S7" t="s">
-        <v>52</v>
+        <v>208</v>
       </c>
       <c r="T7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B8">
-        <v>6.3</v>
+        <v>7.5</v>
       </c>
       <c r="C8">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1476,28 +1482,28 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="K8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L8" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="M8">
-        <v>260</v>
-      </c>
-      <c r="N8">
-        <v>5700</v>
+        <v>150</v>
+      </c>
+      <c r="N8" t="s">
+        <v>48</v>
       </c>
       <c r="O8" t="s">
         <v>24</v>
@@ -1512,21 +1518,21 @@
         <v>26</v>
       </c>
       <c r="S8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B9">
         <v>6.3</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1550,13 +1556,13 @@
         <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L9" t="s">
         <v>23</v>
       </c>
       <c r="M9">
-        <v>350</v>
+        <v>260</v>
       </c>
       <c r="N9">
         <v>5700</v>
@@ -1574,30 +1580,30 @@
         <v>26</v>
       </c>
       <c r="S9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="T9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>6.3</v>
       </c>
       <c r="C10">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -1612,13 +1618,13 @@
         <v>21</v>
       </c>
       <c r="K10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L10" t="s">
         <v>23</v>
       </c>
       <c r="M10">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="N10">
         <v>5700</v>
@@ -1636,30 +1642,30 @@
         <v>26</v>
       </c>
       <c r="S10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B11">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -1668,16 +1674,16 @@
         <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="K11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L11" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="M11">
         <v>380</v>
@@ -1686,7 +1692,7 @@
         <v>5700</v>
       </c>
       <c r="O11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P11" t="s">
         <v>24</v>
@@ -1695,24 +1701,24 @@
         <v>24</v>
       </c>
       <c r="R11" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="S11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T11" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B12">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="C12">
-        <v>6.2</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1727,28 +1733,28 @@
         <v>5</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I12" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="J12" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="K12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L12" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M12">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="N12">
         <v>5700</v>
       </c>
       <c r="O12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P12" t="s">
         <v>24</v>
@@ -1757,24 +1763,24 @@
         <v>24</v>
       </c>
       <c r="R12" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="S12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B13">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1789,31 +1795,31 @@
         <v>5</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I13" t="s">
         <v>20</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="K13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L13" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M13">
-        <v>420</v>
-      </c>
-      <c r="N13" t="s">
-        <v>70</v>
+        <v>400</v>
+      </c>
+      <c r="N13">
+        <v>5700</v>
       </c>
       <c r="O13" t="s">
         <v>24</v>
       </c>
       <c r="P13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q13" t="s">
         <v>24</v>
@@ -1822,18 +1828,18 @@
         <v>26</v>
       </c>
       <c r="S13" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="T13" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B14">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -1857,25 +1863,25 @@
         <v>20</v>
       </c>
       <c r="J14" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="K14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L14" t="s">
         <v>23</v>
       </c>
       <c r="M14">
-        <v>430</v>
-      </c>
-      <c r="N14">
-        <v>5700</v>
+        <v>420</v>
+      </c>
+      <c r="N14" t="s">
+        <v>67</v>
       </c>
       <c r="O14" t="s">
         <v>24</v>
       </c>
       <c r="P14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q14" t="s">
         <v>24</v>
@@ -1884,21 +1890,21 @@
         <v>26</v>
       </c>
       <c r="S14" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="T14" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B15">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="C15">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1916,25 +1922,25 @@
         <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="J15" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="K15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L15" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="M15">
-        <v>750</v>
+        <v>430</v>
       </c>
       <c r="N15">
         <v>5700</v>
       </c>
       <c r="O15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P15" t="s">
         <v>24</v>
@@ -1943,24 +1949,24 @@
         <v>24</v>
       </c>
       <c r="R15" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="S15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T15" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B16">
         <v>5.8</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1978,19 +1984,19 @@
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L16" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="M16">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="N16">
         <v>5700</v>
@@ -2005,24 +2011,24 @@
         <v>24</v>
       </c>
       <c r="R16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="S16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T16" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B17">
-        <v>7.5</v>
+        <v>5.8</v>
       </c>
       <c r="C17">
-        <v>6.75</v>
+        <v>5</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -2040,25 +2046,25 @@
         <v>5</v>
       </c>
       <c r="I17" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="J17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L17" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="M17">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="N17">
         <v>5700</v>
       </c>
       <c r="O17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P17" t="s">
         <v>24</v>
@@ -2067,33 +2073,33 @@
         <v>24</v>
       </c>
       <c r="R17" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="S17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T17" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B18">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G18">
         <v>5</v>
@@ -2105,16 +2111,16 @@
         <v>20</v>
       </c>
       <c r="J18" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="K18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L18" t="s">
         <v>23</v>
       </c>
       <c r="M18">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="N18">
         <v>5700</v>
@@ -2132,18 +2138,18 @@
         <v>26</v>
       </c>
       <c r="S18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T18" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B19">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -2167,10 +2173,10 @@
         <v>20</v>
       </c>
       <c r="J19" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="K19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L19" t="s">
         <v>23</v>
@@ -2194,30 +2200,30 @@
         <v>26</v>
       </c>
       <c r="S19" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="T19" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B20">
         <v>7.5</v>
       </c>
       <c r="C20">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G20">
         <v>5</v>
@@ -2229,16 +2235,16 @@
         <v>20</v>
       </c>
       <c r="J20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L20" t="s">
         <v>23</v>
       </c>
       <c r="M20">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="N20">
         <v>5700</v>
@@ -2247,7 +2253,7 @@
         <v>24</v>
       </c>
       <c r="P20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q20" t="s">
         <v>24</v>
@@ -2256,30 +2262,30 @@
         <v>26</v>
       </c>
       <c r="S20" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="T20" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B21">
-        <v>8.3000000000000007</v>
+        <v>7.5</v>
       </c>
       <c r="C21">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G21">
         <v>5</v>
@@ -2291,16 +2297,16 @@
         <v>20</v>
       </c>
       <c r="J21" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="K21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L21" t="s">
         <v>23</v>
       </c>
       <c r="M21">
-        <v>1050</v>
+        <v>750</v>
       </c>
       <c r="N21">
         <v>5700</v>
@@ -2309,7 +2315,7 @@
         <v>24</v>
       </c>
       <c r="P21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q21" t="s">
         <v>24</v>
@@ -2318,30 +2324,30 @@
         <v>26</v>
       </c>
       <c r="S21" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="T21" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B22">
-        <v>6.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C22">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G22">
         <v>5</v>
@@ -2353,22 +2359,22 @@
         <v>20</v>
       </c>
       <c r="J22" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="K22" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="L22" t="s">
         <v>23</v>
       </c>
       <c r="M22">
-        <v>250</v>
+        <v>1050</v>
       </c>
       <c r="N22">
         <v>5700</v>
       </c>
       <c r="O22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P22" t="s">
         <v>24</v>
@@ -2380,21 +2386,21 @@
         <v>26</v>
       </c>
       <c r="S22" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="T22" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B23">
         <v>6.3</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -2409,7 +2415,7 @@
         <v>5</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I23" t="s">
         <v>20</v>
@@ -2418,13 +2424,13 @@
         <v>21</v>
       </c>
       <c r="K23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L23" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="M23">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N23">
         <v>5700</v>
@@ -2442,21 +2448,21 @@
         <v>26</v>
       </c>
       <c r="S23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T23" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -2468,25 +2474,25 @@
         <v>2</v>
       </c>
       <c r="G24">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H24">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I24" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J24" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="K24" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M24">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N24">
         <v>5700</v>
@@ -2504,54 +2510,54 @@
         <v>26</v>
       </c>
       <c r="S24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T24" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B25">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G25">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I25" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="J25" t="s">
+        <v>100</v>
+      </c>
+      <c r="K25" t="s">
+        <v>95</v>
+      </c>
+      <c r="L25" t="s">
         <v>39</v>
       </c>
-      <c r="K25" t="s">
-        <v>98</v>
-      </c>
-      <c r="L25" t="s">
-        <v>63</v>
-      </c>
       <c r="M25">
-        <v>450</v>
-      </c>
-      <c r="N25" t="s">
-        <v>106</v>
+        <v>350</v>
+      </c>
+      <c r="N25">
+        <v>5700</v>
       </c>
       <c r="O25" t="s">
         <v>25</v>
@@ -2563,33 +2569,33 @@
         <v>24</v>
       </c>
       <c r="R25" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="S25" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="T25" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B26">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="C26">
+        <v>3.5</v>
+      </c>
+      <c r="D26">
+        <v>3.5</v>
+      </c>
+      <c r="E26">
         <v>3</v>
       </c>
-      <c r="D26">
-        <v>7</v>
-      </c>
-      <c r="E26">
-        <v>7</v>
-      </c>
       <c r="F26">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G26">
         <v>5</v>
@@ -2598,107 +2604,107 @@
         <v>5</v>
       </c>
       <c r="I26" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="J26" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K26" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="L26" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="M26">
-        <v>500</v>
-      </c>
-      <c r="N26">
-        <v>5700</v>
+        <v>450</v>
+      </c>
+      <c r="N26" t="s">
+        <v>103</v>
       </c>
       <c r="O26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R26" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="S26" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="T26" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B27">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>7</v>
+      </c>
+      <c r="F27">
         <v>6</v>
       </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
       <c r="G27">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H27">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I27" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J27" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="K27" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="L27" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="M27">
-        <v>600</v>
-      </c>
-      <c r="N27" t="s">
-        <v>30</v>
+        <v>500</v>
+      </c>
+      <c r="N27">
+        <v>5700</v>
       </c>
       <c r="O27" t="s">
         <v>24</v>
       </c>
       <c r="P27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R27" t="s">
         <v>26</v>
       </c>
       <c r="S27" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="T27" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B28">
         <v>5.8</v>
@@ -2725,13 +2731,13 @@
         <v>28</v>
       </c>
       <c r="J28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L28" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M28">
         <v>600</v>
@@ -2752,15 +2758,15 @@
         <v>26</v>
       </c>
       <c r="S28" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="T28" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B29">
         <v>5.8</v>
@@ -2787,16 +2793,16 @@
         <v>28</v>
       </c>
       <c r="J29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L29" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="M29">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="N29" t="s">
         <v>30</v>
@@ -2814,24 +2820,24 @@
         <v>26</v>
       </c>
       <c r="S29" t="s">
+        <v>49</v>
+      </c>
+      <c r="T29" t="s">
         <v>114</v>
-      </c>
-      <c r="T29" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B30">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -2849,13 +2855,13 @@
         <v>28</v>
       </c>
       <c r="J30" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="K30" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="L30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M30">
         <v>650</v>
@@ -2876,30 +2882,30 @@
         <v>26</v>
       </c>
       <c r="S30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="T30" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G31">
         <v>8</v>
@@ -2911,16 +2917,16 @@
         <v>28</v>
       </c>
       <c r="J31" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="K31" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="L31" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M31">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="N31" t="s">
         <v>30</v>
@@ -2932,36 +2938,36 @@
         <v>24</v>
       </c>
       <c r="Q31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R31" t="s">
         <v>26</v>
       </c>
       <c r="S31" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="T31" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E32">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F32">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G32">
         <v>8</v>
@@ -2973,16 +2979,16 @@
         <v>28</v>
       </c>
       <c r="J32" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="K32" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="L32" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="M32">
-        <v>3000</v>
+        <v>700</v>
       </c>
       <c r="N32" t="s">
         <v>30</v>
@@ -2991,7 +2997,7 @@
         <v>24</v>
       </c>
       <c r="P32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q32" t="s">
         <v>25</v>
@@ -3000,60 +3006,60 @@
         <v>26</v>
       </c>
       <c r="S32" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="T32" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E33">
         <v>10</v>
       </c>
       <c r="F33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G33">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H33">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I33" t="s">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="J33" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="K33" t="s">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c r="L33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M33">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="N33" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="O33" t="s">
         <v>24</v>
       </c>
       <c r="P33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q33" t="s">
         <v>25</v>
@@ -3062,54 +3068,54 @@
         <v>26</v>
       </c>
       <c r="S33" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="T33" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B34">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34">
         <v>10</v>
       </c>
-      <c r="E34">
-        <v>5.5</v>
-      </c>
       <c r="F34">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G34">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H34">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="I34" t="s">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="J34" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="K34" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="L34" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M34">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="N34" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="O34" t="s">
         <v>24</v>
@@ -3124,15 +3130,15 @@
         <v>26</v>
       </c>
       <c r="S34" t="s">
-        <v>201</v>
+        <v>128</v>
       </c>
       <c r="T34" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B35">
         <v>7.5</v>
@@ -3144,7 +3150,7 @@
         <v>10</v>
       </c>
       <c r="E35">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="F35">
         <v>3</v>
@@ -3159,10 +3165,10 @@
         <v>20</v>
       </c>
       <c r="J35" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K35" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L35" t="s">
         <v>23</v>
@@ -3186,15 +3192,15 @@
         <v>26</v>
       </c>
       <c r="S35" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="T35" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B36">
         <v>7.5</v>
@@ -3206,7 +3212,7 @@
         <v>10</v>
       </c>
       <c r="E36">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="F36">
         <v>3</v>
@@ -3218,25 +3224,25 @@
         <v>1.5</v>
       </c>
       <c r="I36" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="J36" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K36" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L36" t="s">
         <v>23</v>
       </c>
       <c r="M36">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="N36" t="s">
         <v>30</v>
       </c>
       <c r="O36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P36" t="s">
         <v>24</v>
@@ -3245,33 +3251,33 @@
         <v>25</v>
       </c>
       <c r="R36" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="S36" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="T36" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B37">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="C37">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D37">
         <v>10</v>
       </c>
       <c r="E37">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F37">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G37">
         <v>5</v>
@@ -3280,19 +3286,19 @@
         <v>1.5</v>
       </c>
       <c r="I37" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J37" t="s">
-        <v>141</v>
+        <v>45</v>
       </c>
       <c r="K37" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="L37" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="M37">
-        <v>1100</v>
+        <v>1700</v>
       </c>
       <c r="N37" t="s">
         <v>30</v>
@@ -3301,24 +3307,24 @@
         <v>25</v>
       </c>
       <c r="P37" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q37" t="s">
         <v>25</v>
       </c>
-      <c r="Q37" t="s">
-        <v>24</v>
-      </c>
       <c r="R37" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="S37" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="T37" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>144</v>
+        <v>202</v>
       </c>
       <c r="B38">
         <v>6.6</v>
@@ -3330,7 +3336,7 @@
         <v>10</v>
       </c>
       <c r="E38">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="F38">
         <v>9</v>
@@ -3342,19 +3348,19 @@
         <v>1.5</v>
       </c>
       <c r="I38" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J38" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K38" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L38" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M38">
-        <v>1140</v>
+        <v>1100</v>
       </c>
       <c r="N38" t="s">
         <v>30</v>
@@ -3366,83 +3372,83 @@
         <v>25</v>
       </c>
       <c r="Q38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R38" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="S38" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="T38" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="C39">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="D39">
         <v>10</v>
       </c>
       <c r="E39">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="F39">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="G39">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H39">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="I39" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="J39" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="K39" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="L39" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M39">
-        <v>2800</v>
+        <v>1140</v>
       </c>
       <c r="N39" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="O39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P39" t="s">
         <v>25</v>
       </c>
       <c r="Q39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R39" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="S39" t="s">
-        <v>147</v>
+        <v>197</v>
       </c>
       <c r="T39" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3469,19 +3475,19 @@
         <v>28</v>
       </c>
       <c r="J40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K40" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="L40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M40">
         <v>2800</v>
       </c>
       <c r="N40" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O40" t="s">
         <v>24</v>
@@ -3496,30 +3502,30 @@
         <v>26</v>
       </c>
       <c r="S40" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="T40" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>8.5</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="G41">
         <v>8</v>
@@ -3531,19 +3537,19 @@
         <v>28</v>
       </c>
       <c r="J41" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K41" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="L41" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M41">
-        <v>500</v>
+        <v>2800</v>
       </c>
       <c r="N41" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O41" t="s">
         <v>24</v>
@@ -3558,21 +3564,21 @@
         <v>26</v>
       </c>
       <c r="S41" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="T41" t="s">
-        <v>152</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -3593,19 +3599,19 @@
         <v>28</v>
       </c>
       <c r="J42" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K42" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L42" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="M42">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N42" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O42" t="s">
         <v>24</v>
@@ -3620,21 +3626,21 @@
         <v>26</v>
       </c>
       <c r="S42" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="T42" t="s">
-        <v>52</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B43">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -3646,34 +3652,34 @@
         <v>2</v>
       </c>
       <c r="G43">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I43" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="J43" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="K43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L43" t="s">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="M43">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="N43" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="O43" t="s">
         <v>24</v>
       </c>
       <c r="P43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q43" t="s">
         <v>24</v>
@@ -3682,24 +3688,24 @@
         <v>26</v>
       </c>
       <c r="S43" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
       <c r="T43" t="s">
-        <v>157</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B44">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="C44">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -3714,22 +3720,22 @@
         <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J44" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="K44" t="s">
-        <v>159</v>
+        <v>46</v>
       </c>
       <c r="L44" t="s">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="M44">
-        <v>600</v>
+        <v>280</v>
       </c>
       <c r="N44" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O44" t="s">
         <v>24</v>
@@ -3744,24 +3750,24 @@
         <v>26</v>
       </c>
       <c r="S44" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="T44" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B45">
-        <v>8.8000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="C45">
         <v>7.5</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -3776,22 +3782,22 @@
         <v>3</v>
       </c>
       <c r="I45" t="s">
+        <v>44</v>
+      </c>
+      <c r="J45" t="s">
+        <v>91</v>
+      </c>
+      <c r="K45" t="s">
+        <v>154</v>
+      </c>
+      <c r="L45" t="s">
         <v>47</v>
       </c>
-      <c r="J45" t="s">
-        <v>162</v>
-      </c>
-      <c r="K45" t="s">
-        <v>49</v>
-      </c>
-      <c r="L45" t="s">
-        <v>50</v>
-      </c>
       <c r="M45">
-        <v>830</v>
+        <v>600</v>
       </c>
       <c r="N45" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O45" t="s">
         <v>24</v>
@@ -3806,21 +3812,21 @@
         <v>26</v>
       </c>
       <c r="S45" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="T45" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -3832,28 +3838,28 @@
         <v>2</v>
       </c>
       <c r="G46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I46" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="J46" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="K46" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L46" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="M46">
-        <v>250</v>
+        <v>830</v>
       </c>
       <c r="N46" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="O46" t="s">
         <v>24</v>
@@ -3868,18 +3874,18 @@
         <v>26</v>
       </c>
       <c r="S46" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="T46" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -3894,28 +3900,28 @@
         <v>2</v>
       </c>
       <c r="G47">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H47">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I47" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J47" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="K47" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L47" t="s">
         <v>23</v>
       </c>
       <c r="M47">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N47" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O47" t="s">
         <v>24</v>
@@ -3930,15 +3936,15 @@
         <v>26</v>
       </c>
       <c r="S47" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="T47" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3965,19 +3971,19 @@
         <v>28</v>
       </c>
       <c r="J48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K48" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L48" t="s">
         <v>23</v>
       </c>
       <c r="M48">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N48" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O48" t="s">
         <v>24</v>
@@ -3992,21 +3998,21 @@
         <v>26</v>
       </c>
       <c r="S48" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="T48" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -4018,31 +4024,31 @@
         <v>2</v>
       </c>
       <c r="G49">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H49">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I49" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="J49" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K49" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L49" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="M49">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="N49" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P49" t="s">
         <v>24</v>
@@ -4051,18 +4057,18 @@
         <v>24</v>
       </c>
       <c r="R49" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="S49" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="T49" t="s">
-        <v>52</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -4080,31 +4086,31 @@
         <v>2</v>
       </c>
       <c r="G50">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H50">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I50" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="J50" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K50" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L50" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="M50">
         <v>450</v>
       </c>
       <c r="N50" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O50" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P50" t="s">
         <v>24</v>
@@ -4113,18 +4119,18 @@
         <v>24</v>
       </c>
       <c r="R50" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="S50" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="T50" t="s">
-        <v>174</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -4142,31 +4148,31 @@
         <v>2</v>
       </c>
       <c r="G51">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H51">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I51" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="J51" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K51" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L51" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="M51">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="N51" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P51" t="s">
         <v>24</v>
@@ -4175,18 +4181,18 @@
         <v>24</v>
       </c>
       <c r="R51" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="S51" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="T51" t="s">
-        <v>52</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -4204,51 +4210,51 @@
         <v>2</v>
       </c>
       <c r="G52">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H52">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I52" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="J52" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K52" t="s">
+        <v>46</v>
+      </c>
+      <c r="L52" t="s">
+        <v>60</v>
+      </c>
+      <c r="M52">
+        <v>480</v>
+      </c>
+      <c r="N52" t="s">
+        <v>67</v>
+      </c>
+      <c r="O52" t="s">
+        <v>25</v>
+      </c>
+      <c r="P52" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>24</v>
+      </c>
+      <c r="R52" t="s">
+        <v>61</v>
+      </c>
+      <c r="S52" t="s">
+        <v>171</v>
+      </c>
+      <c r="T52" t="s">
         <v>49</v>
-      </c>
-      <c r="L52" t="s">
-        <v>40</v>
-      </c>
-      <c r="M52">
-        <v>450</v>
-      </c>
-      <c r="N52" t="s">
-        <v>70</v>
-      </c>
-      <c r="O52" t="s">
-        <v>24</v>
-      </c>
-      <c r="P52" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>24</v>
-      </c>
-      <c r="R52" t="s">
-        <v>26</v>
-      </c>
-      <c r="S52" t="s">
-        <v>52</v>
-      </c>
-      <c r="T52" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -4272,45 +4278,45 @@
         <v>8</v>
       </c>
       <c r="I53" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="J53" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K53" t="s">
+        <v>46</v>
+      </c>
+      <c r="L53" t="s">
+        <v>39</v>
+      </c>
+      <c r="M53">
+        <v>450</v>
+      </c>
+      <c r="N53" t="s">
+        <v>67</v>
+      </c>
+      <c r="O53" t="s">
+        <v>24</v>
+      </c>
+      <c r="P53" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>24</v>
+      </c>
+      <c r="R53" t="s">
+        <v>26</v>
+      </c>
+      <c r="S53" t="s">
         <v>49</v>
       </c>
-      <c r="L53" t="s">
-        <v>113</v>
-      </c>
-      <c r="M53">
-        <v>600</v>
-      </c>
-      <c r="N53" t="s">
-        <v>70</v>
-      </c>
-      <c r="O53" t="s">
-        <v>24</v>
-      </c>
-      <c r="P53" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>24</v>
-      </c>
-      <c r="R53" t="s">
-        <v>180</v>
-      </c>
-      <c r="S53" t="s">
-        <v>181</v>
-      </c>
       <c r="T53" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4319,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -4334,22 +4340,22 @@
         <v>8</v>
       </c>
       <c r="I54" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="J54" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K54" t="s">
-        <v>183</v>
+        <v>46</v>
       </c>
       <c r="L54" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="M54">
         <v>600</v>
       </c>
       <c r="N54" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O54" t="s">
         <v>24</v>
@@ -4361,18 +4367,18 @@
         <v>24</v>
       </c>
       <c r="R54" t="s">
-        <v>26</v>
+        <v>175</v>
       </c>
       <c r="S54" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="T54" t="s">
-        <v>185</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -4381,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -4399,19 +4405,19 @@
         <v>28</v>
       </c>
       <c r="J55" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K55" t="s">
-        <v>49</v>
+        <v>178</v>
       </c>
       <c r="L55" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="M55">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N55" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O55" t="s">
         <v>24</v>
@@ -4426,15 +4432,15 @@
         <v>26</v>
       </c>
       <c r="S55" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="T55" t="s">
-        <v>52</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4443,7 +4449,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E56">
         <v>2</v>
@@ -4461,19 +4467,19 @@
         <v>28</v>
       </c>
       <c r="J56" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K56" t="s">
-        <v>183</v>
+        <v>46</v>
       </c>
       <c r="L56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M56">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="N56" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O56" t="s">
         <v>24</v>
@@ -4488,15 +4494,15 @@
         <v>26</v>
       </c>
       <c r="S56" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="T56" t="s">
-        <v>190</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -4508,34 +4514,34 @@
         <v>2.5</v>
       </c>
       <c r="E57">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="F57">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="G57">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H57">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I57" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="J57" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K57" t="s">
-        <v>49</v>
+        <v>178</v>
       </c>
       <c r="L57" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M57">
-        <v>1300</v>
+        <v>850</v>
       </c>
       <c r="N57" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O57" t="s">
         <v>24</v>
@@ -4550,134 +4556,196 @@
         <v>26</v>
       </c>
       <c r="S57" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="T57" t="s">
-        <v>52</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B58">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E58">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="F58">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="G58">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H58">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I58" t="s">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="J58" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="K58" t="s">
+        <v>46</v>
+      </c>
+      <c r="L58" t="s">
+        <v>23</v>
+      </c>
+      <c r="M58">
+        <v>1300</v>
+      </c>
+      <c r="N58" t="s">
+        <v>67</v>
+      </c>
+      <c r="O58" t="s">
+        <v>24</v>
+      </c>
+      <c r="P58" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>24</v>
+      </c>
+      <c r="R58" t="s">
+        <v>26</v>
+      </c>
+      <c r="S58" t="s">
+        <v>188</v>
+      </c>
+      <c r="T58" t="s">
         <v>49</v>
-      </c>
-      <c r="L58" t="s">
-        <v>80</v>
-      </c>
-      <c r="M58">
-        <v>1400</v>
-      </c>
-      <c r="N58" t="s">
-        <v>70</v>
-      </c>
-      <c r="O58" t="s">
-        <v>25</v>
-      </c>
-      <c r="P58" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>24</v>
-      </c>
-      <c r="R58" t="s">
-        <v>64</v>
-      </c>
-      <c r="S58" t="s">
-        <v>176</v>
-      </c>
-      <c r="T58" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B59">
+        <v>5.8</v>
+      </c>
+      <c r="C59">
+        <v>6</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>5</v>
+      </c>
+      <c r="H59">
+        <v>5</v>
+      </c>
+      <c r="I59" t="s">
+        <v>76</v>
+      </c>
+      <c r="J59" t="s">
+        <v>38</v>
+      </c>
+      <c r="K59" t="s">
+        <v>46</v>
+      </c>
+      <c r="L59" t="s">
+        <v>77</v>
+      </c>
+      <c r="M59">
+        <v>1400</v>
+      </c>
+      <c r="N59" t="s">
+        <v>67</v>
+      </c>
+      <c r="O59" t="s">
+        <v>25</v>
+      </c>
+      <c r="P59" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>24</v>
+      </c>
+      <c r="R59" t="s">
+        <v>61</v>
+      </c>
+      <c r="S59" t="s">
+        <v>171</v>
+      </c>
+      <c r="T59" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>190</v>
+      </c>
+      <c r="B60">
         <v>0</v>
       </c>
-      <c r="C59">
+      <c r="C60">
         <v>0</v>
       </c>
-      <c r="D59">
+      <c r="D60">
         <v>3</v>
       </c>
-      <c r="E59">
-        <v>5</v>
-      </c>
-      <c r="F59">
-        <v>5</v>
-      </c>
-      <c r="G59">
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="F60">
+        <v>5</v>
+      </c>
+      <c r="G60">
         <v>9</v>
       </c>
-      <c r="H59">
+      <c r="H60">
         <v>10</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I60" t="s">
+        <v>187</v>
+      </c>
+      <c r="J60" t="s">
+        <v>100</v>
+      </c>
+      <c r="K60" t="s">
+        <v>46</v>
+      </c>
+      <c r="L60" t="s">
+        <v>23</v>
+      </c>
+      <c r="M60">
+        <v>1600</v>
+      </c>
+      <c r="N60" t="s">
+        <v>67</v>
+      </c>
+      <c r="O60" t="s">
+        <v>24</v>
+      </c>
+      <c r="P60" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>24</v>
+      </c>
+      <c r="R60" t="s">
+        <v>26</v>
+      </c>
+      <c r="S60" t="s">
+        <v>191</v>
+      </c>
+      <c r="T60" t="s">
         <v>192</v>
-      </c>
-      <c r="J59" t="s">
-        <v>103</v>
-      </c>
-      <c r="K59" t="s">
-        <v>49</v>
-      </c>
-      <c r="L59" t="s">
-        <v>23</v>
-      </c>
-      <c r="M59">
-        <v>1600</v>
-      </c>
-      <c r="N59" t="s">
-        <v>70</v>
-      </c>
-      <c r="O59" t="s">
-        <v>24</v>
-      </c>
-      <c r="P59" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>24</v>
-      </c>
-      <c r="R59" t="s">
-        <v>26</v>
-      </c>
-      <c r="S59" t="s">
-        <v>196</v>
-      </c>
-      <c r="T59" t="s">
-        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/data/monitors.xlsx
+++ b/data/monitors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chandradeep/Desktop/MS/FrogAI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470E7D31-D562-E445-B5BC-9FBDB209F0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E5E8A6-2454-294B-BD10-7FD1E9D92A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="29120" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -610,9 +610,6 @@
     <t>Heavy matte coating + low ppi + burn in risk</t>
   </si>
   <si>
-    <t>Broken HDR+ 3 year burn in warranty + glossy</t>
-  </si>
-  <si>
     <t>3 year burn in warranty + glossy</t>
   </si>
   <si>
@@ -653,6 +650,9 @@
   </si>
   <si>
     <t>Needs to be warmed up for best motion performance</t>
+  </si>
+  <si>
+    <t>Broken HDR + 3 year burn in warranty + glossy</t>
   </si>
 </sst>
 </file>
@@ -1018,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1146,7 +1146,7 @@
         <v>26</v>
       </c>
       <c r="S2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T2" t="s">
         <v>31</v>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B3">
         <v>7.5</v>
@@ -1208,7 +1208,7 @@
         <v>26</v>
       </c>
       <c r="S3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T3" t="s">
         <v>49</v>
@@ -1270,7 +1270,7 @@
         <v>26</v>
       </c>
       <c r="S4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T4" t="s">
         <v>33</v>
@@ -1332,7 +1332,7 @@
         <v>26</v>
       </c>
       <c r="S5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T5" t="s">
         <v>36</v>
@@ -1394,7 +1394,7 @@
         <v>26</v>
       </c>
       <c r="S6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="T6" t="s">
         <v>40</v>
@@ -1456,7 +1456,7 @@
         <v>26</v>
       </c>
       <c r="S7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="T7" t="s">
         <v>42</v>
@@ -3324,7 +3324,7 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B38">
         <v>6.6</v>
@@ -3378,7 +3378,7 @@
         <v>61</v>
       </c>
       <c r="S38" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="T38" t="s">
         <v>139</v>
@@ -3386,7 +3386,7 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B39">
         <v>6.6</v>
@@ -3440,7 +3440,7 @@
         <v>61</v>
       </c>
       <c r="S39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="T39" t="s">
         <v>140</v>
@@ -3750,7 +3750,7 @@
         <v>26</v>
       </c>
       <c r="S44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="T44" t="s">
         <v>152</v>
@@ -3812,7 +3812,7 @@
         <v>26</v>
       </c>
       <c r="S45" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T45" t="s">
         <v>155</v>
@@ -3874,10 +3874,10 @@
         <v>26</v>
       </c>
       <c r="S46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T46" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">

--- a/data/monitors.xlsx
+++ b/data/monitors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chandradeep/Desktop/MS/FrogAI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E5E8A6-2454-294B-BD10-7FD1E9D92A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14414B05-9FE7-BB44-A37A-A4B2A09CA81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="20560" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="232">
   <si>
     <t>name</t>
   </si>
@@ -145,9 +145,6 @@
     <t>Chimolog,https://chimolog.co/bto-gaming-monitor-innocn-32m2v/</t>
   </si>
   <si>
-    <t>Nubia RedMagic 4K</t>
-  </si>
-  <si>
     <t>Snowman,https://www.youtube.com/watch?v=AHJ0yUUuPkE</t>
   </si>
   <si>
@@ -631,28 +628,94 @@
     <t>Dell AW3423DW</t>
   </si>
   <si>
-    <t>Slightly buggy firmware + reports of coil whine + VRR only works upto 144hz + might have to wait for restock</t>
-  </si>
-  <si>
     <t>OSD lock ups sometimes + minor VRR+HDR flickering + might have to wait for restock</t>
   </si>
   <si>
     <t>VRR+HDR flickering + might have to wait for restock</t>
   </si>
   <si>
-    <t>Slightly buggy firmware + slightly higher contrast than regular IPS + might have to wait for restock</t>
-  </si>
-  <si>
     <t>Reports of coil whine + might have to wait for restock</t>
   </si>
   <si>
     <t>Innocn 27G1S</t>
   </si>
   <si>
-    <t>Needs to be warmed up for best motion performance</t>
-  </si>
-  <si>
     <t>Broken HDR + 3 year burn in warranty + glossy</t>
+  </si>
+  <si>
+    <t>[US only] Slightly buggy firmware + reports of coil whine + VRR only works upto 144hz + might have to wait for restock</t>
+  </si>
+  <si>
+    <t>[US only, EU soon] Slightly buggy firmware + slightly higher contrast than regular IPS + might have to wait for restock</t>
+  </si>
+  <si>
+    <t>[US only] Needs to be warmed up for best motion performance</t>
+  </si>
+  <si>
+    <t>LG 32GP850</t>
+  </si>
+  <si>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/lg/32gp850-b;Hardware Unboxed,https://www.youtube.com/watch?v=bN_ExBhcfow;Bijan Jamshidi,https://www.youtube.com/watch?v=WL2qBJ0WPhI</t>
+  </si>
+  <si>
+    <t>LG 32GQ950</t>
+  </si>
+  <si>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/lg/32gq950-b;Hardware Unboxed,https://www.youtube.com/watch?v=wsvb-nw-CoA</t>
+  </si>
+  <si>
+    <t>Gigabyte G24F(2)</t>
+  </si>
+  <si>
+    <t>Reports of coil whine at higher refresh rates</t>
+  </si>
+  <si>
+    <t>techless,https://www.youtube.com/watch?v=WE5y_8Wx_sI</t>
+  </si>
+  <si>
+    <t>Nubia RedMagic GM001J</t>
+  </si>
+  <si>
+    <t>Iiyama G(B)2470HSU</t>
+  </si>
+  <si>
+    <t>[EU only] Expensive in NA</t>
+  </si>
+  <si>
+    <t>AOC 24G2SP(U)</t>
+  </si>
+  <si>
+    <t>techless,https://www.youtube.com/watch?v=gcL3gCkF9tk;Hardware Unboxed,https://www.youtube.com/watch?v=cUoxwTWo7Fg</t>
+  </si>
+  <si>
+    <t>Lenovo G24-20</t>
+  </si>
+  <si>
+    <t>Lenovo G34W-30</t>
+  </si>
+  <si>
+    <t>[Asia only]</t>
+  </si>
+  <si>
+    <t>GTID,https://www.youtube.com/watch?v=3HOQLH7-Cow</t>
+  </si>
+  <si>
+    <t>Lenovo G32qc-30</t>
+  </si>
+  <si>
+    <t>GTID,https://www.youtube.com/watch?v=mvJtJy14LWY</t>
+  </si>
+  <si>
+    <t>[Asia, EU and UK only]</t>
+  </si>
+  <si>
+    <t>AOC 25G3ZM</t>
+  </si>
+  <si>
+    <t>TotallydubbedHD,https://www.youtube.com/watch?v=ihNqHxhSRrQ;TechteamGB,https://www.youtube.com/watch?v=rbq60r9N868</t>
+  </si>
+  <si>
+    <t>[EU and UK only]</t>
   </si>
 </sst>
 </file>
@@ -1016,10 +1079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T60"/>
+  <dimension ref="A1:T69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S38" sqref="S38"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1146,7 +1209,7 @@
         <v>26</v>
       </c>
       <c r="S2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="T2" t="s">
         <v>31</v>
@@ -1154,13 +1217,13 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B3">
         <v>7.5</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="D3">
         <v>3.5</v>
@@ -1181,10 +1244,10 @@
         <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L3" t="s">
         <v>23</v>
@@ -1211,7 +1274,7 @@
         <v>209</v>
       </c>
       <c r="T3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -1270,7 +1333,7 @@
         <v>26</v>
       </c>
       <c r="S4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="T4" t="s">
         <v>33</v>
@@ -1332,7 +1395,7 @@
         <v>26</v>
       </c>
       <c r="S5" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="T5" t="s">
         <v>36</v>
@@ -1394,7 +1457,7 @@
         <v>26</v>
       </c>
       <c r="S6" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="T6" t="s">
         <v>40</v>
@@ -1402,7 +1465,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>217</v>
       </c>
       <c r="B7">
         <v>6.25</v>
@@ -1456,15 +1519,15 @@
         <v>26</v>
       </c>
       <c r="S7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="T7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>7.5</v>
@@ -1488,45 +1551,45 @@
         <v>3</v>
       </c>
       <c r="I8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" t="s">
         <v>44</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>45</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>46</v>
-      </c>
-      <c r="L8" t="s">
-        <v>47</v>
       </c>
       <c r="M8">
         <v>150</v>
       </c>
       <c r="N8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" t="s">
         <v>48</v>
       </c>
-      <c r="O8" t="s">
-        <v>24</v>
-      </c>
-      <c r="P8" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>24</v>
-      </c>
-      <c r="R8" t="s">
-        <v>26</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>49</v>
-      </c>
-      <c r="T8" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9">
         <v>6.3</v>
@@ -1556,7 +1619,7 @@
         <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L9" t="s">
         <v>23</v>
@@ -1580,15 +1643,15 @@
         <v>26</v>
       </c>
       <c r="S9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10">
         <v>6.3</v>
@@ -1618,7 +1681,7 @@
         <v>21</v>
       </c>
       <c r="K10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L10" t="s">
         <v>23</v>
@@ -1642,15 +1705,15 @@
         <v>26</v>
       </c>
       <c r="S10" t="s">
+        <v>53</v>
+      </c>
+      <c r="T10" t="s">
         <v>54</v>
-      </c>
-      <c r="T10" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11">
         <v>6.3</v>
@@ -1680,7 +1743,7 @@
         <v>21</v>
       </c>
       <c r="K11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L11" t="s">
         <v>23</v>
@@ -1704,15 +1767,15 @@
         <v>26</v>
       </c>
       <c r="S11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12">
         <v>5.8</v>
@@ -1736,16 +1799,16 @@
         <v>5</v>
       </c>
       <c r="I12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J12" t="s">
         <v>38</v>
       </c>
       <c r="K12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M12">
         <v>380</v>
@@ -1763,18 +1826,18 @@
         <v>24</v>
       </c>
       <c r="R12" t="s">
+        <v>60</v>
+      </c>
+      <c r="S12" t="s">
+        <v>48</v>
+      </c>
+      <c r="T12" t="s">
         <v>61</v>
-      </c>
-      <c r="S12" t="s">
-        <v>49</v>
-      </c>
-      <c r="T12" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13">
         <v>6.4</v>
@@ -1801,10 +1864,10 @@
         <v>20</v>
       </c>
       <c r="J13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L13" t="s">
         <v>39</v>
@@ -1828,15 +1891,15 @@
         <v>26</v>
       </c>
       <c r="S13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14">
         <v>6.3</v>
@@ -1866,7 +1929,7 @@
         <v>21</v>
       </c>
       <c r="K14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L14" t="s">
         <v>23</v>
@@ -1875,7 +1938,7 @@
         <v>420</v>
       </c>
       <c r="N14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O14" t="s">
         <v>24</v>
@@ -1890,15 +1953,15 @@
         <v>26</v>
       </c>
       <c r="S14" t="s">
+        <v>67</v>
+      </c>
+      <c r="T14" t="s">
         <v>68</v>
-      </c>
-      <c r="T14" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15">
         <v>6.6</v>
@@ -1910,7 +1973,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1925,10 +1988,10 @@
         <v>20</v>
       </c>
       <c r="J15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L15" t="s">
         <v>23</v>
@@ -1952,15 +2015,15 @@
         <v>26</v>
       </c>
       <c r="S15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16">
         <v>5.8</v>
@@ -1984,16 +2047,16 @@
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J16" t="s">
         <v>38</v>
       </c>
       <c r="K16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M16">
         <v>750</v>
@@ -2011,18 +2074,18 @@
         <v>24</v>
       </c>
       <c r="R16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17">
         <v>5.8</v>
@@ -2046,16 +2109,16 @@
         <v>5</v>
       </c>
       <c r="I17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J17" t="s">
         <v>38</v>
       </c>
       <c r="K17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M17">
         <v>1000</v>
@@ -2073,18 +2136,18 @@
         <v>24</v>
       </c>
       <c r="R17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B18">
         <v>7.5</v>
@@ -2111,10 +2174,10 @@
         <v>20</v>
       </c>
       <c r="J18" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" t="s">
         <v>45</v>
-      </c>
-      <c r="K18" t="s">
-        <v>46</v>
       </c>
       <c r="L18" t="s">
         <v>23</v>
@@ -2138,15 +2201,15 @@
         <v>26</v>
       </c>
       <c r="S18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19">
         <v>7.9</v>
@@ -2173,10 +2236,10 @@
         <v>20</v>
       </c>
       <c r="J19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L19" t="s">
         <v>23</v>
@@ -2200,15 +2263,15 @@
         <v>26</v>
       </c>
       <c r="S19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20">
         <v>7.5</v>
@@ -2235,10 +2298,10 @@
         <v>20</v>
       </c>
       <c r="J20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20" t="s">
         <v>45</v>
-      </c>
-      <c r="K20" t="s">
-        <v>46</v>
       </c>
       <c r="L20" t="s">
         <v>23</v>
@@ -2262,15 +2325,15 @@
         <v>26</v>
       </c>
       <c r="S20" t="s">
+        <v>84</v>
+      </c>
+      <c r="T20" t="s">
         <v>85</v>
-      </c>
-      <c r="T20" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21">
         <v>7.5</v>
@@ -2297,10 +2360,10 @@
         <v>20</v>
       </c>
       <c r="J21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" t="s">
         <v>45</v>
-      </c>
-      <c r="K21" t="s">
-        <v>46</v>
       </c>
       <c r="L21" t="s">
         <v>23</v>
@@ -2324,15 +2387,15 @@
         <v>26</v>
       </c>
       <c r="S21" t="s">
+        <v>87</v>
+      </c>
+      <c r="T21" t="s">
         <v>88</v>
-      </c>
-      <c r="T21" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B22">
         <v>8.3000000000000007</v>
@@ -2359,10 +2422,10 @@
         <v>20</v>
       </c>
       <c r="J22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L22" t="s">
         <v>23</v>
@@ -2386,15 +2449,15 @@
         <v>26</v>
       </c>
       <c r="S22" t="s">
+        <v>91</v>
+      </c>
+      <c r="T22" t="s">
         <v>92</v>
-      </c>
-      <c r="T22" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23">
         <v>6.3</v>
@@ -2424,7 +2487,7 @@
         <v>21</v>
       </c>
       <c r="K23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L23" t="s">
         <v>23</v>
@@ -2448,15 +2511,15 @@
         <v>26</v>
       </c>
       <c r="S23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B24">
         <v>6.3</v>
@@ -2486,7 +2549,7 @@
         <v>21</v>
       </c>
       <c r="K24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L24" t="s">
         <v>39</v>
@@ -2510,15 +2573,15 @@
         <v>26</v>
       </c>
       <c r="S24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2545,10 +2608,10 @@
         <v>28</v>
       </c>
       <c r="J25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L25" t="s">
         <v>39</v>
@@ -2572,15 +2635,15 @@
         <v>26</v>
       </c>
       <c r="S25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B26">
         <v>5.8</v>
@@ -2604,22 +2667,22 @@
         <v>5</v>
       </c>
       <c r="I26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J26" t="s">
         <v>38</v>
       </c>
       <c r="K26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M26">
         <v>450</v>
       </c>
       <c r="N26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O26" t="s">
         <v>25</v>
@@ -2631,18 +2694,18 @@
         <v>24</v>
       </c>
       <c r="R26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S26" t="s">
+        <v>103</v>
+      </c>
+      <c r="T26" t="s">
         <v>104</v>
-      </c>
-      <c r="T26" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B27">
         <v>6.3</v>
@@ -2672,7 +2735,7 @@
         <v>21</v>
       </c>
       <c r="K27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L27" t="s">
         <v>23</v>
@@ -2696,15 +2759,15 @@
         <v>26</v>
       </c>
       <c r="S27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B28">
         <v>5.8</v>
@@ -2734,10 +2797,10 @@
         <v>38</v>
       </c>
       <c r="K28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M28">
         <v>600</v>
@@ -2758,15 +2821,15 @@
         <v>26</v>
       </c>
       <c r="S28" t="s">
+        <v>110</v>
+      </c>
+      <c r="T28" t="s">
         <v>111</v>
-      </c>
-      <c r="T28" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B29">
         <v>5.8</v>
@@ -2796,10 +2859,10 @@
         <v>38</v>
       </c>
       <c r="K29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M29">
         <v>600</v>
@@ -2820,15 +2883,15 @@
         <v>26</v>
       </c>
       <c r="S29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B30">
         <v>5.8</v>
@@ -2858,7 +2921,7 @@
         <v>38</v>
       </c>
       <c r="K30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L30" t="s">
         <v>39</v>
@@ -2882,15 +2945,15 @@
         <v>26</v>
       </c>
       <c r="S30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B31">
         <v>6.3</v>
@@ -2920,7 +2983,7 @@
         <v>29</v>
       </c>
       <c r="K31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L31" t="s">
         <v>39</v>
@@ -2944,15 +3007,15 @@
         <v>26</v>
       </c>
       <c r="S31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2979,10 +3042,10 @@
         <v>28</v>
       </c>
       <c r="J32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L32" t="s">
         <v>23</v>
@@ -3006,15 +3069,15 @@
         <v>26</v>
       </c>
       <c r="S32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -3041,7 +3104,7 @@
         <v>28</v>
       </c>
       <c r="J33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K33" t="s">
         <v>35</v>
@@ -3068,15 +3131,15 @@
         <v>26</v>
       </c>
       <c r="S33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -3100,13 +3163,13 @@
         <v>10</v>
       </c>
       <c r="I34" t="s">
+        <v>125</v>
+      </c>
+      <c r="J34" t="s">
+        <v>99</v>
+      </c>
+      <c r="K34" t="s">
         <v>126</v>
-      </c>
-      <c r="J34" t="s">
-        <v>100</v>
-      </c>
-      <c r="K34" t="s">
-        <v>127</v>
       </c>
       <c r="L34" t="s">
         <v>39</v>
@@ -3115,7 +3178,7 @@
         <v>5000</v>
       </c>
       <c r="N34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O34" t="s">
         <v>24</v>
@@ -3130,15 +3193,15 @@
         <v>26</v>
       </c>
       <c r="S34" t="s">
+        <v>127</v>
+      </c>
+      <c r="T34" t="s">
         <v>128</v>
-      </c>
-      <c r="T34" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B35">
         <v>7.5</v>
@@ -3165,10 +3228,10 @@
         <v>20</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L35" t="s">
         <v>23</v>
@@ -3192,15 +3255,15 @@
         <v>26</v>
       </c>
       <c r="S35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="T35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B36">
         <v>7.5</v>
@@ -3227,10 +3290,10 @@
         <v>20</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L36" t="s">
         <v>23</v>
@@ -3254,15 +3317,15 @@
         <v>26</v>
       </c>
       <c r="S36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="T36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B37">
         <v>7.5</v>
@@ -3286,13 +3349,13 @@
         <v>1.5</v>
       </c>
       <c r="I37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L37" t="s">
         <v>23</v>
@@ -3313,18 +3376,18 @@
         <v>25</v>
       </c>
       <c r="R37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B38">
         <v>6.6</v>
@@ -3348,16 +3411,16 @@
         <v>1.5</v>
       </c>
       <c r="I38" t="s">
+        <v>58</v>
+      </c>
+      <c r="J38" t="s">
+        <v>136</v>
+      </c>
+      <c r="K38" t="s">
+        <v>137</v>
+      </c>
+      <c r="L38" t="s">
         <v>59</v>
-      </c>
-      <c r="J38" t="s">
-        <v>137</v>
-      </c>
-      <c r="K38" t="s">
-        <v>138</v>
-      </c>
-      <c r="L38" t="s">
-        <v>60</v>
       </c>
       <c r="M38">
         <v>1100</v>
@@ -3375,18 +3438,18 @@
         <v>24</v>
       </c>
       <c r="R38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S38" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="T38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B39">
         <v>6.6</v>
@@ -3410,16 +3473,16 @@
         <v>1.5</v>
       </c>
       <c r="I39" t="s">
+        <v>58</v>
+      </c>
+      <c r="J39" t="s">
+        <v>136</v>
+      </c>
+      <c r="K39" t="s">
+        <v>137</v>
+      </c>
+      <c r="L39" t="s">
         <v>59</v>
-      </c>
-      <c r="J39" t="s">
-        <v>137</v>
-      </c>
-      <c r="K39" t="s">
-        <v>138</v>
-      </c>
-      <c r="L39" t="s">
-        <v>60</v>
       </c>
       <c r="M39">
         <v>1140</v>
@@ -3437,18 +3500,18 @@
         <v>25</v>
       </c>
       <c r="R39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3475,10 +3538,10 @@
         <v>28</v>
       </c>
       <c r="J40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L40" t="s">
         <v>39</v>
@@ -3487,7 +3550,7 @@
         <v>2800</v>
       </c>
       <c r="N40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O40" t="s">
         <v>24</v>
@@ -3502,15 +3565,15 @@
         <v>26</v>
       </c>
       <c r="S40" t="s">
+        <v>141</v>
+      </c>
+      <c r="T40" t="s">
         <v>142</v>
-      </c>
-      <c r="T40" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -3537,10 +3600,10 @@
         <v>28</v>
       </c>
       <c r="J41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L41" t="s">
         <v>39</v>
@@ -3549,7 +3612,7 @@
         <v>2800</v>
       </c>
       <c r="N41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O41" t="s">
         <v>24</v>
@@ -3564,15 +3627,15 @@
         <v>26</v>
       </c>
       <c r="S41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="T41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -3599,10 +3662,10 @@
         <v>28</v>
       </c>
       <c r="J42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L42" t="s">
         <v>23</v>
@@ -3611,7 +3674,7 @@
         <v>500</v>
       </c>
       <c r="N42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O42" t="s">
         <v>24</v>
@@ -3626,15 +3689,15 @@
         <v>26</v>
       </c>
       <c r="S42" t="s">
+        <v>145</v>
+      </c>
+      <c r="T42" t="s">
         <v>146</v>
-      </c>
-      <c r="T42" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -3661,10 +3724,10 @@
         <v>28</v>
       </c>
       <c r="J43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L43" t="s">
         <v>39</v>
@@ -3673,7 +3736,7 @@
         <v>1000</v>
       </c>
       <c r="N43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O43" t="s">
         <v>24</v>
@@ -3688,15 +3751,15 @@
         <v>26</v>
       </c>
       <c r="S43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B44">
         <v>8.5</v>
@@ -3720,22 +3783,22 @@
         <v>3</v>
       </c>
       <c r="I44" t="s">
+        <v>43</v>
+      </c>
+      <c r="J44" t="s">
         <v>44</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>45</v>
       </c>
-      <c r="K44" t="s">
-        <v>46</v>
-      </c>
       <c r="L44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M44">
         <v>280</v>
       </c>
       <c r="N44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O44" t="s">
         <v>24</v>
@@ -3750,15 +3813,15 @@
         <v>26</v>
       </c>
       <c r="S44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T44" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B45">
         <v>9.5</v>
@@ -3782,22 +3845,22 @@
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M45">
         <v>600</v>
       </c>
       <c r="N45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O45" t="s">
         <v>24</v>
@@ -3812,15 +3875,15 @@
         <v>26</v>
       </c>
       <c r="S45" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B46">
         <v>8.8000000000000007</v>
@@ -3844,22 +3907,22 @@
         <v>3</v>
       </c>
       <c r="I46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K46" t="s">
+        <v>45</v>
+      </c>
+      <c r="L46" t="s">
         <v>46</v>
-      </c>
-      <c r="L46" t="s">
-        <v>47</v>
       </c>
       <c r="M46">
         <v>830</v>
       </c>
       <c r="N46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O46" t="s">
         <v>24</v>
@@ -3874,15 +3937,15 @@
         <v>26</v>
       </c>
       <c r="S46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="T46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -3909,10 +3972,10 @@
         <v>20</v>
       </c>
       <c r="J47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L47" t="s">
         <v>23</v>
@@ -3921,7 +3984,7 @@
         <v>250</v>
       </c>
       <c r="N47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O47" t="s">
         <v>24</v>
@@ -3936,15 +3999,15 @@
         <v>26</v>
       </c>
       <c r="S47" t="s">
+        <v>159</v>
+      </c>
+      <c r="T47" t="s">
         <v>160</v>
-      </c>
-      <c r="T47" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3971,10 +4034,10 @@
         <v>28</v>
       </c>
       <c r="J48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L48" t="s">
         <v>23</v>
@@ -3983,7 +4046,7 @@
         <v>300</v>
       </c>
       <c r="N48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O48" t="s">
         <v>24</v>
@@ -3998,15 +4061,15 @@
         <v>26</v>
       </c>
       <c r="S48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="T48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -4033,10 +4096,10 @@
         <v>28</v>
       </c>
       <c r="J49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L49" t="s">
         <v>23</v>
@@ -4045,7 +4108,7 @@
         <v>400</v>
       </c>
       <c r="N49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O49" t="s">
         <v>24</v>
@@ -4060,15 +4123,15 @@
         <v>26</v>
       </c>
       <c r="S49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T49" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -4092,22 +4155,22 @@
         <v>5</v>
       </c>
       <c r="I50" t="s">
+        <v>58</v>
+      </c>
+      <c r="J50" t="s">
+        <v>99</v>
+      </c>
+      <c r="K50" t="s">
+        <v>45</v>
+      </c>
+      <c r="L50" t="s">
         <v>59</v>
-      </c>
-      <c r="J50" t="s">
-        <v>100</v>
-      </c>
-      <c r="K50" t="s">
-        <v>46</v>
-      </c>
-      <c r="L50" t="s">
-        <v>60</v>
       </c>
       <c r="M50">
         <v>450</v>
       </c>
       <c r="N50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O50" t="s">
         <v>25</v>
@@ -4119,18 +4182,18 @@
         <v>24</v>
       </c>
       <c r="R50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -4157,10 +4220,10 @@
         <v>28</v>
       </c>
       <c r="J51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L51" t="s">
         <v>23</v>
@@ -4169,7 +4232,7 @@
         <v>450</v>
       </c>
       <c r="N51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O51" t="s">
         <v>24</v>
@@ -4184,15 +4247,15 @@
         <v>26</v>
       </c>
       <c r="S51" t="s">
+        <v>167</v>
+      </c>
+      <c r="T51" t="s">
         <v>168</v>
-      </c>
-      <c r="T51" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -4216,22 +4279,22 @@
         <v>5</v>
       </c>
       <c r="I52" t="s">
+        <v>58</v>
+      </c>
+      <c r="J52" t="s">
+        <v>99</v>
+      </c>
+      <c r="K52" t="s">
+        <v>45</v>
+      </c>
+      <c r="L52" t="s">
         <v>59</v>
-      </c>
-      <c r="J52" t="s">
-        <v>100</v>
-      </c>
-      <c r="K52" t="s">
-        <v>46</v>
-      </c>
-      <c r="L52" t="s">
-        <v>60</v>
       </c>
       <c r="M52">
         <v>480</v>
       </c>
       <c r="N52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O52" t="s">
         <v>25</v>
@@ -4243,18 +4306,18 @@
         <v>24</v>
       </c>
       <c r="R52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -4281,10 +4344,10 @@
         <v>28</v>
       </c>
       <c r="J53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L53" t="s">
         <v>39</v>
@@ -4293,7 +4356,7 @@
         <v>450</v>
       </c>
       <c r="N53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O53" t="s">
         <v>24</v>
@@ -4308,15 +4371,15 @@
         <v>26</v>
       </c>
       <c r="S53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4340,22 +4403,22 @@
         <v>8</v>
       </c>
       <c r="I54" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L54" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M54">
         <v>600</v>
       </c>
       <c r="N54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O54" t="s">
         <v>24</v>
@@ -4367,18 +4430,18 @@
         <v>24</v>
       </c>
       <c r="R54" t="s">
+        <v>174</v>
+      </c>
+      <c r="S54" t="s">
         <v>175</v>
       </c>
-      <c r="S54" t="s">
-        <v>176</v>
-      </c>
       <c r="T54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -4405,10 +4468,10 @@
         <v>28</v>
       </c>
       <c r="J55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L55" t="s">
         <v>23</v>
@@ -4417,7 +4480,7 @@
         <v>600</v>
       </c>
       <c r="N55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O55" t="s">
         <v>24</v>
@@ -4432,15 +4495,15 @@
         <v>26</v>
       </c>
       <c r="S55" t="s">
+        <v>178</v>
+      </c>
+      <c r="T55" t="s">
         <v>179</v>
-      </c>
-      <c r="T55" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4467,10 +4530,10 @@
         <v>28</v>
       </c>
       <c r="J56" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L56" t="s">
         <v>39</v>
@@ -4479,7 +4542,7 @@
         <v>700</v>
       </c>
       <c r="N56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O56" t="s">
         <v>24</v>
@@ -4494,15 +4557,15 @@
         <v>26</v>
       </c>
       <c r="S56" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -4529,10 +4592,10 @@
         <v>28</v>
       </c>
       <c r="J57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K57" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L57" t="s">
         <v>39</v>
@@ -4541,7 +4604,7 @@
         <v>850</v>
       </c>
       <c r="N57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O57" t="s">
         <v>24</v>
@@ -4556,15 +4619,15 @@
         <v>26</v>
       </c>
       <c r="S57" t="s">
+        <v>183</v>
+      </c>
+      <c r="T57" t="s">
         <v>184</v>
-      </c>
-      <c r="T57" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4588,13 +4651,13 @@
         <v>10</v>
       </c>
       <c r="I58" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L58" t="s">
         <v>23</v>
@@ -4603,7 +4666,7 @@
         <v>1300</v>
       </c>
       <c r="N58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O58" t="s">
         <v>24</v>
@@ -4618,15 +4681,15 @@
         <v>26</v>
       </c>
       <c r="S58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B59">
         <v>5.8</v>
@@ -4650,22 +4713,22 @@
         <v>5</v>
       </c>
       <c r="I59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J59" t="s">
         <v>38</v>
       </c>
       <c r="K59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M59">
         <v>1400</v>
       </c>
       <c r="N59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O59" t="s">
         <v>25</v>
@@ -4677,18 +4740,18 @@
         <v>24</v>
       </c>
       <c r="R59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S59" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -4712,13 +4775,13 @@
         <v>10</v>
       </c>
       <c r="I60" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L60" t="s">
         <v>23</v>
@@ -4727,7 +4790,7 @@
         <v>1600</v>
       </c>
       <c r="N60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O60" t="s">
         <v>24</v>
@@ -4742,10 +4805,568 @@
         <v>26</v>
       </c>
       <c r="S60" t="s">
+        <v>190</v>
+      </c>
+      <c r="T60" t="s">
         <v>191</v>
       </c>
-      <c r="T60" t="s">
-        <v>192</v>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>210</v>
+      </c>
+      <c r="B61">
+        <v>6.6</v>
+      </c>
+      <c r="C61">
+        <v>6.5</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61">
+        <v>5</v>
+      </c>
+      <c r="H61">
+        <v>3</v>
+      </c>
+      <c r="I61" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" t="s">
+        <v>70</v>
+      </c>
+      <c r="K61" t="s">
+        <v>45</v>
+      </c>
+      <c r="L61" t="s">
+        <v>39</v>
+      </c>
+      <c r="M61">
+        <v>500</v>
+      </c>
+      <c r="N61">
+        <v>5700</v>
+      </c>
+      <c r="O61" t="s">
+        <v>24</v>
+      </c>
+      <c r="P61" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>24</v>
+      </c>
+      <c r="R61" t="s">
+        <v>26</v>
+      </c>
+      <c r="S61" t="s">
+        <v>48</v>
+      </c>
+      <c r="T61" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>212</v>
+      </c>
+      <c r="B62">
+        <v>6.25</v>
+      </c>
+      <c r="C62">
+        <v>6.5</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>6</v>
+      </c>
+      <c r="F62">
+        <v>5</v>
+      </c>
+      <c r="G62">
+        <v>8</v>
+      </c>
+      <c r="H62">
+        <v>8</v>
+      </c>
+      <c r="I62" t="s">
+        <v>28</v>
+      </c>
+      <c r="J62" t="s">
+        <v>29</v>
+      </c>
+      <c r="K62" t="s">
+        <v>45</v>
+      </c>
+      <c r="L62" t="s">
+        <v>39</v>
+      </c>
+      <c r="M62">
+        <v>1100</v>
+      </c>
+      <c r="N62">
+        <v>5700</v>
+      </c>
+      <c r="O62" t="s">
+        <v>24</v>
+      </c>
+      <c r="P62" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>24</v>
+      </c>
+      <c r="R62" t="s">
+        <v>26</v>
+      </c>
+      <c r="S62" t="s">
+        <v>48</v>
+      </c>
+      <c r="T62" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>214</v>
+      </c>
+      <c r="B63">
+        <v>6.4</v>
+      </c>
+      <c r="C63">
+        <v>6</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>3</v>
+      </c>
+      <c r="H63">
+        <v>3</v>
+      </c>
+      <c r="I63" t="s">
+        <v>43</v>
+      </c>
+      <c r="J63" t="s">
+        <v>63</v>
+      </c>
+      <c r="K63" t="s">
+        <v>45</v>
+      </c>
+      <c r="L63" t="s">
+        <v>150</v>
+      </c>
+      <c r="M63">
+        <v>150</v>
+      </c>
+      <c r="N63" t="s">
+        <v>47</v>
+      </c>
+      <c r="O63" t="s">
+        <v>24</v>
+      </c>
+      <c r="P63" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>24</v>
+      </c>
+      <c r="R63" t="s">
+        <v>26</v>
+      </c>
+      <c r="S63" t="s">
+        <v>215</v>
+      </c>
+      <c r="T63" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>218</v>
+      </c>
+      <c r="B64">
+        <v>6.3</v>
+      </c>
+      <c r="C64">
+        <v>6</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>3</v>
+      </c>
+      <c r="H64">
+        <v>3</v>
+      </c>
+      <c r="I64" t="s">
+        <v>43</v>
+      </c>
+      <c r="J64" t="s">
+        <v>21</v>
+      </c>
+      <c r="K64" t="s">
+        <v>45</v>
+      </c>
+      <c r="L64" t="s">
+        <v>150</v>
+      </c>
+      <c r="M64">
+        <v>130</v>
+      </c>
+      <c r="N64" t="s">
+        <v>47</v>
+      </c>
+      <c r="O64" t="s">
+        <v>24</v>
+      </c>
+      <c r="P64" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>24</v>
+      </c>
+      <c r="R64" t="s">
+        <v>26</v>
+      </c>
+      <c r="S64" t="s">
+        <v>219</v>
+      </c>
+      <c r="T64" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>220</v>
+      </c>
+      <c r="B65">
+        <v>6.3</v>
+      </c>
+      <c r="C65">
+        <v>6</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <v>3</v>
+      </c>
+      <c r="H65">
+        <v>3</v>
+      </c>
+      <c r="I65" t="s">
+        <v>43</v>
+      </c>
+      <c r="J65" t="s">
+        <v>21</v>
+      </c>
+      <c r="K65" t="s">
+        <v>45</v>
+      </c>
+      <c r="L65" t="s">
+        <v>150</v>
+      </c>
+      <c r="M65">
+        <v>200</v>
+      </c>
+      <c r="N65" t="s">
+        <v>47</v>
+      </c>
+      <c r="O65" t="s">
+        <v>24</v>
+      </c>
+      <c r="P65" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>24</v>
+      </c>
+      <c r="R65" t="s">
+        <v>26</v>
+      </c>
+      <c r="S65" t="s">
+        <v>48</v>
+      </c>
+      <c r="T65" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>222</v>
+      </c>
+      <c r="B66">
+        <v>6.3</v>
+      </c>
+      <c r="C66">
+        <v>6</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <v>3</v>
+      </c>
+      <c r="H66">
+        <v>3</v>
+      </c>
+      <c r="I66" t="s">
+        <v>43</v>
+      </c>
+      <c r="J66" t="s">
+        <v>21</v>
+      </c>
+      <c r="K66" t="s">
+        <v>45</v>
+      </c>
+      <c r="L66" t="s">
+        <v>150</v>
+      </c>
+      <c r="M66">
+        <v>190</v>
+      </c>
+      <c r="N66" t="s">
+        <v>47</v>
+      </c>
+      <c r="O66" t="s">
+        <v>24</v>
+      </c>
+      <c r="P66" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>24</v>
+      </c>
+      <c r="R66" t="s">
+        <v>26</v>
+      </c>
+      <c r="S66" t="s">
+        <v>48</v>
+      </c>
+      <c r="T66" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>223</v>
+      </c>
+      <c r="B67">
+        <v>6.4</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67">
+        <v>5</v>
+      </c>
+      <c r="H67">
+        <v>5</v>
+      </c>
+      <c r="I67" t="s">
+        <v>58</v>
+      </c>
+      <c r="J67" t="s">
+        <v>63</v>
+      </c>
+      <c r="K67" t="s">
+        <v>94</v>
+      </c>
+      <c r="L67" t="s">
+        <v>59</v>
+      </c>
+      <c r="M67">
+        <v>450</v>
+      </c>
+      <c r="N67">
+        <v>5700</v>
+      </c>
+      <c r="O67" t="s">
+        <v>25</v>
+      </c>
+      <c r="P67" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>24</v>
+      </c>
+      <c r="R67" t="s">
+        <v>60</v>
+      </c>
+      <c r="S67" t="s">
+        <v>224</v>
+      </c>
+      <c r="T67" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>226</v>
+      </c>
+      <c r="B68">
+        <v>6.4</v>
+      </c>
+      <c r="C68">
+        <v>5</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68">
+        <v>5</v>
+      </c>
+      <c r="H68">
+        <v>3</v>
+      </c>
+      <c r="I68" t="s">
+        <v>20</v>
+      </c>
+      <c r="J68" t="s">
+        <v>63</v>
+      </c>
+      <c r="K68" t="s">
+        <v>94</v>
+      </c>
+      <c r="L68" t="s">
+        <v>59</v>
+      </c>
+      <c r="M68">
+        <v>450</v>
+      </c>
+      <c r="N68">
+        <v>5700</v>
+      </c>
+      <c r="O68" t="s">
+        <v>25</v>
+      </c>
+      <c r="P68" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>24</v>
+      </c>
+      <c r="R68" t="s">
+        <v>26</v>
+      </c>
+      <c r="S68" t="s">
+        <v>228</v>
+      </c>
+      <c r="T68" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>229</v>
+      </c>
+      <c r="B69">
+        <v>7.5</v>
+      </c>
+      <c r="C69">
+        <v>3.5</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>3</v>
+      </c>
+      <c r="H69">
+        <v>3</v>
+      </c>
+      <c r="I69" t="s">
+        <v>43</v>
+      </c>
+      <c r="J69" t="s">
+        <v>44</v>
+      </c>
+      <c r="K69" t="s">
+        <v>94</v>
+      </c>
+      <c r="L69" t="s">
+        <v>46</v>
+      </c>
+      <c r="M69">
+        <v>200</v>
+      </c>
+      <c r="N69" t="s">
+        <v>47</v>
+      </c>
+      <c r="O69" t="s">
+        <v>24</v>
+      </c>
+      <c r="P69" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>24</v>
+      </c>
+      <c r="R69" t="s">
+        <v>26</v>
+      </c>
+      <c r="S69" t="s">
+        <v>231</v>
+      </c>
+      <c r="T69" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/data/monitors.xlsx
+++ b/data/monitors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chandradeep/Desktop/MS/FrogAI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14414B05-9FE7-BB44-A37A-A4B2A09CA81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712090A8-98B3-D040-98C5-DD2131AE35DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="20560" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="248">
   <si>
     <t>name</t>
   </si>
@@ -716,6 +716,54 @@
   </si>
   <si>
     <t>[EU and UK only]</t>
+  </si>
+  <si>
+    <t>LG 32GQ850</t>
+  </si>
+  <si>
+    <t>260hz</t>
+  </si>
+  <si>
+    <t>270hz</t>
+  </si>
+  <si>
+    <t>Gigabyte FI32Q-X</t>
+  </si>
+  <si>
+    <t>Bijan Jamshidi,https://www.youtube.com/watch?v=-uv7io23Dsg</t>
+  </si>
+  <si>
+    <t>TFTCentral,https://tftcentral.co.uk/reviews/gigabyte-aorus-fi32q-x</t>
+  </si>
+  <si>
+    <t>Acer XB323U-GX</t>
+  </si>
+  <si>
+    <t>Same tuning and panel as 32GQ850</t>
+  </si>
+  <si>
+    <t>LG 42C2</t>
+  </si>
+  <si>
+    <t>42"</t>
+  </si>
+  <si>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/lg/42-c2-oled;Hardware Unboxed,https://www.youtube.com/watch?v=jRzGvkqSNaI</t>
+  </si>
+  <si>
+    <t>Sony Inzone M9</t>
+  </si>
+  <si>
+    <t>IPS FALD 96 zones</t>
+  </si>
+  <si>
+    <t>Very entry-level HDR and quite overpriced</t>
+  </si>
+  <si>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/sony/inzone-m9;Hardware Unboxed,https://www.youtube.com/watch?v=GNF2YMuITr0</t>
+  </si>
+  <si>
+    <t>Burn-in risk + glossy</t>
   </si>
 </sst>
 </file>
@@ -745,7 +793,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -768,15 +816,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1079,15 +1137,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T69"/>
+  <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="S73" sqref="S73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" customWidth="1"/>
     <col min="19" max="19" width="61.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3346,7 +3405,7 @@
         <v>5</v>
       </c>
       <c r="H37">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I37" t="s">
         <v>58</v>
@@ -5368,6 +5427,319 @@
       <c r="T69" t="s">
         <v>230</v>
       </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>232</v>
+      </c>
+      <c r="B70">
+        <v>7.7</v>
+      </c>
+      <c r="C70">
+        <v>6</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70">
+        <v>5</v>
+      </c>
+      <c r="H70">
+        <v>3</v>
+      </c>
+      <c r="I70" t="s">
+        <v>20</v>
+      </c>
+      <c r="J70" t="s">
+        <v>233</v>
+      </c>
+      <c r="K70" t="s">
+        <v>45</v>
+      </c>
+      <c r="L70" t="s">
+        <v>39</v>
+      </c>
+      <c r="M70">
+        <v>700</v>
+      </c>
+      <c r="N70">
+        <v>5700</v>
+      </c>
+      <c r="O70" t="s">
+        <v>24</v>
+      </c>
+      <c r="P70" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>24</v>
+      </c>
+      <c r="R70" t="s">
+        <v>26</v>
+      </c>
+      <c r="S70" t="s">
+        <v>48</v>
+      </c>
+      <c r="T70" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>235</v>
+      </c>
+      <c r="B71">
+        <v>7.8</v>
+      </c>
+      <c r="C71">
+        <v>6</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <v>5</v>
+      </c>
+      <c r="H71">
+        <v>3</v>
+      </c>
+      <c r="I71" t="s">
+        <v>20</v>
+      </c>
+      <c r="J71" t="s">
+        <v>234</v>
+      </c>
+      <c r="K71" t="s">
+        <v>45</v>
+      </c>
+      <c r="L71" t="s">
+        <v>39</v>
+      </c>
+      <c r="M71">
+        <v>700</v>
+      </c>
+      <c r="N71">
+        <v>5700</v>
+      </c>
+      <c r="O71" t="s">
+        <v>24</v>
+      </c>
+      <c r="P71" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>24</v>
+      </c>
+      <c r="R71" t="s">
+        <v>26</v>
+      </c>
+      <c r="S71" t="s">
+        <v>48</v>
+      </c>
+      <c r="T71" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>238</v>
+      </c>
+      <c r="B72">
+        <v>7.8</v>
+      </c>
+      <c r="C72">
+        <v>6</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72">
+        <v>5</v>
+      </c>
+      <c r="H72">
+        <v>3</v>
+      </c>
+      <c r="I72" t="s">
+        <v>20</v>
+      </c>
+      <c r="J72" t="s">
+        <v>234</v>
+      </c>
+      <c r="K72" t="s">
+        <v>45</v>
+      </c>
+      <c r="L72" t="s">
+        <v>39</v>
+      </c>
+      <c r="M72">
+        <v>700</v>
+      </c>
+      <c r="N72">
+        <v>5700</v>
+      </c>
+      <c r="O72" t="s">
+        <v>24</v>
+      </c>
+      <c r="P72" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>24</v>
+      </c>
+      <c r="R72" t="s">
+        <v>26</v>
+      </c>
+      <c r="S72" t="s">
+        <v>239</v>
+      </c>
+      <c r="T72" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>240</v>
+      </c>
+      <c r="B73">
+        <v>5</v>
+      </c>
+      <c r="C73">
+        <v>9.5</v>
+      </c>
+      <c r="D73">
+        <v>10</v>
+      </c>
+      <c r="E73">
+        <v>7</v>
+      </c>
+      <c r="F73">
+        <v>3.5</v>
+      </c>
+      <c r="G73">
+        <v>8</v>
+      </c>
+      <c r="H73">
+        <v>1.5</v>
+      </c>
+      <c r="I73" t="s">
+        <v>28</v>
+      </c>
+      <c r="J73" t="s">
+        <v>122</v>
+      </c>
+      <c r="K73" t="s">
+        <v>130</v>
+      </c>
+      <c r="L73" t="s">
+        <v>241</v>
+      </c>
+      <c r="M73">
+        <v>1000</v>
+      </c>
+      <c r="N73" t="s">
+        <v>30</v>
+      </c>
+      <c r="O73" t="s">
+        <v>24</v>
+      </c>
+      <c r="P73" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>25</v>
+      </c>
+      <c r="R73" t="s">
+        <v>26</v>
+      </c>
+      <c r="S73" t="s">
+        <v>247</v>
+      </c>
+      <c r="T73" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>243</v>
+      </c>
+      <c r="B74">
+        <v>5.8</v>
+      </c>
+      <c r="C74">
+        <v>6.2</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+      <c r="E74">
+        <v>6.1</v>
+      </c>
+      <c r="F74">
+        <v>4</v>
+      </c>
+      <c r="G74">
+        <v>8</v>
+      </c>
+      <c r="H74">
+        <v>8</v>
+      </c>
+      <c r="I74" t="s">
+        <v>28</v>
+      </c>
+      <c r="J74" t="s">
+        <v>38</v>
+      </c>
+      <c r="K74" t="s">
+        <v>244</v>
+      </c>
+      <c r="L74" t="s">
+        <v>23</v>
+      </c>
+      <c r="M74">
+        <v>900</v>
+      </c>
+      <c r="N74" t="s">
+        <v>30</v>
+      </c>
+      <c r="O74" t="s">
+        <v>24</v>
+      </c>
+      <c r="P74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>24</v>
+      </c>
+      <c r="R74" t="s">
+        <v>26</v>
+      </c>
+      <c r="S74" t="s">
+        <v>245</v>
+      </c>
+      <c r="T74" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E78" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/monitors.xlsx
+++ b/data/monitors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chandradeep/Desktop/MS/FrogAI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712090A8-98B3-D040-98C5-DD2131AE35DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082C59F4-6381-DC46-8603-486C97E942C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1140,7 +1140,7 @@
   <dimension ref="A1:T78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="S73" sqref="S73"/>
+      <selection activeCell="L79" sqref="L79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/monitors.xlsx
+++ b/data/monitors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chandradeep/Desktop/MS/FrogAI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082C59F4-6381-DC46-8603-486C97E942C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B254A31-6794-0944-BD9A-BF04732F9766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="249">
   <si>
     <t>name</t>
   </si>
@@ -764,6 +764,9 @@
   </si>
   <si>
     <t>Burn-in risk + glossy</t>
+  </si>
+  <si>
+    <t>Broken HDR + heavy matte coating + burn in risk</t>
   </si>
 </sst>
 </file>
@@ -1139,8 +1142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L79" sqref="L79"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3370,13 +3373,13 @@
         <v>24</v>
       </c>
       <c r="Q36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R36" t="s">
         <v>26</v>
       </c>
       <c r="S36" t="s">
-        <v>193</v>
+        <v>248</v>
       </c>
       <c r="T36" t="s">
         <v>133</v>

--- a/data/monitors.xlsx
+++ b/data/monitors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chandradeep/Desktop/MS/FrogAI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B254A31-6794-0944-BD9A-BF04732F9766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9474252-6F4C-2641-B171-E1F0D00D1E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="20560" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="251">
   <si>
     <t>name</t>
   </si>
@@ -767,6 +767,12 @@
   </si>
   <si>
     <t>Broken HDR + heavy matte coating + burn in risk</t>
+  </si>
+  <si>
+    <t>MSI G274QPF-QD</t>
+  </si>
+  <si>
+    <t>Similar to G273QPF but with QD layer</t>
   </si>
 </sst>
 </file>
@@ -1142,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="Q40" sqref="Q40"/>
+    <sheetView tabSelected="1" topLeftCell="S45" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="S77" sqref="S77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3269,7 +3275,7 @@
         <v>7.5</v>
       </c>
       <c r="C35">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="D35">
         <v>10</v>
@@ -5739,6 +5745,68 @@
       </c>
       <c r="T74" t="s">
         <v>246</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>249</v>
+      </c>
+      <c r="B75">
+        <v>6.4</v>
+      </c>
+      <c r="C75">
+        <v>6</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="G75">
+        <v>5</v>
+      </c>
+      <c r="H75">
+        <v>5</v>
+      </c>
+      <c r="I75" t="s">
+        <v>20</v>
+      </c>
+      <c r="J75" t="s">
+        <v>63</v>
+      </c>
+      <c r="K75" t="s">
+        <v>45</v>
+      </c>
+      <c r="L75" t="s">
+        <v>23</v>
+      </c>
+      <c r="M75">
+        <v>330</v>
+      </c>
+      <c r="N75">
+        <v>5700</v>
+      </c>
+      <c r="O75" t="s">
+        <v>24</v>
+      </c>
+      <c r="P75" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>24</v>
+      </c>
+      <c r="R75" t="s">
+        <v>26</v>
+      </c>
+      <c r="S75" t="s">
+        <v>250</v>
+      </c>
+      <c r="T75" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.2">

--- a/data/monitors.xlsx
+++ b/data/monitors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chandradeep/Desktop/MS/FrogAI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9474252-6F4C-2641-B171-E1F0D00D1E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBA3950-9C90-F446-B2B3-94D11B51907B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="20560" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="252">
   <si>
     <t>name</t>
   </si>
@@ -773,6 +773,9 @@
   </si>
   <si>
     <t>Similar to G273QPF but with QD layer</t>
+  </si>
+  <si>
+    <t>Frequently on discount for $150</t>
   </si>
 </sst>
 </file>
@@ -1148,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S45" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="S77" sqref="S77"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1631,7 +1634,7 @@
         <v>46</v>
       </c>
       <c r="M8">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N8" t="s">
         <v>47</v>
@@ -1649,7 +1652,7 @@
         <v>26</v>
       </c>
       <c r="S8" t="s">
-        <v>48</v>
+        <v>251</v>
       </c>
       <c r="T8" t="s">
         <v>49</v>

--- a/data/monitors.xlsx
+++ b/data/monitors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chandradeep/Desktop/MS/FrogAI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBA3950-9C90-F446-B2B3-94D11B51907B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2831B00-62DF-4449-B518-FCE768027073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="20560" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -238,9 +238,6 @@
     <t xml:space="preserve">RTINGS,https://www.rtings.com/monitor/reviews/lg/27gp850-b-27gp83b-b;Hardware Unboxed,https://www.youtube.com/watch?v=ItPCOFR5xuU;Hardware unboxed,https://www.youtube.com/watch?v=aHh91RvpR3k </t>
   </si>
   <si>
-    <t>LG 34GP83A/34GN850/34GP950G</t>
-  </si>
-  <si>
     <t xml:space="preserve">RTINGS,https://www.rtings.com/monitor/reviews/lg/34gp83a-b </t>
   </si>
   <si>
@@ -776,6 +773,9 @@
   </si>
   <si>
     <t>Frequently on discount for $150</t>
+  </si>
+  <si>
+    <t>LG 34GP83A/34GN850</t>
   </si>
 </sst>
 </file>
@@ -1151,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1280,7 +1280,7 @@
         <v>26</v>
       </c>
       <c r="S2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="T2" t="s">
         <v>31</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B3">
         <v>7.5</v>
@@ -1318,7 +1318,7 @@
         <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L3" t="s">
         <v>23</v>
@@ -1342,7 +1342,7 @@
         <v>26</v>
       </c>
       <c r="S3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="T3" t="s">
         <v>48</v>
@@ -1404,7 +1404,7 @@
         <v>26</v>
       </c>
       <c r="S4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T4" t="s">
         <v>33</v>
@@ -1466,7 +1466,7 @@
         <v>26</v>
       </c>
       <c r="S5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="T5" t="s">
         <v>36</v>
@@ -1528,7 +1528,7 @@
         <v>26</v>
       </c>
       <c r="S6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="T6" t="s">
         <v>40</v>
@@ -1536,7 +1536,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B7">
         <v>6.25</v>
@@ -1590,7 +1590,7 @@
         <v>26</v>
       </c>
       <c r="S7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T7" t="s">
         <v>41</v>
@@ -1652,7 +1652,7 @@
         <v>26</v>
       </c>
       <c r="S8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T8" t="s">
         <v>49</v>
@@ -2094,7 +2094,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>251</v>
       </c>
       <c r="B16">
         <v>5.8</v>
@@ -2151,18 +2151,18 @@
         <v>48</v>
       </c>
       <c r="T16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17">
         <v>5.8</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -2174,13 +2174,13 @@
         <v>2</v>
       </c>
       <c r="G17">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="H17">
         <v>5</v>
       </c>
       <c r="I17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J17" t="s">
         <v>38</v>
@@ -2189,7 +2189,7 @@
         <v>45</v>
       </c>
       <c r="L17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M17">
         <v>1000</v>
@@ -2213,12 +2213,12 @@
         <v>48</v>
       </c>
       <c r="T17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18">
         <v>7.5</v>
@@ -2275,12 +2275,12 @@
         <v>48</v>
       </c>
       <c r="T18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B19">
         <v>7.9</v>
@@ -2307,7 +2307,7 @@
         <v>20</v>
       </c>
       <c r="J19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K19" t="s">
         <v>45</v>
@@ -2337,12 +2337,12 @@
         <v>48</v>
       </c>
       <c r="T19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20">
         <v>7.5</v>
@@ -2396,15 +2396,15 @@
         <v>26</v>
       </c>
       <c r="S20" t="s">
+        <v>83</v>
+      </c>
+      <c r="T20" t="s">
         <v>84</v>
-      </c>
-      <c r="T20" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B21">
         <v>7.5</v>
@@ -2458,15 +2458,15 @@
         <v>26</v>
       </c>
       <c r="S21" t="s">
+        <v>86</v>
+      </c>
+      <c r="T21" t="s">
         <v>87</v>
-      </c>
-      <c r="T21" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B22">
         <v>8.3000000000000007</v>
@@ -2493,7 +2493,7 @@
         <v>20</v>
       </c>
       <c r="J22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s">
         <v>45</v>
@@ -2520,15 +2520,15 @@
         <v>26</v>
       </c>
       <c r="S22" t="s">
+        <v>90</v>
+      </c>
+      <c r="T22" t="s">
         <v>91</v>
-      </c>
-      <c r="T22" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B23">
         <v>6.3</v>
@@ -2558,7 +2558,7 @@
         <v>21</v>
       </c>
       <c r="K23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L23" t="s">
         <v>23</v>
@@ -2585,12 +2585,12 @@
         <v>48</v>
       </c>
       <c r="T23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24">
         <v>6.3</v>
@@ -2620,7 +2620,7 @@
         <v>21</v>
       </c>
       <c r="K24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L24" t="s">
         <v>39</v>
@@ -2647,12 +2647,12 @@
         <v>48</v>
       </c>
       <c r="T24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>28</v>
       </c>
       <c r="J25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L25" t="s">
         <v>39</v>
@@ -2709,18 +2709,18 @@
         <v>48</v>
       </c>
       <c r="T25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B26">
         <v>5.8</v>
       </c>
       <c r="C26">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D26">
         <v>3.5</v>
@@ -2744,7 +2744,7 @@
         <v>38</v>
       </c>
       <c r="K26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L26" t="s">
         <v>59</v>
@@ -2753,7 +2753,7 @@
         <v>450</v>
       </c>
       <c r="N26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O26" t="s">
         <v>25</v>
@@ -2768,15 +2768,15 @@
         <v>60</v>
       </c>
       <c r="S26" t="s">
+        <v>102</v>
+      </c>
+      <c r="T26" t="s">
         <v>103</v>
-      </c>
-      <c r="T26" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B27">
         <v>6.3</v>
@@ -2806,7 +2806,7 @@
         <v>21</v>
       </c>
       <c r="K27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L27" t="s">
         <v>23</v>
@@ -2833,12 +2833,12 @@
         <v>48</v>
       </c>
       <c r="T27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B28">
         <v>5.8</v>
@@ -2871,7 +2871,7 @@
         <v>45</v>
       </c>
       <c r="L28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M28">
         <v>600</v>
@@ -2892,15 +2892,15 @@
         <v>26</v>
       </c>
       <c r="S28" t="s">
+        <v>109</v>
+      </c>
+      <c r="T28" t="s">
         <v>110</v>
-      </c>
-      <c r="T28" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B29">
         <v>5.8</v>
@@ -2933,7 +2933,7 @@
         <v>45</v>
       </c>
       <c r="L29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M29">
         <v>600</v>
@@ -2957,12 +2957,12 @@
         <v>48</v>
       </c>
       <c r="T29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B30">
         <v>5.8</v>
@@ -3016,15 +3016,15 @@
         <v>26</v>
       </c>
       <c r="S30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B31">
         <v>6.3</v>
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="K31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L31" t="s">
         <v>39</v>
@@ -3078,15 +3078,15 @@
         <v>26</v>
       </c>
       <c r="S31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -3113,10 +3113,10 @@
         <v>28</v>
       </c>
       <c r="J32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L32" t="s">
         <v>23</v>
@@ -3143,12 +3143,12 @@
         <v>48</v>
       </c>
       <c r="T32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -3175,7 +3175,7 @@
         <v>28</v>
       </c>
       <c r="J33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K33" t="s">
         <v>35</v>
@@ -3202,7 +3202,7 @@
         <v>26</v>
       </c>
       <c r="S33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T33" t="s">
         <v>48</v>
@@ -3210,7 +3210,7 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>10</v>
       </c>
       <c r="I34" t="s">
+        <v>124</v>
+      </c>
+      <c r="J34" t="s">
+        <v>98</v>
+      </c>
+      <c r="K34" t="s">
         <v>125</v>
-      </c>
-      <c r="J34" t="s">
-        <v>99</v>
-      </c>
-      <c r="K34" t="s">
-        <v>126</v>
       </c>
       <c r="L34" t="s">
         <v>39</v>
@@ -3264,15 +3264,15 @@
         <v>26</v>
       </c>
       <c r="S34" t="s">
+        <v>126</v>
+      </c>
+      <c r="T34" t="s">
         <v>127</v>
-      </c>
-      <c r="T34" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B35">
         <v>7.5</v>
@@ -3302,7 +3302,7 @@
         <v>44</v>
       </c>
       <c r="K35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L35" t="s">
         <v>23</v>
@@ -3326,15 +3326,15 @@
         <v>26</v>
       </c>
       <c r="S35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="T35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B36">
         <v>7.5</v>
@@ -3364,7 +3364,7 @@
         <v>44</v>
       </c>
       <c r="K36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L36" t="s">
         <v>23</v>
@@ -3388,15 +3388,15 @@
         <v>26</v>
       </c>
       <c r="S36" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B37">
         <v>7.5</v>
@@ -3426,7 +3426,7 @@
         <v>44</v>
       </c>
       <c r="K37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L37" t="s">
         <v>23</v>
@@ -3450,15 +3450,15 @@
         <v>60</v>
       </c>
       <c r="S37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="T37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B38">
         <v>6.6</v>
@@ -3485,10 +3485,10 @@
         <v>58</v>
       </c>
       <c r="J38" t="s">
+        <v>135</v>
+      </c>
+      <c r="K38" t="s">
         <v>136</v>
-      </c>
-      <c r="K38" t="s">
-        <v>137</v>
       </c>
       <c r="L38" t="s">
         <v>59</v>
@@ -3512,15 +3512,15 @@
         <v>60</v>
       </c>
       <c r="S38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B39">
         <v>6.6</v>
@@ -3547,10 +3547,10 @@
         <v>58</v>
       </c>
       <c r="J39" t="s">
+        <v>135</v>
+      </c>
+      <c r="K39" t="s">
         <v>136</v>
-      </c>
-      <c r="K39" t="s">
-        <v>137</v>
       </c>
       <c r="L39" t="s">
         <v>59</v>
@@ -3574,15 +3574,15 @@
         <v>60</v>
       </c>
       <c r="S39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3609,10 +3609,10 @@
         <v>28</v>
       </c>
       <c r="J40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L40" t="s">
         <v>39</v>
@@ -3636,15 +3636,15 @@
         <v>26</v>
       </c>
       <c r="S40" t="s">
+        <v>140</v>
+      </c>
+      <c r="T40" t="s">
         <v>141</v>
-      </c>
-      <c r="T40" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -3671,10 +3671,10 @@
         <v>28</v>
       </c>
       <c r="J41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L41" t="s">
         <v>39</v>
@@ -3698,7 +3698,7 @@
         <v>26</v>
       </c>
       <c r="S41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T41" t="s">
         <v>48</v>
@@ -3706,7 +3706,7 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -3733,7 +3733,7 @@
         <v>28</v>
       </c>
       <c r="J42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K42" t="s">
         <v>45</v>
@@ -3760,15 +3760,15 @@
         <v>26</v>
       </c>
       <c r="S42" t="s">
+        <v>144</v>
+      </c>
+      <c r="T42" t="s">
         <v>145</v>
-      </c>
-      <c r="T42" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -3795,7 +3795,7 @@
         <v>28</v>
       </c>
       <c r="J43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K43" t="s">
         <v>45</v>
@@ -3822,7 +3822,7 @@
         <v>26</v>
       </c>
       <c r="S43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T43" t="s">
         <v>48</v>
@@ -3830,7 +3830,7 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B44">
         <v>8.5</v>
@@ -3863,7 +3863,7 @@
         <v>45</v>
       </c>
       <c r="L44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M44">
         <v>280</v>
@@ -3884,15 +3884,15 @@
         <v>26</v>
       </c>
       <c r="S44" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="T44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B45">
         <v>9.5</v>
@@ -3919,10 +3919,10 @@
         <v>43</v>
       </c>
       <c r="J45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L45" t="s">
         <v>46</v>
@@ -3946,15 +3946,15 @@
         <v>26</v>
       </c>
       <c r="S45" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="T45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B46">
         <v>8.8000000000000007</v>
@@ -3981,7 +3981,7 @@
         <v>43</v>
       </c>
       <c r="J46" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K46" t="s">
         <v>45</v>
@@ -4008,15 +4008,15 @@
         <v>26</v>
       </c>
       <c r="S46" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -4043,7 +4043,7 @@
         <v>20</v>
       </c>
       <c r="J47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K47" t="s">
         <v>45</v>
@@ -4070,15 +4070,15 @@
         <v>26</v>
       </c>
       <c r="S47" t="s">
+        <v>158</v>
+      </c>
+      <c r="T47" t="s">
         <v>159</v>
-      </c>
-      <c r="T47" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>28</v>
       </c>
       <c r="J48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K48" t="s">
         <v>45</v>
@@ -4132,15 +4132,15 @@
         <v>26</v>
       </c>
       <c r="S48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="T48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -4167,7 +4167,7 @@
         <v>28</v>
       </c>
       <c r="J49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K49" t="s">
         <v>45</v>
@@ -4194,15 +4194,15 @@
         <v>26</v>
       </c>
       <c r="S49" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -4229,7 +4229,7 @@
         <v>58</v>
       </c>
       <c r="J50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K50" t="s">
         <v>45</v>
@@ -4256,7 +4256,7 @@
         <v>60</v>
       </c>
       <c r="S50" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T50" t="s">
         <v>48</v>
@@ -4264,7 +4264,7 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -4291,7 +4291,7 @@
         <v>28</v>
       </c>
       <c r="J51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K51" t="s">
         <v>45</v>
@@ -4318,15 +4318,15 @@
         <v>26</v>
       </c>
       <c r="S51" t="s">
+        <v>166</v>
+      </c>
+      <c r="T51" t="s">
         <v>167</v>
-      </c>
-      <c r="T51" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -4353,7 +4353,7 @@
         <v>58</v>
       </c>
       <c r="J52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K52" t="s">
         <v>45</v>
@@ -4380,7 +4380,7 @@
         <v>60</v>
       </c>
       <c r="S52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T52" t="s">
         <v>48</v>
@@ -4388,7 +4388,7 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -4415,7 +4415,7 @@
         <v>28</v>
       </c>
       <c r="J53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K53" t="s">
         <v>45</v>
@@ -4450,7 +4450,7 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4474,16 +4474,16 @@
         <v>8</v>
       </c>
       <c r="I54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K54" t="s">
         <v>45</v>
       </c>
       <c r="L54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M54">
         <v>600</v>
@@ -4501,10 +4501,10 @@
         <v>24</v>
       </c>
       <c r="R54" t="s">
+        <v>173</v>
+      </c>
+      <c r="S54" t="s">
         <v>174</v>
-      </c>
-      <c r="S54" t="s">
-        <v>175</v>
       </c>
       <c r="T54" t="s">
         <v>48</v>
@@ -4512,7 +4512,7 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -4539,10 +4539,10 @@
         <v>28</v>
       </c>
       <c r="J55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K55" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L55" t="s">
         <v>23</v>
@@ -4566,15 +4566,15 @@
         <v>26</v>
       </c>
       <c r="S55" t="s">
+        <v>177</v>
+      </c>
+      <c r="T55" t="s">
         <v>178</v>
-      </c>
-      <c r="T55" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4601,7 +4601,7 @@
         <v>28</v>
       </c>
       <c r="J56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K56" t="s">
         <v>45</v>
@@ -4628,7 +4628,7 @@
         <v>26</v>
       </c>
       <c r="S56" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T56" t="s">
         <v>48</v>
@@ -4636,7 +4636,7 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -4663,10 +4663,10 @@
         <v>28</v>
       </c>
       <c r="J57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K57" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L57" t="s">
         <v>39</v>
@@ -4690,15 +4690,15 @@
         <v>26</v>
       </c>
       <c r="S57" t="s">
+        <v>182</v>
+      </c>
+      <c r="T57" t="s">
         <v>183</v>
-      </c>
-      <c r="T57" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4722,10 +4722,10 @@
         <v>10</v>
       </c>
       <c r="I58" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K58" t="s">
         <v>45</v>
@@ -4752,7 +4752,7 @@
         <v>26</v>
       </c>
       <c r="S58" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="T58" t="s">
         <v>48</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B59">
         <v>5.8</v>
@@ -4778,13 +4778,13 @@
         <v>2</v>
       </c>
       <c r="G59">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="H59">
         <v>5</v>
       </c>
       <c r="I59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J59" t="s">
         <v>38</v>
@@ -4793,7 +4793,7 @@
         <v>45</v>
       </c>
       <c r="L59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M59">
         <v>1400</v>
@@ -4814,7 +4814,7 @@
         <v>60</v>
       </c>
       <c r="S59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T59" t="s">
         <v>48</v>
@@ -4822,7 +4822,7 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -4846,10 +4846,10 @@
         <v>10</v>
       </c>
       <c r="I60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K60" t="s">
         <v>45</v>
@@ -4876,15 +4876,15 @@
         <v>26</v>
       </c>
       <c r="S60" t="s">
+        <v>189</v>
+      </c>
+      <c r="T60" t="s">
         <v>190</v>
-      </c>
-      <c r="T60" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B61">
         <v>6.6</v>
@@ -4941,12 +4941,12 @@
         <v>48</v>
       </c>
       <c r="T61" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B62">
         <v>6.25</v>
@@ -5003,12 +5003,12 @@
         <v>48</v>
       </c>
       <c r="T62" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B63">
         <v>6.4</v>
@@ -5041,7 +5041,7 @@
         <v>45</v>
       </c>
       <c r="L63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M63">
         <v>150</v>
@@ -5062,15 +5062,15 @@
         <v>26</v>
       </c>
       <c r="S63" t="s">
+        <v>214</v>
+      </c>
+      <c r="T63" t="s">
         <v>215</v>
-      </c>
-      <c r="T63" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B64">
         <v>6.3</v>
@@ -5103,7 +5103,7 @@
         <v>45</v>
       </c>
       <c r="L64" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M64">
         <v>130</v>
@@ -5124,15 +5124,15 @@
         <v>26</v>
       </c>
       <c r="S64" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="T64" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B65">
         <v>6.3</v>
@@ -5165,7 +5165,7 @@
         <v>45</v>
       </c>
       <c r="L65" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M65">
         <v>200</v>
@@ -5189,12 +5189,12 @@
         <v>48</v>
       </c>
       <c r="T65" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B66">
         <v>6.3</v>
@@ -5227,7 +5227,7 @@
         <v>45</v>
       </c>
       <c r="L66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M66">
         <v>190</v>
@@ -5256,7 +5256,7 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B67">
         <v>6.4</v>
@@ -5286,7 +5286,7 @@
         <v>63</v>
       </c>
       <c r="K67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L67" t="s">
         <v>59</v>
@@ -5310,15 +5310,15 @@
         <v>60</v>
       </c>
       <c r="S67" t="s">
+        <v>223</v>
+      </c>
+      <c r="T67" t="s">
         <v>224</v>
-      </c>
-      <c r="T67" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B68">
         <v>6.4</v>
@@ -5348,7 +5348,7 @@
         <v>63</v>
       </c>
       <c r="K68" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L68" t="s">
         <v>59</v>
@@ -5372,15 +5372,15 @@
         <v>26</v>
       </c>
       <c r="S68" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T68" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B69">
         <v>7.5</v>
@@ -5410,7 +5410,7 @@
         <v>44</v>
       </c>
       <c r="K69" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L69" t="s">
         <v>46</v>
@@ -5434,15 +5434,15 @@
         <v>26</v>
       </c>
       <c r="S69" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="T69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B70">
         <v>7.7</v>
@@ -5469,7 +5469,7 @@
         <v>20</v>
       </c>
       <c r="J70" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K70" t="s">
         <v>45</v>
@@ -5499,12 +5499,12 @@
         <v>48</v>
       </c>
       <c r="T70" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B71">
         <v>7.8</v>
@@ -5531,7 +5531,7 @@
         <v>20</v>
       </c>
       <c r="J71" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K71" t="s">
         <v>45</v>
@@ -5561,12 +5561,12 @@
         <v>48</v>
       </c>
       <c r="T71" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B72">
         <v>7.8</v>
@@ -5593,7 +5593,7 @@
         <v>20</v>
       </c>
       <c r="J72" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K72" t="s">
         <v>45</v>
@@ -5620,7 +5620,7 @@
         <v>26</v>
       </c>
       <c r="S72" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="T72" t="s">
         <v>48</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B73">
         <v>5</v>
@@ -5655,13 +5655,13 @@
         <v>28</v>
       </c>
       <c r="J73" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K73" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L73" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M73">
         <v>1000</v>
@@ -5682,15 +5682,15 @@
         <v>26</v>
       </c>
       <c r="S73" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="T73" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B74">
         <v>5.8</v>
@@ -5720,7 +5720,7 @@
         <v>38</v>
       </c>
       <c r="K74" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L74" t="s">
         <v>23</v>
@@ -5744,15 +5744,15 @@
         <v>26</v>
       </c>
       <c r="S74" t="s">
+        <v>244</v>
+      </c>
+      <c r="T74" t="s">
         <v>245</v>
-      </c>
-      <c r="T74" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B75">
         <v>6.4</v>
@@ -5806,7 +5806,7 @@
         <v>26</v>
       </c>
       <c r="S75" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T75" t="s">
         <v>54</v>

--- a/data/monitors.xlsx
+++ b/data/monitors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chandradeep/Desktop/MS/FrogAI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2831B00-62DF-4449-B518-FCE768027073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4F02A0-3155-EC46-9545-2874463F189D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="20560" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1152,7 +1152,7 @@
   <dimension ref="A1:T78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1888,7 +1888,7 @@
         <v>5700</v>
       </c>
       <c r="O12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P12" t="s">
         <v>24</v>

--- a/data/monitors.xlsx
+++ b/data/monitors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chandradeep/Desktop/MS/FrogAI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4F02A0-3155-EC46-9545-2874463F189D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818D88DC-33C5-5447-895C-F1BE4FD7A888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="20560" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11580" yWindow="880" windowWidth="20560" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="243">
   <si>
     <t>name</t>
   </si>
@@ -280,9 +280,6 @@
     <t>Asus PG279QM</t>
   </si>
   <si>
-    <t>GSync module + factory calibrated</t>
-  </si>
-  <si>
     <t>Hardware Unboxed,https://www.youtube.com/watch?v=Th3LLfm7nl0;RTINGS,https://www.rtings.com/monitor/reviews/asus/rog-swift-pg279qm</t>
   </si>
   <si>
@@ -292,9 +289,6 @@
     <t>360hz</t>
   </si>
   <si>
-    <t>GSync module</t>
-  </si>
-  <si>
     <t>RTINGS,https://www.rtings.com/monitor/reviews/asus/rog-swift-360hz-pg27aqn;Hardware Unboxed,https://www.youtube.com/watch?v=eYFtLBM3a78</t>
   </si>
   <si>
@@ -604,18 +598,12 @@
     <t>Heavy matte coating + low ppi + burn in risk</t>
   </si>
   <si>
-    <t>3 year burn in warranty + glossy</t>
-  </si>
-  <si>
     <t>Linus Tech Tips,https://www.youtube.com/watch?v=Ewo8tt6bgZU;RTINGS,https://www.rtings.com/monitor/reviews/dell/alienware-aw2524h</t>
   </si>
   <si>
     <t>Great strobing (strobing might cause eye fatigue)</t>
   </si>
   <si>
-    <t>Use at 500hz without VRR even if FPS is low for optimal performance</t>
-  </si>
-  <si>
     <t>Best-in-class strobing with few artifacts and cross talk + buy only if you can strobe at 360hz (strobing might cause eye fatigue)</t>
   </si>
   <si>
@@ -625,30 +613,30 @@
     <t>Dell AW3423DW</t>
   </si>
   <si>
+    <t>Slightly buggy firmware + reports of coil whine + VRR only works upto 144hz + might have to wait for restock</t>
+  </si>
+  <si>
     <t>OSD lock ups sometimes + minor VRR+HDR flickering + might have to wait for restock</t>
   </si>
   <si>
     <t>VRR+HDR flickering + might have to wait for restock</t>
   </si>
   <si>
+    <t>Slightly buggy firmware + slightly higher contrast than regular IPS + might have to wait for restock</t>
+  </si>
+  <si>
     <t>Reports of coil whine + might have to wait for restock</t>
   </si>
   <si>
     <t>Innocn 27G1S</t>
   </si>
   <si>
+    <t>Needs to be warmed up for best motion performance</t>
+  </si>
+  <si>
     <t>Broken HDR + 3 year burn in warranty + glossy</t>
   </si>
   <si>
-    <t>[US only] Slightly buggy firmware + reports of coil whine + VRR only works upto 144hz + might have to wait for restock</t>
-  </si>
-  <si>
-    <t>[US only, EU soon] Slightly buggy firmware + slightly higher contrast than regular IPS + might have to wait for restock</t>
-  </si>
-  <si>
-    <t>[US only] Needs to be warmed up for best motion performance</t>
-  </si>
-  <si>
     <t>LG 32GP850</t>
   </si>
   <si>
@@ -673,12 +661,6 @@
     <t>Nubia RedMagic GM001J</t>
   </si>
   <si>
-    <t>Iiyama G(B)2470HSU</t>
-  </si>
-  <si>
-    <t>[EU only] Expensive in NA</t>
-  </si>
-  <si>
     <t>AOC 24G2SP(U)</t>
   </si>
   <si>
@@ -688,33 +670,6 @@
     <t>Lenovo G24-20</t>
   </si>
   <si>
-    <t>Lenovo G34W-30</t>
-  </si>
-  <si>
-    <t>[Asia only]</t>
-  </si>
-  <si>
-    <t>GTID,https://www.youtube.com/watch?v=3HOQLH7-Cow</t>
-  </si>
-  <si>
-    <t>Lenovo G32qc-30</t>
-  </si>
-  <si>
-    <t>GTID,https://www.youtube.com/watch?v=mvJtJy14LWY</t>
-  </si>
-  <si>
-    <t>[Asia, EU and UK only]</t>
-  </si>
-  <si>
-    <t>AOC 25G3ZM</t>
-  </si>
-  <si>
-    <t>TotallydubbedHD,https://www.youtube.com/watch?v=ihNqHxhSRrQ;TechteamGB,https://www.youtube.com/watch?v=rbq60r9N868</t>
-  </si>
-  <si>
-    <t>[EU and UK only]</t>
-  </si>
-  <si>
     <t>LG 32GQ850</t>
   </si>
   <si>
@@ -776,6 +731,24 @@
   </si>
   <si>
     <t>LG 34GP83A/34GN850</t>
+  </si>
+  <si>
+    <t>Gsync module + factory calibrated</t>
+  </si>
+  <si>
+    <t>Gsync module</t>
+  </si>
+  <si>
+    <t>Gsync module + 3 year burn in warranty + glossy</t>
+  </si>
+  <si>
+    <t>Gsync module + Use at 500hz without VRR even if FPS is low for optimal performance</t>
+  </si>
+  <si>
+    <t>Asus XB273U F</t>
+  </si>
+  <si>
+    <t>Gsync module + slightly cheaper version of PG27AQN</t>
   </si>
 </sst>
 </file>
@@ -1149,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T78"/>
+  <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="Q25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="S75" sqref="S75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1280,7 +1253,7 @@
         <v>26</v>
       </c>
       <c r="S2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T2" t="s">
         <v>31</v>
@@ -1288,7 +1261,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B3">
         <v>7.5</v>
@@ -1318,7 +1291,7 @@
         <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L3" t="s">
         <v>23</v>
@@ -1342,7 +1315,7 @@
         <v>26</v>
       </c>
       <c r="S3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="T3" t="s">
         <v>48</v>
@@ -1404,7 +1377,7 @@
         <v>26</v>
       </c>
       <c r="S4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="T4" t="s">
         <v>33</v>
@@ -1418,7 +1391,7 @@
         <v>6.25</v>
       </c>
       <c r="C5">
-        <v>6.5</v>
+        <v>6.55</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -1466,7 +1439,7 @@
         <v>26</v>
       </c>
       <c r="S5" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="T5" t="s">
         <v>36</v>
@@ -1528,7 +1501,7 @@
         <v>26</v>
       </c>
       <c r="S6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="T6" t="s">
         <v>40</v>
@@ -1536,13 +1509,13 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B7">
         <v>6.25</v>
       </c>
       <c r="C7">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -1590,7 +1563,7 @@
         <v>26</v>
       </c>
       <c r="S7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="T7" t="s">
         <v>41</v>
@@ -1652,7 +1625,7 @@
         <v>26</v>
       </c>
       <c r="S8" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="T8" t="s">
         <v>49</v>
@@ -2094,7 +2067,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="B16">
         <v>5.8</v>
@@ -2210,7 +2183,7 @@
         <v>60</v>
       </c>
       <c r="S17" t="s">
-        <v>48</v>
+        <v>238</v>
       </c>
       <c r="T17" t="s">
         <v>76</v>
@@ -2458,15 +2431,15 @@
         <v>26</v>
       </c>
       <c r="S21" t="s">
+        <v>237</v>
+      </c>
+      <c r="T21" t="s">
         <v>86</v>
-      </c>
-      <c r="T21" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22">
         <v>8.3000000000000007</v>
@@ -2493,7 +2466,7 @@
         <v>20</v>
       </c>
       <c r="J22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K22" t="s">
         <v>45</v>
@@ -2520,15 +2493,15 @@
         <v>26</v>
       </c>
       <c r="S22" t="s">
-        <v>90</v>
+        <v>238</v>
       </c>
       <c r="T22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B23">
         <v>6.3</v>
@@ -2558,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="K23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L23" t="s">
         <v>23</v>
@@ -2585,12 +2558,12 @@
         <v>48</v>
       </c>
       <c r="T23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B24">
         <v>6.3</v>
@@ -2620,7 +2593,7 @@
         <v>21</v>
       </c>
       <c r="K24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L24" t="s">
         <v>39</v>
@@ -2647,12 +2620,12 @@
         <v>48</v>
       </c>
       <c r="T24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2679,10 +2652,10 @@
         <v>28</v>
       </c>
       <c r="J25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L25" t="s">
         <v>39</v>
@@ -2709,12 +2682,12 @@
         <v>48</v>
       </c>
       <c r="T25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B26">
         <v>5.8</v>
@@ -2744,7 +2717,7 @@
         <v>38</v>
       </c>
       <c r="K26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L26" t="s">
         <v>59</v>
@@ -2753,7 +2726,7 @@
         <v>450</v>
       </c>
       <c r="N26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O26" t="s">
         <v>25</v>
@@ -2768,15 +2741,15 @@
         <v>60</v>
       </c>
       <c r="S26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="T26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B27">
         <v>6.3</v>
@@ -2806,7 +2779,7 @@
         <v>21</v>
       </c>
       <c r="K27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L27" t="s">
         <v>23</v>
@@ -2833,12 +2806,12 @@
         <v>48</v>
       </c>
       <c r="T27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B28">
         <v>5.8</v>
@@ -2871,7 +2844,7 @@
         <v>45</v>
       </c>
       <c r="L28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M28">
         <v>600</v>
@@ -2892,15 +2865,15 @@
         <v>26</v>
       </c>
       <c r="S28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="T28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B29">
         <v>5.8</v>
@@ -2933,7 +2906,7 @@
         <v>45</v>
       </c>
       <c r="L29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M29">
         <v>600</v>
@@ -2957,12 +2930,12 @@
         <v>48</v>
       </c>
       <c r="T29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B30">
         <v>5.8</v>
@@ -3016,15 +2989,15 @@
         <v>26</v>
       </c>
       <c r="S30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="T30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B31">
         <v>6.3</v>
@@ -3054,7 +3027,7 @@
         <v>29</v>
       </c>
       <c r="K31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L31" t="s">
         <v>39</v>
@@ -3078,15 +3051,15 @@
         <v>26</v>
       </c>
       <c r="S31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="T31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -3113,10 +3086,10 @@
         <v>28</v>
       </c>
       <c r="J32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L32" t="s">
         <v>23</v>
@@ -3143,12 +3116,12 @@
         <v>48</v>
       </c>
       <c r="T32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -3175,7 +3148,7 @@
         <v>28</v>
       </c>
       <c r="J33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K33" t="s">
         <v>35</v>
@@ -3202,7 +3175,7 @@
         <v>26</v>
       </c>
       <c r="S33" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T33" t="s">
         <v>48</v>
@@ -3210,7 +3183,7 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -3234,13 +3207,13 @@
         <v>10</v>
       </c>
       <c r="I34" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L34" t="s">
         <v>39</v>
@@ -3264,15 +3237,15 @@
         <v>26</v>
       </c>
       <c r="S34" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="T34" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B35">
         <v>7.5</v>
@@ -3302,7 +3275,7 @@
         <v>44</v>
       </c>
       <c r="K35" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L35" t="s">
         <v>23</v>
@@ -3326,15 +3299,15 @@
         <v>26</v>
       </c>
       <c r="S35" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="T35" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B36">
         <v>7.5</v>
@@ -3364,7 +3337,7 @@
         <v>44</v>
       </c>
       <c r="K36" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L36" t="s">
         <v>23</v>
@@ -3388,15 +3361,15 @@
         <v>26</v>
       </c>
       <c r="S36" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="T36" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B37">
         <v>7.5</v>
@@ -3426,7 +3399,7 @@
         <v>44</v>
       </c>
       <c r="K37" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L37" t="s">
         <v>23</v>
@@ -3450,15 +3423,15 @@
         <v>60</v>
       </c>
       <c r="S37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="T37" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B38">
         <v>6.6</v>
@@ -3485,10 +3458,10 @@
         <v>58</v>
       </c>
       <c r="J38" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K38" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L38" t="s">
         <v>59</v>
@@ -3512,15 +3485,15 @@
         <v>60</v>
       </c>
       <c r="S38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T38" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B39">
         <v>6.6</v>
@@ -3547,10 +3520,10 @@
         <v>58</v>
       </c>
       <c r="J39" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K39" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L39" t="s">
         <v>59</v>
@@ -3574,15 +3547,15 @@
         <v>60</v>
       </c>
       <c r="S39" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="T39" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3609,10 +3582,10 @@
         <v>28</v>
       </c>
       <c r="J40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K40" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L40" t="s">
         <v>39</v>
@@ -3636,15 +3609,15 @@
         <v>26</v>
       </c>
       <c r="S40" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="T40" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -3671,10 +3644,10 @@
         <v>28</v>
       </c>
       <c r="J41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K41" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L41" t="s">
         <v>39</v>
@@ -3698,7 +3671,7 @@
         <v>26</v>
       </c>
       <c r="S41" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="T41" t="s">
         <v>48</v>
@@ -3706,7 +3679,7 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -3733,7 +3706,7 @@
         <v>28</v>
       </c>
       <c r="J42" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K42" t="s">
         <v>45</v>
@@ -3760,15 +3733,15 @@
         <v>26</v>
       </c>
       <c r="S42" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="T42" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -3795,7 +3768,7 @@
         <v>28</v>
       </c>
       <c r="J43" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K43" t="s">
         <v>45</v>
@@ -3822,7 +3795,7 @@
         <v>26</v>
       </c>
       <c r="S43" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="T43" t="s">
         <v>48</v>
@@ -3830,7 +3803,7 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B44">
         <v>8.5</v>
@@ -3863,7 +3836,7 @@
         <v>45</v>
       </c>
       <c r="L44" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M44">
         <v>280</v>
@@ -3884,15 +3857,15 @@
         <v>26</v>
       </c>
       <c r="S44" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="T44" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B45">
         <v>9.5</v>
@@ -3919,10 +3892,10 @@
         <v>43</v>
       </c>
       <c r="J45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K45" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L45" t="s">
         <v>46</v>
@@ -3946,15 +3919,15 @@
         <v>26</v>
       </c>
       <c r="S45" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="T45" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B46">
         <v>8.8000000000000007</v>
@@ -3981,7 +3954,7 @@
         <v>43</v>
       </c>
       <c r="J46" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K46" t="s">
         <v>45</v>
@@ -4008,15 +3981,15 @@
         <v>26</v>
       </c>
       <c r="S46" t="s">
-        <v>197</v>
+        <v>240</v>
       </c>
       <c r="T46" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -4043,7 +4016,7 @@
         <v>20</v>
       </c>
       <c r="J47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K47" t="s">
         <v>45</v>
@@ -4070,15 +4043,15 @@
         <v>26</v>
       </c>
       <c r="S47" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="T47" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -4105,7 +4078,7 @@
         <v>28</v>
       </c>
       <c r="J48" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K48" t="s">
         <v>45</v>
@@ -4132,15 +4105,15 @@
         <v>26</v>
       </c>
       <c r="S48" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="T48" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -4167,7 +4140,7 @@
         <v>28</v>
       </c>
       <c r="J49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K49" t="s">
         <v>45</v>
@@ -4194,15 +4167,15 @@
         <v>26</v>
       </c>
       <c r="S49" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="T49" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -4229,7 +4202,7 @@
         <v>58</v>
       </c>
       <c r="J50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K50" t="s">
         <v>45</v>
@@ -4256,7 +4229,7 @@
         <v>60</v>
       </c>
       <c r="S50" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="T50" t="s">
         <v>48</v>
@@ -4264,7 +4237,7 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -4291,7 +4264,7 @@
         <v>28</v>
       </c>
       <c r="J51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K51" t="s">
         <v>45</v>
@@ -4318,15 +4291,15 @@
         <v>26</v>
       </c>
       <c r="S51" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T51" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -4353,7 +4326,7 @@
         <v>58</v>
       </c>
       <c r="J52" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K52" t="s">
         <v>45</v>
@@ -4380,7 +4353,7 @@
         <v>60</v>
       </c>
       <c r="S52" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="T52" t="s">
         <v>48</v>
@@ -4388,7 +4361,7 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -4415,7 +4388,7 @@
         <v>28</v>
       </c>
       <c r="J53" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K53" t="s">
         <v>45</v>
@@ -4450,7 +4423,7 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4474,16 +4447,16 @@
         <v>8</v>
       </c>
       <c r="I54" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J54" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K54" t="s">
         <v>45</v>
       </c>
       <c r="L54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M54">
         <v>600</v>
@@ -4501,10 +4474,10 @@
         <v>24</v>
       </c>
       <c r="R54" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S54" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T54" t="s">
         <v>48</v>
@@ -4512,7 +4485,7 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -4539,10 +4512,10 @@
         <v>28</v>
       </c>
       <c r="J55" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K55" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L55" t="s">
         <v>23</v>
@@ -4566,15 +4539,15 @@
         <v>26</v>
       </c>
       <c r="S55" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="T55" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4601,7 +4574,7 @@
         <v>28</v>
       </c>
       <c r="J56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K56" t="s">
         <v>45</v>
@@ -4628,7 +4601,7 @@
         <v>26</v>
       </c>
       <c r="S56" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="T56" t="s">
         <v>48</v>
@@ -4636,7 +4609,7 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -4663,10 +4636,10 @@
         <v>28</v>
       </c>
       <c r="J57" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K57" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L57" t="s">
         <v>39</v>
@@ -4690,15 +4663,15 @@
         <v>26</v>
       </c>
       <c r="S57" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="T57" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4722,10 +4695,10 @@
         <v>10</v>
       </c>
       <c r="I58" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J58" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K58" t="s">
         <v>45</v>
@@ -4752,7 +4725,7 @@
         <v>26</v>
       </c>
       <c r="S58" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="T58" t="s">
         <v>48</v>
@@ -4760,7 +4733,7 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B59">
         <v>5.8</v>
@@ -4814,7 +4787,7 @@
         <v>60</v>
       </c>
       <c r="S59" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="T59" t="s">
         <v>48</v>
@@ -4822,7 +4795,7 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -4846,10 +4819,10 @@
         <v>10</v>
       </c>
       <c r="I60" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J60" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K60" t="s">
         <v>45</v>
@@ -4876,15 +4849,15 @@
         <v>26</v>
       </c>
       <c r="S60" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="T60" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B61">
         <v>6.6</v>
@@ -4941,12 +4914,12 @@
         <v>48</v>
       </c>
       <c r="T61" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B62">
         <v>6.25</v>
@@ -5003,12 +4976,12 @@
         <v>48</v>
       </c>
       <c r="T62" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B63">
         <v>6.4</v>
@@ -5041,7 +5014,7 @@
         <v>45</v>
       </c>
       <c r="L63" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M63">
         <v>150</v>
@@ -5062,15 +5035,15 @@
         <v>26</v>
       </c>
       <c r="S63" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="T63" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B64">
         <v>6.3</v>
@@ -5103,10 +5076,10 @@
         <v>45</v>
       </c>
       <c r="L64" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M64">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="N64" t="s">
         <v>47</v>
@@ -5124,15 +5097,15 @@
         <v>26</v>
       </c>
       <c r="S64" t="s">
-        <v>218</v>
+        <v>48</v>
       </c>
       <c r="T64" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B65">
         <v>6.3</v>
@@ -5165,10 +5138,10 @@
         <v>45</v>
       </c>
       <c r="L65" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M65">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="N65" t="s">
         <v>47</v>
@@ -5189,15 +5162,15 @@
         <v>48</v>
       </c>
       <c r="T65" t="s">
-        <v>220</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B66">
-        <v>6.3</v>
+        <v>7.7</v>
       </c>
       <c r="C66">
         <v>6</v>
@@ -5206,34 +5179,34 @@
         <v>2</v>
       </c>
       <c r="E66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F66">
         <v>2</v>
       </c>
       <c r="G66">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H66">
         <v>3</v>
       </c>
       <c r="I66" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="J66" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="K66" t="s">
         <v>45</v>
       </c>
       <c r="L66" t="s">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="M66">
-        <v>190</v>
-      </c>
-      <c r="N66" t="s">
-        <v>47</v>
+        <v>700</v>
+      </c>
+      <c r="N66">
+        <v>5700</v>
       </c>
       <c r="O66" t="s">
         <v>24</v>
@@ -5251,24 +5224,24 @@
         <v>48</v>
       </c>
       <c r="T66" t="s">
-        <v>48</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B67">
-        <v>6.4</v>
+        <v>7.8</v>
       </c>
       <c r="C67">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D67">
         <v>2</v>
       </c>
       <c r="E67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F67">
         <v>2</v>
@@ -5277,28 +5250,28 @@
         <v>5</v>
       </c>
       <c r="H67">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I67" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="J67" t="s">
-        <v>63</v>
+        <v>218</v>
       </c>
       <c r="K67" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="L67" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="M67">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="N67">
         <v>5700</v>
       </c>
       <c r="O67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P67" t="s">
         <v>24</v>
@@ -5307,30 +5280,30 @@
         <v>24</v>
       </c>
       <c r="R67" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="S67" t="s">
-        <v>223</v>
+        <v>48</v>
       </c>
       <c r="T67" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B68">
-        <v>6.4</v>
+        <v>7.8</v>
       </c>
       <c r="C68">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D68">
         <v>2</v>
       </c>
       <c r="E68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F68">
         <v>2</v>
@@ -5345,22 +5318,22 @@
         <v>20</v>
       </c>
       <c r="J68" t="s">
-        <v>63</v>
+        <v>218</v>
       </c>
       <c r="K68" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="L68" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="M68">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="N68">
         <v>5700</v>
       </c>
       <c r="O68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P68" t="s">
         <v>24</v>
@@ -5372,54 +5345,54 @@
         <v>26</v>
       </c>
       <c r="S68" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="T68" t="s">
-        <v>226</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B69">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="C69">
+        <v>9.5</v>
+      </c>
+      <c r="D69">
+        <v>10</v>
+      </c>
+      <c r="E69">
+        <v>7</v>
+      </c>
+      <c r="F69">
         <v>3.5</v>
       </c>
-      <c r="D69">
-        <v>3</v>
-      </c>
-      <c r="E69">
-        <v>2</v>
-      </c>
-      <c r="F69">
-        <v>2</v>
-      </c>
       <c r="G69">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="I69" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="J69" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="K69" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="L69" t="s">
-        <v>46</v>
+        <v>225</v>
       </c>
       <c r="M69">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="N69" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="O69" t="s">
         <v>24</v>
@@ -5428,60 +5401,60 @@
         <v>24</v>
       </c>
       <c r="Q69" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R69" t="s">
         <v>26</v>
       </c>
       <c r="S69" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="T69" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B70">
-        <v>7.7</v>
+        <v>5.8</v>
       </c>
       <c r="C70">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E70">
-        <v>3</v>
+        <v>6.1</v>
       </c>
       <c r="F70">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G70">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I70" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J70" t="s">
-        <v>232</v>
+        <v>38</v>
       </c>
       <c r="K70" t="s">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="L70" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="M70">
-        <v>700</v>
-      </c>
-      <c r="N70">
-        <v>5700</v>
+        <v>900</v>
+      </c>
+      <c r="N70" t="s">
+        <v>30</v>
       </c>
       <c r="O70" t="s">
         <v>24</v>
@@ -5496,18 +5469,18 @@
         <v>26</v>
       </c>
       <c r="S70" t="s">
-        <v>48</v>
+        <v>229</v>
       </c>
       <c r="T70" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B71">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="C71">
         <v>6</v>
@@ -5516,7 +5489,7 @@
         <v>2</v>
       </c>
       <c r="E71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F71">
         <v>2</v>
@@ -5525,22 +5498,22 @@
         <v>5</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I71" t="s">
         <v>20</v>
       </c>
       <c r="J71" t="s">
-        <v>233</v>
+        <v>63</v>
       </c>
       <c r="K71" t="s">
         <v>45</v>
       </c>
       <c r="L71" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="M71">
-        <v>700</v>
+        <v>330</v>
       </c>
       <c r="N71">
         <v>5700</v>
@@ -5558,51 +5531,51 @@
         <v>26</v>
       </c>
       <c r="S71" t="s">
-        <v>48</v>
+        <v>234</v>
       </c>
       <c r="T71" t="s">
-        <v>236</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B72">
-        <v>7.8</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C72">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="D72">
         <v>2</v>
       </c>
       <c r="E72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F72">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G72">
         <v>5</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I72" t="s">
         <v>20</v>
       </c>
       <c r="J72" t="s">
-        <v>233</v>
+        <v>88</v>
       </c>
       <c r="K72" t="s">
         <v>45</v>
       </c>
       <c r="L72" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="M72">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="N72">
         <v>5700</v>
@@ -5620,200 +5593,14 @@
         <v>26</v>
       </c>
       <c r="S72" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="T72" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>239</v>
-      </c>
-      <c r="B73">
-        <v>5</v>
-      </c>
-      <c r="C73">
-        <v>9.5</v>
-      </c>
-      <c r="D73">
-        <v>10</v>
-      </c>
-      <c r="E73">
-        <v>7</v>
-      </c>
-      <c r="F73">
-        <v>3.5</v>
-      </c>
-      <c r="G73">
-        <v>8</v>
-      </c>
-      <c r="H73">
-        <v>1.5</v>
-      </c>
-      <c r="I73" t="s">
-        <v>28</v>
-      </c>
-      <c r="J73" t="s">
-        <v>121</v>
-      </c>
-      <c r="K73" t="s">
-        <v>129</v>
-      </c>
-      <c r="L73" t="s">
-        <v>240</v>
-      </c>
-      <c r="M73">
-        <v>1000</v>
-      </c>
-      <c r="N73" t="s">
-        <v>30</v>
-      </c>
-      <c r="O73" t="s">
-        <v>24</v>
-      </c>
-      <c r="P73" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>25</v>
-      </c>
-      <c r="R73" t="s">
-        <v>26</v>
-      </c>
-      <c r="S73" t="s">
-        <v>246</v>
-      </c>
-      <c r="T73" t="s">
-        <v>241</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>242</v>
-      </c>
-      <c r="B74">
-        <v>5.8</v>
-      </c>
-      <c r="C74">
-        <v>6.2</v>
-      </c>
-      <c r="D74">
-        <v>4</v>
-      </c>
-      <c r="E74">
-        <v>6.1</v>
-      </c>
-      <c r="F74">
-        <v>4</v>
-      </c>
-      <c r="G74">
-        <v>8</v>
-      </c>
-      <c r="H74">
-        <v>8</v>
-      </c>
-      <c r="I74" t="s">
-        <v>28</v>
-      </c>
-      <c r="J74" t="s">
-        <v>38</v>
-      </c>
-      <c r="K74" t="s">
-        <v>243</v>
-      </c>
-      <c r="L74" t="s">
-        <v>23</v>
-      </c>
-      <c r="M74">
-        <v>900</v>
-      </c>
-      <c r="N74" t="s">
-        <v>30</v>
-      </c>
-      <c r="O74" t="s">
-        <v>24</v>
-      </c>
-      <c r="P74" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>24</v>
-      </c>
-      <c r="R74" t="s">
-        <v>26</v>
-      </c>
-      <c r="S74" t="s">
-        <v>244</v>
-      </c>
-      <c r="T74" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>248</v>
-      </c>
-      <c r="B75">
-        <v>6.4</v>
-      </c>
-      <c r="C75">
-        <v>6</v>
-      </c>
-      <c r="D75">
-        <v>2</v>
-      </c>
-      <c r="E75">
-        <v>2</v>
-      </c>
-      <c r="F75">
-        <v>2</v>
-      </c>
-      <c r="G75">
-        <v>5</v>
-      </c>
-      <c r="H75">
-        <v>5</v>
-      </c>
-      <c r="I75" t="s">
-        <v>20</v>
-      </c>
-      <c r="J75" t="s">
-        <v>63</v>
-      </c>
-      <c r="K75" t="s">
-        <v>45</v>
-      </c>
-      <c r="L75" t="s">
-        <v>23</v>
-      </c>
-      <c r="M75">
-        <v>330</v>
-      </c>
-      <c r="N75">
-        <v>5700</v>
-      </c>
-      <c r="O75" t="s">
-        <v>24</v>
-      </c>
-      <c r="P75" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>24</v>
-      </c>
-      <c r="R75" t="s">
-        <v>26</v>
-      </c>
-      <c r="S75" t="s">
-        <v>249</v>
-      </c>
-      <c r="T75" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="E78" s="2"/>
+      <c r="E74" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/monitors.xlsx
+++ b/data/monitors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chandradeep/Desktop/MS/FrogAI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818D88DC-33C5-5447-895C-F1BE4FD7A888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8C3F0E-D59C-EE49-94C6-6E05435E074C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="880" windowWidth="20560" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20560" yWindow="880" windowWidth="20560" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -613,21 +613,6 @@
     <t>Dell AW3423DW</t>
   </si>
   <si>
-    <t>Slightly buggy firmware + reports of coil whine + VRR only works upto 144hz + might have to wait for restock</t>
-  </si>
-  <si>
-    <t>OSD lock ups sometimes + minor VRR+HDR flickering + might have to wait for restock</t>
-  </si>
-  <si>
-    <t>VRR+HDR flickering + might have to wait for restock</t>
-  </si>
-  <si>
-    <t>Slightly buggy firmware + slightly higher contrast than regular IPS + might have to wait for restock</t>
-  </si>
-  <si>
-    <t>Reports of coil whine + might have to wait for restock</t>
-  </si>
-  <si>
     <t>Innocn 27G1S</t>
   </si>
   <si>
@@ -749,6 +734,21 @@
   </si>
   <si>
     <t>Gsync module + slightly cheaper version of PG27AQN</t>
+  </si>
+  <si>
+    <t>VRR+HDR flickering + might have to wait for restock + Type-c hub with 90W charging</t>
+  </si>
+  <si>
+    <t>OSD lock ups sometimes + minor VRR+HDR flickering + Type-c hub with 90W charging + might have to wait for restock</t>
+  </si>
+  <si>
+    <t>Slightly buggy firmware + reports of coil whine + VRR only works upto 144hz + Type-c hub with 90W charging + might have to wait for restock</t>
+  </si>
+  <si>
+    <t>Slightly buggy firmware + slightly higher contrast than regular IPS + Type-c hub with 90W charging + might have to wait for restock</t>
+  </si>
+  <si>
+    <t>Reports of coil whine + Type-c hub with 90W charging + might have to wait for restock</t>
   </si>
 </sst>
 </file>
@@ -1124,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="S75" sqref="S75"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1253,7 +1253,7 @@
         <v>26</v>
       </c>
       <c r="S2" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="T2" t="s">
         <v>31</v>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B3">
         <v>7.5</v>
@@ -1315,7 +1315,7 @@
         <v>26</v>
       </c>
       <c r="S3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="T3" t="s">
         <v>48</v>
@@ -1377,7 +1377,7 @@
         <v>26</v>
       </c>
       <c r="S4" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
       <c r="T4" t="s">
         <v>33</v>
@@ -1439,7 +1439,7 @@
         <v>26</v>
       </c>
       <c r="S5" t="s">
-        <v>197</v>
+        <v>240</v>
       </c>
       <c r="T5" t="s">
         <v>36</v>
@@ -1501,7 +1501,7 @@
         <v>26</v>
       </c>
       <c r="S6" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="T6" t="s">
         <v>40</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B7">
         <v>6.25</v>
@@ -1563,7 +1563,7 @@
         <v>26</v>
       </c>
       <c r="S7" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="T7" t="s">
         <v>41</v>
@@ -1625,7 +1625,7 @@
         <v>26</v>
       </c>
       <c r="S8" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="T8" t="s">
         <v>49</v>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B16">
         <v>5.8</v>
@@ -2183,7 +2183,7 @@
         <v>60</v>
       </c>
       <c r="S17" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="T17" t="s">
         <v>76</v>
@@ -2431,7 +2431,7 @@
         <v>26</v>
       </c>
       <c r="S21" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="T21" t="s">
         <v>86</v>
@@ -2445,7 +2445,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="C22">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -2493,7 +2493,7 @@
         <v>26</v>
       </c>
       <c r="S22" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="T22" t="s">
         <v>89</v>
@@ -2803,7 +2803,7 @@
         <v>26</v>
       </c>
       <c r="S27" t="s">
-        <v>48</v>
+        <v>167</v>
       </c>
       <c r="T27" t="s">
         <v>104</v>
@@ -3361,7 +3361,7 @@
         <v>26</v>
       </c>
       <c r="S36" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="T36" t="s">
         <v>130</v>
@@ -3485,7 +3485,7 @@
         <v>60</v>
       </c>
       <c r="S38" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="T38" t="s">
         <v>135</v>
@@ -3547,7 +3547,7 @@
         <v>60</v>
       </c>
       <c r="S39" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="T39" t="s">
         <v>136</v>
@@ -3871,7 +3871,7 @@
         <v>9.5</v>
       </c>
       <c r="C45">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -3981,7 +3981,7 @@
         <v>26</v>
       </c>
       <c r="S46" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="T46" t="s">
         <v>192</v>
@@ -4857,7 +4857,7 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B61">
         <v>6.6</v>
@@ -4914,12 +4914,12 @@
         <v>48</v>
       </c>
       <c r="T61" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B62">
         <v>6.25</v>
@@ -4976,12 +4976,12 @@
         <v>48</v>
       </c>
       <c r="T62" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B63">
         <v>6.4</v>
@@ -5035,15 +5035,15 @@
         <v>26</v>
       </c>
       <c r="S63" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="T63" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B64">
         <v>6.3</v>
@@ -5100,12 +5100,12 @@
         <v>48</v>
       </c>
       <c r="T64" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B65">
         <v>6.3</v>
@@ -5167,7 +5167,7 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B66">
         <v>7.7</v>
@@ -5194,7 +5194,7 @@
         <v>20</v>
       </c>
       <c r="J66" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K66" t="s">
         <v>45</v>
@@ -5224,12 +5224,12 @@
         <v>48</v>
       </c>
       <c r="T66" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B67">
         <v>7.8</v>
@@ -5256,7 +5256,7 @@
         <v>20</v>
       </c>
       <c r="J67" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="K67" t="s">
         <v>45</v>
@@ -5286,12 +5286,12 @@
         <v>48</v>
       </c>
       <c r="T67" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B68">
         <v>7.8</v>
@@ -5318,7 +5318,7 @@
         <v>20</v>
       </c>
       <c r="J68" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="K68" t="s">
         <v>45</v>
@@ -5345,7 +5345,7 @@
         <v>26</v>
       </c>
       <c r="S68" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="T68" t="s">
         <v>48</v>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B69">
         <v>5</v>
@@ -5386,7 +5386,7 @@
         <v>127</v>
       </c>
       <c r="L69" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M69">
         <v>1000</v>
@@ -5407,15 +5407,15 @@
         <v>26</v>
       </c>
       <c r="S69" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="T69" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B70">
         <v>5.8</v>
@@ -5445,7 +5445,7 @@
         <v>38</v>
       </c>
       <c r="K70" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="L70" t="s">
         <v>23</v>
@@ -5469,15 +5469,15 @@
         <v>26</v>
       </c>
       <c r="S70" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="T70" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B71">
         <v>6.4</v>
@@ -5531,7 +5531,7 @@
         <v>26</v>
       </c>
       <c r="S71" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="T71" t="s">
         <v>54</v>
@@ -5539,7 +5539,7 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B72">
         <v>8.3000000000000007</v>
@@ -5593,7 +5593,7 @@
         <v>26</v>
       </c>
       <c r="S72" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="T72" t="s">
         <v>89</v>

--- a/data/monitors.xlsx
+++ b/data/monitors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chandradeep/Desktop/MS/FrogAI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8C3F0E-D59C-EE49-94C6-6E05435E074C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC80FB4D-CD83-794D-A484-D37A613EF733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20560" yWindow="880" windowWidth="20560" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="244">
   <si>
     <t>name</t>
   </si>
@@ -289,9 +289,6 @@
     <t>360hz</t>
   </si>
   <si>
-    <t>RTINGS,https://www.rtings.com/monitor/reviews/asus/rog-swift-360hz-pg27aqn;Hardware Unboxed,https://www.youtube.com/watch?v=eYFtLBM3a78</t>
-  </si>
-  <si>
     <t>Dell S2722DGM</t>
   </si>
   <si>
@@ -733,9 +730,6 @@
     <t>Asus XB273U F</t>
   </si>
   <si>
-    <t>Gsync module + slightly cheaper version of PG27AQN</t>
-  </si>
-  <si>
     <t>VRR+HDR flickering + might have to wait for restock + Type-c hub with 90W charging</t>
   </si>
   <si>
@@ -749,6 +743,15 @@
   </si>
   <si>
     <t>Reports of coil whine + Type-c hub with 90W charging + might have to wait for restock</t>
+  </si>
+  <si>
+    <t>Gsync module + ULMB2</t>
+  </si>
+  <si>
+    <t>Gsync module + ULMB2 + slightly cheaper version of PG27AQN</t>
+  </si>
+  <si>
+    <t>RTINGS,https://www.rtings.com/monitor/reviews/asus/rog-swift-360hz-pg27aqn;Hardware Unboxed,https://www.youtube.com/watch?v=eYFtLBM3a78;Optimum Tech,https://www.youtube.com/watch?v=3Cykx2GQq4k</t>
   </si>
 </sst>
 </file>
@@ -1124,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+    <sheetView tabSelected="1" topLeftCell="Y53" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AH75" sqref="AH75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1253,7 +1256,7 @@
         <v>26</v>
       </c>
       <c r="S2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="T2" t="s">
         <v>31</v>
@@ -1261,7 +1264,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B3">
         <v>7.5</v>
@@ -1291,7 +1294,7 @@
         <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s">
         <v>23</v>
@@ -1315,7 +1318,7 @@
         <v>26</v>
       </c>
       <c r="S3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T3" t="s">
         <v>48</v>
@@ -1377,7 +1380,7 @@
         <v>26</v>
       </c>
       <c r="S4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="T4" t="s">
         <v>33</v>
@@ -1439,7 +1442,7 @@
         <v>26</v>
       </c>
       <c r="S5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="T5" t="s">
         <v>36</v>
@@ -1501,7 +1504,7 @@
         <v>26</v>
       </c>
       <c r="S6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="T6" t="s">
         <v>40</v>
@@ -1509,7 +1512,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B7">
         <v>6.25</v>
@@ -1563,7 +1566,7 @@
         <v>26</v>
       </c>
       <c r="S7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="T7" t="s">
         <v>41</v>
@@ -1625,7 +1628,7 @@
         <v>26</v>
       </c>
       <c r="S8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T8" t="s">
         <v>49</v>
@@ -2067,7 +2070,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B16">
         <v>5.8</v>
@@ -2183,7 +2186,7 @@
         <v>60</v>
       </c>
       <c r="S17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="T17" t="s">
         <v>76</v>
@@ -2431,7 +2434,7 @@
         <v>26</v>
       </c>
       <c r="S21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="T21" t="s">
         <v>86</v>
@@ -2442,7 +2445,7 @@
         <v>87</v>
       </c>
       <c r="B22">
-        <v>8.3000000000000007</v>
+        <v>9.75</v>
       </c>
       <c r="C22">
         <v>8</v>
@@ -2493,15 +2496,15 @@
         <v>26</v>
       </c>
       <c r="S22" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="T22" t="s">
-        <v>89</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23">
         <v>6.3</v>
@@ -2531,7 +2534,7 @@
         <v>21</v>
       </c>
       <c r="K23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L23" t="s">
         <v>23</v>
@@ -2558,12 +2561,12 @@
         <v>48</v>
       </c>
       <c r="T23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B24">
         <v>6.3</v>
@@ -2593,7 +2596,7 @@
         <v>21</v>
       </c>
       <c r="K24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L24" t="s">
         <v>39</v>
@@ -2620,12 +2623,12 @@
         <v>48</v>
       </c>
       <c r="T24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2652,10 +2655,10 @@
         <v>28</v>
       </c>
       <c r="J25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L25" t="s">
         <v>39</v>
@@ -2682,12 +2685,12 @@
         <v>48</v>
       </c>
       <c r="T25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B26">
         <v>5.8</v>
@@ -2717,7 +2720,7 @@
         <v>38</v>
       </c>
       <c r="K26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L26" t="s">
         <v>59</v>
@@ -2726,7 +2729,7 @@
         <v>450</v>
       </c>
       <c r="N26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O26" t="s">
         <v>25</v>
@@ -2741,15 +2744,15 @@
         <v>60</v>
       </c>
       <c r="S26" t="s">
+        <v>99</v>
+      </c>
+      <c r="T26" t="s">
         <v>100</v>
-      </c>
-      <c r="T26" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B27">
         <v>6.3</v>
@@ -2779,7 +2782,7 @@
         <v>21</v>
       </c>
       <c r="K27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L27" t="s">
         <v>23</v>
@@ -2803,15 +2806,15 @@
         <v>26</v>
       </c>
       <c r="S27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B28">
         <v>5.8</v>
@@ -2844,7 +2847,7 @@
         <v>45</v>
       </c>
       <c r="L28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M28">
         <v>600</v>
@@ -2865,15 +2868,15 @@
         <v>26</v>
       </c>
       <c r="S28" t="s">
+        <v>106</v>
+      </c>
+      <c r="T28" t="s">
         <v>107</v>
-      </c>
-      <c r="T28" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B29">
         <v>5.8</v>
@@ -2906,7 +2909,7 @@
         <v>45</v>
       </c>
       <c r="L29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M29">
         <v>600</v>
@@ -2930,12 +2933,12 @@
         <v>48</v>
       </c>
       <c r="T29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B30">
         <v>5.8</v>
@@ -2989,15 +2992,15 @@
         <v>26</v>
       </c>
       <c r="S30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B31">
         <v>6.3</v>
@@ -3027,7 +3030,7 @@
         <v>29</v>
       </c>
       <c r="K31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L31" t="s">
         <v>39</v>
@@ -3051,15 +3054,15 @@
         <v>26</v>
       </c>
       <c r="S31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -3086,10 +3089,10 @@
         <v>28</v>
       </c>
       <c r="J32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L32" t="s">
         <v>23</v>
@@ -3116,12 +3119,12 @@
         <v>48</v>
       </c>
       <c r="T32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -3148,7 +3151,7 @@
         <v>28</v>
       </c>
       <c r="J33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K33" t="s">
         <v>35</v>
@@ -3175,7 +3178,7 @@
         <v>26</v>
       </c>
       <c r="S33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T33" t="s">
         <v>48</v>
@@ -3183,7 +3186,7 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -3207,13 +3210,13 @@
         <v>10</v>
       </c>
       <c r="I34" t="s">
+        <v>121</v>
+      </c>
+      <c r="J34" t="s">
+        <v>95</v>
+      </c>
+      <c r="K34" t="s">
         <v>122</v>
-      </c>
-      <c r="J34" t="s">
-        <v>96</v>
-      </c>
-      <c r="K34" t="s">
-        <v>123</v>
       </c>
       <c r="L34" t="s">
         <v>39</v>
@@ -3237,15 +3240,15 @@
         <v>26</v>
       </c>
       <c r="S34" t="s">
+        <v>123</v>
+      </c>
+      <c r="T34" t="s">
         <v>124</v>
-      </c>
-      <c r="T34" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B35">
         <v>7.5</v>
@@ -3275,7 +3278,7 @@
         <v>44</v>
       </c>
       <c r="K35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L35" t="s">
         <v>23</v>
@@ -3299,15 +3302,15 @@
         <v>26</v>
       </c>
       <c r="S35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="T35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B36">
         <v>7.5</v>
@@ -3337,7 +3340,7 @@
         <v>44</v>
       </c>
       <c r="K36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L36" t="s">
         <v>23</v>
@@ -3361,15 +3364,15 @@
         <v>26</v>
       </c>
       <c r="S36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="T36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B37">
         <v>7.5</v>
@@ -3399,7 +3402,7 @@
         <v>44</v>
       </c>
       <c r="K37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L37" t="s">
         <v>23</v>
@@ -3423,15 +3426,15 @@
         <v>60</v>
       </c>
       <c r="S37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="T37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B38">
         <v>6.6</v>
@@ -3458,10 +3461,10 @@
         <v>58</v>
       </c>
       <c r="J38" t="s">
+        <v>132</v>
+      </c>
+      <c r="K38" t="s">
         <v>133</v>
-      </c>
-      <c r="K38" t="s">
-        <v>134</v>
       </c>
       <c r="L38" t="s">
         <v>59</v>
@@ -3485,15 +3488,15 @@
         <v>60</v>
       </c>
       <c r="S38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="T38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B39">
         <v>6.6</v>
@@ -3520,10 +3523,10 @@
         <v>58</v>
       </c>
       <c r="J39" t="s">
+        <v>132</v>
+      </c>
+      <c r="K39" t="s">
         <v>133</v>
-      </c>
-      <c r="K39" t="s">
-        <v>134</v>
       </c>
       <c r="L39" t="s">
         <v>59</v>
@@ -3547,15 +3550,15 @@
         <v>60</v>
       </c>
       <c r="S39" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="T39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3582,10 +3585,10 @@
         <v>28</v>
       </c>
       <c r="J40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L40" t="s">
         <v>39</v>
@@ -3609,15 +3612,15 @@
         <v>26</v>
       </c>
       <c r="S40" t="s">
+        <v>137</v>
+      </c>
+      <c r="T40" t="s">
         <v>138</v>
-      </c>
-      <c r="T40" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -3644,10 +3647,10 @@
         <v>28</v>
       </c>
       <c r="J41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L41" t="s">
         <v>39</v>
@@ -3671,7 +3674,7 @@
         <v>26</v>
       </c>
       <c r="S41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T41" t="s">
         <v>48</v>
@@ -3679,7 +3682,7 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -3706,7 +3709,7 @@
         <v>28</v>
       </c>
       <c r="J42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K42" t="s">
         <v>45</v>
@@ -3733,15 +3736,15 @@
         <v>26</v>
       </c>
       <c r="S42" t="s">
+        <v>141</v>
+      </c>
+      <c r="T42" t="s">
         <v>142</v>
-      </c>
-      <c r="T42" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -3768,7 +3771,7 @@
         <v>28</v>
       </c>
       <c r="J43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K43" t="s">
         <v>45</v>
@@ -3795,7 +3798,7 @@
         <v>26</v>
       </c>
       <c r="S43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="T43" t="s">
         <v>48</v>
@@ -3803,7 +3806,7 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B44">
         <v>8.5</v>
@@ -3836,7 +3839,7 @@
         <v>45</v>
       </c>
       <c r="L44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M44">
         <v>280</v>
@@ -3857,15 +3860,15 @@
         <v>26</v>
       </c>
       <c r="S44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="T44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B45">
         <v>9.5</v>
@@ -3895,7 +3898,7 @@
         <v>88</v>
       </c>
       <c r="K45" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L45" t="s">
         <v>46</v>
@@ -3919,15 +3922,15 @@
         <v>26</v>
       </c>
       <c r="S45" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="T45" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B46">
         <v>8.8000000000000007</v>
@@ -3954,7 +3957,7 @@
         <v>43</v>
       </c>
       <c r="J46" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K46" t="s">
         <v>45</v>
@@ -3981,15 +3984,15 @@
         <v>26</v>
       </c>
       <c r="S46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="T46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -4016,7 +4019,7 @@
         <v>20</v>
       </c>
       <c r="J47" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K47" t="s">
         <v>45</v>
@@ -4043,15 +4046,15 @@
         <v>26</v>
       </c>
       <c r="S47" t="s">
+        <v>155</v>
+      </c>
+      <c r="T47" t="s">
         <v>156</v>
-      </c>
-      <c r="T47" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -4078,7 +4081,7 @@
         <v>28</v>
       </c>
       <c r="J48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K48" t="s">
         <v>45</v>
@@ -4105,15 +4108,15 @@
         <v>26</v>
       </c>
       <c r="S48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="T48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -4140,7 +4143,7 @@
         <v>28</v>
       </c>
       <c r="J49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K49" t="s">
         <v>45</v>
@@ -4167,15 +4170,15 @@
         <v>26</v>
       </c>
       <c r="S49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -4202,7 +4205,7 @@
         <v>58</v>
       </c>
       <c r="J50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K50" t="s">
         <v>45</v>
@@ -4229,7 +4232,7 @@
         <v>60</v>
       </c>
       <c r="S50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T50" t="s">
         <v>48</v>
@@ -4237,7 +4240,7 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -4264,7 +4267,7 @@
         <v>28</v>
       </c>
       <c r="J51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K51" t="s">
         <v>45</v>
@@ -4291,15 +4294,15 @@
         <v>26</v>
       </c>
       <c r="S51" t="s">
+        <v>163</v>
+      </c>
+      <c r="T51" t="s">
         <v>164</v>
-      </c>
-      <c r="T51" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -4326,7 +4329,7 @@
         <v>58</v>
       </c>
       <c r="J52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K52" t="s">
         <v>45</v>
@@ -4353,7 +4356,7 @@
         <v>60</v>
       </c>
       <c r="S52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T52" t="s">
         <v>48</v>
@@ -4361,7 +4364,7 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -4388,7 +4391,7 @@
         <v>28</v>
       </c>
       <c r="J53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K53" t="s">
         <v>45</v>
@@ -4423,7 +4426,7 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4447,16 +4450,16 @@
         <v>8</v>
       </c>
       <c r="I54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K54" t="s">
         <v>45</v>
       </c>
       <c r="L54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M54">
         <v>600</v>
@@ -4474,10 +4477,10 @@
         <v>24</v>
       </c>
       <c r="R54" t="s">
+        <v>170</v>
+      </c>
+      <c r="S54" t="s">
         <v>171</v>
-      </c>
-      <c r="S54" t="s">
-        <v>172</v>
       </c>
       <c r="T54" t="s">
         <v>48</v>
@@ -4485,7 +4488,7 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -4512,10 +4515,10 @@
         <v>28</v>
       </c>
       <c r="J55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K55" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L55" t="s">
         <v>23</v>
@@ -4539,15 +4542,15 @@
         <v>26</v>
       </c>
       <c r="S55" t="s">
+        <v>174</v>
+      </c>
+      <c r="T55" t="s">
         <v>175</v>
-      </c>
-      <c r="T55" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4574,7 +4577,7 @@
         <v>28</v>
       </c>
       <c r="J56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K56" t="s">
         <v>45</v>
@@ -4601,7 +4604,7 @@
         <v>26</v>
       </c>
       <c r="S56" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="T56" t="s">
         <v>48</v>
@@ -4609,7 +4612,7 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -4636,10 +4639,10 @@
         <v>28</v>
       </c>
       <c r="J57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K57" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L57" t="s">
         <v>39</v>
@@ -4663,15 +4666,15 @@
         <v>26</v>
       </c>
       <c r="S57" t="s">
+        <v>179</v>
+      </c>
+      <c r="T57" t="s">
         <v>180</v>
-      </c>
-      <c r="T57" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4695,10 +4698,10 @@
         <v>10</v>
       </c>
       <c r="I58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J58" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K58" t="s">
         <v>45</v>
@@ -4725,7 +4728,7 @@
         <v>26</v>
       </c>
       <c r="S58" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T58" t="s">
         <v>48</v>
@@ -4733,7 +4736,7 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B59">
         <v>5.8</v>
@@ -4787,7 +4790,7 @@
         <v>60</v>
       </c>
       <c r="S59" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T59" t="s">
         <v>48</v>
@@ -4795,7 +4798,7 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -4819,10 +4822,10 @@
         <v>10</v>
       </c>
       <c r="I60" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K60" t="s">
         <v>45</v>
@@ -4849,15 +4852,15 @@
         <v>26</v>
       </c>
       <c r="S60" t="s">
+        <v>186</v>
+      </c>
+      <c r="T60" t="s">
         <v>187</v>
-      </c>
-      <c r="T60" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B61">
         <v>6.6</v>
@@ -4914,12 +4917,12 @@
         <v>48</v>
       </c>
       <c r="T61" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B62">
         <v>6.25</v>
@@ -4976,12 +4979,12 @@
         <v>48</v>
       </c>
       <c r="T62" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B63">
         <v>6.4</v>
@@ -5014,7 +5017,7 @@
         <v>45</v>
       </c>
       <c r="L63" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M63">
         <v>150</v>
@@ -5035,15 +5038,15 @@
         <v>26</v>
       </c>
       <c r="S63" t="s">
+        <v>204</v>
+      </c>
+      <c r="T63" t="s">
         <v>205</v>
-      </c>
-      <c r="T63" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B64">
         <v>6.3</v>
@@ -5076,7 +5079,7 @@
         <v>45</v>
       </c>
       <c r="L64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M64">
         <v>200</v>
@@ -5100,12 +5103,12 @@
         <v>48</v>
       </c>
       <c r="T64" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B65">
         <v>6.3</v>
@@ -5138,7 +5141,7 @@
         <v>45</v>
       </c>
       <c r="L65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M65">
         <v>190</v>
@@ -5167,7 +5170,7 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B66">
         <v>7.7</v>
@@ -5194,7 +5197,7 @@
         <v>20</v>
       </c>
       <c r="J66" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K66" t="s">
         <v>45</v>
@@ -5224,12 +5227,12 @@
         <v>48</v>
       </c>
       <c r="T66" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B67">
         <v>7.8</v>
@@ -5256,7 +5259,7 @@
         <v>20</v>
       </c>
       <c r="J67" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K67" t="s">
         <v>45</v>
@@ -5286,12 +5289,12 @@
         <v>48</v>
       </c>
       <c r="T67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B68">
         <v>7.8</v>
@@ -5318,7 +5321,7 @@
         <v>20</v>
       </c>
       <c r="J68" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K68" t="s">
         <v>45</v>
@@ -5345,7 +5348,7 @@
         <v>26</v>
       </c>
       <c r="S68" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T68" t="s">
         <v>48</v>
@@ -5353,7 +5356,7 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B69">
         <v>5</v>
@@ -5380,13 +5383,13 @@
         <v>28</v>
       </c>
       <c r="J69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K69" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L69" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M69">
         <v>1000</v>
@@ -5407,15 +5410,15 @@
         <v>26</v>
       </c>
       <c r="S69" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="T69" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B70">
         <v>5.8</v>
@@ -5445,7 +5448,7 @@
         <v>38</v>
       </c>
       <c r="K70" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L70" t="s">
         <v>23</v>
@@ -5469,15 +5472,15 @@
         <v>26</v>
       </c>
       <c r="S70" t="s">
+        <v>223</v>
+      </c>
+      <c r="T70" t="s">
         <v>224</v>
-      </c>
-      <c r="T70" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B71">
         <v>6.4</v>
@@ -5531,7 +5534,7 @@
         <v>26</v>
       </c>
       <c r="S71" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T71" t="s">
         <v>54</v>
@@ -5539,13 +5542,13 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B72">
-        <v>8.3000000000000007</v>
+        <v>9.75</v>
       </c>
       <c r="C72">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -5593,10 +5596,10 @@
         <v>26</v>
       </c>
       <c r="S72" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="T72" t="s">
-        <v>89</v>
+        <v>243</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">

--- a/data/monitors.xlsx
+++ b/data/monitors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chandradeep/Desktop/MS/FrogAI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC80FB4D-CD83-794D-A484-D37A613EF733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718C9F78-07C2-264A-92F1-983FE8EC657A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20560" yWindow="880" windowWidth="20560" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1127,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y53" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AH75" sqref="AH75"/>
+    <sheetView tabSelected="1" topLeftCell="C47" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M76" sqref="M76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5578,7 +5578,7 @@
         <v>23</v>
       </c>
       <c r="M72">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="N72">
         <v>5700</v>

--- a/data/monitors.xlsx
+++ b/data/monitors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chandradeep/Desktop/MS/FrogAI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718C9F78-07C2-264A-92F1-983FE8EC657A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA7AE4B-0AA7-ED49-9D84-7AD46E46AA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20560" yWindow="880" windowWidth="20560" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="243">
   <si>
     <t>name</t>
   </si>
@@ -595,6 +595,9 @@
     <t>Heavy matte coating + low ppi + burn in risk</t>
   </si>
   <si>
+    <t>3 year burn in warranty + glossy</t>
+  </si>
+  <si>
     <t>Linus Tech Tips,https://www.youtube.com/watch?v=Ewo8tt6bgZU;RTINGS,https://www.rtings.com/monitor/reviews/dell/alienware-aw2524h</t>
   </si>
   <si>
@@ -616,9 +619,6 @@
     <t>Needs to be warmed up for best motion performance</t>
   </si>
   <si>
-    <t>Broken HDR + 3 year burn in warranty + glossy</t>
-  </si>
-  <si>
     <t>LG 32GP850</t>
   </si>
   <si>
@@ -698,9 +698,6 @@
   </si>
   <si>
     <t>Burn-in risk + glossy</t>
-  </si>
-  <si>
-    <t>Broken HDR + heavy matte coating + burn in risk</t>
   </si>
   <si>
     <t>MSI G274QPF-QD</t>
@@ -1127,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C47" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M76" sqref="M76"/>
+    <sheetView tabSelected="1" topLeftCell="M2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="S40" sqref="S40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1256,7 +1253,7 @@
         <v>26</v>
       </c>
       <c r="S2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="T2" t="s">
         <v>31</v>
@@ -1264,7 +1261,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B3">
         <v>7.5</v>
@@ -1318,7 +1315,7 @@
         <v>26</v>
       </c>
       <c r="S3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="T3" t="s">
         <v>48</v>
@@ -1380,7 +1377,7 @@
         <v>26</v>
       </c>
       <c r="S4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T4" t="s">
         <v>33</v>
@@ -1442,7 +1439,7 @@
         <v>26</v>
       </c>
       <c r="S5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T5" t="s">
         <v>36</v>
@@ -1504,7 +1501,7 @@
         <v>26</v>
       </c>
       <c r="S6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="T6" t="s">
         <v>40</v>
@@ -1566,7 +1563,7 @@
         <v>26</v>
       </c>
       <c r="S7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T7" t="s">
         <v>41</v>
@@ -1628,7 +1625,7 @@
         <v>26</v>
       </c>
       <c r="S8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T8" t="s">
         <v>49</v>
@@ -2070,7 +2067,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B16">
         <v>5.8</v>
@@ -2186,7 +2183,7 @@
         <v>60</v>
       </c>
       <c r="S17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="T17" t="s">
         <v>76</v>
@@ -2434,7 +2431,7 @@
         <v>26</v>
       </c>
       <c r="S21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="T21" t="s">
         <v>86</v>
@@ -2496,10 +2493,10 @@
         <v>26</v>
       </c>
       <c r="S22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="T22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
@@ -3358,13 +3355,13 @@
         <v>24</v>
       </c>
       <c r="Q36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R36" t="s">
         <v>26</v>
       </c>
       <c r="S36" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="T36" t="s">
         <v>129</v>
@@ -3434,7 +3431,7 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B38">
         <v>6.6</v>
@@ -3482,13 +3479,13 @@
         <v>25</v>
       </c>
       <c r="Q38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R38" t="s">
         <v>60</v>
       </c>
       <c r="S38" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="T38" t="s">
         <v>134</v>
@@ -3496,7 +3493,7 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B39">
         <v>6.6</v>
@@ -3550,7 +3547,7 @@
         <v>60</v>
       </c>
       <c r="S39" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="T39" t="s">
         <v>135</v>
@@ -3860,7 +3857,7 @@
         <v>26</v>
       </c>
       <c r="S44" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T44" t="s">
         <v>147</v>
@@ -3922,7 +3919,7 @@
         <v>26</v>
       </c>
       <c r="S45" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T45" t="s">
         <v>150</v>
@@ -3984,10 +3981,10 @@
         <v>26</v>
       </c>
       <c r="S46" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="T46" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
@@ -5480,7 +5477,7 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B71">
         <v>6.4</v>
@@ -5534,7 +5531,7 @@
         <v>26</v>
       </c>
       <c r="S71" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T71" t="s">
         <v>54</v>
@@ -5542,7 +5539,7 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B72">
         <v>9.75</v>
@@ -5596,10 +5593,10 @@
         <v>26</v>
       </c>
       <c r="S72" t="s">
+        <v>241</v>
+      </c>
+      <c r="T72" t="s">
         <v>242</v>
-      </c>
-      <c r="T72" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">

--- a/data/monitors.xlsx
+++ b/data/monitors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chandradeep/Desktop/MS/FrogAI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA7AE4B-0AA7-ED49-9D84-7AD46E46AA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879398CA-686B-2047-9CB9-1FB94B56084C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20560" yWindow="880" windowWidth="20560" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:T74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="S40" sqref="S40"/>
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
